--- a/src/test/resources/showcase/artifact/script/base-showcase-macro.xlsx
+++ b/src/test/resources/showcase/artifact/script/base-showcase-macro.xlsx
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2904" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3742" uniqueCount="417">
   <si>
     <t>description</t>
   </si>
@@ -1316,7 +1316,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="80">
+  <fonts count="104">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1821,8 +1821,160 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="129">
+  <fills count="171">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2549,8 +2701,246 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="122">
+  <borders count="162">
     <border>
       <left/>
       <right/>
@@ -3737,13 +4127,401 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="115">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -3986,40 +4764,112 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="67" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="110" borderId="109" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="109" fillId="110" fontId="68" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="69" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="113" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="113" fontId="70" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="71" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="72" fillId="116" borderId="113" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="113" fillId="116" fontId="72" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="73" fillId="119" borderId="117" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="117" fillId="119" fontId="73" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="74" fillId="122" borderId="121" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="121" fillId="122" fontId="74" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="75" fillId="122" borderId="121" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="121" fillId="122" fontId="75" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="76" fillId="125" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="125" fontId="76" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="77" fillId="128" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="128" fontId="77" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="78" fillId="125" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="125" fontId="78" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="79" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="129" fillId="131" fontId="80" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="81" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="134" fontId="82" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="83" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="133" fillId="137" fontId="84" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="137" fillId="140" fontId="85" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="141" fillId="143" fontId="86" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="141" fillId="143" fontId="87" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="146" fontId="88" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="149" fontId="89" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="146" fontId="90" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="91" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="152" borderId="149" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="155" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="158" borderId="153" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="97" fillId="161" borderId="157" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="164" borderId="161" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="164" borderId="161" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="167" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="170" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="167" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/src/test/resources/showcase/artifact/script/base-showcase-macro.xlsx
+++ b/src/test/resources/showcase/artifact/script/base-showcase-macro.xlsx
@@ -17,7 +17,7 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$C$2:$C$31</definedName>
+    <definedName name="base">'#system'!$C$2:$C$32</definedName>
     <definedName name="csv">'#system'!$D$2:$D$4</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3742" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4162" uniqueCount="419">
   <si>
     <t>description</t>
   </si>
@@ -1309,6 +1309,12 @@
   </si>
   <si>
     <t>assertBetween(num,min,max)</t>
+  </si>
+  <si>
+    <t>clear(vars)</t>
+  </si>
+  <si>
+    <t>send(profile,to,subject,body)</t>
   </si>
 </sst>
 </file>
@@ -1316,7 +1322,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="104">
+  <fonts count="116">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1973,8 +1979,84 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="171">
+  <fills count="192">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2939,8 +3021,127 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="162">
+  <borders count="182">
     <border>
       <left/>
       <right/>
@@ -4515,13 +4716,207 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="127">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -4836,40 +5231,76 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="91" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="92" fillId="152" borderId="149" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="149" fillId="152" fontId="92" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="93" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="93" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="94" fillId="155" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="155" fontId="94" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="95" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="95" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="96" fillId="158" borderId="153" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="153" fillId="158" fontId="96" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="97" fillId="161" borderId="157" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="157" fillId="161" fontId="97" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="98" fillId="164" borderId="161" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="161" fillId="164" fontId="98" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="99" fillId="164" borderId="161" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="161" fillId="164" fontId="99" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="100" fillId="167" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="167" fontId="100" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="101" fillId="170" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="170" fontId="101" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="102" fillId="167" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="167" fontId="102" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="103" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="103" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="104" fillId="173" borderId="169" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="106" fillId="176" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="107" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="108" fillId="179" borderId="173" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="109" fillId="182" borderId="177" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="110" fillId="185" borderId="181" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="111" fillId="185" borderId="181" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="112" fillId="188" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="113" fillId="191" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="114" fillId="188" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="115" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5282,7 +5713,7 @@
         <v>78</v>
       </c>
       <c r="L2" t="s">
-        <v>190</v>
+        <v>418</v>
       </c>
       <c r="M2" t="s">
         <v>416</v>
@@ -5868,7 +6299,7 @@
         <v>404</v>
       </c>
       <c r="C16" t="s">
-        <v>52</v>
+        <v>417</v>
       </c>
       <c r="E16" t="s">
         <v>321</v>
@@ -5891,7 +6322,7 @@
         <v>362</v>
       </c>
       <c r="C17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" t="s">
         <v>81</v>
@@ -5908,7 +6339,7 @@
         <v>400</v>
       </c>
       <c r="C18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E18" t="s">
         <v>82</v>
@@ -5925,7 +6356,7 @@
         <v>46</v>
       </c>
       <c r="C19" t="s">
-        <v>324</v>
+        <v>54</v>
       </c>
       <c r="E19" t="s">
         <v>299</v>
@@ -5942,7 +6373,7 @@
         <v>47</v>
       </c>
       <c r="C20" t="s">
-        <v>55</v>
+        <v>324</v>
       </c>
       <c r="E20" t="s">
         <v>300</v>
@@ -5959,7 +6390,7 @@
         <v>48</v>
       </c>
       <c r="C21" t="s">
-        <v>218</v>
+        <v>55</v>
       </c>
       <c r="E21" t="s">
         <v>301</v>
@@ -5976,7 +6407,7 @@
         <v>49</v>
       </c>
       <c r="C22" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E22" t="s">
         <v>302</v>
@@ -5990,7 +6421,7 @@
         <v>220</v>
       </c>
       <c r="C23" t="s">
-        <v>56</v>
+        <v>219</v>
       </c>
       <c r="E23" t="s">
         <v>293</v>
@@ -6001,7 +6432,7 @@
     </row>
     <row r="24">
       <c r="C24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E24" t="s">
         <v>282</v>
@@ -6012,7 +6443,7 @@
     </row>
     <row r="25">
       <c r="C25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E25" t="s">
         <v>68</v>
@@ -6023,7 +6454,7 @@
     </row>
     <row r="26">
       <c r="C26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E26" t="s">
         <v>285</v>
@@ -6034,7 +6465,7 @@
     </row>
     <row r="27">
       <c r="C27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E27" t="s">
         <v>269</v>
@@ -6045,7 +6476,7 @@
     </row>
     <row r="28">
       <c r="C28" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E28" t="s">
         <v>286</v>
@@ -6056,7 +6487,7 @@
     </row>
     <row r="29">
       <c r="C29" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E29" t="s">
         <v>287</v>
@@ -6067,7 +6498,7 @@
     </row>
     <row r="30">
       <c r="C30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E30" t="s">
         <v>210</v>
@@ -6077,6 +6508,9 @@
       </c>
     </row>
     <row r="31">
+      <c r="C31" t="s">
+        <v>63</v>
+      </c>
       <c r="E31" t="s">
         <v>278</v>
       </c>

--- a/src/test/resources/showcase/artifact/script/base-showcase-macro.xlsx
+++ b/src/test/resources/showcase/artifact/script/base-showcase-macro.xlsx
@@ -34,16 +34,17 @@
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
     <definedName name="number">'#system'!$M$2:$M$14</definedName>
     <definedName name="pdf">'#system'!$N$2:$N$16</definedName>
-    <definedName name="rdbms">'#system'!$O$2:$O$6</definedName>
-    <definedName name="ssh">'#system'!$Q$2:$Q$9</definedName>
-    <definedName name="target">'#system'!$A$2:$A$23</definedName>
-    <definedName name="web">'#system'!$S$2:$S$108</definedName>
-    <definedName name="webalert">'#system'!$T$2:$T$6</definedName>
-    <definedName name="webcookie">'#system'!$U$2:$U$8</definedName>
-    <definedName name="ws">'#system'!$V$2:$V$16</definedName>
-    <definedName name="xml">'#system'!$W$2:$W$11</definedName>
-    <definedName name="step">'#system'!$R$2:$R$4</definedName>
+    <definedName name="rdbms">'#system'!$O$2:$O$7</definedName>
+    <definedName name="ssh">'#system'!$R$2:$R$9</definedName>
+    <definedName name="target">'#system'!$A$2:$A$24</definedName>
+    <definedName name="web">'#system'!$T$2:$T$108</definedName>
+    <definedName name="webalert">'#system'!$U$2:$U$6</definedName>
+    <definedName name="webcookie">'#system'!$V$2:$V$8</definedName>
+    <definedName name="ws">'#system'!$W$2:$W$16</definedName>
+    <definedName name="xml">'#system'!$X$2:$X$11</definedName>
+    <definedName name="step">'#system'!$S$2:$S$4</definedName>
     <definedName name="redis">'#system'!$P$2:$P$10</definedName>
+    <definedName name="sound">'#system'!$Q$2:$Q$6</definedName>
   </definedNames>
   <calcPr calcId="150000"/>
   <extLst>
@@ -58,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4162" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5444" uniqueCount="427">
   <si>
     <t>description</t>
   </si>
@@ -1315,6 +1316,30 @@
   </si>
   <si>
     <t>send(profile,to,subject,body)</t>
+  </si>
+  <si>
+    <t>sound</t>
+  </si>
+  <si>
+    <t>saveResults(db,sqls,outputDir)</t>
+  </si>
+  <si>
+    <t>lazer(repeats)</t>
+  </si>
+  <si>
+    <t>play(audio)</t>
+  </si>
+  <si>
+    <t>speak(profile,text)</t>
+  </si>
+  <si>
+    <t>warp(repeats)</t>
+  </si>
+  <si>
+    <t>speak(text)</t>
+  </si>
+  <si>
+    <t>speakNoWait(text)</t>
   </si>
 </sst>
 </file>
@@ -1322,7 +1347,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="116">
+  <fonts count="152">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2055,8 +2080,236 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="192">
+  <fills count="255">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3140,8 +3393,365 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="182">
+  <borders count="242">
     <border>
       <left/>
       <right/>
@@ -4910,13 +5520,595 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="163">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -5267,40 +6459,148 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="103" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="104" fillId="173" borderId="169" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="169" fillId="173" fontId="104" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="105" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="105" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="106" fillId="176" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="176" fontId="106" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="107" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="107" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="108" fillId="179" borderId="173" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="173" fillId="179" fontId="108" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="109" fillId="182" borderId="177" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="177" fillId="182" fontId="109" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="110" fillId="185" borderId="181" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="181" fillId="185" fontId="110" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="111" fillId="185" borderId="181" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="181" fillId="185" fontId="111" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="112" fillId="188" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="188" fontId="112" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="113" fillId="191" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="191" fontId="113" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="114" fillId="188" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="188" fontId="114" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="115" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="115" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="189" fillId="194" fontId="116" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="117" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="197" fontId="118" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="119" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="193" fillId="200" fontId="120" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="197" fillId="203" fontId="121" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="201" fillId="206" fontId="122" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="201" fillId="206" fontId="123" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="209" fontId="124" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="212" fontId="125" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="209" fontId="126" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="127" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="209" fillId="215" fontId="128" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="129" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="218" fontId="130" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="131" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="213" fillId="221" fontId="132" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="217" fillId="224" fontId="133" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="221" fillId="227" fontId="134" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="221" fillId="227" fontId="135" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="230" fontId="136" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="233" fontId="137" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="230" fontId="138" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="139" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="140" fillId="236" borderId="229" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="141" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="142" fillId="239" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="143" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="144" fillId="242" borderId="233" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="145" fillId="245" borderId="237" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="146" fillId="248" borderId="241" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="147" fillId="248" borderId="241" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="148" fillId="251" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="149" fillId="254" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="150" fillId="251" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="151" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5598,7 +6898,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X108"/>
+  <dimension ref="A1:Y108"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125"/>
   </sheetViews>
@@ -5657,24 +6957,27 @@
         <v>404</v>
       </c>
       <c r="Q1" t="s">
+        <v>419</v>
+      </c>
+      <c r="R1" t="s">
         <v>362</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>400</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>46</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>47</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>48</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>49</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>220</v>
       </c>
     </row>
@@ -5728,24 +7031,27 @@
         <v>405</v>
       </c>
       <c r="Q2" t="s">
+        <v>421</v>
+      </c>
+      <c r="R2" t="s">
         <v>386</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>401</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>89</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>164</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>169</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>176</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>221</v>
       </c>
     </row>
@@ -5796,24 +7102,27 @@
         <v>406</v>
       </c>
       <c r="Q3" t="s">
+        <v>422</v>
+      </c>
+      <c r="R3" t="s">
         <v>387</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>402</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>90</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>165</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>170</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>369</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>222</v>
       </c>
     </row>
@@ -5861,24 +7170,27 @@
         <v>407</v>
       </c>
       <c r="Q4" t="s">
+        <v>425</v>
+      </c>
+      <c r="R4" t="s">
         <v>363</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>403</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>357</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>166</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>171</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>177</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>223</v>
       </c>
     </row>
@@ -5920,21 +7232,24 @@
         <v>408</v>
       </c>
       <c r="Q5" t="s">
+        <v>426</v>
+      </c>
+      <c r="R5" t="s">
         <v>364</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>358</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>167</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>172</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>178</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>224</v>
       </c>
     </row>
@@ -5973,21 +7288,24 @@
         <v>409</v>
       </c>
       <c r="Q6" t="s">
+        <v>424</v>
+      </c>
+      <c r="R6" t="s">
         <v>366</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>91</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>168</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>173</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>179</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>225</v>
       </c>
     </row>
@@ -6019,22 +7337,25 @@
       <c r="N7" t="s">
         <v>237</v>
       </c>
+      <c r="O7" t="s">
+        <v>420</v>
+      </c>
       <c r="P7" t="s">
         <v>410</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>365</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>92</v>
       </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>174</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>180</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>226</v>
       </c>
     </row>
@@ -6069,19 +7390,19 @@
       <c r="P8" t="s">
         <v>411</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>367</v>
       </c>
-      <c r="S8" t="s">
+      <c r="T8" t="s">
         <v>93</v>
       </c>
-      <c r="U8" t="s">
+      <c r="V8" t="s">
         <v>175</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>181</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>227</v>
       </c>
     </row>
@@ -6113,16 +7434,16 @@
       <c r="P9" t="s">
         <v>412</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>368</v>
       </c>
-      <c r="S9" t="s">
+      <c r="T9" t="s">
         <v>203</v>
       </c>
-      <c r="V9" t="s">
+      <c r="W9" t="s">
         <v>182</v>
       </c>
-      <c r="W9" t="s">
+      <c r="X9" t="s">
         <v>228</v>
       </c>
     </row>
@@ -6151,13 +7472,13 @@
       <c r="P10" t="s">
         <v>413</v>
       </c>
-      <c r="S10" t="s">
+      <c r="T10" t="s">
         <v>260</v>
       </c>
-      <c r="V10" t="s">
+      <c r="W10" t="s">
         <v>183</v>
       </c>
-      <c r="W10" t="s">
+      <c r="X10" t="s">
         <v>229</v>
       </c>
     </row>
@@ -6183,13 +7504,13 @@
       <c r="N11" t="s">
         <v>241</v>
       </c>
-      <c r="S11" t="s">
+      <c r="T11" t="s">
         <v>261</v>
       </c>
-      <c r="V11" t="s">
+      <c r="W11" t="s">
         <v>262</v>
       </c>
-      <c r="W11" t="s">
+      <c r="X11" t="s">
         <v>230</v>
       </c>
     </row>
@@ -6212,10 +7533,10 @@
       <c r="N12" t="s">
         <v>242</v>
       </c>
-      <c r="S12" t="s">
+      <c r="T12" t="s">
         <v>94</v>
       </c>
-      <c r="V12" t="s">
+      <c r="W12" t="s">
         <v>184</v>
       </c>
     </row>
@@ -6238,10 +7559,10 @@
       <c r="N13" t="s">
         <v>247</v>
       </c>
-      <c r="S13" t="s">
+      <c r="T13" t="s">
         <v>329</v>
       </c>
-      <c r="V13" t="s">
+      <c r="W13" t="s">
         <v>185</v>
       </c>
     </row>
@@ -6264,10 +7585,10 @@
       <c r="N14" t="s">
         <v>243</v>
       </c>
-      <c r="S14" t="s">
+      <c r="T14" t="s">
         <v>95</v>
       </c>
-      <c r="V14" t="s">
+      <c r="W14" t="s">
         <v>186</v>
       </c>
     </row>
@@ -6287,10 +7608,10 @@
       <c r="N15" t="s">
         <v>244</v>
       </c>
-      <c r="S15" t="s">
+      <c r="T15" t="s">
         <v>96</v>
       </c>
-      <c r="V15" t="s">
+      <c r="W15" t="s">
         <v>187</v>
       </c>
     </row>
@@ -6310,16 +7631,16 @@
       <c r="N16" t="s">
         <v>245</v>
       </c>
-      <c r="S16" t="s">
+      <c r="T16" t="s">
         <v>67</v>
       </c>
-      <c r="V16" t="s">
+      <c r="W16" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>362</v>
+        <v>419</v>
       </c>
       <c r="C17" t="s">
         <v>52</v>
@@ -6330,13 +7651,13 @@
       <c r="I17" t="s">
         <v>37</v>
       </c>
-      <c r="S17" t="s">
+      <c r="T17" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>400</v>
+        <v>362</v>
       </c>
       <c r="C18" t="s">
         <v>53</v>
@@ -6347,13 +7668,13 @@
       <c r="I18" t="s">
         <v>397</v>
       </c>
-      <c r="S18" t="s">
+      <c r="T18" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>46</v>
+        <v>400</v>
       </c>
       <c r="C19" t="s">
         <v>54</v>
@@ -6364,13 +7685,13 @@
       <c r="I19" t="s">
         <v>77</v>
       </c>
-      <c r="S19" t="s">
+      <c r="T19" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C20" t="s">
         <v>324</v>
@@ -6381,13 +7702,13 @@
       <c r="I20" t="s">
         <v>38</v>
       </c>
-      <c r="S20" t="s">
+      <c r="T20" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C21" t="s">
         <v>55</v>
@@ -6398,13 +7719,13 @@
       <c r="I21" t="s">
         <v>39</v>
       </c>
-      <c r="S21" t="s">
+      <c r="T21" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C22" t="s">
         <v>218</v>
@@ -6412,13 +7733,13 @@
       <c r="E22" t="s">
         <v>302</v>
       </c>
-      <c r="S22" t="s">
+      <c r="T22" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>220</v>
+        <v>49</v>
       </c>
       <c r="C23" t="s">
         <v>219</v>
@@ -6426,18 +7747,21 @@
       <c r="E23" t="s">
         <v>293</v>
       </c>
-      <c r="S23" t="s">
+      <c r="T23" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="s">
+        <v>220</v>
+      </c>
       <c r="C24" t="s">
         <v>56</v>
       </c>
       <c r="E24" t="s">
         <v>282</v>
       </c>
-      <c r="S24" t="s">
+      <c r="T24" t="s">
         <v>104</v>
       </c>
     </row>
@@ -6448,7 +7772,7 @@
       <c r="E25" t="s">
         <v>68</v>
       </c>
-      <c r="S25" t="s">
+      <c r="T25" t="s">
         <v>105</v>
       </c>
     </row>
@@ -6459,7 +7783,7 @@
       <c r="E26" t="s">
         <v>285</v>
       </c>
-      <c r="S26" t="s">
+      <c r="T26" t="s">
         <v>106</v>
       </c>
     </row>
@@ -6470,7 +7794,7 @@
       <c r="E27" t="s">
         <v>269</v>
       </c>
-      <c r="S27" t="s">
+      <c r="T27" t="s">
         <v>330</v>
       </c>
     </row>
@@ -6481,7 +7805,7 @@
       <c r="E28" t="s">
         <v>286</v>
       </c>
-      <c r="S28" t="s">
+      <c r="T28" t="s">
         <v>107</v>
       </c>
     </row>
@@ -6492,7 +7816,7 @@
       <c r="E29" t="s">
         <v>287</v>
       </c>
-      <c r="S29" t="s">
+      <c r="T29" t="s">
         <v>108</v>
       </c>
     </row>
@@ -6503,7 +7827,7 @@
       <c r="E30" t="s">
         <v>210</v>
       </c>
-      <c r="S30" t="s">
+      <c r="T30" t="s">
         <v>109</v>
       </c>
     </row>
@@ -6514,7 +7838,7 @@
       <c r="E31" t="s">
         <v>278</v>
       </c>
-      <c r="S31" t="s">
+      <c r="T31" t="s">
         <v>110</v>
       </c>
     </row>
@@ -6522,7 +7846,7 @@
       <c r="E32" t="s">
         <v>288</v>
       </c>
-      <c r="S32" t="s">
+      <c r="T32" t="s">
         <v>111</v>
       </c>
     </row>
@@ -6530,7 +7854,7 @@
       <c r="E33" t="s">
         <v>263</v>
       </c>
-      <c r="S33" t="s">
+      <c r="T33" t="s">
         <v>112</v>
       </c>
     </row>
@@ -6538,7 +7862,7 @@
       <c r="E34" t="s">
         <v>333</v>
       </c>
-      <c r="S34" t="s">
+      <c r="T34" t="s">
         <v>204</v>
       </c>
     </row>
@@ -6546,7 +7870,7 @@
       <c r="E35" t="s">
         <v>311</v>
       </c>
-      <c r="S35" t="s">
+      <c r="T35" t="s">
         <v>113</v>
       </c>
     </row>
@@ -6554,7 +7878,7 @@
       <c r="E36" t="s">
         <v>264</v>
       </c>
-      <c r="S36" t="s">
+      <c r="T36" t="s">
         <v>341</v>
       </c>
     </row>
@@ -6562,7 +7886,7 @@
       <c r="E37" t="s">
         <v>312</v>
       </c>
-      <c r="S37" t="s">
+      <c r="T37" t="s">
         <v>399</v>
       </c>
     </row>
@@ -6570,7 +7894,7 @@
       <c r="E38" t="s">
         <v>270</v>
       </c>
-      <c r="S38" t="s">
+      <c r="T38" t="s">
         <v>114</v>
       </c>
     </row>
@@ -6578,7 +7902,7 @@
       <c r="E39" t="s">
         <v>70</v>
       </c>
-      <c r="S39" t="s">
+      <c r="T39" t="s">
         <v>115</v>
       </c>
     </row>
@@ -6586,7 +7910,7 @@
       <c r="E40" t="s">
         <v>206</v>
       </c>
-      <c r="S40" t="s">
+      <c r="T40" t="s">
         <v>116</v>
       </c>
     </row>
@@ -6594,7 +7918,7 @@
       <c r="E41" t="s">
         <v>292</v>
       </c>
-      <c r="S41" t="s">
+      <c r="T41" t="s">
         <v>117</v>
       </c>
     </row>
@@ -6602,7 +7926,7 @@
       <c r="E42" t="s">
         <v>303</v>
       </c>
-      <c r="S42" t="s">
+      <c r="T42" t="s">
         <v>118</v>
       </c>
     </row>
@@ -6610,7 +7934,7 @@
       <c r="E43" t="s">
         <v>304</v>
       </c>
-      <c r="S43" t="s">
+      <c r="T43" t="s">
         <v>119</v>
       </c>
     </row>
@@ -6618,7 +7942,7 @@
       <c r="E44" t="s">
         <v>346</v>
       </c>
-      <c r="S44" t="s">
+      <c r="T44" t="s">
         <v>207</v>
       </c>
     </row>
@@ -6626,7 +7950,7 @@
       <c r="E45" t="s">
         <v>345</v>
       </c>
-      <c r="S45" t="s">
+      <c r="T45" t="s">
         <v>69</v>
       </c>
     </row>
@@ -6634,7 +7958,7 @@
       <c r="E46" t="s">
         <v>205</v>
       </c>
-      <c r="S46" t="s">
+      <c r="T46" t="s">
         <v>120</v>
       </c>
     </row>
@@ -6642,7 +7966,7 @@
       <c r="E47" t="s">
         <v>305</v>
       </c>
-      <c r="S47" t="s">
+      <c r="T47" t="s">
         <v>121</v>
       </c>
     </row>
@@ -6650,7 +7974,7 @@
       <c r="E48" t="s">
         <v>342</v>
       </c>
-      <c r="S48" t="s">
+      <c r="T48" t="s">
         <v>122</v>
       </c>
     </row>
@@ -6658,7 +7982,7 @@
       <c r="E49" t="s">
         <v>373</v>
       </c>
-      <c r="S49" t="s">
+      <c r="T49" t="s">
         <v>123</v>
       </c>
     </row>
@@ -6666,7 +7990,7 @@
       <c r="E50" t="s">
         <v>306</v>
       </c>
-      <c r="S50" t="s">
+      <c r="T50" t="s">
         <v>349</v>
       </c>
     </row>
@@ -6674,7 +7998,7 @@
       <c r="E51" t="s">
         <v>359</v>
       </c>
-      <c r="S51" t="s">
+      <c r="T51" t="s">
         <v>124</v>
       </c>
     </row>
@@ -6682,7 +8006,7 @@
       <c r="E52" t="s">
         <v>334</v>
       </c>
-      <c r="S52" t="s">
+      <c r="T52" t="s">
         <v>125</v>
       </c>
     </row>
@@ -6690,7 +8014,7 @@
       <c r="E53" t="s">
         <v>271</v>
       </c>
-      <c r="S53" t="s">
+      <c r="T53" t="s">
         <v>126</v>
       </c>
     </row>
@@ -6698,7 +8022,7 @@
       <c r="E54" t="s">
         <v>295</v>
       </c>
-      <c r="S54" t="s">
+      <c r="T54" t="s">
         <v>127</v>
       </c>
     </row>
@@ -6706,7 +8030,7 @@
       <c r="E55" t="s">
         <v>296</v>
       </c>
-      <c r="S55" t="s">
+      <c r="T55" t="s">
         <v>128</v>
       </c>
     </row>
@@ -6714,7 +8038,7 @@
       <c r="E56" t="s">
         <v>297</v>
       </c>
-      <c r="S56" t="s">
+      <c r="T56" t="s">
         <v>129</v>
       </c>
     </row>
@@ -6722,7 +8046,7 @@
       <c r="E57" t="s">
         <v>307</v>
       </c>
-      <c r="S57" t="s">
+      <c r="T57" t="s">
         <v>130</v>
       </c>
     </row>
@@ -6730,7 +8054,7 @@
       <c r="E58" t="s">
         <v>316</v>
       </c>
-      <c r="S58" t="s">
+      <c r="T58" t="s">
         <v>208</v>
       </c>
     </row>
@@ -6738,7 +8062,7 @@
       <c r="E59" t="s">
         <v>340</v>
       </c>
-      <c r="S59" t="s">
+      <c r="T59" t="s">
         <v>394</v>
       </c>
     </row>
@@ -6746,7 +8070,7 @@
       <c r="E60" t="s">
         <v>313</v>
       </c>
-      <c r="S60" t="s">
+      <c r="T60" t="s">
         <v>131</v>
       </c>
     </row>
@@ -6754,7 +8078,7 @@
       <c r="E61" t="s">
         <v>314</v>
       </c>
-      <c r="S61" t="s">
+      <c r="T61" t="s">
         <v>132</v>
       </c>
     </row>
@@ -6762,7 +8086,7 @@
       <c r="E62" t="s">
         <v>374</v>
       </c>
-      <c r="S62" t="s">
+      <c r="T62" t="s">
         <v>133</v>
       </c>
     </row>
@@ -6770,7 +8094,7 @@
       <c r="E63" t="s">
         <v>375</v>
       </c>
-      <c r="S63" t="s">
+      <c r="T63" t="s">
         <v>134</v>
       </c>
     </row>
@@ -6778,7 +8102,7 @@
       <c r="E64" t="s">
         <v>348</v>
       </c>
-      <c r="S64" t="s">
+      <c r="T64" t="s">
         <v>191</v>
       </c>
     </row>
@@ -6786,7 +8110,7 @@
       <c r="E65" t="s">
         <v>317</v>
       </c>
-      <c r="S65" t="s">
+      <c r="T65" t="s">
         <v>192</v>
       </c>
     </row>
@@ -6794,7 +8118,7 @@
       <c r="E66" t="s">
         <v>272</v>
       </c>
-      <c r="S66" t="s">
+      <c r="T66" t="s">
         <v>135</v>
       </c>
     </row>
@@ -6802,7 +8126,7 @@
       <c r="E67" t="s">
         <v>356</v>
       </c>
-      <c r="S67" t="s">
+      <c r="T67" t="s">
         <v>136</v>
       </c>
     </row>
@@ -6810,7 +8134,7 @@
       <c r="E68" t="s">
         <v>318</v>
       </c>
-      <c r="S68" t="s">
+      <c r="T68" t="s">
         <v>137</v>
       </c>
     </row>
@@ -6818,7 +8142,7 @@
       <c r="E69" t="s">
         <v>414</v>
       </c>
-      <c r="S69" t="s">
+      <c r="T69" t="s">
         <v>138</v>
       </c>
     </row>
@@ -6826,7 +8150,7 @@
       <c r="E70" t="s">
         <v>308</v>
       </c>
-      <c r="S70" t="s">
+      <c r="T70" t="s">
         <v>139</v>
       </c>
     </row>
@@ -6834,7 +8158,7 @@
       <c r="E71" t="s">
         <v>415</v>
       </c>
-      <c r="S71" t="s">
+      <c r="T71" t="s">
         <v>193</v>
       </c>
     </row>
@@ -6842,7 +8166,7 @@
       <c r="E72" t="s">
         <v>265</v>
       </c>
-      <c r="S72" t="s">
+      <c r="T72" t="s">
         <v>194</v>
       </c>
     </row>
@@ -6850,7 +8174,7 @@
       <c r="E73" t="s">
         <v>347</v>
       </c>
-      <c r="S73" t="s">
+      <c r="T73" t="s">
         <v>195</v>
       </c>
     </row>
@@ -6858,7 +8182,7 @@
       <c r="E74" t="s">
         <v>283</v>
       </c>
-      <c r="S74" t="s">
+      <c r="T74" t="s">
         <v>196</v>
       </c>
     </row>
@@ -6866,7 +8190,7 @@
       <c r="E75" t="s">
         <v>289</v>
       </c>
-      <c r="S75" t="s">
+      <c r="T75" t="s">
         <v>209</v>
       </c>
     </row>
@@ -6874,7 +8198,7 @@
       <c r="E76" t="s">
         <v>294</v>
       </c>
-      <c r="S76" t="s">
+      <c r="T76" t="s">
         <v>140</v>
       </c>
     </row>
@@ -6882,7 +8206,7 @@
       <c r="E77" t="s">
         <v>335</v>
       </c>
-      <c r="S77" t="s">
+      <c r="T77" t="s">
         <v>197</v>
       </c>
     </row>
@@ -6890,7 +8214,7 @@
       <c r="E78" t="s">
         <v>273</v>
       </c>
-      <c r="S78" t="s">
+      <c r="T78" t="s">
         <v>141</v>
       </c>
     </row>
@@ -6898,7 +8222,7 @@
       <c r="E79" t="s">
         <v>284</v>
       </c>
-      <c r="S79" t="s">
+      <c r="T79" t="s">
         <v>198</v>
       </c>
     </row>
@@ -6906,7 +8230,7 @@
       <c r="E80" t="s">
         <v>290</v>
       </c>
-      <c r="S80" t="s">
+      <c r="T80" t="s">
         <v>199</v>
       </c>
     </row>
@@ -6914,7 +8238,7 @@
       <c r="E81" t="s">
         <v>279</v>
       </c>
-      <c r="S81" t="s">
+      <c r="T81" t="s">
         <v>200</v>
       </c>
     </row>
@@ -6922,7 +8246,7 @@
       <c r="E82" t="s">
         <v>274</v>
       </c>
-      <c r="S82" t="s">
+      <c r="T82" t="s">
         <v>201</v>
       </c>
     </row>
@@ -6930,7 +8254,7 @@
       <c r="E83" t="s">
         <v>291</v>
       </c>
-      <c r="S83" t="s">
+      <c r="T83" t="s">
         <v>216</v>
       </c>
     </row>
@@ -6938,7 +8262,7 @@
       <c r="E84" t="s">
         <v>275</v>
       </c>
-      <c r="S84" t="s">
+      <c r="T84" t="s">
         <v>202</v>
       </c>
     </row>
@@ -6946,7 +8270,7 @@
       <c r="E85" t="s">
         <v>276</v>
       </c>
-      <c r="S85" t="s">
+      <c r="T85" t="s">
         <v>142</v>
       </c>
     </row>
@@ -6954,7 +8278,7 @@
       <c r="E86" t="s">
         <v>309</v>
       </c>
-      <c r="S86" t="s">
+      <c r="T86" t="s">
         <v>388</v>
       </c>
     </row>
@@ -6962,7 +8286,7 @@
       <c r="E87" t="s">
         <v>315</v>
       </c>
-      <c r="S87" t="s">
+      <c r="T87" t="s">
         <v>143</v>
       </c>
     </row>
@@ -6970,7 +8294,7 @@
       <c r="E88" t="s">
         <v>298</v>
       </c>
-      <c r="S88" t="s">
+      <c r="T88" t="s">
         <v>144</v>
       </c>
     </row>
@@ -6978,7 +8302,7 @@
       <c r="E89" t="s">
         <v>343</v>
       </c>
-      <c r="S89" t="s">
+      <c r="T89" t="s">
         <v>145</v>
       </c>
     </row>
@@ -6986,7 +8310,7 @@
       <c r="E90" t="s">
         <v>280</v>
       </c>
-      <c r="S90" t="s">
+      <c r="T90" t="s">
         <v>146</v>
       </c>
     </row>
@@ -6994,92 +8318,92 @@
       <c r="E91" t="s">
         <v>281</v>
       </c>
-      <c r="S91" t="s">
+      <c r="T91" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="92">
-      <c r="S92" t="s">
+      <c r="T92" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="93">
-      <c r="S93" t="s">
+      <c r="T93" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="94">
-      <c r="S94" t="s">
+      <c r="T94" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="95">
-      <c r="S95" t="s">
+      <c r="T95" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="96">
-      <c r="S96" t="s">
+      <c r="T96" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="97">
-      <c r="S97" t="s">
+      <c r="T97" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="98">
-      <c r="S98" t="s">
+      <c r="T98" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="99">
-      <c r="S99" t="s">
+      <c r="T99" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="100">
-      <c r="S100" t="s">
+      <c r="T100" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="101">
-      <c r="S101" t="s">
+      <c r="T101" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="102">
-      <c r="S102" t="s">
+      <c r="T102" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="103">
-      <c r="S103" t="s">
+      <c r="T103" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="104">
-      <c r="S104" t="s">
+      <c r="T104" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="105">
-      <c r="S105" t="s">
+      <c r="T105" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="106">
-      <c r="S106" t="s">
+      <c r="T106" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="107">
-      <c r="S107" t="s">
+      <c r="T107" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="108">
-      <c r="S108" t="s">
+      <c r="T108" t="s">
         <v>163</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/base-showcase-macro.xlsx
+++ b/src/test/resources/showcase/artifact/script/base-showcase-macro.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/nexial-core/src/test/resources/showcase/artifact/script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26A679D9-665F-704F-AFE9-51A4E898E88D}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF040F0C-62D2-0044-B062-3E15E493F8D7}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="-10580" windowWidth="38400" windowHeight="10580" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12800" yWindow="440" windowWidth="38400" windowHeight="10580" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="450">
   <si>
     <t>description</t>
   </si>
@@ -1358,6 +1358,64 @@
   </si>
   <si>
     <t>ProceedIf (2 between [1|5])</t>
+  </si>
+  <si>
+    <t>macro-with-repeat</t>
+  </si>
+  <si>
+    <t>step 2: loop start</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>-1</t>
+  </si>
+  <si>
+    <t>counter</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>step 3: check for loop exit</t>
+  </si>
+  <si>
+    <t>step 4: in-loop task</t>
+  </si>
+  <si>
+    <t>step 5: increment loop control</t>
+  </si>
+  <si>
+    <t>step 6: out of loop now / checking</t>
+  </si>
+  <si>
+    <t>step 7: last statement</t>
+  </si>
+  <si>
+    <t>step 1: setup for loop</t>
+  </si>
+  <si>
+    <t>${counter}</t>
+  </si>
+  <si>
+    <t>This is line 6.  We should all done now.. $(sysdate|now|MM/dd/yyyy HH:mm:ss)</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>$(syspath|out|fullpath)/in-macro.log</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$(sysdate|now|yyyy-MM-dd HH:mm:ss) - the counter is now ${counter}
+</t>
+  </si>
+  <si>
+    <t>SkipIf(${counter} &gt; 2)</t>
   </si>
 </sst>
 </file>
@@ -3340,7 +3398,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J8" sqref="J8"/>
+      <selection pane="bottomLeft" activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3349,8 +3407,9 @@
     <col min="2" max="2" width="47.83203125" style="8" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="10.83203125" style="12" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="42.33203125" style="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="26.83203125" style="9" customWidth="1" collapsed="1"/>
-    <col min="6" max="9" width="18.33203125" style="9" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="40.83203125" style="9" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="68.5" style="9" customWidth="1" collapsed="1"/>
+    <col min="7" max="9" width="18.33203125" style="9" customWidth="1" collapsed="1"/>
     <col min="10" max="10" width="28.6640625" style="16" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="11" max="11" width="1.6640625" style="10" customWidth="1" collapsed="1"/>
     <col min="12" max="12" width="12" style="14" customWidth="1" collapsed="1"/>
@@ -3581,12 +3640,24 @@
       <c r="L9" s="13"/>
     </row>
     <row r="10" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
+      <c r="A10" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>437</v>
+      </c>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
@@ -3596,11 +3667,21 @@
     </row>
     <row r="11" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
+      <c r="B11" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>434</v>
+      </c>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
@@ -3610,11 +3691,21 @@
     </row>
     <row r="12" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
+      <c r="B12" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>436</v>
+      </c>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
@@ -3622,27 +3713,51 @@
       <c r="K12" s="2"/>
       <c r="L12" s="13"/>
     </row>
-    <row r="13" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
+      <c r="B13" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>447</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>448</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>446</v>
+      </c>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
-      <c r="J13" s="15"/>
+      <c r="J13" s="15" t="s">
+        <v>449</v>
+      </c>
       <c r="K13" s="2"/>
       <c r="L13" s="13"/>
     </row>
     <row r="14" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
+      <c r="B14" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>437</v>
+      </c>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
@@ -3652,11 +3767,21 @@
     </row>
     <row r="15" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
+      <c r="B15" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>433</v>
+      </c>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
@@ -3666,10 +3791,18 @@
     </row>
     <row r="16" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
+      <c r="B16" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>445</v>
+      </c>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>

--- a/src/test/resources/showcase/artifact/script/base-showcase-macro.xlsx
+++ b/src/test/resources/showcase/artifact/script/base-showcase-macro.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10502"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10513"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/nexial-core/src/test/resources/showcase/artifact/script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF040F0C-62D2-0044-B062-3E15E493F8D7}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55B3D360-E400-DE46-A8B0-10A78870F93C}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12800" yWindow="440" windowWidth="38400" windowHeight="10580" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="-21160" windowWidth="25600" windowHeight="10580" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$C$2:$C$32</definedName>
+    <definedName name="base">'#system'!$C$2:$C$33</definedName>
     <definedName name="csv">'#system'!$D$2:$D$4</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -37,7 +37,7 @@
     <definedName name="pdf">'#system'!$N$2:$N$16</definedName>
     <definedName name="rdbms">'#system'!$O$2:$O$7</definedName>
     <definedName name="redis">'#system'!$P$2:$P$10</definedName>
-    <definedName name="sound">'#system'!$Q$2:$Q$6</definedName>
+    <definedName name="sound">'#system'!$Q$2:$Q$5</definedName>
     <definedName name="ssh">'#system'!$R$2:$R$9</definedName>
     <definedName name="step">'#system'!$S$2:$S$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$24</definedName>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="458">
   <si>
     <t>description</t>
   </si>
@@ -1318,13 +1318,7 @@
     <t>saveResults(db,sqls,outputDir)</t>
   </si>
   <si>
-    <t>lazer(repeats)</t>
-  </si>
-  <si>
     <t>play(audio)</t>
-  </si>
-  <si>
-    <t>warp(repeats)</t>
   </si>
   <si>
     <t>speak(text)</t>
@@ -1416,6 +1410,36 @@
   </si>
   <si>
     <t>SkipIf(${counter} &gt; 2)</t>
+  </si>
+  <si>
+    <t>step 8: not quite… one more loop</t>
+  </si>
+  <si>
+    <t>step 9: check for loop2 exit</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>step 10: in-loop task</t>
+  </si>
+  <si>
+    <t>currently counter is ${counter}</t>
+  </si>
+  <si>
+    <t>step 11: increment loop control</t>
+  </si>
+  <si>
+    <t>All done, good bye!</t>
+  </si>
+  <si>
+    <t>section(steps)</t>
+  </si>
+  <si>
+    <t>laser(repeats)</t>
+  </si>
+  <si>
+    <t>step 12: really, last statement</t>
   </si>
 </sst>
 </file>
@@ -2011,7 +2035,7 @@
         <v>401</v>
       </c>
       <c r="Q2" t="s">
-        <v>417</v>
+        <v>456</v>
       </c>
       <c r="R2" t="s">
         <v>383</v>
@@ -2082,7 +2106,7 @@
         <v>402</v>
       </c>
       <c r="Q3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="R3" t="s">
         <v>384</v>
@@ -2150,7 +2174,7 @@
         <v>403</v>
       </c>
       <c r="Q4" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="R4" t="s">
         <v>360</v>
@@ -2212,7 +2236,7 @@
         <v>404</v>
       </c>
       <c r="Q5" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="R5" t="s">
         <v>361</v>
@@ -2267,9 +2291,6 @@
       <c r="P6" t="s">
         <v>405</v>
       </c>
-      <c r="Q6" t="s">
-        <v>419</v>
-      </c>
       <c r="R6" t="s">
         <v>363</v>
       </c>
@@ -2736,7 +2757,7 @@
         <v>219</v>
       </c>
       <c r="C24" t="s">
-        <v>56</v>
+        <v>455</v>
       </c>
       <c r="E24" t="s">
         <v>281</v>
@@ -2747,7 +2768,7 @@
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E25" t="s">
         <v>68</v>
@@ -2758,7 +2779,7 @@
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E26" t="s">
         <v>284</v>
@@ -2769,7 +2790,7 @@
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E27" t="s">
         <v>268</v>
@@ -2780,7 +2801,7 @@
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E28" t="s">
         <v>285</v>
@@ -2791,7 +2812,7 @@
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E29" t="s">
         <v>286</v>
@@ -2802,7 +2823,7 @@
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E30" t="s">
         <v>209</v>
@@ -2813,7 +2834,7 @@
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C31" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E31" t="s">
         <v>277</v>
@@ -2823,6 +2844,9 @@
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C32" t="s">
+        <v>63</v>
+      </c>
       <c r="E32" t="s">
         <v>287</v>
       </c>
@@ -3397,16 +3421,16 @@
   <dimension ref="A1:O998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J14" sqref="J14"/>
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21" style="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="47.83203125" style="8" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.83203125" style="12" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="42.33203125" style="9" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="17.83203125" style="8" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="29.1640625" style="8" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.6640625" style="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="42.1640625" style="9" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="40.83203125" style="9" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="68.5" style="9" customWidth="1" collapsed="1"/>
     <col min="7" max="9" width="18.33203125" style="9" customWidth="1" collapsed="1"/>
@@ -3481,7 +3505,7 @@
         <v>253</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>9</v>
@@ -3503,7 +3527,7 @@
     <row r="4" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
       <c r="B4" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>9</v>
@@ -3528,7 +3552,7 @@
     <row r="5" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>9</v>
@@ -3550,7 +3574,7 @@
     <row r="6" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
       <c r="B6" s="4" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>9</v>
@@ -3579,20 +3603,20 @@
         <v>61</v>
       </c>
       <c r="E7" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="G7" s="6" t="s">
         <v>426</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="H7" s="6" t="s">
         <v>427</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>428</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>429</v>
       </c>
       <c r="I7" s="6"/>
       <c r="J7" s="15" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="K7" s="2"/>
       <c r="L7" s="13"/>
@@ -3607,7 +3631,7 @@
         <v>388</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
@@ -3641,10 +3665,10 @@
     </row>
     <row r="10" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>9</v>
@@ -3653,10 +3677,10 @@
         <v>55</v>
       </c>
       <c r="E10" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="F10" s="6" t="s">
         <v>435</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>437</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
@@ -3668,7 +3692,7 @@
     <row r="11" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="B11" s="4" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C11" s="11" t="s">
         <v>9</v>
@@ -3677,10 +3701,10 @@
         <v>323</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
@@ -3692,7 +3716,7 @@
     <row r="12" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
       <c r="B12" s="4" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C12" s="11" t="s">
         <v>44</v>
@@ -3701,10 +3725,10 @@
         <v>19</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
@@ -3716,7 +3740,7 @@
     <row r="13" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
       <c r="B13" s="4" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C13" s="11" t="s">
         <v>10</v>
@@ -3725,18 +3749,18 @@
         <v>77</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
       <c r="J13" s="15" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="K13" s="2"/>
       <c r="L13" s="13"/>
@@ -3744,7 +3768,7 @@
     <row r="14" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
       <c r="B14" s="4" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>44</v>
@@ -3753,10 +3777,10 @@
         <v>34</v>
       </c>
       <c r="E14" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="F14" s="6" t="s">
         <v>435</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>437</v>
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
@@ -3768,7 +3792,7 @@
     <row r="15" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" s="4" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C15" s="11" t="s">
         <v>44</v>
@@ -3777,10 +3801,10 @@
         <v>318</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
@@ -3792,7 +3816,7 @@
     <row r="16" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="4" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C16" s="11" t="s">
         <v>9</v>
@@ -3801,7 +3825,7 @@
         <v>62</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
@@ -3813,11 +3837,21 @@
     </row>
     <row r="17" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
+      <c r="B17" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>432</v>
+      </c>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
@@ -3827,11 +3861,21 @@
     </row>
     <row r="18" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
+      <c r="B18" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>450</v>
+      </c>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
@@ -3841,10 +3885,18 @@
     </row>
     <row r="19" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
+      <c r="B19" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>452</v>
+      </c>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
@@ -3855,11 +3907,21 @@
     </row>
     <row r="20" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
+      <c r="B20" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>435</v>
+      </c>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
@@ -3869,10 +3931,18 @@
     </row>
     <row r="21" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
+      <c r="B21" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>454</v>
+      </c>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>

--- a/src/test/resources/showcase/artifact/script/base-showcase-macro.xlsx
+++ b/src/test/resources/showcase/artifact/script/base-showcase-macro.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10513"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/nexial-core/src/test/resources/showcase/artifact/script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55B3D360-E400-DE46-A8B0-10A78870F93C}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{55B3D360-E400-DE46-A8B0-10A78870F93C}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-21160" windowWidth="25600" windowHeight="10580" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="1" tabRatio="500" windowHeight="10580" windowWidth="25600" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-21160"/>
   </bookViews>
   <sheets>
-    <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
-    <sheet name="macros" sheetId="2" r:id="rId2"/>
+    <sheet name="#system" r:id="rId1" sheetId="4" state="hidden"/>
+    <sheet name="macros" r:id="rId2" sheetId="2"/>
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
@@ -37,15 +37,17 @@
     <definedName name="pdf">'#system'!$N$2:$N$16</definedName>
     <definedName name="rdbms">'#system'!$O$2:$O$7</definedName>
     <definedName name="redis">'#system'!$P$2:$P$10</definedName>
-    <definedName name="sound">'#system'!$Q$2:$Q$5</definedName>
-    <definedName name="ssh">'#system'!$R$2:$R$9</definedName>
-    <definedName name="step">'#system'!$S$2:$S$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$24</definedName>
-    <definedName name="web">'#system'!$T$2:$T$108</definedName>
-    <definedName name="webalert">'#system'!$U$2:$U$6</definedName>
-    <definedName name="webcookie">'#system'!$V$2:$V$8</definedName>
-    <definedName name="ws">'#system'!$W$2:$W$16</definedName>
-    <definedName name="xml">'#system'!$X$2:$X$11</definedName>
+    <definedName name="sound">'#system'!$R$2:$R$5</definedName>
+    <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
+    <definedName name="step">'#system'!$T$2:$T$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$26</definedName>
+    <definedName name="web">'#system'!$U$2:$U$108</definedName>
+    <definedName name="webalert">'#system'!$V$2:$V$6</definedName>
+    <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
+    <definedName name="ws">'#system'!$X$2:$X$16</definedName>
+    <definedName name="xml">'#system'!$Z$2:$Z$11</definedName>
+    <definedName name="sms">'#system'!$Q$2:$Q$2</definedName>
+    <definedName name="ws.async">'#system'!$Y$2:$Y$7</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
@@ -65,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1405" uniqueCount="466">
   <si>
     <t>description</t>
   </si>
@@ -1440,13 +1442,38 @@
   </si>
   <si>
     <t>step 12: really, last statement</t>
+  </si>
+  <si>
+    <t>sms</t>
+  </si>
+  <si>
+    <t>sendText(phones,text)</t>
+  </si>
+  <si>
+    <t>ws.async</t>
+  </si>
+  <si>
+    <t>get(url,queryString,output)</t>
+  </si>
+  <si>
+    <t>head(url,output)</t>
+  </si>
+  <si>
+    <t>patch(url,body,output)</t>
+  </si>
+  <si>
+    <t>post(url,body,output)</t>
+  </si>
+  <si>
+    <t>put(url,body,output)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="38" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1500,8 +1527,196 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="57">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1514,8 +1729,314 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="58">
     <border>
       <left/>
       <right/>
@@ -1538,83 +2059,737 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+  <cellXfs count="49">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="9" fillId="5" fontId="8" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="13" fillId="8" fontId="10" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="17" fillId="11" fontId="11" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="14" fontId="13" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="21" fillId="17" fontId="15" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="25" fillId="20" fontId="16" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="29" fillId="23" fontId="17" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="29" fillId="23" fontId="18" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="26" fontId="19" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="29" fontId="20" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="26" fontId="21" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="37" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="41" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="38" borderId="45" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="41" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="44" borderId="49" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="47" borderId="53" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="50" borderId="57" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="50" borderId="57" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="53" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="56" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="53" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="1"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="2"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <mruColors>
       <color rgb="FFB4B4B4"/>
@@ -1644,10 +2819,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1682,7 +2857,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -1717,7 +2892,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -1811,21 +2986,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1842,7 +3017,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1894,24 +3069,24 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X108"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AA108"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0"/>
+    <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="18" width="8.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="18" customWidth="true" width="8.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1961,31 +3136,37 @@
         <v>400</v>
       </c>
       <c r="Q1" t="s">
+        <v>458</v>
+      </c>
+      <c r="R1" t="s">
         <v>415</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>359</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>396</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>46</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>47</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>48</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>49</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
+        <v>460</v>
+      </c>
+      <c r="Z1" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" t="s">
         <v>373</v>
       </c>
@@ -2035,31 +3216,37 @@
         <v>401</v>
       </c>
       <c r="Q2" t="s">
+        <v>459</v>
+      </c>
+      <c r="R2" t="s">
         <v>456</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>383</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>397</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>89</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>164</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>169</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>176</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
+        <v>177</v>
+      </c>
+      <c r="Z2" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -2105,32 +3292,35 @@
       <c r="P3" t="s">
         <v>402</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>417</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>384</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>398</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>90</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>165</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>170</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>366</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
+        <v>461</v>
+      </c>
+      <c r="Z3" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="4">
       <c r="A4" t="s">
         <v>43</v>
       </c>
@@ -2173,32 +3363,35 @@
       <c r="P4" t="s">
         <v>403</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>418</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>360</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>399</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>356</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>166</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>171</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>177</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
+        <v>462</v>
+      </c>
+      <c r="Z4" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -2235,29 +3428,32 @@
       <c r="P5" t="s">
         <v>404</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>419</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>361</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>357</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>167</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>172</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>178</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
+        <v>463</v>
+      </c>
+      <c r="Z5" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -2291,26 +3487,29 @@
       <c r="P6" t="s">
         <v>405</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>363</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>91</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>168</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>173</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>179</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
+        <v>464</v>
+      </c>
+      <c r="Z6" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -2344,23 +3543,26 @@
       <c r="P7" t="s">
         <v>406</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>362</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>92</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>174</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>180</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
+        <v>465</v>
+      </c>
+      <c r="Z7" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8">
       <c r="A8" t="s">
         <v>349</v>
       </c>
@@ -2391,23 +3593,23 @@
       <c r="P8" t="s">
         <v>407</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>364</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
         <v>93</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>175</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>181</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Z8" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -2435,20 +3637,20 @@
       <c r="P9" t="s">
         <v>408</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
         <v>365</v>
       </c>
-      <c r="T9" t="s">
+      <c r="U9" t="s">
         <v>202</v>
       </c>
-      <c r="W9" t="s">
+      <c r="X9" t="s">
         <v>182</v>
       </c>
-      <c r="X9" t="s">
+      <c r="Z9" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10">
       <c r="A10" t="s">
         <v>335</v>
       </c>
@@ -2473,17 +3675,17 @@
       <c r="P10" t="s">
         <v>409</v>
       </c>
-      <c r="T10" t="s">
+      <c r="U10" t="s">
         <v>259</v>
       </c>
-      <c r="W10" t="s">
+      <c r="X10" t="s">
         <v>183</v>
       </c>
-      <c r="X10" t="s">
+      <c r="Z10" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -2505,17 +3707,17 @@
       <c r="N11" t="s">
         <v>240</v>
       </c>
-      <c r="T11" t="s">
+      <c r="U11" t="s">
         <v>260</v>
       </c>
-      <c r="W11" t="s">
+      <c r="X11" t="s">
         <v>261</v>
       </c>
-      <c r="X11" t="s">
+      <c r="Z11" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="12">
       <c r="A12" t="s">
         <v>189</v>
       </c>
@@ -2534,14 +3736,14 @@
       <c r="N12" t="s">
         <v>241</v>
       </c>
-      <c r="T12" t="s">
+      <c r="U12" t="s">
         <v>94</v>
       </c>
-      <c r="W12" t="s">
+      <c r="X12" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13">
       <c r="A13" t="s">
         <v>44</v>
       </c>
@@ -2560,14 +3762,14 @@
       <c r="N13" t="s">
         <v>246</v>
       </c>
-      <c r="T13" t="s">
+      <c r="U13" t="s">
         <v>328</v>
       </c>
-      <c r="W13" t="s">
+      <c r="X13" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="14">
       <c r="A14" t="s">
         <v>231</v>
       </c>
@@ -2586,14 +3788,14 @@
       <c r="N14" t="s">
         <v>242</v>
       </c>
-      <c r="T14" t="s">
+      <c r="U14" t="s">
         <v>95</v>
       </c>
-      <c r="W14" t="s">
+      <c r="X14" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15">
       <c r="A15" t="s">
         <v>45</v>
       </c>
@@ -2609,14 +3811,14 @@
       <c r="N15" t="s">
         <v>243</v>
       </c>
-      <c r="T15" t="s">
+      <c r="U15" t="s">
         <v>96</v>
       </c>
-      <c r="W15" t="s">
+      <c r="X15" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16">
       <c r="A16" t="s">
         <v>400</v>
       </c>
@@ -2632,16 +3834,16 @@
       <c r="N16" t="s">
         <v>244</v>
       </c>
-      <c r="T16" t="s">
+      <c r="U16" t="s">
         <v>67</v>
       </c>
-      <c r="W16" t="s">
+      <c r="X16" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="17">
       <c r="A17" t="s">
-        <v>415</v>
+        <v>458</v>
       </c>
       <c r="C17" t="s">
         <v>52</v>
@@ -2652,13 +3854,13 @@
       <c r="I17" t="s">
         <v>37</v>
       </c>
-      <c r="T17" t="s">
+      <c r="U17" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="18">
       <c r="A18" t="s">
-        <v>359</v>
+        <v>415</v>
       </c>
       <c r="C18" t="s">
         <v>53</v>
@@ -2669,13 +3871,13 @@
       <c r="I18" t="s">
         <v>394</v>
       </c>
-      <c r="T18" t="s">
+      <c r="U18" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="19">
       <c r="A19" t="s">
-        <v>396</v>
+        <v>359</v>
       </c>
       <c r="C19" t="s">
         <v>54</v>
@@ -2686,13 +3888,13 @@
       <c r="I19" t="s">
         <v>77</v>
       </c>
-      <c r="T19" t="s">
+      <c r="U19" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="20">
       <c r="A20" t="s">
-        <v>46</v>
+        <v>396</v>
       </c>
       <c r="C20" t="s">
         <v>323</v>
@@ -2703,13 +3905,13 @@
       <c r="I20" t="s">
         <v>38</v>
       </c>
-      <c r="T20" t="s">
+      <c r="U20" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="21">
       <c r="A21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C21" t="s">
         <v>55</v>
@@ -2720,13 +3922,13 @@
       <c r="I21" t="s">
         <v>39</v>
       </c>
-      <c r="T21" t="s">
+      <c r="U21" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="22">
       <c r="A22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C22" t="s">
         <v>217</v>
@@ -2734,13 +3936,13 @@
       <c r="E22" t="s">
         <v>301</v>
       </c>
-      <c r="T22" t="s">
+      <c r="U22" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="23">
       <c r="A23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C23" t="s">
         <v>218</v>
@@ -2748,13 +3950,13 @@
       <c r="E23" t="s">
         <v>292</v>
       </c>
-      <c r="T23" t="s">
+      <c r="U23" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="24">
       <c r="A24" t="s">
-        <v>219</v>
+        <v>49</v>
       </c>
       <c r="C24" t="s">
         <v>455</v>
@@ -2762,685 +3964,691 @@
       <c r="E24" t="s">
         <v>281</v>
       </c>
-      <c r="T24" t="s">
+      <c r="U24" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="25">
+      <c r="A25" t="s">
+        <v>460</v>
+      </c>
       <c r="C25" t="s">
         <v>56</v>
       </c>
       <c r="E25" t="s">
         <v>68</v>
       </c>
-      <c r="T25" t="s">
+      <c r="U25" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="26">
+      <c r="A26" t="s">
+        <v>219</v>
+      </c>
       <c r="C26" t="s">
         <v>57</v>
       </c>
       <c r="E26" t="s">
         <v>284</v>
       </c>
-      <c r="T26" t="s">
+      <c r="U26" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="27">
       <c r="C27" t="s">
         <v>58</v>
       </c>
       <c r="E27" t="s">
         <v>268</v>
       </c>
-      <c r="T27" t="s">
+      <c r="U27" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="28">
       <c r="C28" t="s">
         <v>59</v>
       </c>
       <c r="E28" t="s">
         <v>285</v>
       </c>
-      <c r="T28" t="s">
+      <c r="U28" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="29">
       <c r="C29" t="s">
         <v>60</v>
       </c>
       <c r="E29" t="s">
         <v>286</v>
       </c>
-      <c r="T29" t="s">
+      <c r="U29" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="30">
       <c r="C30" t="s">
         <v>61</v>
       </c>
       <c r="E30" t="s">
         <v>209</v>
       </c>
-      <c r="T30" t="s">
+      <c r="U30" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="31">
       <c r="C31" t="s">
         <v>62</v>
       </c>
       <c r="E31" t="s">
         <v>277</v>
       </c>
-      <c r="T31" t="s">
+      <c r="U31" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="32">
       <c r="C32" t="s">
         <v>63</v>
       </c>
       <c r="E32" t="s">
         <v>287</v>
       </c>
-      <c r="T32" t="s">
+      <c r="U32" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="33" spans="5:20" x14ac:dyDescent="0.2">
+    <row r="33">
       <c r="E33" t="s">
         <v>262</v>
       </c>
-      <c r="T33" t="s">
+      <c r="U33" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="34" spans="5:20" x14ac:dyDescent="0.2">
+    <row r="34">
       <c r="E34" t="s">
         <v>332</v>
       </c>
-      <c r="T34" t="s">
+      <c r="U34" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="35" spans="5:20" x14ac:dyDescent="0.2">
+    <row r="35">
       <c r="E35" t="s">
         <v>310</v>
       </c>
-      <c r="T35" t="s">
+      <c r="U35" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="36" spans="5:20" x14ac:dyDescent="0.2">
+    <row r="36">
       <c r="E36" t="s">
         <v>263</v>
       </c>
-      <c r="T36" t="s">
+      <c r="U36" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="37" spans="5:20" x14ac:dyDescent="0.2">
+    <row r="37">
       <c r="E37" t="s">
         <v>311</v>
       </c>
-      <c r="T37" t="s">
+      <c r="U37" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="38" spans="5:20" x14ac:dyDescent="0.2">
+    <row r="38">
       <c r="E38" t="s">
         <v>269</v>
       </c>
-      <c r="T38" t="s">
+      <c r="U38" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="39" spans="5:20" x14ac:dyDescent="0.2">
+    <row r="39">
       <c r="E39" t="s">
         <v>70</v>
       </c>
-      <c r="T39" t="s">
+      <c r="U39" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="40" spans="5:20" x14ac:dyDescent="0.2">
+    <row r="40">
       <c r="E40" t="s">
         <v>205</v>
       </c>
-      <c r="T40" t="s">
+      <c r="U40" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="41" spans="5:20" x14ac:dyDescent="0.2">
+    <row r="41">
       <c r="E41" t="s">
         <v>291</v>
       </c>
-      <c r="T41" t="s">
+      <c r="U41" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="42" spans="5:20" x14ac:dyDescent="0.2">
+    <row r="42">
       <c r="E42" t="s">
         <v>302</v>
       </c>
-      <c r="T42" t="s">
+      <c r="U42" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="43" spans="5:20" x14ac:dyDescent="0.2">
+    <row r="43">
       <c r="E43" t="s">
         <v>303</v>
       </c>
-      <c r="T43" t="s">
+      <c r="U43" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="44" spans="5:20" x14ac:dyDescent="0.2">
+    <row r="44">
       <c r="E44" t="s">
         <v>345</v>
       </c>
-      <c r="T44" t="s">
+      <c r="U44" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="45" spans="5:20" x14ac:dyDescent="0.2">
+    <row r="45">
       <c r="E45" t="s">
         <v>344</v>
       </c>
-      <c r="T45" t="s">
+      <c r="U45" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="46" spans="5:20" x14ac:dyDescent="0.2">
+    <row r="46">
       <c r="E46" t="s">
         <v>204</v>
       </c>
-      <c r="T46" t="s">
+      <c r="U46" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="47" spans="5:20" x14ac:dyDescent="0.2">
+    <row r="47">
       <c r="E47" t="s">
         <v>304</v>
       </c>
-      <c r="T47" t="s">
+      <c r="U47" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="48" spans="5:20" x14ac:dyDescent="0.2">
+    <row r="48">
       <c r="E48" t="s">
         <v>341</v>
       </c>
-      <c r="T48" t="s">
+      <c r="U48" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="49" spans="5:20" x14ac:dyDescent="0.2">
+    <row r="49">
       <c r="E49" t="s">
         <v>370</v>
       </c>
-      <c r="T49" t="s">
+      <c r="U49" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="50" spans="5:20" x14ac:dyDescent="0.2">
+    <row r="50">
       <c r="E50" t="s">
         <v>305</v>
       </c>
-      <c r="T50" t="s">
+      <c r="U50" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="51" spans="5:20" x14ac:dyDescent="0.2">
+    <row r="51">
       <c r="E51" t="s">
         <v>358</v>
       </c>
-      <c r="T51" t="s">
+      <c r="U51" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="52" spans="5:20" x14ac:dyDescent="0.2">
+    <row r="52">
       <c r="E52" t="s">
         <v>333</v>
       </c>
-      <c r="T52" t="s">
+      <c r="U52" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="53" spans="5:20" x14ac:dyDescent="0.2">
+    <row r="53">
       <c r="E53" t="s">
         <v>270</v>
       </c>
-      <c r="T53" t="s">
+      <c r="U53" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="54" spans="5:20" x14ac:dyDescent="0.2">
+    <row r="54">
       <c r="E54" t="s">
         <v>294</v>
       </c>
-      <c r="T54" t="s">
+      <c r="U54" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="55" spans="5:20" x14ac:dyDescent="0.2">
+    <row r="55">
       <c r="E55" t="s">
         <v>295</v>
       </c>
-      <c r="T55" t="s">
+      <c r="U55" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="56" spans="5:20" x14ac:dyDescent="0.2">
+    <row r="56">
       <c r="E56" t="s">
         <v>296</v>
       </c>
-      <c r="T56" t="s">
+      <c r="U56" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="57" spans="5:20" x14ac:dyDescent="0.2">
+    <row r="57">
       <c r="E57" t="s">
         <v>306</v>
       </c>
-      <c r="T57" t="s">
+      <c r="U57" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="58" spans="5:20" x14ac:dyDescent="0.2">
+    <row r="58">
       <c r="E58" t="s">
         <v>315</v>
       </c>
-      <c r="T58" t="s">
+      <c r="U58" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="59" spans="5:20" x14ac:dyDescent="0.2">
+    <row r="59">
       <c r="E59" t="s">
         <v>339</v>
       </c>
-      <c r="T59" t="s">
+      <c r="U59" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="60" spans="5:20" x14ac:dyDescent="0.2">
+    <row r="60">
       <c r="E60" t="s">
         <v>312</v>
       </c>
-      <c r="T60" t="s">
+      <c r="U60" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="61" spans="5:20" x14ac:dyDescent="0.2">
+    <row r="61">
       <c r="E61" t="s">
         <v>313</v>
       </c>
-      <c r="T61" t="s">
+      <c r="U61" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="62" spans="5:20" x14ac:dyDescent="0.2">
+    <row r="62">
       <c r="E62" t="s">
         <v>371</v>
       </c>
-      <c r="T62" t="s">
+      <c r="U62" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="63" spans="5:20" x14ac:dyDescent="0.2">
+    <row r="63">
       <c r="E63" t="s">
         <v>372</v>
       </c>
-      <c r="T63" t="s">
+      <c r="U63" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="64" spans="5:20" x14ac:dyDescent="0.2">
+    <row r="64">
       <c r="E64" t="s">
         <v>347</v>
       </c>
-      <c r="T64" t="s">
+      <c r="U64" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="65" spans="5:20" x14ac:dyDescent="0.2">
+    <row r="65">
       <c r="E65" t="s">
         <v>316</v>
       </c>
-      <c r="T65" t="s">
+      <c r="U65" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="66" spans="5:20" x14ac:dyDescent="0.2">
+    <row r="66">
       <c r="E66" t="s">
         <v>271</v>
       </c>
-      <c r="T66" t="s">
+      <c r="U66" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="67" spans="5:20" x14ac:dyDescent="0.2">
+    <row r="67">
       <c r="E67" t="s">
         <v>355</v>
       </c>
-      <c r="T67" t="s">
+      <c r="U67" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="68" spans="5:20" x14ac:dyDescent="0.2">
+    <row r="68">
       <c r="E68" t="s">
         <v>317</v>
       </c>
-      <c r="T68" t="s">
+      <c r="U68" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="69" spans="5:20" x14ac:dyDescent="0.2">
+    <row r="69">
       <c r="E69" t="s">
         <v>410</v>
       </c>
-      <c r="T69" t="s">
+      <c r="U69" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="70" spans="5:20" x14ac:dyDescent="0.2">
+    <row r="70">
       <c r="E70" t="s">
         <v>307</v>
       </c>
-      <c r="T70" t="s">
+      <c r="U70" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="71" spans="5:20" x14ac:dyDescent="0.2">
+    <row r="71">
       <c r="E71" t="s">
         <v>411</v>
       </c>
-      <c r="T71" t="s">
+      <c r="U71" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="72" spans="5:20" x14ac:dyDescent="0.2">
+    <row r="72">
       <c r="E72" t="s">
         <v>264</v>
       </c>
-      <c r="T72" t="s">
+      <c r="U72" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="73" spans="5:20" x14ac:dyDescent="0.2">
+    <row r="73">
       <c r="E73" t="s">
         <v>346</v>
       </c>
-      <c r="T73" t="s">
+      <c r="U73" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="74" spans="5:20" x14ac:dyDescent="0.2">
+    <row r="74">
       <c r="E74" t="s">
         <v>282</v>
       </c>
-      <c r="T74" t="s">
+      <c r="U74" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="75" spans="5:20" x14ac:dyDescent="0.2">
+    <row r="75">
       <c r="E75" t="s">
         <v>288</v>
       </c>
-      <c r="T75" t="s">
+      <c r="U75" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="76" spans="5:20" x14ac:dyDescent="0.2">
+    <row r="76">
       <c r="E76" t="s">
         <v>293</v>
       </c>
-      <c r="T76" t="s">
+      <c r="U76" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="77" spans="5:20" x14ac:dyDescent="0.2">
+    <row r="77">
       <c r="E77" t="s">
         <v>334</v>
       </c>
-      <c r="T77" t="s">
+      <c r="U77" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="78" spans="5:20" x14ac:dyDescent="0.2">
+    <row r="78">
       <c r="E78" t="s">
         <v>272</v>
       </c>
-      <c r="T78" t="s">
+      <c r="U78" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="79" spans="5:20" x14ac:dyDescent="0.2">
+    <row r="79">
       <c r="E79" t="s">
         <v>283</v>
       </c>
-      <c r="T79" t="s">
+      <c r="U79" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="80" spans="5:20" x14ac:dyDescent="0.2">
+    <row r="80">
       <c r="E80" t="s">
         <v>289</v>
       </c>
-      <c r="T80" t="s">
+      <c r="U80" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="81" spans="5:20" x14ac:dyDescent="0.2">
+    <row r="81">
       <c r="E81" t="s">
         <v>278</v>
       </c>
-      <c r="T81" t="s">
+      <c r="U81" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="82" spans="5:20" x14ac:dyDescent="0.2">
+    <row r="82">
       <c r="E82" t="s">
         <v>273</v>
       </c>
-      <c r="T82" t="s">
+      <c r="U82" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="83" spans="5:20" x14ac:dyDescent="0.2">
+    <row r="83">
       <c r="E83" t="s">
         <v>290</v>
       </c>
-      <c r="T83" t="s">
+      <c r="U83" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="84" spans="5:20" x14ac:dyDescent="0.2">
+    <row r="84">
       <c r="E84" t="s">
         <v>274</v>
       </c>
-      <c r="T84" t="s">
+      <c r="U84" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="85" spans="5:20" x14ac:dyDescent="0.2">
+    <row r="85">
       <c r="E85" t="s">
         <v>275</v>
       </c>
-      <c r="T85" t="s">
+      <c r="U85" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="86" spans="5:20" x14ac:dyDescent="0.2">
+    <row r="86">
       <c r="E86" t="s">
         <v>308</v>
       </c>
-      <c r="T86" t="s">
+      <c r="U86" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="87" spans="5:20" x14ac:dyDescent="0.2">
+    <row r="87">
       <c r="E87" t="s">
         <v>314</v>
       </c>
-      <c r="T87" t="s">
+      <c r="U87" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="88" spans="5:20" x14ac:dyDescent="0.2">
+    <row r="88">
       <c r="E88" t="s">
         <v>297</v>
       </c>
-      <c r="T88" t="s">
+      <c r="U88" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="89" spans="5:20" x14ac:dyDescent="0.2">
+    <row r="89">
       <c r="E89" t="s">
         <v>342</v>
       </c>
-      <c r="T89" t="s">
+      <c r="U89" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="90" spans="5:20" x14ac:dyDescent="0.2">
+    <row r="90">
       <c r="E90" t="s">
         <v>279</v>
       </c>
-      <c r="T90" t="s">
+      <c r="U90" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="91" spans="5:20" x14ac:dyDescent="0.2">
+    <row r="91">
       <c r="E91" t="s">
         <v>280</v>
       </c>
-      <c r="T91" t="s">
+      <c r="U91" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="92" spans="5:20" x14ac:dyDescent="0.2">
-      <c r="T92" t="s">
+    <row r="92">
+      <c r="U92" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="93" spans="5:20" x14ac:dyDescent="0.2">
-      <c r="T93" t="s">
+    <row r="93">
+      <c r="U93" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="94" spans="5:20" x14ac:dyDescent="0.2">
-      <c r="T94" t="s">
+    <row r="94">
+      <c r="U94" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="95" spans="5:20" x14ac:dyDescent="0.2">
-      <c r="T95" t="s">
+    <row r="95">
+      <c r="U95" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="96" spans="5:20" x14ac:dyDescent="0.2">
-      <c r="T96" t="s">
+    <row r="96">
+      <c r="U96" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="97" spans="20:20" x14ac:dyDescent="0.2">
-      <c r="T97" t="s">
+    <row r="97">
+      <c r="U97" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="98" spans="20:20" x14ac:dyDescent="0.2">
-      <c r="T98" t="s">
+    <row r="98">
+      <c r="U98" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="99" spans="20:20" x14ac:dyDescent="0.2">
-      <c r="T99" t="s">
+    <row r="99">
+      <c r="U99" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="100" spans="20:20" x14ac:dyDescent="0.2">
-      <c r="T100" t="s">
+    <row r="100">
+      <c r="U100" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="101" spans="20:20" x14ac:dyDescent="0.2">
-      <c r="T101" t="s">
+    <row r="101">
+      <c r="U101" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="102" spans="20:20" x14ac:dyDescent="0.2">
-      <c r="T102" t="s">
+    <row r="102">
+      <c r="U102" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="103" spans="20:20" x14ac:dyDescent="0.2">
-      <c r="T103" t="s">
+    <row r="103">
+      <c r="U103" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="104" spans="20:20" x14ac:dyDescent="0.2">
-      <c r="T104" t="s">
+    <row r="104">
+      <c r="U104" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="105" spans="20:20" x14ac:dyDescent="0.2">
-      <c r="T105" t="s">
+    <row r="105">
+      <c r="U105" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="106" spans="20:20" x14ac:dyDescent="0.2">
-      <c r="T106" t="s">
+    <row r="106">
+      <c r="U106" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="107" spans="20:20" x14ac:dyDescent="0.2">
-      <c r="T107" t="s">
+    <row r="107">
+      <c r="U107" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="108" spans="20:20" x14ac:dyDescent="0.2">
-      <c r="T108" t="s">
+    <row r="108">
+      <c r="U108" t="s">
         <v>163</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O998"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:P998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A7" ySplit="1"/>
+      <selection activeCell="B22" pane="bottomLeft" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.83203125" style="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="29.1640625" style="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.6640625" style="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="42.1640625" style="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="40.83203125" style="9" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="68.5" style="9" customWidth="1" collapsed="1"/>
-    <col min="7" max="9" width="18.33203125" style="9" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="28.6640625" style="16" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="1.6640625" style="10" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12" style="14" customWidth="1" collapsed="1"/>
-    <col min="13" max="16384" width="10.83203125" style="3" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="8" width="17.83203125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="8" width="29.1640625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="12" width="9.6640625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="9" width="42.1640625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="9" width="40.83203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="9" width="68.5" collapsed="true"/>
+    <col min="7" max="9" customWidth="true" style="9" width="18.33203125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="16" width="28.6640625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="10" width="1.6640625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="14" width="12.0" collapsed="true"/>
+    <col min="13" max="16384" style="3" width="10.83203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="5" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="20" r="1" s="5" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>247</v>
       </c>
@@ -3476,7 +4684,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="18" r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>248</v>
       </c>
@@ -3500,7 +4708,7 @@
       <c r="K2" s="2"/>
       <c r="L2" s="13"/>
     </row>
-    <row r="3" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>253</v>
       </c>
@@ -3524,7 +4732,7 @@
       <c r="K3" s="2"/>
       <c r="L3" s="13"/>
     </row>
-    <row r="4" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
       <c r="B4" s="4" t="s">
         <v>421</v>
@@ -3549,7 +4757,7 @@
       <c r="N4"/>
       <c r="O4"/>
     </row>
-    <row r="5" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
         <v>422</v>
@@ -3571,7 +4779,7 @@
       <c r="K5" s="2"/>
       <c r="L5" s="13"/>
     </row>
-    <row r="6" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
       <c r="B6" s="4" t="s">
         <v>423</v>
@@ -3593,7 +4801,7 @@
       <c r="K6" s="2"/>
       <c r="L6" s="13"/>
     </row>
-    <row r="7" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="11" t="s">
@@ -3621,7 +4829,7 @@
       <c r="K7" s="2"/>
       <c r="L7" s="13"/>
     </row>
-    <row r="8" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="11" t="s">
@@ -3641,7 +4849,7 @@
       <c r="K8" s="2"/>
       <c r="L8" s="13"/>
     </row>
-    <row r="9" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>257</v>
       </c>
@@ -3663,7 +4871,7 @@
       <c r="K9" s="2"/>
       <c r="L9" s="13"/>
     </row>
-    <row r="10" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>429</v>
       </c>
@@ -3689,7 +4897,7 @@
       <c r="K10" s="2"/>
       <c r="L10" s="13"/>
     </row>
-    <row r="11" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="B11" s="4" t="s">
         <v>430</v>
@@ -3713,7 +4921,7 @@
       <c r="K11" s="2"/>
       <c r="L11" s="13"/>
     </row>
-    <row r="12" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
       <c r="B12" s="4" t="s">
         <v>436</v>
@@ -3737,7 +4945,7 @@
       <c r="K12" s="2"/>
       <c r="L12" s="13"/>
     </row>
-    <row r="13" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="36" r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
       <c r="B13" s="4" t="s">
         <v>437</v>
@@ -3765,7 +4973,7 @@
       <c r="K13" s="2"/>
       <c r="L13" s="13"/>
     </row>
-    <row r="14" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
       <c r="B14" s="4" t="s">
         <v>438</v>
@@ -3789,7 +4997,7 @@
       <c r="K14" s="2"/>
       <c r="L14" s="13"/>
     </row>
-    <row r="15" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" s="4" t="s">
         <v>439</v>
@@ -3813,7 +5021,7 @@
       <c r="K15" s="2"/>
       <c r="L15" s="13"/>
     </row>
-    <row r="16" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="4" t="s">
         <v>440</v>
@@ -3835,7 +5043,7 @@
       <c r="K16" s="2"/>
       <c r="L16" s="13"/>
     </row>
-    <row r="17" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="4" t="s">
         <v>448</v>
@@ -3859,7 +5067,7 @@
       <c r="K17" s="2"/>
       <c r="L17" s="13"/>
     </row>
-    <row r="18" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
       <c r="B18" s="4" t="s">
         <v>449</v>
@@ -3883,7 +5091,7 @@
       <c r="K18" s="2"/>
       <c r="L18" s="13"/>
     </row>
-    <row r="19" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
       <c r="B19" s="4" t="s">
         <v>451</v>
@@ -3905,7 +5113,7 @@
       <c r="K19" s="2"/>
       <c r="L19" s="13"/>
     </row>
-    <row r="20" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
       <c r="B20" s="4" t="s">
         <v>453</v>
@@ -3929,7 +5137,7 @@
       <c r="K20" s="2"/>
       <c r="L20" s="13"/>
     </row>
-    <row r="21" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
       <c r="B21" s="4" t="s">
         <v>457</v>
@@ -3951,7 +5159,7 @@
       <c r="K21" s="2"/>
       <c r="L21" s="13"/>
     </row>
-    <row r="22" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="11"/>
@@ -3965,7 +5173,7 @@
       <c r="K22" s="2"/>
       <c r="L22" s="13"/>
     </row>
-    <row r="23" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="11"/>
@@ -3979,7 +5187,7 @@
       <c r="K23" s="2"/>
       <c r="L23" s="13"/>
     </row>
-    <row r="24" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="11"/>
@@ -3993,7 +5201,7 @@
       <c r="K24" s="2"/>
       <c r="L24" s="13"/>
     </row>
-    <row r="25" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="11"/>
@@ -4007,7 +5215,7 @@
       <c r="K25" s="2"/>
       <c r="L25" s="13"/>
     </row>
-    <row r="26" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="4"/>
       <c r="B26" s="7"/>
       <c r="C26" s="11"/>
@@ -4021,7 +5229,7 @@
       <c r="K26" s="2"/>
       <c r="L26" s="13"/>
     </row>
-    <row r="27" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="11"/>
@@ -4035,7 +5243,7 @@
       <c r="K27" s="2"/>
       <c r="L27" s="13"/>
     </row>
-    <row r="28" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="11"/>
@@ -4049,7 +5257,7 @@
       <c r="K28" s="2"/>
       <c r="L28" s="13"/>
     </row>
-    <row r="29" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="11"/>
@@ -4063,7 +5271,7 @@
       <c r="K29" s="2"/>
       <c r="L29" s="13"/>
     </row>
-    <row r="30" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="11"/>
@@ -4077,7 +5285,7 @@
       <c r="K30" s="2"/>
       <c r="L30" s="13"/>
     </row>
-    <row r="31" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="11"/>
@@ -4091,7 +5299,7 @@
       <c r="K31" s="2"/>
       <c r="L31" s="13"/>
     </row>
-    <row r="32" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="11"/>
@@ -4105,7 +5313,7 @@
       <c r="K32" s="2"/>
       <c r="L32" s="13"/>
     </row>
-    <row r="33" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="11"/>
@@ -4119,7 +5327,7 @@
       <c r="K33" s="2"/>
       <c r="L33" s="13"/>
     </row>
-    <row r="34" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="11"/>
@@ -4133,7 +5341,7 @@
       <c r="K34" s="2"/>
       <c r="L34" s="13"/>
     </row>
-    <row r="35" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="11"/>
@@ -4147,7 +5355,7 @@
       <c r="K35" s="2"/>
       <c r="L35" s="13"/>
     </row>
-    <row r="36" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="11"/>
@@ -4161,7 +5369,7 @@
       <c r="K36" s="2"/>
       <c r="L36" s="13"/>
     </row>
-    <row r="37" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="11"/>
@@ -4175,7 +5383,7 @@
       <c r="K37" s="2"/>
       <c r="L37" s="13"/>
     </row>
-    <row r="38" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="11"/>
@@ -4189,7 +5397,7 @@
       <c r="K38" s="2"/>
       <c r="L38" s="13"/>
     </row>
-    <row r="39" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="11"/>
@@ -4203,7 +5411,7 @@
       <c r="K39" s="2"/>
       <c r="L39" s="13"/>
     </row>
-    <row r="40" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="11"/>
@@ -4217,7 +5425,7 @@
       <c r="K40" s="2"/>
       <c r="L40" s="13"/>
     </row>
-    <row r="41" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="11"/>
@@ -4231,7 +5439,7 @@
       <c r="K41" s="2"/>
       <c r="L41" s="13"/>
     </row>
-    <row r="42" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="11"/>
@@ -4245,7 +5453,7 @@
       <c r="K42" s="2"/>
       <c r="L42" s="13"/>
     </row>
-    <row r="43" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="11"/>
@@ -4259,7 +5467,7 @@
       <c r="K43" s="2"/>
       <c r="L43" s="13"/>
     </row>
-    <row r="44" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="11"/>
@@ -4273,7 +5481,7 @@
       <c r="K44" s="2"/>
       <c r="L44" s="13"/>
     </row>
-    <row r="45" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="11"/>
@@ -4287,7 +5495,7 @@
       <c r="K45" s="2"/>
       <c r="L45" s="13"/>
     </row>
-    <row r="46" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="11"/>
@@ -4301,7 +5509,7 @@
       <c r="K46" s="2"/>
       <c r="L46" s="13"/>
     </row>
-    <row r="47" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="11"/>
@@ -4315,7 +5523,7 @@
       <c r="K47" s="2"/>
       <c r="L47" s="13"/>
     </row>
-    <row r="48" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="11"/>
@@ -4329,7 +5537,7 @@
       <c r="K48" s="2"/>
       <c r="L48" s="13"/>
     </row>
-    <row r="49" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="11"/>
@@ -4343,7 +5551,7 @@
       <c r="K49" s="2"/>
       <c r="L49" s="13"/>
     </row>
-    <row r="50" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="11"/>
@@ -4357,7 +5565,7 @@
       <c r="K50" s="2"/>
       <c r="L50" s="13"/>
     </row>
-    <row r="51" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="11"/>
@@ -4371,7 +5579,7 @@
       <c r="K51" s="2"/>
       <c r="L51" s="13"/>
     </row>
-    <row r="52" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="11"/>
@@ -4385,7 +5593,7 @@
       <c r="K52" s="2"/>
       <c r="L52" s="13"/>
     </row>
-    <row r="53" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="11"/>
@@ -4399,7 +5607,7 @@
       <c r="K53" s="2"/>
       <c r="L53" s="13"/>
     </row>
-    <row r="54" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="11"/>
@@ -4413,7 +5621,7 @@
       <c r="K54" s="2"/>
       <c r="L54" s="13"/>
     </row>
-    <row r="55" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="11"/>
@@ -4427,7 +5635,7 @@
       <c r="K55" s="2"/>
       <c r="L55" s="13"/>
     </row>
-    <row r="56" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="11"/>
@@ -4441,7 +5649,7 @@
       <c r="K56" s="2"/>
       <c r="L56" s="13"/>
     </row>
-    <row r="57" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="11"/>
@@ -4455,7 +5663,7 @@
       <c r="K57" s="2"/>
       <c r="L57" s="13"/>
     </row>
-    <row r="58" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="11"/>
@@ -4469,7 +5677,7 @@
       <c r="K58" s="2"/>
       <c r="L58" s="13"/>
     </row>
-    <row r="59" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="11"/>
@@ -4483,7 +5691,7 @@
       <c r="K59" s="2"/>
       <c r="L59" s="13"/>
     </row>
-    <row r="60" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="11"/>
@@ -4497,7 +5705,7 @@
       <c r="K60" s="2"/>
       <c r="L60" s="13"/>
     </row>
-    <row r="61" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="11"/>
@@ -4511,7 +5719,7 @@
       <c r="K61" s="2"/>
       <c r="L61" s="13"/>
     </row>
-    <row r="62" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="11"/>
@@ -4525,7 +5733,7 @@
       <c r="K62" s="2"/>
       <c r="L62" s="13"/>
     </row>
-    <row r="63" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="11"/>
@@ -4539,7 +5747,7 @@
       <c r="K63" s="2"/>
       <c r="L63" s="13"/>
     </row>
-    <row r="64" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="C64" s="11"/>
@@ -4553,7 +5761,7 @@
       <c r="K64" s="2"/>
       <c r="L64" s="13"/>
     </row>
-    <row r="65" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="C65" s="11"/>
@@ -4567,7 +5775,7 @@
       <c r="K65" s="2"/>
       <c r="L65" s="13"/>
     </row>
-    <row r="66" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
       <c r="C66" s="11"/>
@@ -4581,7 +5789,7 @@
       <c r="K66" s="2"/>
       <c r="L66" s="13"/>
     </row>
-    <row r="67" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="C67" s="11"/>
@@ -4595,7 +5803,7 @@
       <c r="K67" s="2"/>
       <c r="L67" s="13"/>
     </row>
-    <row r="68" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="C68" s="11"/>
@@ -4609,7 +5817,7 @@
       <c r="K68" s="2"/>
       <c r="L68" s="13"/>
     </row>
-    <row r="69" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="C69" s="11"/>
@@ -4623,7 +5831,7 @@
       <c r="K69" s="2"/>
       <c r="L69" s="13"/>
     </row>
-    <row r="70" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="C70" s="11"/>
@@ -4637,7 +5845,7 @@
       <c r="K70" s="2"/>
       <c r="L70" s="13"/>
     </row>
-    <row r="71" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" s="11"/>
@@ -4651,7 +5859,7 @@
       <c r="K71" s="2"/>
       <c r="L71" s="13"/>
     </row>
-    <row r="72" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="C72" s="11"/>
@@ -4665,7 +5873,7 @@
       <c r="K72" s="2"/>
       <c r="L72" s="13"/>
     </row>
-    <row r="73" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="C73" s="11"/>
@@ -4679,7 +5887,7 @@
       <c r="K73" s="2"/>
       <c r="L73" s="13"/>
     </row>
-    <row r="74" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74" s="4"/>
       <c r="B74" s="4"/>
       <c r="C74" s="11"/>
@@ -4693,7 +5901,7 @@
       <c r="K74" s="2"/>
       <c r="L74" s="13"/>
     </row>
-    <row r="75" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
       <c r="C75" s="11"/>
@@ -4707,7 +5915,7 @@
       <c r="K75" s="2"/>
       <c r="L75" s="13"/>
     </row>
-    <row r="76" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76" s="4"/>
       <c r="B76" s="4"/>
       <c r="C76" s="11"/>
@@ -4721,7 +5929,7 @@
       <c r="K76" s="2"/>
       <c r="L76" s="13"/>
     </row>
-    <row r="77" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77" s="4"/>
       <c r="B77" s="4"/>
       <c r="C77" s="11"/>
@@ -4735,7 +5943,7 @@
       <c r="K77" s="2"/>
       <c r="L77" s="13"/>
     </row>
-    <row r="78" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A78" s="4"/>
       <c r="B78" s="4"/>
       <c r="C78" s="11"/>
@@ -4749,7 +5957,7 @@
       <c r="K78" s="2"/>
       <c r="L78" s="13"/>
     </row>
-    <row r="79" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
       <c r="C79" s="11"/>
@@ -4763,7 +5971,7 @@
       <c r="K79" s="2"/>
       <c r="L79" s="13"/>
     </row>
-    <row r="80" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A80" s="4"/>
       <c r="B80" s="4"/>
       <c r="C80" s="11"/>
@@ -4777,7 +5985,7 @@
       <c r="K80" s="2"/>
       <c r="L80" s="13"/>
     </row>
-    <row r="81" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="81" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A81" s="4"/>
       <c r="B81" s="4"/>
       <c r="C81" s="11"/>
@@ -4791,7 +5999,7 @@
       <c r="K81" s="2"/>
       <c r="L81" s="13"/>
     </row>
-    <row r="82" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="82" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A82" s="4"/>
       <c r="B82" s="4"/>
       <c r="C82" s="11"/>
@@ -4805,7 +6013,7 @@
       <c r="K82" s="2"/>
       <c r="L82" s="13"/>
     </row>
-    <row r="83" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="83" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
       <c r="C83" s="11"/>
@@ -4819,7 +6027,7 @@
       <c r="K83" s="2"/>
       <c r="L83" s="13"/>
     </row>
-    <row r="84" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="84" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A84" s="4"/>
       <c r="B84" s="4"/>
       <c r="C84" s="11"/>
@@ -4833,7 +6041,7 @@
       <c r="K84" s="2"/>
       <c r="L84" s="13"/>
     </row>
-    <row r="85" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="85" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A85" s="4"/>
       <c r="B85" s="4"/>
       <c r="C85" s="11"/>
@@ -4847,7 +6055,7 @@
       <c r="K85" s="2"/>
       <c r="L85" s="13"/>
     </row>
-    <row r="86" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="86" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A86" s="4"/>
       <c r="B86" s="4"/>
       <c r="C86" s="11"/>
@@ -4861,7 +6069,7 @@
       <c r="K86" s="2"/>
       <c r="L86" s="13"/>
     </row>
-    <row r="87" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="87" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
       <c r="C87" s="11"/>
@@ -4875,7 +6083,7 @@
       <c r="K87" s="2"/>
       <c r="L87" s="13"/>
     </row>
-    <row r="88" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="88" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A88" s="4"/>
       <c r="B88" s="4"/>
       <c r="C88" s="11"/>
@@ -4889,7 +6097,7 @@
       <c r="K88" s="2"/>
       <c r="L88" s="13"/>
     </row>
-    <row r="89" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="89" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A89" s="4"/>
       <c r="B89" s="4"/>
       <c r="C89" s="11"/>
@@ -4903,7 +6111,7 @@
       <c r="K89" s="2"/>
       <c r="L89" s="13"/>
     </row>
-    <row r="90" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="90" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A90" s="4"/>
       <c r="B90" s="4"/>
       <c r="C90" s="11"/>
@@ -4917,7 +6125,7 @@
       <c r="K90" s="2"/>
       <c r="L90" s="13"/>
     </row>
-    <row r="91" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="91" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A91" s="4"/>
       <c r="B91" s="4"/>
       <c r="C91" s="11"/>
@@ -4931,7 +6139,7 @@
       <c r="K91" s="2"/>
       <c r="L91" s="13"/>
     </row>
-    <row r="92" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="92" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A92" s="4"/>
       <c r="B92" s="4"/>
       <c r="C92" s="11"/>
@@ -4945,7 +6153,7 @@
       <c r="K92" s="2"/>
       <c r="L92" s="13"/>
     </row>
-    <row r="93" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="93" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A93" s="4"/>
       <c r="B93" s="4"/>
       <c r="C93" s="11"/>
@@ -4959,7 +6167,7 @@
       <c r="K93" s="2"/>
       <c r="L93" s="13"/>
     </row>
-    <row r="94" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="94" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A94" s="4"/>
       <c r="B94" s="4"/>
       <c r="C94" s="11"/>
@@ -4973,7 +6181,7 @@
       <c r="K94" s="2"/>
       <c r="L94" s="13"/>
     </row>
-    <row r="95" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="95" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A95" s="4"/>
       <c r="B95" s="4"/>
       <c r="C95" s="11"/>
@@ -4987,7 +6195,7 @@
       <c r="K95" s="2"/>
       <c r="L95" s="13"/>
     </row>
-    <row r="96" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="96" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A96" s="4"/>
       <c r="B96" s="4"/>
       <c r="C96" s="11"/>
@@ -5001,7 +6209,7 @@
       <c r="K96" s="2"/>
       <c r="L96" s="13"/>
     </row>
-    <row r="97" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="97" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A97" s="4"/>
       <c r="B97" s="4"/>
       <c r="C97" s="11"/>
@@ -5015,7 +6223,7 @@
       <c r="K97" s="2"/>
       <c r="L97" s="13"/>
     </row>
-    <row r="98" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="98" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A98" s="4"/>
       <c r="B98" s="4"/>
       <c r="C98" s="11"/>
@@ -5029,7 +6237,7 @@
       <c r="K98" s="2"/>
       <c r="L98" s="13"/>
     </row>
-    <row r="99" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="99" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A99" s="4"/>
       <c r="B99" s="4"/>
       <c r="C99" s="11"/>
@@ -5043,7 +6251,7 @@
       <c r="K99" s="2"/>
       <c r="L99" s="13"/>
     </row>
-    <row r="100" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="100" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A100" s="4"/>
       <c r="B100" s="4"/>
       <c r="C100" s="11"/>
@@ -5057,7 +6265,7 @@
       <c r="K100" s="2"/>
       <c r="L100" s="13"/>
     </row>
-    <row r="101" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="101" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A101" s="4"/>
       <c r="B101" s="4"/>
       <c r="C101" s="11"/>
@@ -5071,7 +6279,7 @@
       <c r="K101" s="2"/>
       <c r="L101" s="13"/>
     </row>
-    <row r="102" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="102" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A102" s="4"/>
       <c r="B102" s="4"/>
       <c r="C102" s="11"/>
@@ -5085,7 +6293,7 @@
       <c r="K102" s="2"/>
       <c r="L102" s="13"/>
     </row>
-    <row r="103" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="103" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A103" s="4"/>
       <c r="B103" s="4"/>
       <c r="C103" s="11"/>
@@ -5099,7 +6307,7 @@
       <c r="K103" s="2"/>
       <c r="L103" s="13"/>
     </row>
-    <row r="104" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="104" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A104" s="4"/>
       <c r="B104" s="4"/>
       <c r="C104" s="11"/>
@@ -5113,7 +6321,7 @@
       <c r="K104" s="2"/>
       <c r="L104" s="13"/>
     </row>
-    <row r="105" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="105" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A105" s="4"/>
       <c r="B105" s="4"/>
       <c r="C105" s="11"/>
@@ -5127,7 +6335,7 @@
       <c r="K105" s="2"/>
       <c r="L105" s="13"/>
     </row>
-    <row r="106" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="106" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A106" s="4"/>
       <c r="B106" s="4"/>
       <c r="C106" s="11"/>
@@ -5141,7 +6349,7 @@
       <c r="K106" s="2"/>
       <c r="L106" s="13"/>
     </row>
-    <row r="107" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="107" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A107" s="4"/>
       <c r="B107" s="4"/>
       <c r="C107" s="11"/>
@@ -5155,7 +6363,7 @@
       <c r="K107" s="2"/>
       <c r="L107" s="13"/>
     </row>
-    <row r="108" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="108" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A108" s="4"/>
       <c r="B108" s="4"/>
       <c r="C108" s="11"/>
@@ -5169,7 +6377,7 @@
       <c r="K108" s="2"/>
       <c r="L108" s="13"/>
     </row>
-    <row r="109" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="109" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A109" s="4"/>
       <c r="B109" s="4"/>
       <c r="C109" s="11"/>
@@ -5183,7 +6391,7 @@
       <c r="K109" s="2"/>
       <c r="L109" s="13"/>
     </row>
-    <row r="110" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="110" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A110" s="4"/>
       <c r="B110" s="4"/>
       <c r="C110" s="11"/>
@@ -5197,7 +6405,7 @@
       <c r="K110" s="2"/>
       <c r="L110" s="13"/>
     </row>
-    <row r="111" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="111" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A111" s="4"/>
       <c r="B111" s="4"/>
       <c r="C111" s="11"/>
@@ -5211,7 +6419,7 @@
       <c r="K111" s="2"/>
       <c r="L111" s="13"/>
     </row>
-    <row r="112" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="112" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A112" s="4"/>
       <c r="B112" s="4"/>
       <c r="C112" s="11"/>
@@ -5225,7 +6433,7 @@
       <c r="K112" s="2"/>
       <c r="L112" s="13"/>
     </row>
-    <row r="113" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="113" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A113" s="4"/>
       <c r="B113" s="4"/>
       <c r="C113" s="11"/>
@@ -5239,7 +6447,7 @@
       <c r="K113" s="2"/>
       <c r="L113" s="13"/>
     </row>
-    <row r="114" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="114" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A114" s="4"/>
       <c r="B114" s="4"/>
       <c r="C114" s="11"/>
@@ -5253,7 +6461,7 @@
       <c r="K114" s="2"/>
       <c r="L114" s="13"/>
     </row>
-    <row r="115" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="115" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A115" s="4"/>
       <c r="B115" s="4"/>
       <c r="C115" s="11"/>
@@ -5267,7 +6475,7 @@
       <c r="K115" s="2"/>
       <c r="L115" s="13"/>
     </row>
-    <row r="116" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="116" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A116" s="4"/>
       <c r="B116" s="4"/>
       <c r="C116" s="11"/>
@@ -5281,7 +6489,7 @@
       <c r="K116" s="2"/>
       <c r="L116" s="13"/>
     </row>
-    <row r="117" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="117" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A117" s="4"/>
       <c r="B117" s="4"/>
       <c r="C117" s="11"/>
@@ -5295,7 +6503,7 @@
       <c r="K117" s="2"/>
       <c r="L117" s="13"/>
     </row>
-    <row r="118" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="118" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A118" s="4"/>
       <c r="B118" s="4"/>
       <c r="C118" s="11"/>
@@ -5309,7 +6517,7 @@
       <c r="K118" s="2"/>
       <c r="L118" s="13"/>
     </row>
-    <row r="119" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="119" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A119" s="4"/>
       <c r="B119" s="4"/>
       <c r="C119" s="11"/>
@@ -5323,7 +6531,7 @@
       <c r="K119" s="2"/>
       <c r="L119" s="13"/>
     </row>
-    <row r="120" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="120" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A120" s="4"/>
       <c r="B120" s="4"/>
       <c r="C120" s="11"/>
@@ -5337,7 +6545,7 @@
       <c r="K120" s="2"/>
       <c r="L120" s="13"/>
     </row>
-    <row r="121" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="121" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A121" s="4"/>
       <c r="B121" s="4"/>
       <c r="C121" s="11"/>
@@ -5351,7 +6559,7 @@
       <c r="K121" s="2"/>
       <c r="L121" s="13"/>
     </row>
-    <row r="122" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="122" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A122" s="4"/>
       <c r="B122" s="4"/>
       <c r="C122" s="11"/>
@@ -5365,7 +6573,7 @@
       <c r="K122" s="2"/>
       <c r="L122" s="13"/>
     </row>
-    <row r="123" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="123" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A123" s="4"/>
       <c r="B123" s="4"/>
       <c r="C123" s="11"/>
@@ -5379,7 +6587,7 @@
       <c r="K123" s="2"/>
       <c r="L123" s="13"/>
     </row>
-    <row r="124" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="124" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A124" s="4"/>
       <c r="B124" s="4"/>
       <c r="C124" s="11"/>
@@ -5393,7 +6601,7 @@
       <c r="K124" s="2"/>
       <c r="L124" s="13"/>
     </row>
-    <row r="125" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="125" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A125" s="4"/>
       <c r="B125" s="4"/>
       <c r="C125" s="11"/>
@@ -5407,7 +6615,7 @@
       <c r="K125" s="2"/>
       <c r="L125" s="13"/>
     </row>
-    <row r="126" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="126" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A126" s="4"/>
       <c r="B126" s="4"/>
       <c r="C126" s="11"/>
@@ -5421,7 +6629,7 @@
       <c r="K126" s="2"/>
       <c r="L126" s="13"/>
     </row>
-    <row r="127" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="127" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A127" s="4"/>
       <c r="B127" s="4"/>
       <c r="C127" s="11"/>
@@ -5435,7 +6643,7 @@
       <c r="K127" s="2"/>
       <c r="L127" s="13"/>
     </row>
-    <row r="128" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="128" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A128" s="4"/>
       <c r="B128" s="4"/>
       <c r="C128" s="11"/>
@@ -5449,7 +6657,7 @@
       <c r="K128" s="2"/>
       <c r="L128" s="13"/>
     </row>
-    <row r="129" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="129" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A129" s="4"/>
       <c r="B129" s="4"/>
       <c r="C129" s="11"/>
@@ -5463,7 +6671,7 @@
       <c r="K129" s="2"/>
       <c r="L129" s="13"/>
     </row>
-    <row r="130" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="130" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A130" s="4"/>
       <c r="B130" s="4"/>
       <c r="C130" s="11"/>
@@ -5477,7 +6685,7 @@
       <c r="K130" s="2"/>
       <c r="L130" s="13"/>
     </row>
-    <row r="131" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="131" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A131" s="4"/>
       <c r="B131" s="4"/>
       <c r="C131" s="11"/>
@@ -5491,7 +6699,7 @@
       <c r="K131" s="2"/>
       <c r="L131" s="13"/>
     </row>
-    <row r="132" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="132" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A132" s="4"/>
       <c r="B132" s="4"/>
       <c r="C132" s="11"/>
@@ -5505,7 +6713,7 @@
       <c r="K132" s="2"/>
       <c r="L132" s="13"/>
     </row>
-    <row r="133" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="133" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A133" s="4"/>
       <c r="B133" s="4"/>
       <c r="C133" s="11"/>
@@ -5519,7 +6727,7 @@
       <c r="K133" s="2"/>
       <c r="L133" s="13"/>
     </row>
-    <row r="134" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="134" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A134" s="4"/>
       <c r="B134" s="4"/>
       <c r="C134" s="11"/>
@@ -5533,7 +6741,7 @@
       <c r="K134" s="2"/>
       <c r="L134" s="13"/>
     </row>
-    <row r="135" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="135" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A135" s="4"/>
       <c r="B135" s="4"/>
       <c r="C135" s="11"/>
@@ -5547,7 +6755,7 @@
       <c r="K135" s="2"/>
       <c r="L135" s="13"/>
     </row>
-    <row r="136" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="136" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A136" s="4"/>
       <c r="B136" s="4"/>
       <c r="C136" s="11"/>
@@ -5561,7 +6769,7 @@
       <c r="K136" s="2"/>
       <c r="L136" s="13"/>
     </row>
-    <row r="137" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="137" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A137" s="4"/>
       <c r="B137" s="4"/>
       <c r="C137" s="11"/>
@@ -5575,7 +6783,7 @@
       <c r="K137" s="2"/>
       <c r="L137" s="13"/>
     </row>
-    <row r="138" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="138" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A138" s="4"/>
       <c r="B138" s="4"/>
       <c r="C138" s="11"/>
@@ -5589,7 +6797,7 @@
       <c r="K138" s="2"/>
       <c r="L138" s="13"/>
     </row>
-    <row r="139" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="139" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A139" s="4"/>
       <c r="B139" s="4"/>
       <c r="C139" s="11"/>
@@ -5603,7 +6811,7 @@
       <c r="K139" s="2"/>
       <c r="L139" s="13"/>
     </row>
-    <row r="140" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="140" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A140" s="4"/>
       <c r="B140" s="4"/>
       <c r="C140" s="11"/>
@@ -5617,7 +6825,7 @@
       <c r="K140" s="2"/>
       <c r="L140" s="13"/>
     </row>
-    <row r="141" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="141" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A141" s="4"/>
       <c r="B141" s="4"/>
       <c r="C141" s="11"/>
@@ -5631,7 +6839,7 @@
       <c r="K141" s="2"/>
       <c r="L141" s="13"/>
     </row>
-    <row r="142" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="142" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A142" s="4"/>
       <c r="B142" s="4"/>
       <c r="C142" s="11"/>
@@ -5645,7 +6853,7 @@
       <c r="K142" s="2"/>
       <c r="L142" s="13"/>
     </row>
-    <row r="143" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="143" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A143" s="4"/>
       <c r="B143" s="4"/>
       <c r="C143" s="11"/>
@@ -5659,7 +6867,7 @@
       <c r="K143" s="2"/>
       <c r="L143" s="13"/>
     </row>
-    <row r="144" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="144" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A144" s="4"/>
       <c r="B144" s="4"/>
       <c r="C144" s="11"/>
@@ -5673,7 +6881,7 @@
       <c r="K144" s="2"/>
       <c r="L144" s="13"/>
     </row>
-    <row r="145" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="145" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A145" s="4"/>
       <c r="B145" s="4"/>
       <c r="C145" s="11"/>
@@ -5687,7 +6895,7 @@
       <c r="K145" s="2"/>
       <c r="L145" s="13"/>
     </row>
-    <row r="146" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="146" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A146" s="4"/>
       <c r="B146" s="4"/>
       <c r="C146" s="11"/>
@@ -5701,7 +6909,7 @@
       <c r="K146" s="2"/>
       <c r="L146" s="13"/>
     </row>
-    <row r="147" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="147" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A147" s="4"/>
       <c r="B147" s="4"/>
       <c r="C147" s="11"/>
@@ -5715,7 +6923,7 @@
       <c r="K147" s="2"/>
       <c r="L147" s="13"/>
     </row>
-    <row r="148" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="148" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A148" s="4"/>
       <c r="B148" s="4"/>
       <c r="C148" s="11"/>
@@ -5729,7 +6937,7 @@
       <c r="K148" s="2"/>
       <c r="L148" s="13"/>
     </row>
-    <row r="149" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="149" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A149" s="4"/>
       <c r="B149" s="4"/>
       <c r="C149" s="11"/>
@@ -5743,7 +6951,7 @@
       <c r="K149" s="2"/>
       <c r="L149" s="13"/>
     </row>
-    <row r="150" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="150" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A150" s="4"/>
       <c r="B150" s="4"/>
       <c r="C150" s="11"/>
@@ -5757,7 +6965,7 @@
       <c r="K150" s="2"/>
       <c r="L150" s="13"/>
     </row>
-    <row r="151" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="151" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A151" s="4"/>
       <c r="B151" s="4"/>
       <c r="C151" s="11"/>
@@ -5771,7 +6979,7 @@
       <c r="K151" s="2"/>
       <c r="L151" s="13"/>
     </row>
-    <row r="152" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="152" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A152" s="4"/>
       <c r="B152" s="4"/>
       <c r="C152" s="11"/>
@@ -5785,7 +6993,7 @@
       <c r="K152" s="2"/>
       <c r="L152" s="13"/>
     </row>
-    <row r="153" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="153" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A153" s="4"/>
       <c r="B153" s="4"/>
       <c r="C153" s="11"/>
@@ -5799,7 +7007,7 @@
       <c r="K153" s="2"/>
       <c r="L153" s="13"/>
     </row>
-    <row r="154" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="154" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A154" s="4"/>
       <c r="B154" s="4"/>
       <c r="C154" s="11"/>
@@ -5813,7 +7021,7 @@
       <c r="K154" s="2"/>
       <c r="L154" s="13"/>
     </row>
-    <row r="155" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="155" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A155" s="4"/>
       <c r="B155" s="4"/>
       <c r="C155" s="11"/>
@@ -5827,7 +7035,7 @@
       <c r="K155" s="2"/>
       <c r="L155" s="13"/>
     </row>
-    <row r="156" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="156" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A156" s="4"/>
       <c r="B156" s="4"/>
       <c r="C156" s="11"/>
@@ -5841,7 +7049,7 @@
       <c r="K156" s="2"/>
       <c r="L156" s="13"/>
     </row>
-    <row r="157" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="157" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A157" s="4"/>
       <c r="B157" s="4"/>
       <c r="C157" s="11"/>
@@ -5855,7 +7063,7 @@
       <c r="K157" s="2"/>
       <c r="L157" s="13"/>
     </row>
-    <row r="158" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="158" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A158" s="4"/>
       <c r="B158" s="4"/>
       <c r="C158" s="11"/>
@@ -5869,7 +7077,7 @@
       <c r="K158" s="2"/>
       <c r="L158" s="13"/>
     </row>
-    <row r="159" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="159" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A159" s="4"/>
       <c r="B159" s="4"/>
       <c r="C159" s="11"/>
@@ -5883,7 +7091,7 @@
       <c r="K159" s="2"/>
       <c r="L159" s="13"/>
     </row>
-    <row r="160" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="160" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A160" s="4"/>
       <c r="B160" s="4"/>
       <c r="C160" s="11"/>
@@ -5897,7 +7105,7 @@
       <c r="K160" s="2"/>
       <c r="L160" s="13"/>
     </row>
-    <row r="161" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="161" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A161" s="4"/>
       <c r="B161" s="4"/>
       <c r="C161" s="11"/>
@@ -5911,7 +7119,7 @@
       <c r="K161" s="2"/>
       <c r="L161" s="13"/>
     </row>
-    <row r="162" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="162" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A162" s="4"/>
       <c r="B162" s="4"/>
       <c r="C162" s="11"/>
@@ -5925,7 +7133,7 @@
       <c r="K162" s="2"/>
       <c r="L162" s="13"/>
     </row>
-    <row r="163" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="163" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A163" s="4"/>
       <c r="B163" s="4"/>
       <c r="C163" s="11"/>
@@ -5939,7 +7147,7 @@
       <c r="K163" s="2"/>
       <c r="L163" s="13"/>
     </row>
-    <row r="164" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="164" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A164" s="4"/>
       <c r="B164" s="4"/>
       <c r="C164" s="11"/>
@@ -5953,7 +7161,7 @@
       <c r="K164" s="2"/>
       <c r="L164" s="13"/>
     </row>
-    <row r="165" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="165" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A165" s="4"/>
       <c r="B165" s="4"/>
       <c r="C165" s="11"/>
@@ -5967,7 +7175,7 @@
       <c r="K165" s="2"/>
       <c r="L165" s="13"/>
     </row>
-    <row r="166" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="166" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A166" s="4"/>
       <c r="B166" s="4"/>
       <c r="C166" s="11"/>
@@ -5981,7 +7189,7 @@
       <c r="K166" s="2"/>
       <c r="L166" s="13"/>
     </row>
-    <row r="167" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="167" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A167" s="4"/>
       <c r="B167" s="4"/>
       <c r="C167" s="11"/>
@@ -5995,7 +7203,7 @@
       <c r="K167" s="2"/>
       <c r="L167" s="13"/>
     </row>
-    <row r="168" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="168" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A168" s="4"/>
       <c r="B168" s="4"/>
       <c r="C168" s="11"/>
@@ -6009,7 +7217,7 @@
       <c r="K168" s="2"/>
       <c r="L168" s="13"/>
     </row>
-    <row r="169" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="169" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A169" s="4"/>
       <c r="B169" s="4"/>
       <c r="C169" s="11"/>
@@ -6023,7 +7231,7 @@
       <c r="K169" s="2"/>
       <c r="L169" s="13"/>
     </row>
-    <row r="170" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="170" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A170" s="4"/>
       <c r="B170" s="4"/>
       <c r="C170" s="11"/>
@@ -6037,7 +7245,7 @@
       <c r="K170" s="2"/>
       <c r="L170" s="13"/>
     </row>
-    <row r="171" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="171" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A171" s="4"/>
       <c r="B171" s="4"/>
       <c r="C171" s="11"/>
@@ -6051,7 +7259,7 @@
       <c r="K171" s="2"/>
       <c r="L171" s="13"/>
     </row>
-    <row r="172" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="172" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A172" s="4"/>
       <c r="B172" s="4"/>
       <c r="C172" s="11"/>
@@ -6065,7 +7273,7 @@
       <c r="K172" s="2"/>
       <c r="L172" s="13"/>
     </row>
-    <row r="173" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="173" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A173" s="4"/>
       <c r="B173" s="4"/>
       <c r="C173" s="11"/>
@@ -6079,7 +7287,7 @@
       <c r="K173" s="2"/>
       <c r="L173" s="13"/>
     </row>
-    <row r="174" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="174" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A174" s="4"/>
       <c r="B174" s="4"/>
       <c r="C174" s="11"/>
@@ -6093,7 +7301,7 @@
       <c r="K174" s="2"/>
       <c r="L174" s="13"/>
     </row>
-    <row r="175" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="175" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A175" s="4"/>
       <c r="B175" s="4"/>
       <c r="C175" s="11"/>
@@ -6107,7 +7315,7 @@
       <c r="K175" s="2"/>
       <c r="L175" s="13"/>
     </row>
-    <row r="176" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="176" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A176" s="4"/>
       <c r="B176" s="4"/>
       <c r="C176" s="11"/>
@@ -6121,7 +7329,7 @@
       <c r="K176" s="2"/>
       <c r="L176" s="13"/>
     </row>
-    <row r="177" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="177" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A177" s="4"/>
       <c r="B177" s="4"/>
       <c r="C177" s="11"/>
@@ -6135,7 +7343,7 @@
       <c r="K177" s="2"/>
       <c r="L177" s="13"/>
     </row>
-    <row r="178" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="178" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A178" s="4"/>
       <c r="B178" s="4"/>
       <c r="C178" s="11"/>
@@ -6149,7 +7357,7 @@
       <c r="K178" s="2"/>
       <c r="L178" s="13"/>
     </row>
-    <row r="179" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="179" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A179" s="4"/>
       <c r="B179" s="4"/>
       <c r="C179" s="11"/>
@@ -6163,7 +7371,7 @@
       <c r="K179" s="2"/>
       <c r="L179" s="13"/>
     </row>
-    <row r="180" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="180" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A180" s="4"/>
       <c r="B180" s="4"/>
       <c r="C180" s="11"/>
@@ -6177,7 +7385,7 @@
       <c r="K180" s="2"/>
       <c r="L180" s="13"/>
     </row>
-    <row r="181" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="181" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A181" s="4"/>
       <c r="B181" s="4"/>
       <c r="C181" s="11"/>
@@ -6191,7 +7399,7 @@
       <c r="K181" s="2"/>
       <c r="L181" s="13"/>
     </row>
-    <row r="182" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="182" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A182" s="4"/>
       <c r="B182" s="4"/>
       <c r="C182" s="11"/>
@@ -6205,7 +7413,7 @@
       <c r="K182" s="2"/>
       <c r="L182" s="13"/>
     </row>
-    <row r="183" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="183" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A183" s="4"/>
       <c r="B183" s="4"/>
       <c r="C183" s="11"/>
@@ -6219,7 +7427,7 @@
       <c r="K183" s="2"/>
       <c r="L183" s="13"/>
     </row>
-    <row r="184" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="184" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A184" s="4"/>
       <c r="B184" s="4"/>
       <c r="C184" s="11"/>
@@ -6233,7 +7441,7 @@
       <c r="K184" s="2"/>
       <c r="L184" s="13"/>
     </row>
-    <row r="185" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="185" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A185" s="4"/>
       <c r="B185" s="4"/>
       <c r="C185" s="11"/>
@@ -6247,7 +7455,7 @@
       <c r="K185" s="2"/>
       <c r="L185" s="13"/>
     </row>
-    <row r="186" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="186" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A186" s="4"/>
       <c r="B186" s="4"/>
       <c r="C186" s="11"/>
@@ -6261,7 +7469,7 @@
       <c r="K186" s="2"/>
       <c r="L186" s="13"/>
     </row>
-    <row r="187" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="187" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A187" s="4"/>
       <c r="B187" s="4"/>
       <c r="C187" s="11"/>
@@ -6275,7 +7483,7 @@
       <c r="K187" s="2"/>
       <c r="L187" s="13"/>
     </row>
-    <row r="188" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="188" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A188" s="4"/>
       <c r="B188" s="4"/>
       <c r="C188" s="11"/>
@@ -6289,7 +7497,7 @@
       <c r="K188" s="2"/>
       <c r="L188" s="13"/>
     </row>
-    <row r="189" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="189" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A189" s="4"/>
       <c r="B189" s="4"/>
       <c r="C189" s="11"/>
@@ -6303,7 +7511,7 @@
       <c r="K189" s="2"/>
       <c r="L189" s="13"/>
     </row>
-    <row r="190" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="190" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A190" s="4"/>
       <c r="B190" s="4"/>
       <c r="C190" s="11"/>
@@ -6317,7 +7525,7 @@
       <c r="K190" s="2"/>
       <c r="L190" s="13"/>
     </row>
-    <row r="191" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="191" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A191" s="4"/>
       <c r="B191" s="4"/>
       <c r="C191" s="11"/>
@@ -6331,7 +7539,7 @@
       <c r="K191" s="2"/>
       <c r="L191" s="13"/>
     </row>
-    <row r="192" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="192" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A192" s="4"/>
       <c r="B192" s="4"/>
       <c r="C192" s="11"/>
@@ -6345,7 +7553,7 @@
       <c r="K192" s="2"/>
       <c r="L192" s="13"/>
     </row>
-    <row r="193" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="193" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A193" s="4"/>
       <c r="B193" s="4"/>
       <c r="C193" s="11"/>
@@ -6359,7 +7567,7 @@
       <c r="K193" s="2"/>
       <c r="L193" s="13"/>
     </row>
-    <row r="194" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="194" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A194" s="4"/>
       <c r="B194" s="4"/>
       <c r="C194" s="11"/>
@@ -6373,7 +7581,7 @@
       <c r="K194" s="2"/>
       <c r="L194" s="13"/>
     </row>
-    <row r="195" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="195" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A195" s="4"/>
       <c r="B195" s="4"/>
       <c r="C195" s="11"/>
@@ -6387,7 +7595,7 @@
       <c r="K195" s="2"/>
       <c r="L195" s="13"/>
     </row>
-    <row r="196" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="196" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A196" s="4"/>
       <c r="B196" s="4"/>
       <c r="C196" s="11"/>
@@ -6401,7 +7609,7 @@
       <c r="K196" s="2"/>
       <c r="L196" s="13"/>
     </row>
-    <row r="197" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="197" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A197" s="4"/>
       <c r="B197" s="4"/>
       <c r="C197" s="11"/>
@@ -6415,7 +7623,7 @@
       <c r="K197" s="2"/>
       <c r="L197" s="13"/>
     </row>
-    <row r="198" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="198" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A198" s="4"/>
       <c r="B198" s="4"/>
       <c r="C198" s="11"/>
@@ -6429,7 +7637,7 @@
       <c r="K198" s="2"/>
       <c r="L198" s="13"/>
     </row>
-    <row r="199" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="199" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A199" s="4"/>
       <c r="B199" s="4"/>
       <c r="C199" s="11"/>
@@ -6443,7 +7651,7 @@
       <c r="K199" s="2"/>
       <c r="L199" s="13"/>
     </row>
-    <row r="200" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="200" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A200" s="4"/>
       <c r="B200" s="4"/>
       <c r="C200" s="11"/>
@@ -6457,7 +7665,7 @@
       <c r="K200" s="2"/>
       <c r="L200" s="13"/>
     </row>
-    <row r="201" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="201" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A201" s="4"/>
       <c r="B201" s="4"/>
       <c r="C201" s="11"/>
@@ -6471,7 +7679,7 @@
       <c r="K201" s="2"/>
       <c r="L201" s="13"/>
     </row>
-    <row r="202" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="202" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A202" s="4"/>
       <c r="B202" s="4"/>
       <c r="C202" s="11"/>
@@ -6485,7 +7693,7 @@
       <c r="K202" s="2"/>
       <c r="L202" s="13"/>
     </row>
-    <row r="203" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="203" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A203" s="4"/>
       <c r="B203" s="4"/>
       <c r="C203" s="11"/>
@@ -6499,7 +7707,7 @@
       <c r="K203" s="2"/>
       <c r="L203" s="13"/>
     </row>
-    <row r="204" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="204" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A204" s="4"/>
       <c r="B204" s="4"/>
       <c r="C204" s="11"/>
@@ -6513,7 +7721,7 @@
       <c r="K204" s="2"/>
       <c r="L204" s="13"/>
     </row>
-    <row r="205" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="205" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A205" s="4"/>
       <c r="B205" s="4"/>
       <c r="C205" s="11"/>
@@ -6527,7 +7735,7 @@
       <c r="K205" s="2"/>
       <c r="L205" s="13"/>
     </row>
-    <row r="206" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="206" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A206" s="4"/>
       <c r="B206" s="4"/>
       <c r="C206" s="11"/>
@@ -6541,7 +7749,7 @@
       <c r="K206" s="2"/>
       <c r="L206" s="13"/>
     </row>
-    <row r="207" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="207" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A207" s="4"/>
       <c r="B207" s="4"/>
       <c r="C207" s="11"/>
@@ -6555,7 +7763,7 @@
       <c r="K207" s="2"/>
       <c r="L207" s="13"/>
     </row>
-    <row r="208" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="208" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A208" s="4"/>
       <c r="B208" s="4"/>
       <c r="C208" s="11"/>
@@ -6569,7 +7777,7 @@
       <c r="K208" s="2"/>
       <c r="L208" s="13"/>
     </row>
-    <row r="209" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="209" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A209" s="4"/>
       <c r="B209" s="4"/>
       <c r="C209" s="11"/>
@@ -6583,7 +7791,7 @@
       <c r="K209" s="2"/>
       <c r="L209" s="13"/>
     </row>
-    <row r="210" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="210" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A210" s="4"/>
       <c r="B210" s="4"/>
       <c r="C210" s="11"/>
@@ -6597,7 +7805,7 @@
       <c r="K210" s="2"/>
       <c r="L210" s="13"/>
     </row>
-    <row r="211" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="211" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A211" s="4"/>
       <c r="B211" s="4"/>
       <c r="C211" s="11"/>
@@ -6611,7 +7819,7 @@
       <c r="K211" s="2"/>
       <c r="L211" s="13"/>
     </row>
-    <row r="212" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="212" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A212" s="4"/>
       <c r="B212" s="4"/>
       <c r="C212" s="11"/>
@@ -6625,7 +7833,7 @@
       <c r="K212" s="2"/>
       <c r="L212" s="13"/>
     </row>
-    <row r="213" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="213" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A213" s="4"/>
       <c r="B213" s="4"/>
       <c r="C213" s="11"/>
@@ -6639,7 +7847,7 @@
       <c r="K213" s="2"/>
       <c r="L213" s="13"/>
     </row>
-    <row r="214" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="214" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A214" s="4"/>
       <c r="B214" s="4"/>
       <c r="C214" s="11"/>
@@ -6653,7 +7861,7 @@
       <c r="K214" s="2"/>
       <c r="L214" s="13"/>
     </row>
-    <row r="215" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="215" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A215" s="4"/>
       <c r="B215" s="4"/>
       <c r="C215" s="11"/>
@@ -6667,7 +7875,7 @@
       <c r="K215" s="2"/>
       <c r="L215" s="13"/>
     </row>
-    <row r="216" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="216" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A216" s="4"/>
       <c r="B216" s="4"/>
       <c r="C216" s="11"/>
@@ -6681,7 +7889,7 @@
       <c r="K216" s="2"/>
       <c r="L216" s="13"/>
     </row>
-    <row r="217" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="217" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A217" s="4"/>
       <c r="B217" s="4"/>
       <c r="C217" s="11"/>
@@ -6695,7 +7903,7 @@
       <c r="K217" s="2"/>
       <c r="L217" s="13"/>
     </row>
-    <row r="218" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="218" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A218" s="4"/>
       <c r="B218" s="4"/>
       <c r="C218" s="11"/>
@@ -6709,7 +7917,7 @@
       <c r="K218" s="2"/>
       <c r="L218" s="13"/>
     </row>
-    <row r="219" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="219" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A219" s="4"/>
       <c r="B219" s="4"/>
       <c r="C219" s="11"/>
@@ -6723,7 +7931,7 @@
       <c r="K219" s="2"/>
       <c r="L219" s="13"/>
     </row>
-    <row r="220" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="220" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A220" s="4"/>
       <c r="B220" s="4"/>
       <c r="C220" s="11"/>
@@ -6737,7 +7945,7 @@
       <c r="K220" s="2"/>
       <c r="L220" s="13"/>
     </row>
-    <row r="221" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="221" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A221" s="4"/>
       <c r="B221" s="4"/>
       <c r="C221" s="11"/>
@@ -6751,7 +7959,7 @@
       <c r="K221" s="2"/>
       <c r="L221" s="13"/>
     </row>
-    <row r="222" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="222" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A222" s="4"/>
       <c r="B222" s="4"/>
       <c r="C222" s="11"/>
@@ -6765,7 +7973,7 @@
       <c r="K222" s="2"/>
       <c r="L222" s="13"/>
     </row>
-    <row r="223" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="223" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A223" s="4"/>
       <c r="B223" s="4"/>
       <c r="C223" s="11"/>
@@ -6779,7 +7987,7 @@
       <c r="K223" s="2"/>
       <c r="L223" s="13"/>
     </row>
-    <row r="224" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="224" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A224" s="4"/>
       <c r="B224" s="4"/>
       <c r="C224" s="11"/>
@@ -6793,7 +8001,7 @@
       <c r="K224" s="2"/>
       <c r="L224" s="13"/>
     </row>
-    <row r="225" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="225" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A225" s="4"/>
       <c r="B225" s="4"/>
       <c r="C225" s="11"/>
@@ -6807,7 +8015,7 @@
       <c r="K225" s="2"/>
       <c r="L225" s="13"/>
     </row>
-    <row r="226" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="226" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A226" s="4"/>
       <c r="B226" s="4"/>
       <c r="C226" s="11"/>
@@ -6821,7 +8029,7 @@
       <c r="K226" s="2"/>
       <c r="L226" s="13"/>
     </row>
-    <row r="227" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="227" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A227" s="4"/>
       <c r="B227" s="4"/>
       <c r="C227" s="11"/>
@@ -6835,7 +8043,7 @@
       <c r="K227" s="2"/>
       <c r="L227" s="13"/>
     </row>
-    <row r="228" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="228" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A228" s="4"/>
       <c r="B228" s="4"/>
       <c r="C228" s="11"/>
@@ -6849,7 +8057,7 @@
       <c r="K228" s="2"/>
       <c r="L228" s="13"/>
     </row>
-    <row r="229" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="229" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A229" s="4"/>
       <c r="B229" s="4"/>
       <c r="C229" s="11"/>
@@ -6863,7 +8071,7 @@
       <c r="K229" s="2"/>
       <c r="L229" s="13"/>
     </row>
-    <row r="230" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="230" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A230" s="4"/>
       <c r="B230" s="4"/>
       <c r="C230" s="11"/>
@@ -6877,7 +8085,7 @@
       <c r="K230" s="2"/>
       <c r="L230" s="13"/>
     </row>
-    <row r="231" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="231" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A231" s="4"/>
       <c r="B231" s="4"/>
       <c r="C231" s="11"/>
@@ -6891,7 +8099,7 @@
       <c r="K231" s="2"/>
       <c r="L231" s="13"/>
     </row>
-    <row r="232" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="232" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A232" s="4"/>
       <c r="B232" s="4"/>
       <c r="C232" s="11"/>
@@ -6905,7 +8113,7 @@
       <c r="K232" s="2"/>
       <c r="L232" s="13"/>
     </row>
-    <row r="233" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="233" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A233" s="4"/>
       <c r="B233" s="4"/>
       <c r="C233" s="11"/>
@@ -6919,7 +8127,7 @@
       <c r="K233" s="2"/>
       <c r="L233" s="13"/>
     </row>
-    <row r="234" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="234" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A234" s="4"/>
       <c r="B234" s="4"/>
       <c r="C234" s="11"/>
@@ -6933,7 +8141,7 @@
       <c r="K234" s="2"/>
       <c r="L234" s="13"/>
     </row>
-    <row r="235" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="235" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A235" s="4"/>
       <c r="B235" s="4"/>
       <c r="C235" s="11"/>
@@ -6947,7 +8155,7 @@
       <c r="K235" s="2"/>
       <c r="L235" s="13"/>
     </row>
-    <row r="236" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="236" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A236" s="4"/>
       <c r="B236" s="4"/>
       <c r="C236" s="11"/>
@@ -6961,7 +8169,7 @@
       <c r="K236" s="2"/>
       <c r="L236" s="13"/>
     </row>
-    <row r="237" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="237" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A237" s="4"/>
       <c r="B237" s="4"/>
       <c r="C237" s="11"/>
@@ -6975,7 +8183,7 @@
       <c r="K237" s="2"/>
       <c r="L237" s="13"/>
     </row>
-    <row r="238" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="238" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A238" s="4"/>
       <c r="B238" s="4"/>
       <c r="C238" s="11"/>
@@ -6989,7 +8197,7 @@
       <c r="K238" s="2"/>
       <c r="L238" s="13"/>
     </row>
-    <row r="239" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="239" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A239" s="4"/>
       <c r="B239" s="4"/>
       <c r="C239" s="11"/>
@@ -7003,7 +8211,7 @@
       <c r="K239" s="2"/>
       <c r="L239" s="13"/>
     </row>
-    <row r="240" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="240" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A240" s="4"/>
       <c r="B240" s="4"/>
       <c r="C240" s="11"/>
@@ -7017,7 +8225,7 @@
       <c r="K240" s="2"/>
       <c r="L240" s="13"/>
     </row>
-    <row r="241" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="241" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A241" s="4"/>
       <c r="B241" s="4"/>
       <c r="C241" s="11"/>
@@ -7031,7 +8239,7 @@
       <c r="K241" s="2"/>
       <c r="L241" s="13"/>
     </row>
-    <row r="242" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="242" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A242" s="4"/>
       <c r="B242" s="4"/>
       <c r="C242" s="11"/>
@@ -7045,7 +8253,7 @@
       <c r="K242" s="2"/>
       <c r="L242" s="13"/>
     </row>
-    <row r="243" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="243" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A243" s="4"/>
       <c r="B243" s="4"/>
       <c r="C243" s="11"/>
@@ -7059,7 +8267,7 @@
       <c r="K243" s="2"/>
       <c r="L243" s="13"/>
     </row>
-    <row r="244" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="244" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A244" s="4"/>
       <c r="B244" s="4"/>
       <c r="C244" s="11"/>
@@ -7073,7 +8281,7 @@
       <c r="K244" s="2"/>
       <c r="L244" s="13"/>
     </row>
-    <row r="245" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="245" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A245" s="4"/>
       <c r="B245" s="4"/>
       <c r="C245" s="11"/>
@@ -7087,7 +8295,7 @@
       <c r="K245" s="2"/>
       <c r="L245" s="13"/>
     </row>
-    <row r="246" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="246" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A246" s="4"/>
       <c r="B246" s="4"/>
       <c r="C246" s="11"/>
@@ -7101,7 +8309,7 @@
       <c r="K246" s="2"/>
       <c r="L246" s="13"/>
     </row>
-    <row r="247" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="247" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A247" s="4"/>
       <c r="B247" s="4"/>
       <c r="C247" s="11"/>
@@ -7115,7 +8323,7 @@
       <c r="K247" s="2"/>
       <c r="L247" s="13"/>
     </row>
-    <row r="248" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="248" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A248" s="4"/>
       <c r="B248" s="4"/>
       <c r="C248" s="11"/>
@@ -7129,7 +8337,7 @@
       <c r="K248" s="2"/>
       <c r="L248" s="13"/>
     </row>
-    <row r="249" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="249" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A249" s="4"/>
       <c r="B249" s="4"/>
       <c r="C249" s="11"/>
@@ -7143,7 +8351,7 @@
       <c r="K249" s="2"/>
       <c r="L249" s="13"/>
     </row>
-    <row r="250" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="250" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A250" s="4"/>
       <c r="B250" s="4"/>
       <c r="C250" s="11"/>
@@ -7157,7 +8365,7 @@
       <c r="K250" s="2"/>
       <c r="L250" s="13"/>
     </row>
-    <row r="251" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="251" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A251" s="4"/>
       <c r="B251" s="4"/>
       <c r="C251" s="11"/>
@@ -7171,7 +8379,7 @@
       <c r="K251" s="2"/>
       <c r="L251" s="13"/>
     </row>
-    <row r="252" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="252" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A252" s="4"/>
       <c r="B252" s="4"/>
       <c r="C252" s="11"/>
@@ -7185,7 +8393,7 @@
       <c r="K252" s="2"/>
       <c r="L252" s="13"/>
     </row>
-    <row r="253" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="253" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A253" s="4"/>
       <c r="B253" s="4"/>
       <c r="C253" s="11"/>
@@ -7199,7 +8407,7 @@
       <c r="K253" s="2"/>
       <c r="L253" s="13"/>
     </row>
-    <row r="254" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="254" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A254" s="4"/>
       <c r="B254" s="4"/>
       <c r="C254" s="11"/>
@@ -7213,7 +8421,7 @@
       <c r="K254" s="2"/>
       <c r="L254" s="13"/>
     </row>
-    <row r="255" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="255" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A255" s="4"/>
       <c r="B255" s="4"/>
       <c r="C255" s="11"/>
@@ -7227,7 +8435,7 @@
       <c r="K255" s="2"/>
       <c r="L255" s="13"/>
     </row>
-    <row r="256" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="256" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A256" s="4"/>
       <c r="B256" s="4"/>
       <c r="C256" s="11"/>
@@ -7241,7 +8449,7 @@
       <c r="K256" s="2"/>
       <c r="L256" s="13"/>
     </row>
-    <row r="257" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="257" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A257" s="4"/>
       <c r="B257" s="4"/>
       <c r="C257" s="11"/>
@@ -7255,7 +8463,7 @@
       <c r="K257" s="2"/>
       <c r="L257" s="13"/>
     </row>
-    <row r="258" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="258" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A258" s="4"/>
       <c r="B258" s="4"/>
       <c r="C258" s="11"/>
@@ -7269,7 +8477,7 @@
       <c r="K258" s="2"/>
       <c r="L258" s="13"/>
     </row>
-    <row r="259" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="259" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A259" s="4"/>
       <c r="B259" s="4"/>
       <c r="C259" s="11"/>
@@ -7283,7 +8491,7 @@
       <c r="K259" s="2"/>
       <c r="L259" s="13"/>
     </row>
-    <row r="260" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="260" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A260" s="4"/>
       <c r="B260" s="4"/>
       <c r="C260" s="11"/>
@@ -7297,7 +8505,7 @@
       <c r="K260" s="2"/>
       <c r="L260" s="13"/>
     </row>
-    <row r="261" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="261" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A261" s="4"/>
       <c r="B261" s="4"/>
       <c r="C261" s="11"/>
@@ -7311,7 +8519,7 @@
       <c r="K261" s="2"/>
       <c r="L261" s="13"/>
     </row>
-    <row r="262" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="262" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A262" s="4"/>
       <c r="B262" s="4"/>
       <c r="C262" s="11"/>
@@ -7325,7 +8533,7 @@
       <c r="K262" s="2"/>
       <c r="L262" s="13"/>
     </row>
-    <row r="263" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="263" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A263" s="4"/>
       <c r="B263" s="4"/>
       <c r="C263" s="11"/>
@@ -7339,7 +8547,7 @@
       <c r="K263" s="2"/>
       <c r="L263" s="13"/>
     </row>
-    <row r="264" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="264" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A264" s="4"/>
       <c r="B264" s="4"/>
       <c r="C264" s="11"/>
@@ -7353,7 +8561,7 @@
       <c r="K264" s="2"/>
       <c r="L264" s="13"/>
     </row>
-    <row r="265" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="265" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A265" s="4"/>
       <c r="B265" s="4"/>
       <c r="C265" s="11"/>
@@ -7367,7 +8575,7 @@
       <c r="K265" s="2"/>
       <c r="L265" s="13"/>
     </row>
-    <row r="266" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="266" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A266" s="4"/>
       <c r="B266" s="4"/>
       <c r="C266" s="11"/>
@@ -7381,7 +8589,7 @@
       <c r="K266" s="2"/>
       <c r="L266" s="13"/>
     </row>
-    <row r="267" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="267" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A267" s="4"/>
       <c r="B267" s="4"/>
       <c r="C267" s="11"/>
@@ -7395,7 +8603,7 @@
       <c r="K267" s="2"/>
       <c r="L267" s="13"/>
     </row>
-    <row r="268" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="268" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A268" s="4"/>
       <c r="B268" s="4"/>
       <c r="C268" s="11"/>
@@ -7409,7 +8617,7 @@
       <c r="K268" s="2"/>
       <c r="L268" s="13"/>
     </row>
-    <row r="269" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="269" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A269" s="4"/>
       <c r="B269" s="4"/>
       <c r="C269" s="11"/>
@@ -7423,7 +8631,7 @@
       <c r="K269" s="2"/>
       <c r="L269" s="13"/>
     </row>
-    <row r="270" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="270" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A270" s="4"/>
       <c r="B270" s="4"/>
       <c r="C270" s="11"/>
@@ -7437,7 +8645,7 @@
       <c r="K270" s="2"/>
       <c r="L270" s="13"/>
     </row>
-    <row r="271" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="271" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A271" s="4"/>
       <c r="B271" s="4"/>
       <c r="C271" s="11"/>
@@ -7451,7 +8659,7 @@
       <c r="K271" s="2"/>
       <c r="L271" s="13"/>
     </row>
-    <row r="272" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="272" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A272" s="4"/>
       <c r="B272" s="4"/>
       <c r="C272" s="11"/>
@@ -7465,7 +8673,7 @@
       <c r="K272" s="2"/>
       <c r="L272" s="13"/>
     </row>
-    <row r="273" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="273" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A273" s="4"/>
       <c r="B273" s="4"/>
       <c r="C273" s="11"/>
@@ -7479,7 +8687,7 @@
       <c r="K273" s="2"/>
       <c r="L273" s="13"/>
     </row>
-    <row r="274" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="274" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A274" s="4"/>
       <c r="B274" s="4"/>
       <c r="C274" s="11"/>
@@ -7493,7 +8701,7 @@
       <c r="K274" s="2"/>
       <c r="L274" s="13"/>
     </row>
-    <row r="275" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="275" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A275" s="4"/>
       <c r="B275" s="4"/>
       <c r="C275" s="11"/>
@@ -7507,7 +8715,7 @@
       <c r="K275" s="2"/>
       <c r="L275" s="13"/>
     </row>
-    <row r="276" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="276" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A276" s="4"/>
       <c r="B276" s="4"/>
       <c r="C276" s="11"/>
@@ -7521,7 +8729,7 @@
       <c r="K276" s="2"/>
       <c r="L276" s="13"/>
     </row>
-    <row r="277" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="277" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A277" s="4"/>
       <c r="B277" s="4"/>
       <c r="C277" s="11"/>
@@ -7535,7 +8743,7 @@
       <c r="K277" s="2"/>
       <c r="L277" s="13"/>
     </row>
-    <row r="278" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="278" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A278" s="4"/>
       <c r="B278" s="4"/>
       <c r="C278" s="11"/>
@@ -7549,7 +8757,7 @@
       <c r="K278" s="2"/>
       <c r="L278" s="13"/>
     </row>
-    <row r="279" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="279" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A279" s="4"/>
       <c r="B279" s="4"/>
       <c r="C279" s="11"/>
@@ -7563,7 +8771,7 @@
       <c r="K279" s="2"/>
       <c r="L279" s="13"/>
     </row>
-    <row r="280" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="280" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A280" s="4"/>
       <c r="B280" s="4"/>
       <c r="C280" s="11"/>
@@ -7577,7 +8785,7 @@
       <c r="K280" s="2"/>
       <c r="L280" s="13"/>
     </row>
-    <row r="281" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="281" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A281" s="4"/>
       <c r="B281" s="4"/>
       <c r="C281" s="11"/>
@@ -7591,7 +8799,7 @@
       <c r="K281" s="2"/>
       <c r="L281" s="13"/>
     </row>
-    <row r="282" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="282" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A282" s="4"/>
       <c r="B282" s="4"/>
       <c r="C282" s="11"/>
@@ -7605,7 +8813,7 @@
       <c r="K282" s="2"/>
       <c r="L282" s="13"/>
     </row>
-    <row r="283" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="283" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A283" s="4"/>
       <c r="B283" s="4"/>
       <c r="C283" s="11"/>
@@ -7619,7 +8827,7 @@
       <c r="K283" s="2"/>
       <c r="L283" s="13"/>
     </row>
-    <row r="284" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="284" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A284" s="4"/>
       <c r="B284" s="4"/>
       <c r="C284" s="11"/>
@@ -7633,7 +8841,7 @@
       <c r="K284" s="2"/>
       <c r="L284" s="13"/>
     </row>
-    <row r="285" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="285" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A285" s="4"/>
       <c r="B285" s="4"/>
       <c r="C285" s="11"/>
@@ -7647,7 +8855,7 @@
       <c r="K285" s="2"/>
       <c r="L285" s="13"/>
     </row>
-    <row r="286" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="286" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A286" s="4"/>
       <c r="B286" s="4"/>
       <c r="C286" s="11"/>
@@ -7661,7 +8869,7 @@
       <c r="K286" s="2"/>
       <c r="L286" s="13"/>
     </row>
-    <row r="287" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="287" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A287" s="4"/>
       <c r="B287" s="4"/>
       <c r="C287" s="11"/>
@@ -7675,7 +8883,7 @@
       <c r="K287" s="2"/>
       <c r="L287" s="13"/>
     </row>
-    <row r="288" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="288" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A288" s="4"/>
       <c r="B288" s="4"/>
       <c r="C288" s="11"/>
@@ -7689,7 +8897,7 @@
       <c r="K288" s="2"/>
       <c r="L288" s="13"/>
     </row>
-    <row r="289" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="289" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A289" s="4"/>
       <c r="B289" s="4"/>
       <c r="C289" s="11"/>
@@ -7703,7 +8911,7 @@
       <c r="K289" s="2"/>
       <c r="L289" s="13"/>
     </row>
-    <row r="290" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="290" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A290" s="4"/>
       <c r="B290" s="4"/>
       <c r="C290" s="11"/>
@@ -7717,7 +8925,7 @@
       <c r="K290" s="2"/>
       <c r="L290" s="13"/>
     </row>
-    <row r="291" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="291" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A291" s="4"/>
       <c r="B291" s="4"/>
       <c r="C291" s="11"/>
@@ -7731,7 +8939,7 @@
       <c r="K291" s="2"/>
       <c r="L291" s="13"/>
     </row>
-    <row r="292" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="292" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A292" s="4"/>
       <c r="B292" s="4"/>
       <c r="C292" s="11"/>
@@ -7745,7 +8953,7 @@
       <c r="K292" s="2"/>
       <c r="L292" s="13"/>
     </row>
-    <row r="293" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="293" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A293" s="4"/>
       <c r="B293" s="4"/>
       <c r="C293" s="11"/>
@@ -7759,7 +8967,7 @@
       <c r="K293" s="2"/>
       <c r="L293" s="13"/>
     </row>
-    <row r="294" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="294" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A294" s="4"/>
       <c r="B294" s="4"/>
       <c r="C294" s="11"/>
@@ -7773,7 +8981,7 @@
       <c r="K294" s="2"/>
       <c r="L294" s="13"/>
     </row>
-    <row r="295" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="295" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A295" s="4"/>
       <c r="B295" s="4"/>
       <c r="C295" s="11"/>
@@ -7787,7 +8995,7 @@
       <c r="K295" s="2"/>
       <c r="L295" s="13"/>
     </row>
-    <row r="296" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="296" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A296" s="4"/>
       <c r="B296" s="4"/>
       <c r="C296" s="11"/>
@@ -7801,7 +9009,7 @@
       <c r="K296" s="2"/>
       <c r="L296" s="13"/>
     </row>
-    <row r="297" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="297" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A297" s="4"/>
       <c r="B297" s="4"/>
       <c r="C297" s="11"/>
@@ -7815,7 +9023,7 @@
       <c r="K297" s="2"/>
       <c r="L297" s="13"/>
     </row>
-    <row r="298" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="298" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A298" s="4"/>
       <c r="B298" s="4"/>
       <c r="C298" s="11"/>
@@ -7829,7 +9037,7 @@
       <c r="K298" s="2"/>
       <c r="L298" s="13"/>
     </row>
-    <row r="299" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="299" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A299" s="4"/>
       <c r="B299" s="4"/>
       <c r="C299" s="11"/>
@@ -7843,7 +9051,7 @@
       <c r="K299" s="2"/>
       <c r="L299" s="13"/>
     </row>
-    <row r="300" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="300" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A300" s="4"/>
       <c r="B300" s="4"/>
       <c r="C300" s="11"/>
@@ -7857,7 +9065,7 @@
       <c r="K300" s="2"/>
       <c r="L300" s="13"/>
     </row>
-    <row r="301" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="301" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A301" s="4"/>
       <c r="B301" s="4"/>
       <c r="C301" s="11"/>
@@ -7871,7 +9079,7 @@
       <c r="K301" s="2"/>
       <c r="L301" s="13"/>
     </row>
-    <row r="302" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="302" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A302" s="4"/>
       <c r="B302" s="4"/>
       <c r="C302" s="11"/>
@@ -7885,7 +9093,7 @@
       <c r="K302" s="2"/>
       <c r="L302" s="13"/>
     </row>
-    <row r="303" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="303" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A303" s="4"/>
       <c r="B303" s="4"/>
       <c r="C303" s="11"/>
@@ -7899,7 +9107,7 @@
       <c r="K303" s="2"/>
       <c r="L303" s="13"/>
     </row>
-    <row r="304" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="304" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A304" s="4"/>
       <c r="B304" s="4"/>
       <c r="C304" s="11"/>
@@ -7913,7 +9121,7 @@
       <c r="K304" s="2"/>
       <c r="L304" s="13"/>
     </row>
-    <row r="305" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="305" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A305" s="4"/>
       <c r="B305" s="4"/>
       <c r="C305" s="11"/>
@@ -7927,7 +9135,7 @@
       <c r="K305" s="2"/>
       <c r="L305" s="13"/>
     </row>
-    <row r="306" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="306" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A306" s="4"/>
       <c r="B306" s="4"/>
       <c r="C306" s="11"/>
@@ -7941,7 +9149,7 @@
       <c r="K306" s="2"/>
       <c r="L306" s="13"/>
     </row>
-    <row r="307" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="307" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A307" s="4"/>
       <c r="B307" s="4"/>
       <c r="C307" s="11"/>
@@ -7955,7 +9163,7 @@
       <c r="K307" s="2"/>
       <c r="L307" s="13"/>
     </row>
-    <row r="308" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="308" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A308" s="4"/>
       <c r="B308" s="4"/>
       <c r="C308" s="11"/>
@@ -7969,7 +9177,7 @@
       <c r="K308" s="2"/>
       <c r="L308" s="13"/>
     </row>
-    <row r="309" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="309" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A309" s="4"/>
       <c r="B309" s="4"/>
       <c r="C309" s="11"/>
@@ -7983,7 +9191,7 @@
       <c r="K309" s="2"/>
       <c r="L309" s="13"/>
     </row>
-    <row r="310" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="310" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A310" s="4"/>
       <c r="B310" s="4"/>
       <c r="C310" s="11"/>
@@ -7997,7 +9205,7 @@
       <c r="K310" s="2"/>
       <c r="L310" s="13"/>
     </row>
-    <row r="311" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="311" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A311" s="4"/>
       <c r="B311" s="4"/>
       <c r="C311" s="11"/>
@@ -8011,7 +9219,7 @@
       <c r="K311" s="2"/>
       <c r="L311" s="13"/>
     </row>
-    <row r="312" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="312" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A312" s="4"/>
       <c r="B312" s="4"/>
       <c r="C312" s="11"/>
@@ -8025,7 +9233,7 @@
       <c r="K312" s="2"/>
       <c r="L312" s="13"/>
     </row>
-    <row r="313" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="313" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A313" s="4"/>
       <c r="B313" s="4"/>
       <c r="C313" s="11"/>
@@ -8039,7 +9247,7 @@
       <c r="K313" s="2"/>
       <c r="L313" s="13"/>
     </row>
-    <row r="314" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="314" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A314" s="4"/>
       <c r="B314" s="4"/>
       <c r="C314" s="11"/>
@@ -8053,7 +9261,7 @@
       <c r="K314" s="2"/>
       <c r="L314" s="13"/>
     </row>
-    <row r="315" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="315" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A315" s="4"/>
       <c r="B315" s="4"/>
       <c r="C315" s="11"/>
@@ -8067,7 +9275,7 @@
       <c r="K315" s="2"/>
       <c r="L315" s="13"/>
     </row>
-    <row r="316" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="316" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A316" s="4"/>
       <c r="B316" s="4"/>
       <c r="C316" s="11"/>
@@ -8081,7 +9289,7 @@
       <c r="K316" s="2"/>
       <c r="L316" s="13"/>
     </row>
-    <row r="317" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="317" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A317" s="4"/>
       <c r="B317" s="4"/>
       <c r="C317" s="11"/>
@@ -8095,7 +9303,7 @@
       <c r="K317" s="2"/>
       <c r="L317" s="13"/>
     </row>
-    <row r="318" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="318" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A318" s="4"/>
       <c r="B318" s="4"/>
       <c r="C318" s="11"/>
@@ -8109,7 +9317,7 @@
       <c r="K318" s="2"/>
       <c r="L318" s="13"/>
     </row>
-    <row r="319" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="319" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A319" s="4"/>
       <c r="B319" s="4"/>
       <c r="C319" s="11"/>
@@ -8123,7 +9331,7 @@
       <c r="K319" s="2"/>
       <c r="L319" s="13"/>
     </row>
-    <row r="320" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="320" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A320" s="4"/>
       <c r="B320" s="4"/>
       <c r="C320" s="11"/>
@@ -8137,7 +9345,7 @@
       <c r="K320" s="2"/>
       <c r="L320" s="13"/>
     </row>
-    <row r="321" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="321" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A321" s="4"/>
       <c r="B321" s="4"/>
       <c r="C321" s="11"/>
@@ -8151,7 +9359,7 @@
       <c r="K321" s="2"/>
       <c r="L321" s="13"/>
     </row>
-    <row r="322" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="322" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A322" s="4"/>
       <c r="B322" s="4"/>
       <c r="C322" s="11"/>
@@ -8165,7 +9373,7 @@
       <c r="K322" s="2"/>
       <c r="L322" s="13"/>
     </row>
-    <row r="323" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="323" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A323" s="4"/>
       <c r="B323" s="4"/>
       <c r="C323" s="11"/>
@@ -8179,7 +9387,7 @@
       <c r="K323" s="2"/>
       <c r="L323" s="13"/>
     </row>
-    <row r="324" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="324" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A324" s="4"/>
       <c r="B324" s="4"/>
       <c r="C324" s="11"/>
@@ -8193,7 +9401,7 @@
       <c r="K324" s="2"/>
       <c r="L324" s="13"/>
     </row>
-    <row r="325" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="325" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A325" s="4"/>
       <c r="B325" s="4"/>
       <c r="C325" s="11"/>
@@ -8207,7 +9415,7 @@
       <c r="K325" s="2"/>
       <c r="L325" s="13"/>
     </row>
-    <row r="326" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="326" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A326" s="4"/>
       <c r="B326" s="4"/>
       <c r="C326" s="11"/>
@@ -8221,7 +9429,7 @@
       <c r="K326" s="2"/>
       <c r="L326" s="13"/>
     </row>
-    <row r="327" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="327" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A327" s="4"/>
       <c r="B327" s="4"/>
       <c r="C327" s="11"/>
@@ -8235,7 +9443,7 @@
       <c r="K327" s="2"/>
       <c r="L327" s="13"/>
     </row>
-    <row r="328" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="328" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A328" s="4"/>
       <c r="B328" s="4"/>
       <c r="C328" s="11"/>
@@ -8249,7 +9457,7 @@
       <c r="K328" s="2"/>
       <c r="L328" s="13"/>
     </row>
-    <row r="329" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="329" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A329" s="4"/>
       <c r="B329" s="4"/>
       <c r="C329" s="11"/>
@@ -8263,7 +9471,7 @@
       <c r="K329" s="2"/>
       <c r="L329" s="13"/>
     </row>
-    <row r="330" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="330" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A330" s="4"/>
       <c r="B330" s="4"/>
       <c r="C330" s="11"/>
@@ -8277,7 +9485,7 @@
       <c r="K330" s="2"/>
       <c r="L330" s="13"/>
     </row>
-    <row r="331" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="331" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A331" s="4"/>
       <c r="B331" s="4"/>
       <c r="C331" s="11"/>
@@ -8291,7 +9499,7 @@
       <c r="K331" s="2"/>
       <c r="L331" s="13"/>
     </row>
-    <row r="332" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="332" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A332" s="4"/>
       <c r="B332" s="4"/>
       <c r="C332" s="11"/>
@@ -8305,7 +9513,7 @@
       <c r="K332" s="2"/>
       <c r="L332" s="13"/>
     </row>
-    <row r="333" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="333" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A333" s="4"/>
       <c r="B333" s="4"/>
       <c r="C333" s="11"/>
@@ -8319,7 +9527,7 @@
       <c r="K333" s="2"/>
       <c r="L333" s="13"/>
     </row>
-    <row r="334" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="334" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A334" s="4"/>
       <c r="B334" s="4"/>
       <c r="C334" s="11"/>
@@ -8333,7 +9541,7 @@
       <c r="K334" s="2"/>
       <c r="L334" s="13"/>
     </row>
-    <row r="335" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="335" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A335" s="4"/>
       <c r="B335" s="4"/>
       <c r="C335" s="11"/>
@@ -8347,7 +9555,7 @@
       <c r="K335" s="2"/>
       <c r="L335" s="13"/>
     </row>
-    <row r="336" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="336" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A336" s="4"/>
       <c r="B336" s="4"/>
       <c r="C336" s="11"/>
@@ -8361,7 +9569,7 @@
       <c r="K336" s="2"/>
       <c r="L336" s="13"/>
     </row>
-    <row r="337" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="337" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A337" s="4"/>
       <c r="B337" s="4"/>
       <c r="C337" s="11"/>
@@ -8375,7 +9583,7 @@
       <c r="K337" s="2"/>
       <c r="L337" s="13"/>
     </row>
-    <row r="338" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="338" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A338" s="4"/>
       <c r="B338" s="4"/>
       <c r="C338" s="11"/>
@@ -8389,7 +9597,7 @@
       <c r="K338" s="2"/>
       <c r="L338" s="13"/>
     </row>
-    <row r="339" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="339" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A339" s="4"/>
       <c r="B339" s="4"/>
       <c r="C339" s="11"/>
@@ -8403,7 +9611,7 @@
       <c r="K339" s="2"/>
       <c r="L339" s="13"/>
     </row>
-    <row r="340" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="340" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A340" s="4"/>
       <c r="B340" s="4"/>
       <c r="C340" s="11"/>
@@ -8417,7 +9625,7 @@
       <c r="K340" s="2"/>
       <c r="L340" s="13"/>
     </row>
-    <row r="341" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="341" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A341" s="4"/>
       <c r="B341" s="4"/>
       <c r="C341" s="11"/>
@@ -8431,7 +9639,7 @@
       <c r="K341" s="2"/>
       <c r="L341" s="13"/>
     </row>
-    <row r="342" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="342" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A342" s="4"/>
       <c r="B342" s="4"/>
       <c r="C342" s="11"/>
@@ -8445,7 +9653,7 @@
       <c r="K342" s="2"/>
       <c r="L342" s="13"/>
     </row>
-    <row r="343" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="343" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A343" s="4"/>
       <c r="B343" s="4"/>
       <c r="C343" s="11"/>
@@ -8459,7 +9667,7 @@
       <c r="K343" s="2"/>
       <c r="L343" s="13"/>
     </row>
-    <row r="344" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="344" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A344" s="4"/>
       <c r="B344" s="4"/>
       <c r="C344" s="11"/>
@@ -8473,7 +9681,7 @@
       <c r="K344" s="2"/>
       <c r="L344" s="13"/>
     </row>
-    <row r="345" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="345" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A345" s="4"/>
       <c r="B345" s="4"/>
       <c r="C345" s="11"/>
@@ -8487,7 +9695,7 @@
       <c r="K345" s="2"/>
       <c r="L345" s="13"/>
     </row>
-    <row r="346" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="346" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A346" s="4"/>
       <c r="B346" s="4"/>
       <c r="C346" s="11"/>
@@ -8501,7 +9709,7 @@
       <c r="K346" s="2"/>
       <c r="L346" s="13"/>
     </row>
-    <row r="347" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="347" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A347" s="4"/>
       <c r="B347" s="4"/>
       <c r="C347" s="11"/>
@@ -8515,7 +9723,7 @@
       <c r="K347" s="2"/>
       <c r="L347" s="13"/>
     </row>
-    <row r="348" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="348" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A348" s="4"/>
       <c r="B348" s="4"/>
       <c r="C348" s="11"/>
@@ -8529,7 +9737,7 @@
       <c r="K348" s="2"/>
       <c r="L348" s="13"/>
     </row>
-    <row r="349" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="349" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A349" s="4"/>
       <c r="B349" s="4"/>
       <c r="C349" s="11"/>
@@ -8543,7 +9751,7 @@
       <c r="K349" s="2"/>
       <c r="L349" s="13"/>
     </row>
-    <row r="350" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="350" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A350" s="4"/>
       <c r="B350" s="4"/>
       <c r="C350" s="11"/>
@@ -8557,7 +9765,7 @@
       <c r="K350" s="2"/>
       <c r="L350" s="13"/>
     </row>
-    <row r="351" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="351" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A351" s="4"/>
       <c r="B351" s="4"/>
       <c r="C351" s="11"/>
@@ -8571,7 +9779,7 @@
       <c r="K351" s="2"/>
       <c r="L351" s="13"/>
     </row>
-    <row r="352" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="352" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A352" s="4"/>
       <c r="B352" s="4"/>
       <c r="C352" s="11"/>
@@ -8585,7 +9793,7 @@
       <c r="K352" s="2"/>
       <c r="L352" s="13"/>
     </row>
-    <row r="353" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="353" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A353" s="4"/>
       <c r="B353" s="4"/>
       <c r="C353" s="11"/>
@@ -8599,7 +9807,7 @@
       <c r="K353" s="2"/>
       <c r="L353" s="13"/>
     </row>
-    <row r="354" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="354" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A354" s="4"/>
       <c r="B354" s="4"/>
       <c r="C354" s="11"/>
@@ -8613,7 +9821,7 @@
       <c r="K354" s="2"/>
       <c r="L354" s="13"/>
     </row>
-    <row r="355" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="355" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A355" s="4"/>
       <c r="B355" s="4"/>
       <c r="C355" s="11"/>
@@ -8627,7 +9835,7 @@
       <c r="K355" s="2"/>
       <c r="L355" s="13"/>
     </row>
-    <row r="356" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="356" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A356" s="4"/>
       <c r="B356" s="4"/>
       <c r="C356" s="11"/>
@@ -8641,7 +9849,7 @@
       <c r="K356" s="2"/>
       <c r="L356" s="13"/>
     </row>
-    <row r="357" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="357" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A357" s="4"/>
       <c r="B357" s="4"/>
       <c r="C357" s="11"/>
@@ -8655,7 +9863,7 @@
       <c r="K357" s="2"/>
       <c r="L357" s="13"/>
     </row>
-    <row r="358" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="358" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A358" s="4"/>
       <c r="B358" s="4"/>
       <c r="C358" s="11"/>
@@ -8669,7 +9877,7 @@
       <c r="K358" s="2"/>
       <c r="L358" s="13"/>
     </row>
-    <row r="359" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="359" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A359" s="4"/>
       <c r="B359" s="4"/>
       <c r="C359" s="11"/>
@@ -8683,7 +9891,7 @@
       <c r="K359" s="2"/>
       <c r="L359" s="13"/>
     </row>
-    <row r="360" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="360" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A360" s="4"/>
       <c r="B360" s="4"/>
       <c r="C360" s="11"/>
@@ -8697,7 +9905,7 @@
       <c r="K360" s="2"/>
       <c r="L360" s="13"/>
     </row>
-    <row r="361" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="361" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A361" s="4"/>
       <c r="B361" s="4"/>
       <c r="C361" s="11"/>
@@ -8711,7 +9919,7 @@
       <c r="K361" s="2"/>
       <c r="L361" s="13"/>
     </row>
-    <row r="362" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="362" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A362" s="4"/>
       <c r="B362" s="4"/>
       <c r="C362" s="11"/>
@@ -8725,7 +9933,7 @@
       <c r="K362" s="2"/>
       <c r="L362" s="13"/>
     </row>
-    <row r="363" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="363" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A363" s="4"/>
       <c r="B363" s="4"/>
       <c r="C363" s="11"/>
@@ -8739,7 +9947,7 @@
       <c r="K363" s="2"/>
       <c r="L363" s="13"/>
     </row>
-    <row r="364" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="364" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A364" s="4"/>
       <c r="B364" s="4"/>
       <c r="C364" s="11"/>
@@ -8753,7 +9961,7 @@
       <c r="K364" s="2"/>
       <c r="L364" s="13"/>
     </row>
-    <row r="365" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="365" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A365" s="4"/>
       <c r="B365" s="4"/>
       <c r="C365" s="11"/>
@@ -8767,7 +9975,7 @@
       <c r="K365" s="2"/>
       <c r="L365" s="13"/>
     </row>
-    <row r="366" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="366" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A366" s="4"/>
       <c r="B366" s="4"/>
       <c r="C366" s="11"/>
@@ -8781,7 +9989,7 @@
       <c r="K366" s="2"/>
       <c r="L366" s="13"/>
     </row>
-    <row r="367" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="367" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A367" s="4"/>
       <c r="B367" s="4"/>
       <c r="C367" s="11"/>
@@ -8795,7 +10003,7 @@
       <c r="K367" s="2"/>
       <c r="L367" s="13"/>
     </row>
-    <row r="368" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="368" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A368" s="4"/>
       <c r="B368" s="4"/>
       <c r="C368" s="11"/>
@@ -8809,7 +10017,7 @@
       <c r="K368" s="2"/>
       <c r="L368" s="13"/>
     </row>
-    <row r="369" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="369" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A369" s="4"/>
       <c r="B369" s="4"/>
       <c r="C369" s="11"/>
@@ -8823,7 +10031,7 @@
       <c r="K369" s="2"/>
       <c r="L369" s="13"/>
     </row>
-    <row r="370" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="370" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A370" s="4"/>
       <c r="B370" s="4"/>
       <c r="C370" s="11"/>
@@ -8837,7 +10045,7 @@
       <c r="K370" s="2"/>
       <c r="L370" s="13"/>
     </row>
-    <row r="371" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="371" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A371" s="4"/>
       <c r="B371" s="4"/>
       <c r="C371" s="11"/>
@@ -8851,7 +10059,7 @@
       <c r="K371" s="2"/>
       <c r="L371" s="13"/>
     </row>
-    <row r="372" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="372" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A372" s="4"/>
       <c r="B372" s="4"/>
       <c r="C372" s="11"/>
@@ -8865,7 +10073,7 @@
       <c r="K372" s="2"/>
       <c r="L372" s="13"/>
     </row>
-    <row r="373" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="373" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A373" s="4"/>
       <c r="B373" s="4"/>
       <c r="C373" s="11"/>
@@ -8879,7 +10087,7 @@
       <c r="K373" s="2"/>
       <c r="L373" s="13"/>
     </row>
-    <row r="374" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="374" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A374" s="4"/>
       <c r="B374" s="4"/>
       <c r="C374" s="11"/>
@@ -8893,7 +10101,7 @@
       <c r="K374" s="2"/>
       <c r="L374" s="13"/>
     </row>
-    <row r="375" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="375" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A375" s="4"/>
       <c r="B375" s="4"/>
       <c r="C375" s="11"/>
@@ -8907,7 +10115,7 @@
       <c r="K375" s="2"/>
       <c r="L375" s="13"/>
     </row>
-    <row r="376" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="376" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A376" s="4"/>
       <c r="B376" s="4"/>
       <c r="C376" s="11"/>
@@ -8921,7 +10129,7 @@
       <c r="K376" s="2"/>
       <c r="L376" s="13"/>
     </row>
-    <row r="377" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="377" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A377" s="4"/>
       <c r="B377" s="4"/>
       <c r="C377" s="11"/>
@@ -8935,7 +10143,7 @@
       <c r="K377" s="2"/>
       <c r="L377" s="13"/>
     </row>
-    <row r="378" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="378" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A378" s="4"/>
       <c r="B378" s="4"/>
       <c r="C378" s="11"/>
@@ -8949,7 +10157,7 @@
       <c r="K378" s="2"/>
       <c r="L378" s="13"/>
     </row>
-    <row r="379" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="379" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A379" s="4"/>
       <c r="B379" s="4"/>
       <c r="C379" s="11"/>
@@ -8963,7 +10171,7 @@
       <c r="K379" s="2"/>
       <c r="L379" s="13"/>
     </row>
-    <row r="380" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="380" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A380" s="4"/>
       <c r="B380" s="4"/>
       <c r="C380" s="11"/>
@@ -8977,7 +10185,7 @@
       <c r="K380" s="2"/>
       <c r="L380" s="13"/>
     </row>
-    <row r="381" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="381" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A381" s="4"/>
       <c r="B381" s="4"/>
       <c r="C381" s="11"/>
@@ -8991,7 +10199,7 @@
       <c r="K381" s="2"/>
       <c r="L381" s="13"/>
     </row>
-    <row r="382" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="382" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A382" s="4"/>
       <c r="B382" s="4"/>
       <c r="C382" s="11"/>
@@ -9005,7 +10213,7 @@
       <c r="K382" s="2"/>
       <c r="L382" s="13"/>
     </row>
-    <row r="383" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="383" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A383" s="4"/>
       <c r="B383" s="4"/>
       <c r="C383" s="11"/>
@@ -9019,7 +10227,7 @@
       <c r="K383" s="2"/>
       <c r="L383" s="13"/>
     </row>
-    <row r="384" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="384" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A384" s="4"/>
       <c r="B384" s="4"/>
       <c r="C384" s="11"/>
@@ -9033,7 +10241,7 @@
       <c r="K384" s="2"/>
       <c r="L384" s="13"/>
     </row>
-    <row r="385" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="385" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A385" s="4"/>
       <c r="B385" s="4"/>
       <c r="C385" s="11"/>
@@ -9047,7 +10255,7 @@
       <c r="K385" s="2"/>
       <c r="L385" s="13"/>
     </row>
-    <row r="386" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="386" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A386" s="4"/>
       <c r="B386" s="4"/>
       <c r="C386" s="11"/>
@@ -9061,7 +10269,7 @@
       <c r="K386" s="2"/>
       <c r="L386" s="13"/>
     </row>
-    <row r="387" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="387" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A387" s="4"/>
       <c r="B387" s="4"/>
       <c r="C387" s="11"/>
@@ -9075,7 +10283,7 @@
       <c r="K387" s="2"/>
       <c r="L387" s="13"/>
     </row>
-    <row r="388" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="388" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A388" s="4"/>
       <c r="B388" s="4"/>
       <c r="C388" s="11"/>
@@ -9089,7 +10297,7 @@
       <c r="K388" s="2"/>
       <c r="L388" s="13"/>
     </row>
-    <row r="389" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="389" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A389" s="4"/>
       <c r="B389" s="4"/>
       <c r="C389" s="11"/>
@@ -9103,7 +10311,7 @@
       <c r="K389" s="2"/>
       <c r="L389" s="13"/>
     </row>
-    <row r="390" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="390" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A390" s="4"/>
       <c r="B390" s="4"/>
       <c r="C390" s="11"/>
@@ -9117,7 +10325,7 @@
       <c r="K390" s="2"/>
       <c r="L390" s="13"/>
     </row>
-    <row r="391" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="391" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A391" s="4"/>
       <c r="B391" s="4"/>
       <c r="C391" s="11"/>
@@ -9131,7 +10339,7 @@
       <c r="K391" s="2"/>
       <c r="L391" s="13"/>
     </row>
-    <row r="392" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="392" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A392" s="4"/>
       <c r="B392" s="4"/>
       <c r="C392" s="11"/>
@@ -9145,7 +10353,7 @@
       <c r="K392" s="2"/>
       <c r="L392" s="13"/>
     </row>
-    <row r="393" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="393" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A393" s="4"/>
       <c r="B393" s="4"/>
       <c r="C393" s="11"/>
@@ -9159,7 +10367,7 @@
       <c r="K393" s="2"/>
       <c r="L393" s="13"/>
     </row>
-    <row r="394" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="394" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A394" s="4"/>
       <c r="B394" s="4"/>
       <c r="C394" s="11"/>
@@ -9173,7 +10381,7 @@
       <c r="K394" s="2"/>
       <c r="L394" s="13"/>
     </row>
-    <row r="395" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="395" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A395" s="4"/>
       <c r="B395" s="4"/>
       <c r="C395" s="11"/>
@@ -9187,7 +10395,7 @@
       <c r="K395" s="2"/>
       <c r="L395" s="13"/>
     </row>
-    <row r="396" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="396" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A396" s="4"/>
       <c r="B396" s="4"/>
       <c r="C396" s="11"/>
@@ -9201,7 +10409,7 @@
       <c r="K396" s="2"/>
       <c r="L396" s="13"/>
     </row>
-    <row r="397" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="397" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A397" s="4"/>
       <c r="B397" s="4"/>
       <c r="C397" s="11"/>
@@ -9215,7 +10423,7 @@
       <c r="K397" s="2"/>
       <c r="L397" s="13"/>
     </row>
-    <row r="398" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="398" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A398" s="4"/>
       <c r="B398" s="4"/>
       <c r="C398" s="11"/>
@@ -9229,7 +10437,7 @@
       <c r="K398" s="2"/>
       <c r="L398" s="13"/>
     </row>
-    <row r="399" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="399" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A399" s="4"/>
       <c r="B399" s="4"/>
       <c r="C399" s="11"/>
@@ -9243,7 +10451,7 @@
       <c r="K399" s="2"/>
       <c r="L399" s="13"/>
     </row>
-    <row r="400" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="400" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A400" s="4"/>
       <c r="B400" s="4"/>
       <c r="C400" s="11"/>
@@ -9257,7 +10465,7 @@
       <c r="K400" s="2"/>
       <c r="L400" s="13"/>
     </row>
-    <row r="401" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="401" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A401" s="4"/>
       <c r="B401" s="4"/>
       <c r="C401" s="11"/>
@@ -9271,7 +10479,7 @@
       <c r="K401" s="2"/>
       <c r="L401" s="13"/>
     </row>
-    <row r="402" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="402" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A402" s="4"/>
       <c r="B402" s="4"/>
       <c r="C402" s="11"/>
@@ -9285,7 +10493,7 @@
       <c r="K402" s="2"/>
       <c r="L402" s="13"/>
     </row>
-    <row r="403" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="403" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A403" s="4"/>
       <c r="B403" s="4"/>
       <c r="C403" s="11"/>
@@ -9299,7 +10507,7 @@
       <c r="K403" s="2"/>
       <c r="L403" s="13"/>
     </row>
-    <row r="404" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="404" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A404" s="4"/>
       <c r="B404" s="4"/>
       <c r="C404" s="11"/>
@@ -9313,7 +10521,7 @@
       <c r="K404" s="2"/>
       <c r="L404" s="13"/>
     </row>
-    <row r="405" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="405" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A405" s="4"/>
       <c r="B405" s="4"/>
       <c r="C405" s="11"/>
@@ -9327,7 +10535,7 @@
       <c r="K405" s="2"/>
       <c r="L405" s="13"/>
     </row>
-    <row r="406" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="406" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A406" s="4"/>
       <c r="B406" s="4"/>
       <c r="C406" s="11"/>
@@ -9341,7 +10549,7 @@
       <c r="K406" s="2"/>
       <c r="L406" s="13"/>
     </row>
-    <row r="407" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="407" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A407" s="4"/>
       <c r="B407" s="4"/>
       <c r="C407" s="11"/>
@@ -9355,7 +10563,7 @@
       <c r="K407" s="2"/>
       <c r="L407" s="13"/>
     </row>
-    <row r="408" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="408" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A408" s="4"/>
       <c r="B408" s="4"/>
       <c r="C408" s="11"/>
@@ -9369,7 +10577,7 @@
       <c r="K408" s="2"/>
       <c r="L408" s="13"/>
     </row>
-    <row r="409" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="409" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A409" s="4"/>
       <c r="B409" s="4"/>
       <c r="C409" s="11"/>
@@ -9383,7 +10591,7 @@
       <c r="K409" s="2"/>
       <c r="L409" s="13"/>
     </row>
-    <row r="410" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="410" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A410" s="4"/>
       <c r="B410" s="4"/>
       <c r="C410" s="11"/>
@@ -9397,7 +10605,7 @@
       <c r="K410" s="2"/>
       <c r="L410" s="13"/>
     </row>
-    <row r="411" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="411" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A411" s="4"/>
       <c r="B411" s="4"/>
       <c r="C411" s="11"/>
@@ -9411,7 +10619,7 @@
       <c r="K411" s="2"/>
       <c r="L411" s="13"/>
     </row>
-    <row r="412" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="412" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A412" s="4"/>
       <c r="B412" s="4"/>
       <c r="C412" s="11"/>
@@ -9425,7 +10633,7 @@
       <c r="K412" s="2"/>
       <c r="L412" s="13"/>
     </row>
-    <row r="413" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="413" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A413" s="4"/>
       <c r="B413" s="4"/>
       <c r="C413" s="11"/>
@@ -9439,7 +10647,7 @@
       <c r="K413" s="2"/>
       <c r="L413" s="13"/>
     </row>
-    <row r="414" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="414" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A414" s="4"/>
       <c r="B414" s="4"/>
       <c r="C414" s="11"/>
@@ -9453,7 +10661,7 @@
       <c r="K414" s="2"/>
       <c r="L414" s="13"/>
     </row>
-    <row r="415" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="415" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A415" s="4"/>
       <c r="B415" s="4"/>
       <c r="C415" s="11"/>
@@ -9467,7 +10675,7 @@
       <c r="K415" s="2"/>
       <c r="L415" s="13"/>
     </row>
-    <row r="416" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="416" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A416" s="4"/>
       <c r="B416" s="4"/>
       <c r="C416" s="11"/>
@@ -9481,7 +10689,7 @@
       <c r="K416" s="2"/>
       <c r="L416" s="13"/>
     </row>
-    <row r="417" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="417" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A417" s="4"/>
       <c r="B417" s="4"/>
       <c r="C417" s="11"/>
@@ -9495,7 +10703,7 @@
       <c r="K417" s="2"/>
       <c r="L417" s="13"/>
     </row>
-    <row r="418" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="418" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A418" s="4"/>
       <c r="B418" s="4"/>
       <c r="C418" s="11"/>
@@ -9509,7 +10717,7 @@
       <c r="K418" s="2"/>
       <c r="L418" s="13"/>
     </row>
-    <row r="419" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="419" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A419" s="4"/>
       <c r="B419" s="4"/>
       <c r="C419" s="11"/>
@@ -9523,7 +10731,7 @@
       <c r="K419" s="2"/>
       <c r="L419" s="13"/>
     </row>
-    <row r="420" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="420" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A420" s="4"/>
       <c r="B420" s="4"/>
       <c r="C420" s="11"/>
@@ -9537,7 +10745,7 @@
       <c r="K420" s="2"/>
       <c r="L420" s="13"/>
     </row>
-    <row r="421" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="421" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A421" s="4"/>
       <c r="B421" s="4"/>
       <c r="C421" s="11"/>
@@ -9551,7 +10759,7 @@
       <c r="K421" s="2"/>
       <c r="L421" s="13"/>
     </row>
-    <row r="422" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="422" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A422" s="4"/>
       <c r="B422" s="4"/>
       <c r="C422" s="11"/>
@@ -9565,7 +10773,7 @@
       <c r="K422" s="2"/>
       <c r="L422" s="13"/>
     </row>
-    <row r="423" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="423" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A423" s="4"/>
       <c r="B423" s="4"/>
       <c r="C423" s="11"/>
@@ -9579,7 +10787,7 @@
       <c r="K423" s="2"/>
       <c r="L423" s="13"/>
     </row>
-    <row r="424" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="424" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A424" s="4"/>
       <c r="B424" s="4"/>
       <c r="C424" s="11"/>
@@ -9593,7 +10801,7 @@
       <c r="K424" s="2"/>
       <c r="L424" s="13"/>
     </row>
-    <row r="425" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="425" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A425" s="4"/>
       <c r="B425" s="4"/>
       <c r="C425" s="11"/>
@@ -9607,7 +10815,7 @@
       <c r="K425" s="2"/>
       <c r="L425" s="13"/>
     </row>
-    <row r="426" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="426" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A426" s="4"/>
       <c r="B426" s="4"/>
       <c r="C426" s="11"/>
@@ -9621,7 +10829,7 @@
       <c r="K426" s="2"/>
       <c r="L426" s="13"/>
     </row>
-    <row r="427" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="427" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A427" s="4"/>
       <c r="B427" s="4"/>
       <c r="C427" s="11"/>
@@ -9635,7 +10843,7 @@
       <c r="K427" s="2"/>
       <c r="L427" s="13"/>
     </row>
-    <row r="428" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="428" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A428" s="4"/>
       <c r="B428" s="4"/>
       <c r="C428" s="11"/>
@@ -9649,7 +10857,7 @@
       <c r="K428" s="2"/>
       <c r="L428" s="13"/>
     </row>
-    <row r="429" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="429" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A429" s="4"/>
       <c r="B429" s="4"/>
       <c r="C429" s="11"/>
@@ -9663,7 +10871,7 @@
       <c r="K429" s="2"/>
       <c r="L429" s="13"/>
     </row>
-    <row r="430" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="430" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A430" s="4"/>
       <c r="B430" s="4"/>
       <c r="C430" s="11"/>
@@ -9677,7 +10885,7 @@
       <c r="K430" s="2"/>
       <c r="L430" s="13"/>
     </row>
-    <row r="431" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="431" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A431" s="4"/>
       <c r="B431" s="4"/>
       <c r="C431" s="11"/>
@@ -9691,7 +10899,7 @@
       <c r="K431" s="2"/>
       <c r="L431" s="13"/>
     </row>
-    <row r="432" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="432" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A432" s="4"/>
       <c r="B432" s="4"/>
       <c r="C432" s="11"/>
@@ -9705,7 +10913,7 @@
       <c r="K432" s="2"/>
       <c r="L432" s="13"/>
     </row>
-    <row r="433" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="433" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A433" s="4"/>
       <c r="B433" s="4"/>
       <c r="C433" s="11"/>
@@ -9719,7 +10927,7 @@
       <c r="K433" s="2"/>
       <c r="L433" s="13"/>
     </row>
-    <row r="434" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="434" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A434" s="4"/>
       <c r="B434" s="4"/>
       <c r="C434" s="11"/>
@@ -9733,7 +10941,7 @@
       <c r="K434" s="2"/>
       <c r="L434" s="13"/>
     </row>
-    <row r="435" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="435" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A435" s="4"/>
       <c r="B435" s="4"/>
       <c r="C435" s="11"/>
@@ -9747,7 +10955,7 @@
       <c r="K435" s="2"/>
       <c r="L435" s="13"/>
     </row>
-    <row r="436" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="436" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A436" s="4"/>
       <c r="B436" s="4"/>
       <c r="C436" s="11"/>
@@ -9761,7 +10969,7 @@
       <c r="K436" s="2"/>
       <c r="L436" s="13"/>
     </row>
-    <row r="437" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="437" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A437" s="4"/>
       <c r="B437" s="4"/>
       <c r="C437" s="11"/>
@@ -9775,7 +10983,7 @@
       <c r="K437" s="2"/>
       <c r="L437" s="13"/>
     </row>
-    <row r="438" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="438" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A438" s="4"/>
       <c r="B438" s="4"/>
       <c r="C438" s="11"/>
@@ -9789,7 +10997,7 @@
       <c r="K438" s="2"/>
       <c r="L438" s="13"/>
     </row>
-    <row r="439" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="439" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A439" s="4"/>
       <c r="B439" s="4"/>
       <c r="C439" s="11"/>
@@ -9803,7 +11011,7 @@
       <c r="K439" s="2"/>
       <c r="L439" s="13"/>
     </row>
-    <row r="440" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="440" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A440" s="4"/>
       <c r="B440" s="4"/>
       <c r="C440" s="11"/>
@@ -9817,7 +11025,7 @@
       <c r="K440" s="2"/>
       <c r="L440" s="13"/>
     </row>
-    <row r="441" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="441" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A441" s="4"/>
       <c r="B441" s="4"/>
       <c r="C441" s="11"/>
@@ -9831,7 +11039,7 @@
       <c r="K441" s="2"/>
       <c r="L441" s="13"/>
     </row>
-    <row r="442" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="442" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A442" s="4"/>
       <c r="B442" s="4"/>
       <c r="C442" s="11"/>
@@ -9845,7 +11053,7 @@
       <c r="K442" s="2"/>
       <c r="L442" s="13"/>
     </row>
-    <row r="443" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="443" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A443" s="4"/>
       <c r="B443" s="4"/>
       <c r="C443" s="11"/>
@@ -9859,7 +11067,7 @@
       <c r="K443" s="2"/>
       <c r="L443" s="13"/>
     </row>
-    <row r="444" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="444" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A444" s="4"/>
       <c r="B444" s="4"/>
       <c r="C444" s="11"/>
@@ -9873,7 +11081,7 @@
       <c r="K444" s="2"/>
       <c r="L444" s="13"/>
     </row>
-    <row r="445" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="445" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A445" s="4"/>
       <c r="B445" s="4"/>
       <c r="C445" s="11"/>
@@ -9887,7 +11095,7 @@
       <c r="K445" s="2"/>
       <c r="L445" s="13"/>
     </row>
-    <row r="446" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="446" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A446" s="4"/>
       <c r="B446" s="4"/>
       <c r="C446" s="11"/>
@@ -9901,7 +11109,7 @@
       <c r="K446" s="2"/>
       <c r="L446" s="13"/>
     </row>
-    <row r="447" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="447" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A447" s="4"/>
       <c r="B447" s="4"/>
       <c r="C447" s="11"/>
@@ -9915,7 +11123,7 @@
       <c r="K447" s="2"/>
       <c r="L447" s="13"/>
     </row>
-    <row r="448" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="448" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A448" s="4"/>
       <c r="B448" s="4"/>
       <c r="C448" s="11"/>
@@ -9929,7 +11137,7 @@
       <c r="K448" s="2"/>
       <c r="L448" s="13"/>
     </row>
-    <row r="449" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="449" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A449" s="4"/>
       <c r="B449" s="4"/>
       <c r="C449" s="11"/>
@@ -9943,7 +11151,7 @@
       <c r="K449" s="2"/>
       <c r="L449" s="13"/>
     </row>
-    <row r="450" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="450" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A450" s="4"/>
       <c r="B450" s="4"/>
       <c r="C450" s="11"/>
@@ -9957,7 +11165,7 @@
       <c r="K450" s="2"/>
       <c r="L450" s="13"/>
     </row>
-    <row r="451" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="451" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A451" s="4"/>
       <c r="B451" s="4"/>
       <c r="C451" s="11"/>
@@ -9971,7 +11179,7 @@
       <c r="K451" s="2"/>
       <c r="L451" s="13"/>
     </row>
-    <row r="452" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="452" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A452" s="4"/>
       <c r="B452" s="4"/>
       <c r="C452" s="11"/>
@@ -9985,7 +11193,7 @@
       <c r="K452" s="2"/>
       <c r="L452" s="13"/>
     </row>
-    <row r="453" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="453" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A453" s="4"/>
       <c r="B453" s="4"/>
       <c r="C453" s="11"/>
@@ -9999,7 +11207,7 @@
       <c r="K453" s="2"/>
       <c r="L453" s="13"/>
     </row>
-    <row r="454" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="454" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A454" s="4"/>
       <c r="B454" s="4"/>
       <c r="C454" s="11"/>
@@ -10013,7 +11221,7 @@
       <c r="K454" s="2"/>
       <c r="L454" s="13"/>
     </row>
-    <row r="455" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="455" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A455" s="4"/>
       <c r="B455" s="4"/>
       <c r="C455" s="11"/>
@@ -10027,7 +11235,7 @@
       <c r="K455" s="2"/>
       <c r="L455" s="13"/>
     </row>
-    <row r="456" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="456" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A456" s="4"/>
       <c r="B456" s="4"/>
       <c r="C456" s="11"/>
@@ -10041,7 +11249,7 @@
       <c r="K456" s="2"/>
       <c r="L456" s="13"/>
     </row>
-    <row r="457" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="457" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A457" s="4"/>
       <c r="B457" s="4"/>
       <c r="C457" s="11"/>
@@ -10055,7 +11263,7 @@
       <c r="K457" s="2"/>
       <c r="L457" s="13"/>
     </row>
-    <row r="458" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="458" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A458" s="4"/>
       <c r="B458" s="4"/>
       <c r="C458" s="11"/>
@@ -10069,7 +11277,7 @@
       <c r="K458" s="2"/>
       <c r="L458" s="13"/>
     </row>
-    <row r="459" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="459" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A459" s="4"/>
       <c r="B459" s="4"/>
       <c r="C459" s="11"/>
@@ -10083,7 +11291,7 @@
       <c r="K459" s="2"/>
       <c r="L459" s="13"/>
     </row>
-    <row r="460" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="460" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A460" s="4"/>
       <c r="B460" s="4"/>
       <c r="C460" s="11"/>
@@ -10097,7 +11305,7 @@
       <c r="K460" s="2"/>
       <c r="L460" s="13"/>
     </row>
-    <row r="461" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="461" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A461" s="4"/>
       <c r="B461" s="4"/>
       <c r="C461" s="11"/>
@@ -10111,7 +11319,7 @@
       <c r="K461" s="2"/>
       <c r="L461" s="13"/>
     </row>
-    <row r="462" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="462" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A462" s="4"/>
       <c r="B462" s="4"/>
       <c r="C462" s="11"/>
@@ -10125,7 +11333,7 @@
       <c r="K462" s="2"/>
       <c r="L462" s="13"/>
     </row>
-    <row r="463" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="463" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A463" s="4"/>
       <c r="B463" s="4"/>
       <c r="C463" s="11"/>
@@ -10139,7 +11347,7 @@
       <c r="K463" s="2"/>
       <c r="L463" s="13"/>
     </row>
-    <row r="464" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="464" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A464" s="4"/>
       <c r="B464" s="4"/>
       <c r="C464" s="11"/>
@@ -10153,7 +11361,7 @@
       <c r="K464" s="2"/>
       <c r="L464" s="13"/>
     </row>
-    <row r="465" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="465" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A465" s="4"/>
       <c r="B465" s="4"/>
       <c r="C465" s="11"/>
@@ -10167,7 +11375,7 @@
       <c r="K465" s="2"/>
       <c r="L465" s="13"/>
     </row>
-    <row r="466" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="466" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A466" s="4"/>
       <c r="B466" s="4"/>
       <c r="C466" s="11"/>
@@ -10181,7 +11389,7 @@
       <c r="K466" s="2"/>
       <c r="L466" s="13"/>
     </row>
-    <row r="467" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="467" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A467" s="4"/>
       <c r="B467" s="4"/>
       <c r="C467" s="11"/>
@@ -10195,7 +11403,7 @@
       <c r="K467" s="2"/>
       <c r="L467" s="13"/>
     </row>
-    <row r="468" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="468" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A468" s="4"/>
       <c r="B468" s="4"/>
       <c r="C468" s="11"/>
@@ -10209,7 +11417,7 @@
       <c r="K468" s="2"/>
       <c r="L468" s="13"/>
     </row>
-    <row r="469" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="469" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A469" s="4"/>
       <c r="B469" s="4"/>
       <c r="C469" s="11"/>
@@ -10223,7 +11431,7 @@
       <c r="K469" s="2"/>
       <c r="L469" s="13"/>
     </row>
-    <row r="470" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="470" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A470" s="4"/>
       <c r="B470" s="4"/>
       <c r="C470" s="11"/>
@@ -10237,7 +11445,7 @@
       <c r="K470" s="2"/>
       <c r="L470" s="13"/>
     </row>
-    <row r="471" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="471" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A471" s="4"/>
       <c r="B471" s="4"/>
       <c r="C471" s="11"/>
@@ -10251,7 +11459,7 @@
       <c r="K471" s="2"/>
       <c r="L471" s="13"/>
     </row>
-    <row r="472" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="472" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A472" s="4"/>
       <c r="B472" s="4"/>
       <c r="C472" s="11"/>
@@ -10265,7 +11473,7 @@
       <c r="K472" s="2"/>
       <c r="L472" s="13"/>
     </row>
-    <row r="473" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="473" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A473" s="4"/>
       <c r="B473" s="4"/>
       <c r="C473" s="11"/>
@@ -10279,7 +11487,7 @@
       <c r="K473" s="2"/>
       <c r="L473" s="13"/>
     </row>
-    <row r="474" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="474" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A474" s="4"/>
       <c r="B474" s="4"/>
       <c r="C474" s="11"/>
@@ -10293,7 +11501,7 @@
       <c r="K474" s="2"/>
       <c r="L474" s="13"/>
     </row>
-    <row r="475" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="475" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A475" s="4"/>
       <c r="B475" s="4"/>
       <c r="C475" s="11"/>
@@ -10307,7 +11515,7 @@
       <c r="K475" s="2"/>
       <c r="L475" s="13"/>
     </row>
-    <row r="476" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="476" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A476" s="4"/>
       <c r="B476" s="4"/>
       <c r="C476" s="11"/>
@@ -10321,7 +11529,7 @@
       <c r="K476" s="2"/>
       <c r="L476" s="13"/>
     </row>
-    <row r="477" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="477" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A477" s="4"/>
       <c r="B477" s="4"/>
       <c r="C477" s="11"/>
@@ -10335,7 +11543,7 @@
       <c r="K477" s="2"/>
       <c r="L477" s="13"/>
     </row>
-    <row r="478" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="478" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A478" s="4"/>
       <c r="B478" s="4"/>
       <c r="C478" s="11"/>
@@ -10349,7 +11557,7 @@
       <c r="K478" s="2"/>
       <c r="L478" s="13"/>
     </row>
-    <row r="479" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="479" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A479" s="4"/>
       <c r="B479" s="4"/>
       <c r="C479" s="11"/>
@@ -10363,7 +11571,7 @@
       <c r="K479" s="2"/>
       <c r="L479" s="13"/>
     </row>
-    <row r="480" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="480" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A480" s="4"/>
       <c r="B480" s="4"/>
       <c r="C480" s="11"/>
@@ -10377,7 +11585,7 @@
       <c r="K480" s="2"/>
       <c r="L480" s="13"/>
     </row>
-    <row r="481" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="481" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A481" s="4"/>
       <c r="B481" s="4"/>
       <c r="C481" s="11"/>
@@ -10391,7 +11599,7 @@
       <c r="K481" s="2"/>
       <c r="L481" s="13"/>
     </row>
-    <row r="482" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="482" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A482" s="4"/>
       <c r="B482" s="4"/>
       <c r="C482" s="11"/>
@@ -10405,7 +11613,7 @@
       <c r="K482" s="2"/>
       <c r="L482" s="13"/>
     </row>
-    <row r="483" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="483" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A483" s="4"/>
       <c r="B483" s="4"/>
       <c r="C483" s="11"/>
@@ -10419,7 +11627,7 @@
       <c r="K483" s="2"/>
       <c r="L483" s="13"/>
     </row>
-    <row r="484" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="484" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A484" s="4"/>
       <c r="B484" s="4"/>
       <c r="C484" s="11"/>
@@ -10433,7 +11641,7 @@
       <c r="K484" s="2"/>
       <c r="L484" s="13"/>
     </row>
-    <row r="485" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="485" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A485" s="4"/>
       <c r="B485" s="4"/>
       <c r="C485" s="11"/>
@@ -10447,7 +11655,7 @@
       <c r="K485" s="2"/>
       <c r="L485" s="13"/>
     </row>
-    <row r="486" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="486" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A486" s="4"/>
       <c r="B486" s="4"/>
       <c r="C486" s="11"/>
@@ -10461,7 +11669,7 @@
       <c r="K486" s="2"/>
       <c r="L486" s="13"/>
     </row>
-    <row r="487" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="487" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A487" s="4"/>
       <c r="B487" s="4"/>
       <c r="C487" s="11"/>
@@ -10475,7 +11683,7 @@
       <c r="K487" s="2"/>
       <c r="L487" s="13"/>
     </row>
-    <row r="488" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="488" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A488" s="4"/>
       <c r="B488" s="4"/>
       <c r="C488" s="11"/>
@@ -10489,7 +11697,7 @@
       <c r="K488" s="2"/>
       <c r="L488" s="13"/>
     </row>
-    <row r="489" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="489" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A489" s="4"/>
       <c r="B489" s="4"/>
       <c r="C489" s="11"/>
@@ -10503,7 +11711,7 @@
       <c r="K489" s="2"/>
       <c r="L489" s="13"/>
     </row>
-    <row r="490" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="490" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A490" s="4"/>
       <c r="B490" s="4"/>
       <c r="C490" s="11"/>
@@ -10517,7 +11725,7 @@
       <c r="K490" s="2"/>
       <c r="L490" s="13"/>
     </row>
-    <row r="491" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="491" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A491" s="4"/>
       <c r="B491" s="4"/>
       <c r="C491" s="11"/>
@@ -10531,7 +11739,7 @@
       <c r="K491" s="2"/>
       <c r="L491" s="13"/>
     </row>
-    <row r="492" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="492" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A492" s="4"/>
       <c r="B492" s="4"/>
       <c r="C492" s="11"/>
@@ -10545,7 +11753,7 @@
       <c r="K492" s="2"/>
       <c r="L492" s="13"/>
     </row>
-    <row r="493" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="493" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A493" s="4"/>
       <c r="B493" s="4"/>
       <c r="C493" s="11"/>
@@ -10559,7 +11767,7 @@
       <c r="K493" s="2"/>
       <c r="L493" s="13"/>
     </row>
-    <row r="494" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="494" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A494" s="4"/>
       <c r="B494" s="4"/>
       <c r="C494" s="11"/>
@@ -10573,7 +11781,7 @@
       <c r="K494" s="2"/>
       <c r="L494" s="13"/>
     </row>
-    <row r="495" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="495" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A495" s="4"/>
       <c r="B495" s="4"/>
       <c r="C495" s="11"/>
@@ -10587,7 +11795,7 @@
       <c r="K495" s="2"/>
       <c r="L495" s="13"/>
     </row>
-    <row r="496" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="496" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A496" s="4"/>
       <c r="B496" s="4"/>
       <c r="C496" s="11"/>
@@ -10601,7 +11809,7 @@
       <c r="K496" s="2"/>
       <c r="L496" s="13"/>
     </row>
-    <row r="497" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="497" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A497" s="4"/>
       <c r="B497" s="4"/>
       <c r="C497" s="11"/>
@@ -10615,7 +11823,7 @@
       <c r="K497" s="2"/>
       <c r="L497" s="13"/>
     </row>
-    <row r="498" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="498" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A498" s="4"/>
       <c r="B498" s="4"/>
       <c r="C498" s="11"/>
@@ -10629,7 +11837,7 @@
       <c r="K498" s="2"/>
       <c r="L498" s="13"/>
     </row>
-    <row r="499" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="499" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A499" s="4"/>
       <c r="B499" s="4"/>
       <c r="C499" s="11"/>
@@ -10643,7 +11851,7 @@
       <c r="K499" s="2"/>
       <c r="L499" s="13"/>
     </row>
-    <row r="500" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="500" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A500" s="4"/>
       <c r="B500" s="4"/>
       <c r="C500" s="11"/>
@@ -10657,7 +11865,7 @@
       <c r="K500" s="2"/>
       <c r="L500" s="13"/>
     </row>
-    <row r="501" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="501" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A501" s="4"/>
       <c r="B501" s="4"/>
       <c r="C501" s="11"/>
@@ -10671,7 +11879,7 @@
       <c r="K501" s="2"/>
       <c r="L501" s="13"/>
     </row>
-    <row r="502" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="502" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A502" s="4"/>
       <c r="B502" s="4"/>
       <c r="C502" s="11"/>
@@ -10685,7 +11893,7 @@
       <c r="K502" s="2"/>
       <c r="L502" s="13"/>
     </row>
-    <row r="503" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="503" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A503" s="4"/>
       <c r="B503" s="4"/>
       <c r="C503" s="11"/>
@@ -10699,7 +11907,7 @@
       <c r="K503" s="2"/>
       <c r="L503" s="13"/>
     </row>
-    <row r="504" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="504" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A504" s="4"/>
       <c r="B504" s="4"/>
       <c r="C504" s="11"/>
@@ -10713,7 +11921,7 @@
       <c r="K504" s="2"/>
       <c r="L504" s="13"/>
     </row>
-    <row r="505" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="505" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A505" s="4"/>
       <c r="B505" s="4"/>
       <c r="C505" s="11"/>
@@ -10727,7 +11935,7 @@
       <c r="K505" s="2"/>
       <c r="L505" s="13"/>
     </row>
-    <row r="506" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="506" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A506" s="4"/>
       <c r="B506" s="4"/>
       <c r="C506" s="11"/>
@@ -10741,7 +11949,7 @@
       <c r="K506" s="2"/>
       <c r="L506" s="13"/>
     </row>
-    <row r="507" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="507" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A507" s="4"/>
       <c r="B507" s="4"/>
       <c r="C507" s="11"/>
@@ -10755,7 +11963,7 @@
       <c r="K507" s="2"/>
       <c r="L507" s="13"/>
     </row>
-    <row r="508" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="508" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A508" s="4"/>
       <c r="B508" s="4"/>
       <c r="C508" s="11"/>
@@ -10769,7 +11977,7 @@
       <c r="K508" s="2"/>
       <c r="L508" s="13"/>
     </row>
-    <row r="509" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="509" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A509" s="4"/>
       <c r="B509" s="4"/>
       <c r="C509" s="11"/>
@@ -10783,7 +11991,7 @@
       <c r="K509" s="2"/>
       <c r="L509" s="13"/>
     </row>
-    <row r="510" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="510" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A510" s="4"/>
       <c r="B510" s="4"/>
       <c r="C510" s="11"/>
@@ -10797,7 +12005,7 @@
       <c r="K510" s="2"/>
       <c r="L510" s="13"/>
     </row>
-    <row r="511" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="511" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A511" s="4"/>
       <c r="B511" s="4"/>
       <c r="C511" s="11"/>
@@ -10811,7 +12019,7 @@
       <c r="K511" s="2"/>
       <c r="L511" s="13"/>
     </row>
-    <row r="512" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="512" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A512" s="4"/>
       <c r="B512" s="4"/>
       <c r="C512" s="11"/>
@@ -10825,7 +12033,7 @@
       <c r="K512" s="2"/>
       <c r="L512" s="13"/>
     </row>
-    <row r="513" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="513" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A513" s="4"/>
       <c r="B513" s="4"/>
       <c r="C513" s="11"/>
@@ -10839,7 +12047,7 @@
       <c r="K513" s="2"/>
       <c r="L513" s="13"/>
     </row>
-    <row r="514" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="514" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A514" s="4"/>
       <c r="B514" s="4"/>
       <c r="C514" s="11"/>
@@ -10853,7 +12061,7 @@
       <c r="K514" s="2"/>
       <c r="L514" s="13"/>
     </row>
-    <row r="515" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="515" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A515" s="4"/>
       <c r="B515" s="4"/>
       <c r="C515" s="11"/>
@@ -10867,7 +12075,7 @@
       <c r="K515" s="2"/>
       <c r="L515" s="13"/>
     </row>
-    <row r="516" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="516" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A516" s="4"/>
       <c r="B516" s="4"/>
       <c r="C516" s="11"/>
@@ -10881,7 +12089,7 @@
       <c r="K516" s="2"/>
       <c r="L516" s="13"/>
     </row>
-    <row r="517" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="517" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A517" s="4"/>
       <c r="B517" s="4"/>
       <c r="C517" s="11"/>
@@ -10895,7 +12103,7 @@
       <c r="K517" s="2"/>
       <c r="L517" s="13"/>
     </row>
-    <row r="518" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="518" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A518" s="4"/>
       <c r="B518" s="4"/>
       <c r="C518" s="11"/>
@@ -10909,7 +12117,7 @@
       <c r="K518" s="2"/>
       <c r="L518" s="13"/>
     </row>
-    <row r="519" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="519" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A519" s="4"/>
       <c r="B519" s="4"/>
       <c r="C519" s="11"/>
@@ -10923,7 +12131,7 @@
       <c r="K519" s="2"/>
       <c r="L519" s="13"/>
     </row>
-    <row r="520" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="520" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A520" s="4"/>
       <c r="B520" s="4"/>
       <c r="C520" s="11"/>
@@ -10937,7 +12145,7 @@
       <c r="K520" s="2"/>
       <c r="L520" s="13"/>
     </row>
-    <row r="521" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="521" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A521" s="4"/>
       <c r="B521" s="4"/>
       <c r="C521" s="11"/>
@@ -10951,7 +12159,7 @@
       <c r="K521" s="2"/>
       <c r="L521" s="13"/>
     </row>
-    <row r="522" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="522" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A522" s="4"/>
       <c r="B522" s="4"/>
       <c r="C522" s="11"/>
@@ -10965,7 +12173,7 @@
       <c r="K522" s="2"/>
       <c r="L522" s="13"/>
     </row>
-    <row r="523" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="523" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A523" s="4"/>
       <c r="B523" s="4"/>
       <c r="C523" s="11"/>
@@ -10979,7 +12187,7 @@
       <c r="K523" s="2"/>
       <c r="L523" s="13"/>
     </row>
-    <row r="524" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="524" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A524" s="4"/>
       <c r="B524" s="4"/>
       <c r="C524" s="11"/>
@@ -10993,7 +12201,7 @@
       <c r="K524" s="2"/>
       <c r="L524" s="13"/>
     </row>
-    <row r="525" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="525" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A525" s="4"/>
       <c r="B525" s="4"/>
       <c r="C525" s="11"/>
@@ -11007,7 +12215,7 @@
       <c r="K525" s="2"/>
       <c r="L525" s="13"/>
     </row>
-    <row r="526" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="526" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A526" s="4"/>
       <c r="B526" s="4"/>
       <c r="C526" s="11"/>
@@ -11021,7 +12229,7 @@
       <c r="K526" s="2"/>
       <c r="L526" s="13"/>
     </row>
-    <row r="527" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="527" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A527" s="4"/>
       <c r="B527" s="4"/>
       <c r="C527" s="11"/>
@@ -11035,7 +12243,7 @@
       <c r="K527" s="2"/>
       <c r="L527" s="13"/>
     </row>
-    <row r="528" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="528" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A528" s="4"/>
       <c r="B528" s="4"/>
       <c r="C528" s="11"/>
@@ -11049,7 +12257,7 @@
       <c r="K528" s="2"/>
       <c r="L528" s="13"/>
     </row>
-    <row r="529" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="529" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A529" s="4"/>
       <c r="B529" s="4"/>
       <c r="C529" s="11"/>
@@ -11063,7 +12271,7 @@
       <c r="K529" s="2"/>
       <c r="L529" s="13"/>
     </row>
-    <row r="530" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="530" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A530" s="4"/>
       <c r="B530" s="4"/>
       <c r="C530" s="11"/>
@@ -11077,7 +12285,7 @@
       <c r="K530" s="2"/>
       <c r="L530" s="13"/>
     </row>
-    <row r="531" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="531" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A531" s="4"/>
       <c r="B531" s="4"/>
       <c r="C531" s="11"/>
@@ -11091,7 +12299,7 @@
       <c r="K531" s="2"/>
       <c r="L531" s="13"/>
     </row>
-    <row r="532" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="532" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A532" s="4"/>
       <c r="B532" s="4"/>
       <c r="C532" s="11"/>
@@ -11105,7 +12313,7 @@
       <c r="K532" s="2"/>
       <c r="L532" s="13"/>
     </row>
-    <row r="533" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="533" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A533" s="4"/>
       <c r="B533" s="4"/>
       <c r="C533" s="11"/>
@@ -11119,7 +12327,7 @@
       <c r="K533" s="2"/>
       <c r="L533" s="13"/>
     </row>
-    <row r="534" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="534" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A534" s="4"/>
       <c r="B534" s="4"/>
       <c r="C534" s="11"/>
@@ -11133,7 +12341,7 @@
       <c r="K534" s="2"/>
       <c r="L534" s="13"/>
     </row>
-    <row r="535" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="535" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A535" s="4"/>
       <c r="B535" s="4"/>
       <c r="C535" s="11"/>
@@ -11147,7 +12355,7 @@
       <c r="K535" s="2"/>
       <c r="L535" s="13"/>
     </row>
-    <row r="536" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="536" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A536" s="4"/>
       <c r="B536" s="4"/>
       <c r="C536" s="11"/>
@@ -11161,7 +12369,7 @@
       <c r="K536" s="2"/>
       <c r="L536" s="13"/>
     </row>
-    <row r="537" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="537" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A537" s="4"/>
       <c r="B537" s="4"/>
       <c r="C537" s="11"/>
@@ -11175,7 +12383,7 @@
       <c r="K537" s="2"/>
       <c r="L537" s="13"/>
     </row>
-    <row r="538" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="538" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A538" s="4"/>
       <c r="B538" s="4"/>
       <c r="C538" s="11"/>
@@ -11189,7 +12397,7 @@
       <c r="K538" s="2"/>
       <c r="L538" s="13"/>
     </row>
-    <row r="539" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="539" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A539" s="4"/>
       <c r="B539" s="4"/>
       <c r="C539" s="11"/>
@@ -11203,7 +12411,7 @@
       <c r="K539" s="2"/>
       <c r="L539" s="13"/>
     </row>
-    <row r="540" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="540" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A540" s="4"/>
       <c r="B540" s="4"/>
       <c r="C540" s="11"/>
@@ -11217,7 +12425,7 @@
       <c r="K540" s="2"/>
       <c r="L540" s="13"/>
     </row>
-    <row r="541" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="541" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A541" s="4"/>
       <c r="B541" s="4"/>
       <c r="C541" s="11"/>
@@ -11231,7 +12439,7 @@
       <c r="K541" s="2"/>
       <c r="L541" s="13"/>
     </row>
-    <row r="542" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="542" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A542" s="4"/>
       <c r="B542" s="4"/>
       <c r="C542" s="11"/>
@@ -11245,7 +12453,7 @@
       <c r="K542" s="2"/>
       <c r="L542" s="13"/>
     </row>
-    <row r="543" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="543" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A543" s="4"/>
       <c r="B543" s="4"/>
       <c r="C543" s="11"/>
@@ -11259,7 +12467,7 @@
       <c r="K543" s="2"/>
       <c r="L543" s="13"/>
     </row>
-    <row r="544" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="544" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A544" s="4"/>
       <c r="B544" s="4"/>
       <c r="C544" s="11"/>
@@ -11273,7 +12481,7 @@
       <c r="K544" s="2"/>
       <c r="L544" s="13"/>
     </row>
-    <row r="545" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="545" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A545" s="4"/>
       <c r="B545" s="4"/>
       <c r="C545" s="11"/>
@@ -11287,7 +12495,7 @@
       <c r="K545" s="2"/>
       <c r="L545" s="13"/>
     </row>
-    <row r="546" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="546" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A546" s="4"/>
       <c r="B546" s="4"/>
       <c r="C546" s="11"/>
@@ -11301,7 +12509,7 @@
       <c r="K546" s="2"/>
       <c r="L546" s="13"/>
     </row>
-    <row r="547" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="547" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A547" s="4"/>
       <c r="B547" s="4"/>
       <c r="C547" s="11"/>
@@ -11315,7 +12523,7 @@
       <c r="K547" s="2"/>
       <c r="L547" s="13"/>
     </row>
-    <row r="548" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="548" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A548" s="4"/>
       <c r="B548" s="4"/>
       <c r="C548" s="11"/>
@@ -11329,7 +12537,7 @@
       <c r="K548" s="2"/>
       <c r="L548" s="13"/>
     </row>
-    <row r="549" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="549" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A549" s="4"/>
       <c r="B549" s="4"/>
       <c r="C549" s="11"/>
@@ -11343,7 +12551,7 @@
       <c r="K549" s="2"/>
       <c r="L549" s="13"/>
     </row>
-    <row r="550" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="550" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A550" s="4"/>
       <c r="B550" s="4"/>
       <c r="C550" s="11"/>
@@ -11357,7 +12565,7 @@
       <c r="K550" s="2"/>
       <c r="L550" s="13"/>
     </row>
-    <row r="551" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="551" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A551" s="4"/>
       <c r="B551" s="4"/>
       <c r="C551" s="11"/>
@@ -11371,7 +12579,7 @@
       <c r="K551" s="2"/>
       <c r="L551" s="13"/>
     </row>
-    <row r="552" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="552" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A552" s="4"/>
       <c r="B552" s="4"/>
       <c r="C552" s="11"/>
@@ -11385,7 +12593,7 @@
       <c r="K552" s="2"/>
       <c r="L552" s="13"/>
     </row>
-    <row r="553" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="553" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A553" s="4"/>
       <c r="B553" s="4"/>
       <c r="C553" s="11"/>
@@ -11399,7 +12607,7 @@
       <c r="K553" s="2"/>
       <c r="L553" s="13"/>
     </row>
-    <row r="554" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="554" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A554" s="4"/>
       <c r="B554" s="4"/>
       <c r="C554" s="11"/>
@@ -11413,7 +12621,7 @@
       <c r="K554" s="2"/>
       <c r="L554" s="13"/>
     </row>
-    <row r="555" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="555" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A555" s="4"/>
       <c r="B555" s="4"/>
       <c r="C555" s="11"/>
@@ -11427,7 +12635,7 @@
       <c r="K555" s="2"/>
       <c r="L555" s="13"/>
     </row>
-    <row r="556" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="556" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A556" s="4"/>
       <c r="B556" s="4"/>
       <c r="C556" s="11"/>
@@ -11441,7 +12649,7 @@
       <c r="K556" s="2"/>
       <c r="L556" s="13"/>
     </row>
-    <row r="557" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="557" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A557" s="4"/>
       <c r="B557" s="4"/>
       <c r="C557" s="11"/>
@@ -11455,7 +12663,7 @@
       <c r="K557" s="2"/>
       <c r="L557" s="13"/>
     </row>
-    <row r="558" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="558" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A558" s="4"/>
       <c r="B558" s="4"/>
       <c r="C558" s="11"/>
@@ -11469,7 +12677,7 @@
       <c r="K558" s="2"/>
       <c r="L558" s="13"/>
     </row>
-    <row r="559" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="559" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A559" s="4"/>
       <c r="B559" s="4"/>
       <c r="C559" s="11"/>
@@ -11483,7 +12691,7 @@
       <c r="K559" s="2"/>
       <c r="L559" s="13"/>
     </row>
-    <row r="560" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="560" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A560" s="4"/>
       <c r="B560" s="4"/>
       <c r="C560" s="11"/>
@@ -11497,7 +12705,7 @@
       <c r="K560" s="2"/>
       <c r="L560" s="13"/>
     </row>
-    <row r="561" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="561" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A561" s="4"/>
       <c r="B561" s="4"/>
       <c r="C561" s="11"/>
@@ -11511,7 +12719,7 @@
       <c r="K561" s="2"/>
       <c r="L561" s="13"/>
     </row>
-    <row r="562" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="562" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A562" s="4"/>
       <c r="B562" s="4"/>
       <c r="C562" s="11"/>
@@ -11525,7 +12733,7 @@
       <c r="K562" s="2"/>
       <c r="L562" s="13"/>
     </row>
-    <row r="563" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="563" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A563" s="4"/>
       <c r="B563" s="4"/>
       <c r="C563" s="11"/>
@@ -11539,7 +12747,7 @@
       <c r="K563" s="2"/>
       <c r="L563" s="13"/>
     </row>
-    <row r="564" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="564" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A564" s="4"/>
       <c r="B564" s="4"/>
       <c r="C564" s="11"/>
@@ -11553,7 +12761,7 @@
       <c r="K564" s="2"/>
       <c r="L564" s="13"/>
     </row>
-    <row r="565" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="565" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A565" s="4"/>
       <c r="B565" s="4"/>
       <c r="C565" s="11"/>
@@ -11567,7 +12775,7 @@
       <c r="K565" s="2"/>
       <c r="L565" s="13"/>
     </row>
-    <row r="566" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="566" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A566" s="4"/>
       <c r="B566" s="4"/>
       <c r="C566" s="11"/>
@@ -11581,7 +12789,7 @@
       <c r="K566" s="2"/>
       <c r="L566" s="13"/>
     </row>
-    <row r="567" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="567" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A567" s="4"/>
       <c r="B567" s="4"/>
       <c r="C567" s="11"/>
@@ -11595,7 +12803,7 @@
       <c r="K567" s="2"/>
       <c r="L567" s="13"/>
     </row>
-    <row r="568" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="568" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A568" s="4"/>
       <c r="B568" s="4"/>
       <c r="C568" s="11"/>
@@ -11609,7 +12817,7 @@
       <c r="K568" s="2"/>
       <c r="L568" s="13"/>
     </row>
-    <row r="569" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="569" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A569" s="4"/>
       <c r="B569" s="4"/>
       <c r="C569" s="11"/>
@@ -11623,7 +12831,7 @@
       <c r="K569" s="2"/>
       <c r="L569" s="13"/>
     </row>
-    <row r="570" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="570" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A570" s="4"/>
       <c r="B570" s="4"/>
       <c r="C570" s="11"/>
@@ -11637,7 +12845,7 @@
       <c r="K570" s="2"/>
       <c r="L570" s="13"/>
     </row>
-    <row r="571" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="571" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A571" s="4"/>
       <c r="B571" s="4"/>
       <c r="C571" s="11"/>
@@ -11651,7 +12859,7 @@
       <c r="K571" s="2"/>
       <c r="L571" s="13"/>
     </row>
-    <row r="572" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="572" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A572" s="4"/>
       <c r="B572" s="4"/>
       <c r="C572" s="11"/>
@@ -11665,7 +12873,7 @@
       <c r="K572" s="2"/>
       <c r="L572" s="13"/>
     </row>
-    <row r="573" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="573" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A573" s="4"/>
       <c r="B573" s="4"/>
       <c r="C573" s="11"/>
@@ -11679,7 +12887,7 @@
       <c r="K573" s="2"/>
       <c r="L573" s="13"/>
     </row>
-    <row r="574" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="574" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A574" s="4"/>
       <c r="B574" s="4"/>
       <c r="C574" s="11"/>
@@ -11693,7 +12901,7 @@
       <c r="K574" s="2"/>
       <c r="L574" s="13"/>
     </row>
-    <row r="575" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="575" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A575" s="4"/>
       <c r="B575" s="4"/>
       <c r="C575" s="11"/>
@@ -11707,7 +12915,7 @@
       <c r="K575" s="2"/>
       <c r="L575" s="13"/>
     </row>
-    <row r="576" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="576" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A576" s="4"/>
       <c r="B576" s="4"/>
       <c r="C576" s="11"/>
@@ -11721,7 +12929,7 @@
       <c r="K576" s="2"/>
       <c r="L576" s="13"/>
     </row>
-    <row r="577" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="577" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A577" s="4"/>
       <c r="B577" s="4"/>
       <c r="C577" s="11"/>
@@ -11735,7 +12943,7 @@
       <c r="K577" s="2"/>
       <c r="L577" s="13"/>
     </row>
-    <row r="578" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="578" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A578" s="4"/>
       <c r="B578" s="4"/>
       <c r="C578" s="11"/>
@@ -11749,7 +12957,7 @@
       <c r="K578" s="2"/>
       <c r="L578" s="13"/>
     </row>
-    <row r="579" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="579" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A579" s="4"/>
       <c r="B579" s="4"/>
       <c r="C579" s="11"/>
@@ -11763,7 +12971,7 @@
       <c r="K579" s="2"/>
       <c r="L579" s="13"/>
     </row>
-    <row r="580" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="580" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A580" s="4"/>
       <c r="B580" s="4"/>
       <c r="C580" s="11"/>
@@ -11777,7 +12985,7 @@
       <c r="K580" s="2"/>
       <c r="L580" s="13"/>
     </row>
-    <row r="581" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="581" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A581" s="4"/>
       <c r="B581" s="4"/>
       <c r="C581" s="11"/>
@@ -11791,7 +12999,7 @@
       <c r="K581" s="2"/>
       <c r="L581" s="13"/>
     </row>
-    <row r="582" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="582" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A582" s="4"/>
       <c r="B582" s="4"/>
       <c r="C582" s="11"/>
@@ -11805,7 +13013,7 @@
       <c r="K582" s="2"/>
       <c r="L582" s="13"/>
     </row>
-    <row r="583" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="583" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A583" s="4"/>
       <c r="B583" s="4"/>
       <c r="C583" s="11"/>
@@ -11819,7 +13027,7 @@
       <c r="K583" s="2"/>
       <c r="L583" s="13"/>
     </row>
-    <row r="584" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="584" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A584" s="4"/>
       <c r="B584" s="4"/>
       <c r="C584" s="11"/>
@@ -11833,7 +13041,7 @@
       <c r="K584" s="2"/>
       <c r="L584" s="13"/>
     </row>
-    <row r="585" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="585" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A585" s="4"/>
       <c r="B585" s="4"/>
       <c r="C585" s="11"/>
@@ -11847,7 +13055,7 @@
       <c r="K585" s="2"/>
       <c r="L585" s="13"/>
     </row>
-    <row r="586" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="586" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A586" s="4"/>
       <c r="B586" s="4"/>
       <c r="C586" s="11"/>
@@ -11861,7 +13069,7 @@
       <c r="K586" s="2"/>
       <c r="L586" s="13"/>
     </row>
-    <row r="587" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="587" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A587" s="4"/>
       <c r="B587" s="4"/>
       <c r="C587" s="11"/>
@@ -11875,7 +13083,7 @@
       <c r="K587" s="2"/>
       <c r="L587" s="13"/>
     </row>
-    <row r="588" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="588" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A588" s="4"/>
       <c r="B588" s="4"/>
       <c r="C588" s="11"/>
@@ -11889,7 +13097,7 @@
       <c r="K588" s="2"/>
       <c r="L588" s="13"/>
     </row>
-    <row r="589" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="589" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A589" s="4"/>
       <c r="B589" s="4"/>
       <c r="C589" s="11"/>
@@ -11903,7 +13111,7 @@
       <c r="K589" s="2"/>
       <c r="L589" s="13"/>
     </row>
-    <row r="590" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="590" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A590" s="4"/>
       <c r="B590" s="4"/>
       <c r="C590" s="11"/>
@@ -11917,7 +13125,7 @@
       <c r="K590" s="2"/>
       <c r="L590" s="13"/>
     </row>
-    <row r="591" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="591" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A591" s="4"/>
       <c r="B591" s="4"/>
       <c r="C591" s="11"/>
@@ -11931,7 +13139,7 @@
       <c r="K591" s="2"/>
       <c r="L591" s="13"/>
     </row>
-    <row r="592" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="592" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A592" s="4"/>
       <c r="B592" s="4"/>
       <c r="C592" s="11"/>
@@ -11945,7 +13153,7 @@
       <c r="K592" s="2"/>
       <c r="L592" s="13"/>
     </row>
-    <row r="593" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="593" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A593" s="4"/>
       <c r="B593" s="4"/>
       <c r="C593" s="11"/>
@@ -11959,7 +13167,7 @@
       <c r="K593" s="2"/>
       <c r="L593" s="13"/>
     </row>
-    <row r="594" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="594" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A594" s="4"/>
       <c r="B594" s="4"/>
       <c r="C594" s="11"/>
@@ -11973,7 +13181,7 @@
       <c r="K594" s="2"/>
       <c r="L594" s="13"/>
     </row>
-    <row r="595" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="595" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A595" s="4"/>
       <c r="B595" s="4"/>
       <c r="C595" s="11"/>
@@ -11987,7 +13195,7 @@
       <c r="K595" s="2"/>
       <c r="L595" s="13"/>
     </row>
-    <row r="596" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="596" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A596" s="4"/>
       <c r="B596" s="4"/>
       <c r="C596" s="11"/>
@@ -12001,7 +13209,7 @@
       <c r="K596" s="2"/>
       <c r="L596" s="13"/>
     </row>
-    <row r="597" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="597" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A597" s="4"/>
       <c r="B597" s="4"/>
       <c r="C597" s="11"/>
@@ -12015,7 +13223,7 @@
       <c r="K597" s="2"/>
       <c r="L597" s="13"/>
     </row>
-    <row r="598" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="598" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A598" s="4"/>
       <c r="B598" s="4"/>
       <c r="C598" s="11"/>
@@ -12029,7 +13237,7 @@
       <c r="K598" s="2"/>
       <c r="L598" s="13"/>
     </row>
-    <row r="599" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="599" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A599" s="4"/>
       <c r="B599" s="4"/>
       <c r="C599" s="11"/>
@@ -12043,7 +13251,7 @@
       <c r="K599" s="2"/>
       <c r="L599" s="13"/>
     </row>
-    <row r="600" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="600" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A600" s="4"/>
       <c r="B600" s="4"/>
       <c r="C600" s="11"/>
@@ -12057,7 +13265,7 @@
       <c r="K600" s="2"/>
       <c r="L600" s="13"/>
     </row>
-    <row r="601" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="601" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A601" s="4"/>
       <c r="B601" s="4"/>
       <c r="C601" s="11"/>
@@ -12071,7 +13279,7 @@
       <c r="K601" s="2"/>
       <c r="L601" s="13"/>
     </row>
-    <row r="602" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="602" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A602" s="4"/>
       <c r="B602" s="4"/>
       <c r="C602" s="11"/>
@@ -12085,7 +13293,7 @@
       <c r="K602" s="2"/>
       <c r="L602" s="13"/>
     </row>
-    <row r="603" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="603" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A603" s="4"/>
       <c r="B603" s="4"/>
       <c r="C603" s="11"/>
@@ -12099,7 +13307,7 @@
       <c r="K603" s="2"/>
       <c r="L603" s="13"/>
     </row>
-    <row r="604" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="604" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A604" s="4"/>
       <c r="B604" s="4"/>
       <c r="C604" s="11"/>
@@ -12113,7 +13321,7 @@
       <c r="K604" s="2"/>
       <c r="L604" s="13"/>
     </row>
-    <row r="605" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="605" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A605" s="4"/>
       <c r="B605" s="4"/>
       <c r="C605" s="11"/>
@@ -12127,7 +13335,7 @@
       <c r="K605" s="2"/>
       <c r="L605" s="13"/>
     </row>
-    <row r="606" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="606" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A606" s="4"/>
       <c r="B606" s="4"/>
       <c r="C606" s="11"/>
@@ -12141,7 +13349,7 @@
       <c r="K606" s="2"/>
       <c r="L606" s="13"/>
     </row>
-    <row r="607" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="607" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A607" s="4"/>
       <c r="B607" s="4"/>
       <c r="C607" s="11"/>
@@ -12155,7 +13363,7 @@
       <c r="K607" s="2"/>
       <c r="L607" s="13"/>
     </row>
-    <row r="608" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="608" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A608" s="4"/>
       <c r="B608" s="4"/>
       <c r="C608" s="11"/>
@@ -12169,7 +13377,7 @@
       <c r="K608" s="2"/>
       <c r="L608" s="13"/>
     </row>
-    <row r="609" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="609" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A609" s="4"/>
       <c r="B609" s="4"/>
       <c r="C609" s="11"/>
@@ -12183,7 +13391,7 @@
       <c r="K609" s="2"/>
       <c r="L609" s="13"/>
     </row>
-    <row r="610" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="610" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A610" s="4"/>
       <c r="B610" s="4"/>
       <c r="C610" s="11"/>
@@ -12197,7 +13405,7 @@
       <c r="K610" s="2"/>
       <c r="L610" s="13"/>
     </row>
-    <row r="611" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="611" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A611" s="4"/>
       <c r="B611" s="4"/>
       <c r="C611" s="11"/>
@@ -12211,7 +13419,7 @@
       <c r="K611" s="2"/>
       <c r="L611" s="13"/>
     </row>
-    <row r="612" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="612" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A612" s="4"/>
       <c r="B612" s="4"/>
       <c r="C612" s="11"/>
@@ -12225,7 +13433,7 @@
       <c r="K612" s="2"/>
       <c r="L612" s="13"/>
     </row>
-    <row r="613" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="613" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A613" s="4"/>
       <c r="B613" s="4"/>
       <c r="C613" s="11"/>
@@ -12239,7 +13447,7 @@
       <c r="K613" s="2"/>
       <c r="L613" s="13"/>
     </row>
-    <row r="614" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="614" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A614" s="4"/>
       <c r="B614" s="4"/>
       <c r="C614" s="11"/>
@@ -12253,7 +13461,7 @@
       <c r="K614" s="2"/>
       <c r="L614" s="13"/>
     </row>
-    <row r="615" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="615" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A615" s="4"/>
       <c r="B615" s="4"/>
       <c r="C615" s="11"/>
@@ -12267,7 +13475,7 @@
       <c r="K615" s="2"/>
       <c r="L615" s="13"/>
     </row>
-    <row r="616" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="616" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A616" s="4"/>
       <c r="B616" s="4"/>
       <c r="C616" s="11"/>
@@ -12281,7 +13489,7 @@
       <c r="K616" s="2"/>
       <c r="L616" s="13"/>
     </row>
-    <row r="617" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="617" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A617" s="4"/>
       <c r="B617" s="4"/>
       <c r="C617" s="11"/>
@@ -12295,7 +13503,7 @@
       <c r="K617" s="2"/>
       <c r="L617" s="13"/>
     </row>
-    <row r="618" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="618" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A618" s="4"/>
       <c r="B618" s="4"/>
       <c r="C618" s="11"/>
@@ -12309,7 +13517,7 @@
       <c r="K618" s="2"/>
       <c r="L618" s="13"/>
     </row>
-    <row r="619" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="619" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A619" s="4"/>
       <c r="B619" s="4"/>
       <c r="C619" s="11"/>
@@ -12323,7 +13531,7 @@
       <c r="K619" s="2"/>
       <c r="L619" s="13"/>
     </row>
-    <row r="620" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="620" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A620" s="4"/>
       <c r="B620" s="4"/>
       <c r="C620" s="11"/>
@@ -12337,7 +13545,7 @@
       <c r="K620" s="2"/>
       <c r="L620" s="13"/>
     </row>
-    <row r="621" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="621" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A621" s="4"/>
       <c r="B621" s="4"/>
       <c r="C621" s="11"/>
@@ -12351,7 +13559,7 @@
       <c r="K621" s="2"/>
       <c r="L621" s="13"/>
     </row>
-    <row r="622" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="622" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A622" s="4"/>
       <c r="B622" s="4"/>
       <c r="C622" s="11"/>
@@ -12365,7 +13573,7 @@
       <c r="K622" s="2"/>
       <c r="L622" s="13"/>
     </row>
-    <row r="623" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="623" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A623" s="4"/>
       <c r="B623" s="4"/>
       <c r="C623" s="11"/>
@@ -12379,7 +13587,7 @@
       <c r="K623" s="2"/>
       <c r="L623" s="13"/>
     </row>
-    <row r="624" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="624" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A624" s="4"/>
       <c r="B624" s="4"/>
       <c r="C624" s="11"/>
@@ -12393,7 +13601,7 @@
       <c r="K624" s="2"/>
       <c r="L624" s="13"/>
     </row>
-    <row r="625" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="625" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A625" s="4"/>
       <c r="B625" s="4"/>
       <c r="C625" s="11"/>
@@ -12407,7 +13615,7 @@
       <c r="K625" s="2"/>
       <c r="L625" s="13"/>
     </row>
-    <row r="626" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="626" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A626" s="4"/>
       <c r="B626" s="4"/>
       <c r="C626" s="11"/>
@@ -12421,7 +13629,7 @@
       <c r="K626" s="2"/>
       <c r="L626" s="13"/>
     </row>
-    <row r="627" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="627" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A627" s="4"/>
       <c r="B627" s="4"/>
       <c r="C627" s="11"/>
@@ -12435,7 +13643,7 @@
       <c r="K627" s="2"/>
       <c r="L627" s="13"/>
     </row>
-    <row r="628" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="628" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A628" s="4"/>
       <c r="B628" s="4"/>
       <c r="C628" s="11"/>
@@ -12449,7 +13657,7 @@
       <c r="K628" s="2"/>
       <c r="L628" s="13"/>
     </row>
-    <row r="629" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="629" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A629" s="4"/>
       <c r="B629" s="4"/>
       <c r="C629" s="11"/>
@@ -12463,7 +13671,7 @@
       <c r="K629" s="2"/>
       <c r="L629" s="13"/>
     </row>
-    <row r="630" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="630" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A630" s="4"/>
       <c r="B630" s="4"/>
       <c r="C630" s="11"/>
@@ -12477,7 +13685,7 @@
       <c r="K630" s="2"/>
       <c r="L630" s="13"/>
     </row>
-    <row r="631" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="631" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A631" s="4"/>
       <c r="B631" s="4"/>
       <c r="C631" s="11"/>
@@ -12491,7 +13699,7 @@
       <c r="K631" s="2"/>
       <c r="L631" s="13"/>
     </row>
-    <row r="632" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="632" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A632" s="4"/>
       <c r="B632" s="4"/>
       <c r="C632" s="11"/>
@@ -12505,7 +13713,7 @@
       <c r="K632" s="2"/>
       <c r="L632" s="13"/>
     </row>
-    <row r="633" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="633" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A633" s="4"/>
       <c r="B633" s="4"/>
       <c r="C633" s="11"/>
@@ -12519,7 +13727,7 @@
       <c r="K633" s="2"/>
       <c r="L633" s="13"/>
     </row>
-    <row r="634" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="634" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A634" s="4"/>
       <c r="B634" s="4"/>
       <c r="C634" s="11"/>
@@ -12533,7 +13741,7 @@
       <c r="K634" s="2"/>
       <c r="L634" s="13"/>
     </row>
-    <row r="635" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="635" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A635" s="4"/>
       <c r="B635" s="4"/>
       <c r="C635" s="11"/>
@@ -12547,7 +13755,7 @@
       <c r="K635" s="2"/>
       <c r="L635" s="13"/>
     </row>
-    <row r="636" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="636" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A636" s="4"/>
       <c r="B636" s="4"/>
       <c r="C636" s="11"/>
@@ -12561,7 +13769,7 @@
       <c r="K636" s="2"/>
       <c r="L636" s="13"/>
     </row>
-    <row r="637" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="637" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A637" s="4"/>
       <c r="B637" s="4"/>
       <c r="C637" s="11"/>
@@ -12575,7 +13783,7 @@
       <c r="K637" s="2"/>
       <c r="L637" s="13"/>
     </row>
-    <row r="638" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="638" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A638" s="4"/>
       <c r="B638" s="4"/>
       <c r="C638" s="11"/>
@@ -12589,7 +13797,7 @@
       <c r="K638" s="2"/>
       <c r="L638" s="13"/>
     </row>
-    <row r="639" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="639" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A639" s="4"/>
       <c r="B639" s="4"/>
       <c r="C639" s="11"/>
@@ -12603,7 +13811,7 @@
       <c r="K639" s="2"/>
       <c r="L639" s="13"/>
     </row>
-    <row r="640" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="640" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A640" s="4"/>
       <c r="B640" s="4"/>
       <c r="C640" s="11"/>
@@ -12617,7 +13825,7 @@
       <c r="K640" s="2"/>
       <c r="L640" s="13"/>
     </row>
-    <row r="641" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="641" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A641" s="4"/>
       <c r="B641" s="4"/>
       <c r="C641" s="11"/>
@@ -12631,7 +13839,7 @@
       <c r="K641" s="2"/>
       <c r="L641" s="13"/>
     </row>
-    <row r="642" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="642" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A642" s="4"/>
       <c r="B642" s="4"/>
       <c r="C642" s="11"/>
@@ -12645,7 +13853,7 @@
       <c r="K642" s="2"/>
       <c r="L642" s="13"/>
     </row>
-    <row r="643" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="643" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A643" s="4"/>
       <c r="B643" s="4"/>
       <c r="C643" s="11"/>
@@ -12659,7 +13867,7 @@
       <c r="K643" s="2"/>
       <c r="L643" s="13"/>
     </row>
-    <row r="644" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="644" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A644" s="4"/>
       <c r="B644" s="4"/>
       <c r="C644" s="11"/>
@@ -12673,7 +13881,7 @@
       <c r="K644" s="2"/>
       <c r="L644" s="13"/>
     </row>
-    <row r="645" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="645" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A645" s="4"/>
       <c r="B645" s="4"/>
       <c r="C645" s="11"/>
@@ -12687,7 +13895,7 @@
       <c r="K645" s="2"/>
       <c r="L645" s="13"/>
     </row>
-    <row r="646" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="646" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A646" s="4"/>
       <c r="B646" s="4"/>
       <c r="C646" s="11"/>
@@ -12701,368 +13909,368 @@
       <c r="K646" s="2"/>
       <c r="L646" s="13"/>
     </row>
-    <row r="647" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="648" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="649" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="650" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="651" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="652" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="653" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="654" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="655" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="656" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="657" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="658" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="659" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="660" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="661" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="662" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="663" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="664" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="665" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="666" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="667" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="668" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="669" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="670" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="671" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="672" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="673" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="674" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="675" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="676" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="677" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="678" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="679" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="680" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="681" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="682" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="683" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="684" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="685" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="686" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="687" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="688" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="689" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="690" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="691" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="692" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="693" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="694" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="695" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="696" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="697" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="698" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="699" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="700" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="701" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="702" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="703" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="704" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="705" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="706" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="707" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="708" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="709" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="710" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="711" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="712" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="713" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="714" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="715" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="716" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="717" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="718" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="719" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="720" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="721" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="722" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="723" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="724" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="725" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="726" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="727" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="728" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="729" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="730" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="731" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="732" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="733" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="734" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="735" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="736" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="737" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="738" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="739" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="740" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="741" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="742" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="743" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="744" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="745" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="746" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="747" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="748" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="749" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="750" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="751" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="752" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="753" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="754" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="755" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="756" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="757" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="758" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="759" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="760" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="761" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="762" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="763" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="764" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="765" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="766" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="767" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="768" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="769" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="770" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="771" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="772" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="773" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="774" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="775" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="776" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="777" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="778" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="779" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="780" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="781" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="782" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="783" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="784" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="785" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="786" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="787" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="788" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="789" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="790" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="791" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="792" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="793" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="794" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="795" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="796" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="797" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="798" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="799" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="800" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="801" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="802" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="803" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="804" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="805" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="806" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="807" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="808" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="809" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="810" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="811" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="812" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="813" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="814" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="815" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="816" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="817" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="818" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="819" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="820" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="821" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="822" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="823" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="824" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="825" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="826" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="827" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="828" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="829" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="830" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="831" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="832" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="833" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="834" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="835" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="836" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="837" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="838" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="839" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="840" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="841" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="842" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="843" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="844" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="845" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="846" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="847" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="848" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="849" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="850" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="851" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="852" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="853" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="854" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="855" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="856" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="857" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="858" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="859" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="860" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="861" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="862" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="863" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="864" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="865" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="866" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="867" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="868" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="869" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="870" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="871" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="872" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="873" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="874" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="875" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="876" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="877" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="878" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="879" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="880" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="881" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="882" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="883" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="884" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="885" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="886" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="887" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="888" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="889" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="890" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="891" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="892" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="893" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="894" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="895" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="896" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="897" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="898" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="899" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="900" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="901" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="902" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="903" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="904" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="905" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="906" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="907" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="908" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="909" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="910" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="911" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="912" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="913" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="914" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="915" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="916" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="917" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="918" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="919" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="920" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="921" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="922" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="923" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="924" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="925" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="926" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="927" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="928" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="929" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="930" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="931" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="932" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="933" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="934" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="935" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="936" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="937" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="938" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="939" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="940" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="941" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="942" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="943" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="944" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="945" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="946" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="947" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="948" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="949" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="950" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="951" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="952" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="953" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="954" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="955" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="956" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="957" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="958" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="959" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="960" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="961" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="962" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="963" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="964" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="965" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="966" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="967" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="968" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="969" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="970" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="971" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="972" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="973" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="974" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="975" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="976" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="977" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="978" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="979" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="980" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="981" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="982" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="983" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="984" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="985" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="986" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="987" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="988" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="989" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="990" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="991" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="992" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="993" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="994" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="995" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="996" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="997" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="998" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="647" spans="1:12" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="648" spans="1:12" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="649" spans="1:12" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="650" spans="1:12" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="651" spans="1:12" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="652" spans="1:12" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="653" spans="1:12" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="654" spans="1:12" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="655" spans="1:12" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="656" spans="1:12" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="657" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="658" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="659" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="660" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="661" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="662" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="663" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="664" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="665" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="666" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="667" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="668" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="669" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="670" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="671" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="672" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="673" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="674" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="675" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="676" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="677" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="678" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="679" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="680" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="681" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="682" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="683" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="684" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="685" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="686" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="687" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="688" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="689" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="690" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="691" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="692" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="693" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="694" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="695" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="696" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="697" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="698" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="699" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="700" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="701" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="702" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="703" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="704" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="705" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="706" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="707" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="708" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="709" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="710" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="711" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="712" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="713" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="714" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="715" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="716" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="717" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="718" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="719" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="720" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="721" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="722" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="723" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="724" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="725" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="726" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="727" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="728" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="729" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="730" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="731" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="732" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="733" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="734" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="735" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="736" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="737" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="738" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="739" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="740" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="741" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="742" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="743" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="744" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="745" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="746" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="747" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="748" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="749" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="750" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="751" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="752" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="753" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="754" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="755" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="756" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="757" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="758" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="759" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="760" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="761" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="762" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="763" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="764" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="765" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="766" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="767" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="768" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="769" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="770" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="771" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="772" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="773" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="774" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="775" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="776" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="777" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="778" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="779" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="780" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="781" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="782" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="783" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="784" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="785" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="786" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="787" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="788" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="789" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="790" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="791" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="792" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="793" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="794" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="795" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="796" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="797" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="798" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="799" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="800" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="801" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="802" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="803" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="804" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="805" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="806" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="807" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="808" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="809" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="810" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="811" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="812" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="813" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="814" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="815" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="816" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="817" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="818" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="819" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="820" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="821" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="822" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="823" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="824" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="825" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="826" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="827" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="828" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="829" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="830" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="831" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="832" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="833" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="834" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="835" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="836" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="837" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="838" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="839" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="840" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="841" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="842" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="843" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="844" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="845" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="846" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="847" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="848" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="849" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="850" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="851" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="852" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="853" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="854" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="855" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="856" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="857" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="858" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="859" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="860" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="861" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="862" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="863" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="864" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="865" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="866" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="867" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="868" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="869" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="870" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="871" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="872" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="873" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="874" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="875" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="876" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="877" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="878" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="879" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="880" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="881" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="882" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="883" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="884" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="885" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="886" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="887" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="888" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="889" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="890" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="891" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="892" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="893" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="894" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="895" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="896" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="897" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="898" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="899" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="900" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="901" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="902" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="903" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="904" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="905" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="906" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="907" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="908" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="909" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="910" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="911" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="912" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="913" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="914" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="915" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="916" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="917" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="918" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="919" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="920" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="921" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="922" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="923" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="924" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="925" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="926" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="927" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="928" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="929" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="930" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="931" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="932" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="933" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="934" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="935" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="936" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="937" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="938" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="939" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="940" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="941" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="942" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="943" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="944" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="945" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="946" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="947" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="948" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="949" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="950" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="951" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="952" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="953" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="954" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="955" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="956" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="957" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="958" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="959" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="960" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="961" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="962" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="963" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="964" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="965" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="966" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="967" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="968" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="969" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="970" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="971" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="972" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="973" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="974" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="975" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="976" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="977" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="978" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="979" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="980" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="981" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="982" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="983" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="984" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="985" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="986" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="987" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="988" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="989" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="990" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="991" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="992" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="993" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="994" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="995" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="996" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="997" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="998" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0"/>
+  <sheetProtection deleteRows="0" insertHyperlinks="0" insertRows="0"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D696" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D2:D696" type="list" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>INDIRECT(C2)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C698" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C2:C698" type="list" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>target</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/src/test/resources/showcase/artifact/script/base-showcase-macro.xlsx
+++ b/src/test/resources/showcase/artifact/script/base-showcase-macro.xlsx
@@ -22,18 +22,18 @@
     <definedName name="csv">'#system'!$D$2:$D$4</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$E$2:$E$91</definedName>
+    <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
     <definedName name="excel">'#system'!$F$2:$F$8</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
     <definedName name="io">'#system'!$I$2:$I$21</definedName>
     <definedName name="jms">'#system'!$J$2:$J$4</definedName>
-    <definedName name="json">'#system'!$K$2:$K$11</definedName>
+    <definedName name="json">'#system'!$K$2:$K$12</definedName>
     <definedName name="mail">'#system'!$L$2:$L$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$M$2:$M$14</definedName>
+    <definedName name="number">'#system'!$M$2:$M$15</definedName>
     <definedName name="pdf">'#system'!$N$2:$N$16</definedName>
     <definedName name="rdbms">'#system'!$O$2:$O$7</definedName>
     <definedName name="redis">'#system'!$P$2:$P$10</definedName>
@@ -47,7 +47,7 @@
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
     <definedName name="xml">'#system'!$Z$2:$Z$11</definedName>
     <definedName name="sms">'#system'!$Q$2:$Q$2</definedName>
-    <definedName name="ws.async">'#system'!$Y$2:$Y$7</definedName>
+    <definedName name="ws.async">'#system'!$Y$2:$Y$8</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1405" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3177" uniqueCount="480">
   <si>
     <t>description</t>
   </si>
@@ -1466,6 +1466,48 @@
   </si>
   <si>
     <t>put(url,body,output)</t>
+  </si>
+  <si>
+    <t>sendKeysToTextBox(name,text1,text2,text3,text4)</t>
+  </si>
+  <si>
+    <t>addOrReplace(json,jsonpath,input,var)</t>
+  </si>
+  <si>
+    <t>assertBetween(num,minNum,maxNum)</t>
+  </si>
+  <si>
+    <t>assertEqual(num1,num2)</t>
+  </si>
+  <si>
+    <t>average(variableName,array)</t>
+  </si>
+  <si>
+    <t>ceiling(variableName)</t>
+  </si>
+  <si>
+    <t>decrement(variableName,amount)</t>
+  </si>
+  <si>
+    <t>floor(variableName)</t>
+  </si>
+  <si>
+    <t>increment(variableName,amount)</t>
+  </si>
+  <si>
+    <t>max(variableName,array)</t>
+  </si>
+  <si>
+    <t>min(variableName,array)</t>
+  </si>
+  <si>
+    <t>round(variableName,closestDigit)</t>
+  </si>
+  <si>
+    <t>delete(url,body,output)</t>
+  </si>
+  <si>
+    <t>decrement(var,amount)</t>
   </si>
 </sst>
 </file>
@@ -1473,7 +1515,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="38" x14ac:knownFonts="1">
+  <fonts count="98" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1715,8 +1757,384 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="57">
+  <fills count="165">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2035,8 +2453,620 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="58">
+  <borders count="170">
     <border>
       <left/>
       <right/>
@@ -2623,13 +3653,1141 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="109">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -2737,49 +4895,229 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="37" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="37" fillId="32" fontId="23" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="41" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="41" fillId="35" fontId="25" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="38" borderId="45" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="45" fillId="38" fontId="26" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="27" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="41" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="41" fontId="28" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="29" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="44" borderId="49" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="49" fillId="44" fontId="30" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="47" borderId="53" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="53" fillId="47" fontId="31" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="50" borderId="57" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="57" fillId="50" fontId="32" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="50" borderId="57" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="57" fillId="50" fontId="33" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="53" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="53" fontId="34" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="56" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="56" fontId="35" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="53" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="53" fontId="36" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="37" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="65" fillId="59" fontId="38" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="39" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="69" fillId="62" fontId="40" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="73" fillId="65" fontId="41" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="42" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="68" fontId="43" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="44" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="77" fillId="71" fontId="45" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="81" fillId="74" fontId="46" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="85" fillId="77" fontId="47" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="85" fillId="77" fontId="48" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="80" fontId="49" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="83" fontId="50" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="80" fontId="51" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="52" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="93" fillId="86" fontId="53" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="54" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="97" fillId="89" fontId="55" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="101" fillId="92" fontId="56" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="57" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="95" fontId="58" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="59" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="105" fillId="98" fontId="60" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="109" fillId="101" fontId="61" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="113" fillId="104" fontId="62" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="113" fillId="104" fontId="63" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="107" fontId="64" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="110" fontId="65" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="107" fontId="66" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="67" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="121" fillId="113" fontId="68" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="69" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="125" fillId="116" fontId="70" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="129" fillId="119" fontId="71" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="72" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="122" fontId="73" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="74" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="133" fillId="125" fontId="75" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="137" fillId="128" fontId="76" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="141" fillId="131" fontId="77" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="141" fillId="131" fontId="78" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="134" fontId="79" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="137" fontId="80" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="134" fontId="81" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="82" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="140" borderId="149" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="143" borderId="153" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="146" borderId="157" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="149" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="152" borderId="161" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="155" borderId="165" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="158" borderId="169" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="158" borderId="169" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="161" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="164" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="161" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="97" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3198,13 +5536,13 @@
         <v>386</v>
       </c>
       <c r="K2" t="s">
-        <v>78</v>
+        <v>467</v>
       </c>
       <c r="L2" t="s">
         <v>414</v>
       </c>
       <c r="M2" t="s">
-        <v>412</v>
+        <v>468</v>
       </c>
       <c r="N2" t="s">
         <v>245</v>
@@ -3240,7 +5578,7 @@
         <v>176</v>
       </c>
       <c r="Y2" t="s">
-        <v>177</v>
+        <v>478</v>
       </c>
       <c r="Z2" t="s">
         <v>220</v>
@@ -3278,10 +5616,10 @@
         <v>336</v>
       </c>
       <c r="K3" t="s">
-        <v>18</v>
+        <v>78</v>
       </c>
       <c r="M3" t="s">
-        <v>318</v>
+        <v>469</v>
       </c>
       <c r="N3" t="s">
         <v>232</v>
@@ -3314,7 +5652,7 @@
         <v>366</v>
       </c>
       <c r="Y3" t="s">
-        <v>461</v>
+        <v>177</v>
       </c>
       <c r="Z3" t="s">
         <v>221</v>
@@ -3349,7 +5687,7 @@
         <v>337</v>
       </c>
       <c r="K4" t="s">
-        <v>79</v>
+        <v>18</v>
       </c>
       <c r="M4" t="s">
         <v>19</v>
@@ -3385,7 +5723,7 @@
         <v>177</v>
       </c>
       <c r="Y4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="Z4" t="s">
         <v>222</v>
@@ -3414,7 +5752,7 @@
         <v>64</v>
       </c>
       <c r="K5" t="s">
-        <v>22</v>
+        <v>79</v>
       </c>
       <c r="M5" t="s">
         <v>23</v>
@@ -3447,7 +5785,7 @@
         <v>178</v>
       </c>
       <c r="Y5" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="Z5" t="s">
         <v>223</v>
@@ -3473,7 +5811,7 @@
         <v>12</v>
       </c>
       <c r="K6" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="M6" t="s">
         <v>24</v>
@@ -3503,7 +5841,7 @@
         <v>179</v>
       </c>
       <c r="Y6" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="Z6" t="s">
         <v>224</v>
@@ -3529,7 +5867,7 @@
         <v>72</v>
       </c>
       <c r="K7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M7" t="s">
         <v>26</v>
@@ -3556,7 +5894,7 @@
         <v>180</v>
       </c>
       <c r="Y7" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="Z7" t="s">
         <v>225</v>
@@ -3582,7 +5920,7 @@
         <v>31</v>
       </c>
       <c r="K8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M8" t="s">
         <v>83</v>
@@ -3604,6 +5942,9 @@
       </c>
       <c r="X8" t="s">
         <v>181</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>465</v>
       </c>
       <c r="Z8" t="s">
         <v>226</v>
@@ -3626,7 +5967,7 @@
         <v>392</v>
       </c>
       <c r="K9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="M9" t="s">
         <v>84</v>
@@ -3664,10 +6005,10 @@
         <v>13</v>
       </c>
       <c r="K10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M10" t="s">
-        <v>85</v>
+        <v>479</v>
       </c>
       <c r="N10" t="s">
         <v>239</v>
@@ -3699,10 +6040,10 @@
         <v>35</v>
       </c>
       <c r="K11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="M11" t="s">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="N11" t="s">
         <v>240</v>
@@ -3730,8 +6071,11 @@
       <c r="I12" t="s">
         <v>73</v>
       </c>
+      <c r="K12" t="s">
+        <v>36</v>
+      </c>
       <c r="M12" t="s">
-        <v>86</v>
+        <v>34</v>
       </c>
       <c r="N12" t="s">
         <v>241</v>
@@ -3757,7 +6101,7 @@
         <v>74</v>
       </c>
       <c r="M13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N13" t="s">
         <v>246</v>
@@ -3783,7 +6127,7 @@
         <v>75</v>
       </c>
       <c r="M14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N14" t="s">
         <v>242</v>
@@ -3808,6 +6152,9 @@
       <c r="I15" t="s">
         <v>76</v>
       </c>
+      <c r="M15" t="s">
+        <v>88</v>
+      </c>
       <c r="N15" t="s">
         <v>243</v>
       </c>
@@ -4416,7 +6763,7 @@
     </row>
     <row r="77">
       <c r="E77" t="s">
-        <v>334</v>
+        <v>466</v>
       </c>
       <c r="U77" t="s">
         <v>196</v>
@@ -4424,7 +6771,7 @@
     </row>
     <row r="78">
       <c r="E78" t="s">
-        <v>272</v>
+        <v>334</v>
       </c>
       <c r="U78" t="s">
         <v>141</v>
@@ -4432,7 +6779,7 @@
     </row>
     <row r="79">
       <c r="E79" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="U79" t="s">
         <v>197</v>
@@ -4440,7 +6787,7 @@
     </row>
     <row r="80">
       <c r="E80" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="U80" t="s">
         <v>198</v>
@@ -4448,7 +6795,7 @@
     </row>
     <row r="81">
       <c r="E81" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
       <c r="U81" t="s">
         <v>199</v>
@@ -4456,7 +6803,7 @@
     </row>
     <row r="82">
       <c r="E82" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="U82" t="s">
         <v>200</v>
@@ -4464,7 +6811,7 @@
     </row>
     <row r="83">
       <c r="E83" t="s">
-        <v>290</v>
+        <v>273</v>
       </c>
       <c r="U83" t="s">
         <v>215</v>
@@ -4472,7 +6819,7 @@
     </row>
     <row r="84">
       <c r="E84" t="s">
-        <v>274</v>
+        <v>290</v>
       </c>
       <c r="U84" t="s">
         <v>201</v>
@@ -4480,7 +6827,7 @@
     </row>
     <row r="85">
       <c r="E85" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="U85" t="s">
         <v>142</v>
@@ -4488,7 +6835,7 @@
     </row>
     <row r="86">
       <c r="E86" t="s">
-        <v>308</v>
+        <v>275</v>
       </c>
       <c r="U86" t="s">
         <v>385</v>
@@ -4496,7 +6843,7 @@
     </row>
     <row r="87">
       <c r="E87" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="U87" t="s">
         <v>143</v>
@@ -4504,7 +6851,7 @@
     </row>
     <row r="88">
       <c r="E88" t="s">
-        <v>297</v>
+        <v>314</v>
       </c>
       <c r="U88" t="s">
         <v>144</v>
@@ -4512,7 +6859,7 @@
     </row>
     <row r="89">
       <c r="E89" t="s">
-        <v>342</v>
+        <v>297</v>
       </c>
       <c r="U89" t="s">
         <v>145</v>
@@ -4520,7 +6867,7 @@
     </row>
     <row r="90">
       <c r="E90" t="s">
-        <v>279</v>
+        <v>342</v>
       </c>
       <c r="U90" t="s">
         <v>146</v>
@@ -4528,13 +6875,16 @@
     </row>
     <row r="91">
       <c r="E91" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="U91" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="92">
+      <c r="E92" t="s">
+        <v>280</v>
+      </c>
       <c r="U92" t="s">
         <v>148</v>
       </c>

--- a/src/test/resources/showcase/artifact/script/base-showcase-macro.xlsx
+++ b/src/test/resources/showcase/artifact/script/base-showcase-macro.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10513"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10806"/>
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/nexial-core/src/test/resources/showcase/artifact/script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{55B3D360-E400-DE46-A8B0-10A78870F93C}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33"/>
+  <xr:revisionPtr documentId="13_ncr:1_{CF388224-2B55-8B4C-8431-C0020A5D6873}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36"/>
   <bookViews>
-    <workbookView activeTab="1" tabRatio="500" windowHeight="10580" windowWidth="25600" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-21160"/>
+    <workbookView activeTab="1" tabRatio="500" windowHeight="10580" windowWidth="25600" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="440"/>
   </bookViews>
   <sheets>
     <sheet name="#system" r:id="rId1" sheetId="4" state="hidden"/>
@@ -37,27 +37,22 @@
     <definedName name="pdf">'#system'!$N$2:$N$16</definedName>
     <definedName name="rdbms">'#system'!$O$2:$O$7</definedName>
     <definedName name="redis">'#system'!$P$2:$P$10</definedName>
+    <definedName name="sms">'#system'!$Q$2:$Q$2</definedName>
     <definedName name="sound">'#system'!$R$2:$R$5</definedName>
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="step">'#system'!$T$2:$T$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$108</definedName>
+    <definedName name="web">'#system'!$U$2:$U$111</definedName>
     <definedName name="webalert">'#system'!$V$2:$V$6</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
+    <definedName name="ws.async">'#system'!$Y$2:$Y$8</definedName>
     <definedName name="xml">'#system'!$Z$2:$Z$11</definedName>
-    <definedName name="sms">'#system'!$Q$2:$Q$2</definedName>
-    <definedName name="ws.async">'#system'!$Y$2:$Y$8</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -67,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3177" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1891" uniqueCount="475">
   <si>
     <t>description</t>
   </si>
@@ -492,9 +487,6 @@
     <t>saveLocation(var)</t>
   </si>
   <si>
-    <t>savePageAsFile(sessionIdName,url,fileName)</t>
-  </si>
-  <si>
     <t>scrollLeft(locator,pixel)</t>
   </si>
   <si>
@@ -1303,9 +1295,6 @@
   </si>
   <si>
     <t>saveTableRowsRange(var,beginRow,endRow)</t>
-  </si>
-  <si>
-    <t>assertBetween(num,min,max)</t>
   </si>
   <si>
     <t>clear(vars)</t>
@@ -1480,34 +1469,25 @@
     <t>assertEqual(num1,num2)</t>
   </si>
   <si>
-    <t>average(variableName,array)</t>
-  </si>
-  <si>
-    <t>ceiling(variableName)</t>
-  </si>
-  <si>
-    <t>decrement(variableName,amount)</t>
-  </si>
-  <si>
-    <t>floor(variableName)</t>
-  </si>
-  <si>
-    <t>increment(variableName,amount)</t>
-  </si>
-  <si>
-    <t>max(variableName,array)</t>
-  </si>
-  <si>
-    <t>min(variableName,array)</t>
-  </si>
-  <si>
-    <t>round(variableName,closestDigit)</t>
-  </si>
-  <si>
     <t>delete(url,body,output)</t>
   </si>
   <si>
     <t>decrement(var,amount)</t>
+  </si>
+  <si>
+    <t>assertTextMatches(text,minMatch,scrollTo)</t>
+  </si>
+  <si>
+    <t>jsSelect(locator,text)</t>
+  </si>
+  <si>
+    <t>savePageAsFile(sessionIdName,url,file)</t>
+  </si>
+  <si>
+    <t>saveTableAsCsv(locator,file)</t>
+  </si>
+  <si>
+    <t>saveTableAsCsv(locator,nextPageLocator,file)</t>
   </si>
 </sst>
 </file>
@@ -1515,7 +1495,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="98" x14ac:knownFonts="1">
+  <fonts count="53" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1851,290 +1831,8 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="3E511F"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="287389"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="287389"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="823C3C"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="11.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="5A5A32"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="11.0"/>
-      <color rgb="12284A"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="0000FF"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
-      <color rgb="9C0006"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="006100"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
-      <color rgb="9C0006"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
-      <color rgb="808080"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="3E511F"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="287389"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="287389"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="823C3C"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="11.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="5A5A32"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="11.0"/>
-      <color rgb="12284A"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="0000FF"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
-      <color rgb="9C0006"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="006100"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
-      <color rgb="9C0006"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
-      <color rgb="808080"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="3E511F"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="287389"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="287389"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="823C3C"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="11.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="5A5A32"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="11.0"/>
-      <color rgb="12284A"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="0000FF"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
-      <color rgb="9C0006"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="006100"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
-      <color rgb="9C0006"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
-      <color rgb="808080"/>
-      <u val="none"/>
-    </font>
   </fonts>
-  <fills count="165">
+  <fills count="84">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2606,467 +2304,8 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="E6EFD7"/>
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="E6EFD7"/>
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="DCE1E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="DCE1E6"/>
-        <bgColor rgb="DCE1E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="DCE1E6"/>
-        <bgColor rgb="DCE1E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="E6D7D7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="E6D7D7"/>
-        <bgColor rgb="E6D7D7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="E6D7D7"/>
-        <bgColor rgb="E6D7D7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="ECECE8"/>
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="ECECE8"/>
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FAFAFA"/>
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FAFAFA"/>
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="F0F0E1"/>
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="F0F0E1"/>
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FFFFFF"/>
-        <bgColor rgb="FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF"/>
-        <bgColor rgb="FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FFC7CE"/>
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC7CE"/>
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="C6EFCE"/>
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="C6EFCE"/>
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="E6EFD7"/>
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="E6EFD7"/>
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="DCE1E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="DCE1E6"/>
-        <bgColor rgb="DCE1E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="DCE1E6"/>
-        <bgColor rgb="DCE1E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="E6D7D7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="E6D7D7"/>
-        <bgColor rgb="E6D7D7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="E6D7D7"/>
-        <bgColor rgb="E6D7D7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="ECECE8"/>
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="ECECE8"/>
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FAFAFA"/>
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FAFAFA"/>
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="F0F0E1"/>
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="F0F0E1"/>
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FFFFFF"/>
-        <bgColor rgb="FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF"/>
-        <bgColor rgb="FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FFC7CE"/>
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC7CE"/>
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="C6EFCE"/>
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="C6EFCE"/>
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="E6EFD7"/>
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="E6EFD7"/>
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="DCE1E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="DCE1E6"/>
-        <bgColor rgb="DCE1E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="DCE1E6"/>
-        <bgColor rgb="DCE1E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="E6D7D7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="E6D7D7"/>
-        <bgColor rgb="E6D7D7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="E6D7D7"/>
-        <bgColor rgb="E6D7D7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="ECECE8"/>
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="ECECE8"/>
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FAFAFA"/>
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FAFAFA"/>
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="F0F0E1"/>
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="F0F0E1"/>
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FFFFFF"/>
-        <bgColor rgb="FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF"/>
-        <bgColor rgb="FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FFC7CE"/>
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC7CE"/>
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="C6EFCE"/>
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="C6EFCE"/>
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="170">
+  <borders count="86">
     <border>
       <left/>
       <right/>
@@ -3935,859 +3174,13 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C8B4B4"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C8B4B4"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C8B4B4"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C8B4B4"/>
-      </left>
-      <right style="thin">
-        <color rgb="C8B4B4"/>
-      </right>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C8B4B4"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="BEC8CD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="BEC8CD"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="BEC8CD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="BEC8CD"/>
-      </left>
-      <right style="thin">
-        <color rgb="BEC8CD"/>
-      </right>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="BEC8CD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDC3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDC3C3"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDC3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDC3C3"/>
-      </left>
-      <right style="thin">
-        <color rgb="CDC3C3"/>
-      </right>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDC3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="DCDCDC"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="DCDCDC"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="DCDCDC"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="DCDCDC"/>
-      </left>
-      <right style="thin">
-        <color rgb="DCDCDC"/>
-      </right>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="DCDCDC"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDCDCD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDCDCD"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDCDCD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDCDCD"/>
-      </left>
-      <right style="thin">
-        <color rgb="CDCDCD"/>
-      </right>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDCDCD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C3C3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C3C3C3"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C3C3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C3C3C3"/>
-      </left>
-      <right style="thin">
-        <color rgb="C3C3C3"/>
-      </right>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C3C3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C8B4B4"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C8B4B4"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C8B4B4"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C8B4B4"/>
-      </left>
-      <right style="thin">
-        <color rgb="C8B4B4"/>
-      </right>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C8B4B4"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="BEC8CD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="BEC8CD"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="BEC8CD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="BEC8CD"/>
-      </left>
-      <right style="thin">
-        <color rgb="BEC8CD"/>
-      </right>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="BEC8CD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDC3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDC3C3"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDC3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDC3C3"/>
-      </left>
-      <right style="thin">
-        <color rgb="CDC3C3"/>
-      </right>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDC3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="DCDCDC"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="DCDCDC"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="DCDCDC"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="DCDCDC"/>
-      </left>
-      <right style="thin">
-        <color rgb="DCDCDC"/>
-      </right>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="DCDCDC"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDCDCD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDCDCD"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDCDCD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDCDCD"/>
-      </left>
-      <right style="thin">
-        <color rgb="CDCDCD"/>
-      </right>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDCDCD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C3C3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C3C3C3"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C3C3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C3C3C3"/>
-      </left>
-      <right style="thin">
-        <color rgb="C3C3C3"/>
-      </right>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C3C3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C8B4B4"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C8B4B4"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C8B4B4"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C8B4B4"/>
-      </left>
-      <right style="thin">
-        <color rgb="C8B4B4"/>
-      </right>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C8B4B4"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="BEC8CD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="BEC8CD"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="BEC8CD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="BEC8CD"/>
-      </left>
-      <right style="thin">
-        <color rgb="BEC8CD"/>
-      </right>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="BEC8CD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDC3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDC3C3"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDC3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDC3C3"/>
-      </left>
-      <right style="thin">
-        <color rgb="CDC3C3"/>
-      </right>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDC3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="DCDCDC"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="DCDCDC"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="DCDCDC"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="DCDCDC"/>
-      </left>
-      <right style="thin">
-        <color rgb="DCDCDC"/>
-      </right>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="DCDCDC"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDCDCD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDCDCD"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDCDCD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDCDCD"/>
-      </left>
-      <right style="thin">
-        <color rgb="CDCDCD"/>
-      </right>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDCDCD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C3C3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C3C3C3"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C3C3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C3C3C3"/>
-      </left>
-      <right style="thin">
-        <color rgb="C3C3C3"/>
-      </right>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C3C3C3"/>
-      </bottom>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="64">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -4940,184 +3333,49 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="37" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="65" fillId="59" fontId="38" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="38" fillId="59" borderId="65" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="39" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="69" fillId="62" fontId="40" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="40" fillId="62" borderId="69" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="73" fillId="65" fontId="41" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="41" fillId="65" borderId="73" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="42" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="68" fontId="43" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="43" fillId="68" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="44" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="77" fillId="71" fontId="45" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="45" fillId="71" borderId="77" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="81" fillId="74" fontId="46" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="46" fillId="74" borderId="81" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="85" fillId="77" fontId="47" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="47" fillId="77" borderId="85" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="85" fillId="77" fontId="48" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="48" fillId="77" borderId="85" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="80" fontId="49" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="49" fillId="80" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="83" fontId="50" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="50" fillId="83" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="80" fontId="51" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="51" fillId="80" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="52" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="93" fillId="86" fontId="53" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="54" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="97" fillId="89" fontId="55" numFmtId="0" xfId="0">
-      <alignment indent="1" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="101" fillId="92" fontId="56" numFmtId="0" xfId="0">
-      <alignment indent="1" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="57" numFmtId="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="95" fontId="58" numFmtId="0" xfId="0">
-      <alignment indent="1" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="59" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="105" fillId="98" fontId="60" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="109" fillId="101" fontId="61" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="113" fillId="104" fontId="62" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="113" fillId="104" fontId="63" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="107" fontId="64" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="110" fontId="65" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="107" fontId="66" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="67" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="121" fillId="113" fontId="68" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="69" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="125" fillId="116" fontId="70" numFmtId="0" xfId="0">
-      <alignment indent="1" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="129" fillId="119" fontId="71" numFmtId="0" xfId="0">
-      <alignment indent="1" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="72" numFmtId="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="122" fontId="73" numFmtId="0" xfId="0">
-      <alignment indent="1" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="74" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="133" fillId="125" fontId="75" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="137" fillId="128" fontId="76" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="141" fillId="131" fontId="77" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="141" fillId="131" fontId="78" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="134" fontId="79" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="137" fontId="80" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="134" fontId="81" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="82" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="83" fillId="140" borderId="149" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="85" fillId="143" borderId="153" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment indent="1" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="86" fillId="146" borderId="157" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment indent="1" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="88" fillId="149" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment indent="1" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="89" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="90" fillId="152" borderId="161" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="91" fillId="155" borderId="165" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="92" fillId="158" borderId="169" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="93" fillId="158" borderId="169" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="94" fillId="161" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="95" fillId="164" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="96" fillId="161" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="97" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5415,7 +3673,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA108"/>
+  <dimension ref="A1:AA111"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125"/>
   </sheetViews>
@@ -5429,7 +3687,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C1" t="s">
         <v>9</v>
@@ -5447,43 +3705,43 @@
         <v>16</v>
       </c>
       <c r="H1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I1" t="s">
         <v>10</v>
       </c>
       <c r="J1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K1" t="s">
         <v>17</v>
       </c>
       <c r="L1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M1" t="s">
         <v>44</v>
       </c>
       <c r="N1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="O1" t="s">
         <v>45</v>
       </c>
       <c r="P1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="Q1" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="R1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="S1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="T1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="U1" t="s">
         <v>46</v>
@@ -5498,18 +3756,18 @@
         <v>49</v>
       </c>
       <c r="Y1" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="Z1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>372</v>
+      </c>
+      <c r="B2" t="s">
         <v>373</v>
-      </c>
-      <c r="B2" t="s">
-        <v>374</v>
       </c>
       <c r="C2" t="s">
         <v>50</v>
@@ -5527,61 +3785,61 @@
         <v>71</v>
       </c>
       <c r="H2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="I2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="J2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K2" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="L2" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="M2" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="N2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="P2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="Q2" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="R2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="S2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="T2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="U2" t="s">
         <v>89</v>
       </c>
       <c r="V2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="W2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="X2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="Y2" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
       <c r="Z2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="3">
@@ -5589,73 +3847,73 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E3" t="s">
         <v>80</v>
       </c>
       <c r="F3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G3" t="s">
         <v>21</v>
       </c>
       <c r="H3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="J3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="K3" t="s">
         <v>78</v>
       </c>
       <c r="M3" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="N3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="O3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="P3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="R3" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="S3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="T3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="U3" t="s">
         <v>90</v>
       </c>
       <c r="V3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="W3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="X3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="Y3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="Z3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="4">
@@ -5663,7 +3921,7 @@
         <v>43</v>
       </c>
       <c r="B4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C4" t="s">
         <v>20</v>
@@ -5672,19 +3930,19 @@
         <v>65</v>
       </c>
       <c r="E4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="I4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="K4" t="s">
         <v>18</v>
@@ -5693,40 +3951,40 @@
         <v>19</v>
       </c>
       <c r="N4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="O4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="P4" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="R4" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="S4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="T4" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="U4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="V4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="W4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="X4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="Y4" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="Z4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="5">
@@ -5734,19 +3992,19 @@
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F5" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H5" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I5" t="s">
         <v>64</v>
@@ -5758,37 +4016,37 @@
         <v>23</v>
       </c>
       <c r="N5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="O5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="P5" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="R5" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="S5" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="U5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="V5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="W5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="X5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="Y5" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="Z5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="6">
@@ -5796,16 +4054,16 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E6" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F6" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I6" t="s">
         <v>12</v>
@@ -5817,34 +4075,34 @@
         <v>24</v>
       </c>
       <c r="N6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="O6" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="P6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="S6" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="U6" t="s">
         <v>91</v>
       </c>
       <c r="V6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="W6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="X6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="Y6" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="Z6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="7">
@@ -5852,16 +4110,16 @@
         <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C7" t="s">
         <v>25</v>
       </c>
       <c r="E7" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F7" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I7" t="s">
         <v>72</v>
@@ -5873,48 +4131,48 @@
         <v>26</v>
       </c>
       <c r="N7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O7" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="P7" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="S7" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="U7" t="s">
         <v>92</v>
       </c>
       <c r="W7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="X7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="Y7" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="Z7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C8" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E8" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I8" t="s">
         <v>31</v>
@@ -5926,28 +4184,28 @@
         <v>83</v>
       </c>
       <c r="N8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="P8" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="S8" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="U8" t="s">
         <v>93</v>
       </c>
       <c r="W8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="X8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Y8" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="Z8" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="9">
@@ -5955,16 +4213,16 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="I9" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K9" t="s">
         <v>29</v>
@@ -5973,33 +4231,33 @@
         <v>84</v>
       </c>
       <c r="N9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="P9" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="S9" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="U9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="X9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="Z9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C10" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E10" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I10" t="s">
         <v>13</v>
@@ -6008,22 +4266,22 @@
         <v>32</v>
       </c>
       <c r="M10" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="N10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="P10" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="X10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="Z10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="11">
@@ -6031,10 +4289,10 @@
         <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E11" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I11" t="s">
         <v>35</v>
@@ -6046,27 +4304,27 @@
         <v>85</v>
       </c>
       <c r="N11" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="U11" t="s">
+        <v>259</v>
+      </c>
+      <c r="X11" t="s">
         <v>260</v>
       </c>
-      <c r="X11" t="s">
-        <v>261</v>
-      </c>
       <c r="Z11" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C12" t="s">
         <v>30</v>
       </c>
       <c r="E12" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I12" t="s">
         <v>73</v>
@@ -6078,13 +4336,13 @@
         <v>34</v>
       </c>
       <c r="N12" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="U12" t="s">
         <v>94</v>
       </c>
       <c r="X12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="13">
@@ -6095,7 +4353,7 @@
         <v>51</v>
       </c>
       <c r="E13" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I13" t="s">
         <v>74</v>
@@ -6104,24 +4362,24 @@
         <v>86</v>
       </c>
       <c r="N13" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="U13" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="X13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C14" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E14" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I14" t="s">
         <v>75</v>
@@ -6130,13 +4388,13 @@
         <v>87</v>
       </c>
       <c r="N14" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="U14" t="s">
         <v>95</v>
       </c>
       <c r="X14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="15">
@@ -6144,10 +4402,10 @@
         <v>45</v>
       </c>
       <c r="C15" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E15" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I15" t="s">
         <v>76</v>
@@ -6156,41 +4414,41 @@
         <v>88</v>
       </c>
       <c r="N15" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="U15" t="s">
         <v>96</v>
       </c>
       <c r="X15" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C16" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E16" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I16" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="N16" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="U16" t="s">
         <v>67</v>
       </c>
       <c r="X16" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C17" t="s">
         <v>52</v>
@@ -6207,7 +4465,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C18" t="s">
         <v>53</v>
@@ -6216,7 +4474,7 @@
         <v>82</v>
       </c>
       <c r="I18" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="U18" t="s">
         <v>98</v>
@@ -6224,13 +4482,13 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C19" t="s">
         <v>54</v>
       </c>
       <c r="E19" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I19" t="s">
         <v>77</v>
@@ -6241,13 +4499,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C20" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E20" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I20" t="s">
         <v>38</v>
@@ -6264,7 +4522,7 @@
         <v>55</v>
       </c>
       <c r="E21" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I21" t="s">
         <v>39</v>
@@ -6278,10 +4536,10 @@
         <v>47</v>
       </c>
       <c r="C22" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E22" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="U22" t="s">
         <v>102</v>
@@ -6292,10 +4550,10 @@
         <v>48</v>
       </c>
       <c r="C23" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E23" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="U23" t="s">
         <v>103</v>
@@ -6306,10 +4564,10 @@
         <v>49</v>
       </c>
       <c r="C24" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E24" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="U24" t="s">
         <v>104</v>
@@ -6317,7 +4575,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C25" t="s">
         <v>56</v>
@@ -6331,13 +4589,13 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C26" t="s">
         <v>57</v>
       </c>
       <c r="E26" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="U26" t="s">
         <v>106</v>
@@ -6348,10 +4606,10 @@
         <v>58</v>
       </c>
       <c r="E27" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="U27" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="28">
@@ -6359,7 +4617,7 @@
         <v>59</v>
       </c>
       <c r="E28" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="U28" t="s">
         <v>107</v>
@@ -6370,7 +4628,7 @@
         <v>60</v>
       </c>
       <c r="E29" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="U29" t="s">
         <v>108</v>
@@ -6381,7 +4639,7 @@
         <v>61</v>
       </c>
       <c r="E30" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="U30" t="s">
         <v>109</v>
@@ -6392,7 +4650,7 @@
         <v>62</v>
       </c>
       <c r="E31" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="U31" t="s">
         <v>110</v>
@@ -6403,7 +4661,7 @@
         <v>63</v>
       </c>
       <c r="E32" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="U32" t="s">
         <v>111</v>
@@ -6411,7 +4669,7 @@
     </row>
     <row r="33">
       <c r="E33" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="U33" t="s">
         <v>112</v>
@@ -6419,15 +4677,15 @@
     </row>
     <row r="34">
       <c r="E34" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="U34" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="35">
       <c r="E35" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="U35" t="s">
         <v>113</v>
@@ -6435,26 +4693,26 @@
     </row>
     <row r="36">
       <c r="E36" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="U36" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="37">
       <c r="E37" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="U37" t="s">
-        <v>395</v>
+        <v>470</v>
       </c>
     </row>
     <row r="38">
       <c r="E38" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="U38" t="s">
-        <v>114</v>
+        <v>394</v>
       </c>
     </row>
     <row r="39">
@@ -6462,511 +4720,526 @@
         <v>70</v>
       </c>
       <c r="U39" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="40">
       <c r="E40" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="U40" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="41">
       <c r="E41" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="U41" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="42">
       <c r="E42" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="U42" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="43">
       <c r="E43" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="U43" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="44">
       <c r="E44" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="U44" t="s">
-        <v>206</v>
+        <v>119</v>
       </c>
     </row>
     <row r="45">
       <c r="E45" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="U45" t="s">
-        <v>69</v>
+        <v>205</v>
       </c>
     </row>
     <row r="46">
       <c r="E46" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="U46" t="s">
-        <v>120</v>
+        <v>69</v>
       </c>
     </row>
     <row r="47">
       <c r="E47" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="U47" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="48">
       <c r="E48" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="U48" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="49">
       <c r="E49" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="U49" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="50">
       <c r="E50" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="U50" t="s">
-        <v>348</v>
+        <v>123</v>
       </c>
     </row>
     <row r="51">
       <c r="E51" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="U51" t="s">
-        <v>124</v>
+        <v>347</v>
       </c>
     </row>
     <row r="52">
       <c r="E52" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="U52" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="53">
       <c r="E53" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="U53" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="54">
       <c r="E54" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="U54" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="55">
       <c r="E55" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="U55" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="56">
       <c r="E56" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="U56" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="57">
       <c r="E57" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="U57" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="58">
       <c r="E58" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="U58" t="s">
-        <v>207</v>
+        <v>130</v>
       </c>
     </row>
     <row r="59">
       <c r="E59" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="U59" t="s">
-        <v>391</v>
+        <v>206</v>
       </c>
     </row>
     <row r="60">
       <c r="E60" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="U60" t="s">
-        <v>131</v>
+        <v>390</v>
       </c>
     </row>
     <row r="61">
       <c r="E61" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="U61" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="62">
       <c r="E62" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="U62" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="63">
       <c r="E63" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="U63" t="s">
-        <v>134</v>
+        <v>471</v>
       </c>
     </row>
     <row r="64">
       <c r="E64" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="U64" t="s">
-        <v>190</v>
+        <v>133</v>
       </c>
     </row>
     <row r="65">
       <c r="E65" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="U65" t="s">
-        <v>191</v>
+        <v>134</v>
       </c>
     </row>
     <row r="66">
       <c r="E66" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="U66" t="s">
-        <v>135</v>
+        <v>189</v>
       </c>
     </row>
     <row r="67">
       <c r="E67" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="U67" t="s">
-        <v>136</v>
+        <v>190</v>
       </c>
     </row>
     <row r="68">
       <c r="E68" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="U68" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="69">
       <c r="E69" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="U69" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="70">
       <c r="E70" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="U70" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="71">
       <c r="E71" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="U71" t="s">
-        <v>192</v>
+        <v>138</v>
       </c>
     </row>
     <row r="72">
       <c r="E72" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="U72" t="s">
-        <v>193</v>
+        <v>139</v>
       </c>
     </row>
     <row r="73">
       <c r="E73" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="U73" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="74">
       <c r="E74" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="U74" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="75">
       <c r="E75" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="U75" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
     </row>
     <row r="76">
       <c r="E76" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="U76" t="s">
-        <v>140</v>
+        <v>194</v>
       </c>
     </row>
     <row r="77">
       <c r="E77" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="U77" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
     </row>
     <row r="78">
       <c r="E78" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="U78" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="79">
       <c r="E79" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="U79" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="80">
       <c r="E80" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="U80" t="s">
-        <v>198</v>
+        <v>472</v>
       </c>
     </row>
     <row r="81">
       <c r="E81" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="U81" t="s">
-        <v>199</v>
+        <v>474</v>
       </c>
     </row>
     <row r="82">
       <c r="E82" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="U82" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="83">
       <c r="E83" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="U83" t="s">
-        <v>215</v>
+        <v>197</v>
       </c>
     </row>
     <row r="84">
       <c r="E84" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="U84" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="85">
       <c r="E85" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="U85" t="s">
-        <v>142</v>
+        <v>199</v>
       </c>
     </row>
     <row r="86">
       <c r="E86" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="U86" t="s">
-        <v>385</v>
+        <v>214</v>
       </c>
     </row>
     <row r="87">
       <c r="E87" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="U87" t="s">
-        <v>143</v>
+        <v>200</v>
       </c>
     </row>
     <row r="88">
       <c r="E88" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="U88" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="89">
       <c r="E89" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="U89" t="s">
-        <v>145</v>
+        <v>384</v>
       </c>
     </row>
     <row r="90">
       <c r="E90" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="U90" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="91">
       <c r="E91" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="U91" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="92">
       <c r="E92" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="U92" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="93">
       <c r="U93" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="94">
       <c r="U94" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="95">
       <c r="U95" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="96">
       <c r="U96" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="97">
       <c r="U97" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="98">
       <c r="U98" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="99">
       <c r="U99" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="100">
       <c r="U100" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="101">
       <c r="U101" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="102">
       <c r="U102" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="103">
       <c r="U103" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>40</v>
+        <v>156</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>162</v>
+        <v>40</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
-        <v>163</v>
+        <v>159</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="U109" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="U110" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="U111" t="s">
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -6980,7 +5253,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A7" ySplit="1"/>
-      <selection activeCell="B22" pane="bottomLeft" sqref="B22"/>
+      <selection activeCell="D15" pane="bottomLeft" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7000,13 +5273,13 @@
   <sheetData>
     <row customFormat="1" customHeight="1" ht="20" r="1" s="5" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B1" s="17" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D1" s="17" t="s">
         <v>2</v>
@@ -7036,10 +5309,10 @@
     </row>
     <row customHeight="1" ht="18" r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>248</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>249</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>9</v>
@@ -7048,7 +5321,7 @@
         <v>62</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
@@ -7060,10 +5333,10 @@
     </row>
     <row customHeight="1" ht="19" r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>9</v>
@@ -7072,7 +5345,7 @@
         <v>62</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
@@ -7085,7 +5358,7 @@
     <row customHeight="1" ht="19" r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
       <c r="B4" s="4" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>9</v>
@@ -7094,7 +5367,7 @@
         <v>62</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
@@ -7110,7 +5383,7 @@
     <row customHeight="1" ht="19" r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>9</v>
@@ -7119,7 +5392,7 @@
         <v>62</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
@@ -7132,7 +5405,7 @@
     <row customHeight="1" ht="19" r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
       <c r="B6" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>9</v>
@@ -7141,7 +5414,7 @@
         <v>62</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -7161,20 +5434,20 @@
         <v>61</v>
       </c>
       <c r="E7" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="G7" s="6" t="s">
         <v>424</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="H7" s="6" t="s">
         <v>425</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>426</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>427</v>
       </c>
       <c r="I7" s="6"/>
       <c r="J7" s="15" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="K7" s="2"/>
       <c r="L7" s="13"/>
@@ -7186,10 +5459,10 @@
         <v>9</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
@@ -7201,7 +5474,7 @@
     </row>
     <row customHeight="1" ht="19" r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="11" t="s">
@@ -7211,7 +5484,7 @@
         <v>62</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
@@ -7223,10 +5496,10 @@
     </row>
     <row customHeight="1" ht="19" r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>9</v>
@@ -7235,10 +5508,10 @@
         <v>55</v>
       </c>
       <c r="E10" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="F10" s="6" t="s">
         <v>433</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>435</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
@@ -7250,19 +5523,19 @@
     <row customHeight="1" ht="19" r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="B11" s="4" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C11" s="11" t="s">
         <v>9</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
@@ -7274,7 +5547,7 @@
     <row customHeight="1" ht="19" r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
       <c r="B12" s="4" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C12" s="11" t="s">
         <v>44</v>
@@ -7283,10 +5556,10 @@
         <v>19</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
@@ -7298,7 +5571,7 @@
     <row customHeight="1" ht="36" r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
       <c r="B13" s="4" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C13" s="11" t="s">
         <v>10</v>
@@ -7307,18 +5580,18 @@
         <v>77</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
       <c r="J13" s="15" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="K13" s="2"/>
       <c r="L13" s="13"/>
@@ -7326,7 +5599,7 @@
     <row customHeight="1" ht="19" r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
       <c r="B14" s="4" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>44</v>
@@ -7335,10 +5608,10 @@
         <v>34</v>
       </c>
       <c r="E14" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="F14" s="6" t="s">
         <v>433</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>435</v>
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
@@ -7350,19 +5623,19 @@
     <row customHeight="1" ht="19" r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" s="4" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C15" s="11" t="s">
         <v>44</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>318</v>
+        <v>467</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
@@ -7374,7 +5647,7 @@
     <row customHeight="1" ht="19" r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="4" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C16" s="11" t="s">
         <v>9</v>
@@ -7383,7 +5656,7 @@
         <v>62</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
@@ -7396,19 +5669,19 @@
     <row customHeight="1" ht="19" r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="4" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C17" s="11" t="s">
         <v>9</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
@@ -7420,7 +5693,7 @@
     <row customHeight="1" ht="19" r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
       <c r="B18" s="4" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C18" s="11" t="s">
         <v>44</v>
@@ -7429,10 +5702,10 @@
         <v>23</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
@@ -7444,7 +5717,7 @@
     <row customHeight="1" ht="19" r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
       <c r="B19" s="4" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C19" s="11" t="s">
         <v>9</v>
@@ -7453,7 +5726,7 @@
         <v>62</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
@@ -7466,7 +5739,7 @@
     <row customHeight="1" ht="19" r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
       <c r="B20" s="4" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C20" s="11" t="s">
         <v>44</v>
@@ -7475,10 +5748,10 @@
         <v>34</v>
       </c>
       <c r="E20" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="F20" s="6" t="s">
         <v>433</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>435</v>
       </c>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
@@ -7490,7 +5763,7 @@
     <row customHeight="1" ht="19" r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
       <c r="B21" s="4" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C21" s="11" t="s">
         <v>9</v>
@@ -7499,7 +5772,7 @@
         <v>62</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>

--- a/src/test/resources/showcase/artifact/script/base-showcase-macro.xlsx
+++ b/src/test/resources/showcase/artifact/script/base-showcase-macro.xlsx
@@ -42,7 +42,7 @@
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="step">'#system'!$T$2:$T$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$111</definedName>
+    <definedName name="web">'#system'!$U$2:$U$112</definedName>
     <definedName name="webalert">'#system'!$V$2:$V$6</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1891" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2338" uniqueCount="476">
   <si>
     <t>description</t>
   </si>
@@ -1488,6 +1488,9 @@
   </si>
   <si>
     <t>saveTableAsCsv(locator,nextPageLocator,file)</t>
+  </si>
+  <si>
+    <t>dragAndDrop(fromLocator,toLocator)</t>
   </si>
 </sst>
 </file>
@@ -1495,7 +1498,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="53" x14ac:knownFonts="1">
+  <fonts count="68" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1831,8 +1834,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="84">
+  <fills count="111">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2304,8 +2401,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="86">
+  <borders count="114">
     <border>
       <left/>
       <right/>
@@ -3174,13 +3424,295 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="79">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -3333,49 +3865,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="37" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="59" borderId="65" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="65" fillId="59" fontId="38" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="39" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="62" borderId="69" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="69" fillId="62" fontId="40" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="65" borderId="73" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="73" fillId="65" fontId="41" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="42" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="68" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="68" fontId="43" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="44" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="71" borderId="77" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="77" fillId="71" fontId="45" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="74" borderId="81" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="81" fillId="74" fontId="46" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="77" borderId="85" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="85" fillId="77" fontId="47" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="77" borderId="85" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="85" fillId="77" fontId="48" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="80" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="80" fontId="49" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="83" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="83" fontId="50" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="80" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="80" fontId="51" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="52" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="86" borderId="93" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="89" borderId="97" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="92" borderId="101" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="95" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="98" borderId="105" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="101" borderId="109" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="104" borderId="113" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="104" borderId="113" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="107" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="110" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="107" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3673,7 +4250,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA111"/>
+  <dimension ref="A1:AA112"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125"/>
   </sheetViews>
@@ -4880,7 +5457,7 @@
         <v>338</v>
       </c>
       <c r="U59" t="s">
-        <v>206</v>
+        <v>475</v>
       </c>
     </row>
     <row r="60">
@@ -4888,7 +5465,7 @@
         <v>311</v>
       </c>
       <c r="U60" t="s">
-        <v>390</v>
+        <v>206</v>
       </c>
     </row>
     <row r="61">
@@ -4896,7 +5473,7 @@
         <v>312</v>
       </c>
       <c r="U61" t="s">
-        <v>131</v>
+        <v>390</v>
       </c>
     </row>
     <row r="62">
@@ -4904,7 +5481,7 @@
         <v>370</v>
       </c>
       <c r="U62" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="63">
@@ -4912,7 +5489,7 @@
         <v>371</v>
       </c>
       <c r="U63" t="s">
-        <v>471</v>
+        <v>132</v>
       </c>
     </row>
     <row r="64">
@@ -4920,7 +5497,7 @@
         <v>346</v>
       </c>
       <c r="U64" t="s">
-        <v>133</v>
+        <v>471</v>
       </c>
     </row>
     <row r="65">
@@ -4928,7 +5505,7 @@
         <v>315</v>
       </c>
       <c r="U65" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="66">
@@ -4936,7 +5513,7 @@
         <v>270</v>
       </c>
       <c r="U66" t="s">
-        <v>189</v>
+        <v>134</v>
       </c>
     </row>
     <row r="67">
@@ -4944,7 +5521,7 @@
         <v>354</v>
       </c>
       <c r="U67" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="68">
@@ -4952,7 +5529,7 @@
         <v>316</v>
       </c>
       <c r="U68" t="s">
-        <v>135</v>
+        <v>190</v>
       </c>
     </row>
     <row r="69">
@@ -4960,7 +5537,7 @@
         <v>409</v>
       </c>
       <c r="U69" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="70">
@@ -4968,7 +5545,7 @@
         <v>306</v>
       </c>
       <c r="U70" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="71">
@@ -4976,7 +5553,7 @@
         <v>410</v>
       </c>
       <c r="U71" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="72">
@@ -4984,7 +5561,7 @@
         <v>263</v>
       </c>
       <c r="U72" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="73">
@@ -4992,7 +5569,7 @@
         <v>345</v>
       </c>
       <c r="U73" t="s">
-        <v>191</v>
+        <v>139</v>
       </c>
     </row>
     <row r="74">
@@ -5000,7 +5577,7 @@
         <v>281</v>
       </c>
       <c r="U74" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="75">
@@ -5008,7 +5585,7 @@
         <v>287</v>
       </c>
       <c r="U75" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="76">
@@ -5016,7 +5593,7 @@
         <v>292</v>
       </c>
       <c r="U76" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="77">
@@ -5024,7 +5601,7 @@
         <v>464</v>
       </c>
       <c r="U77" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
     </row>
     <row r="78">
@@ -5032,7 +5609,7 @@
         <v>333</v>
       </c>
       <c r="U78" t="s">
-        <v>140</v>
+        <v>207</v>
       </c>
     </row>
     <row r="79">
@@ -5040,7 +5617,7 @@
         <v>271</v>
       </c>
       <c r="U79" t="s">
-        <v>195</v>
+        <v>140</v>
       </c>
     </row>
     <row r="80">
@@ -5048,7 +5625,7 @@
         <v>282</v>
       </c>
       <c r="U80" t="s">
-        <v>472</v>
+        <v>195</v>
       </c>
     </row>
     <row r="81">
@@ -5056,7 +5633,7 @@
         <v>288</v>
       </c>
       <c r="U81" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="82">
@@ -5064,7 +5641,7 @@
         <v>277</v>
       </c>
       <c r="U82" t="s">
-        <v>196</v>
+        <v>474</v>
       </c>
     </row>
     <row r="83">
@@ -5072,7 +5649,7 @@
         <v>272</v>
       </c>
       <c r="U83" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="84">
@@ -5080,7 +5657,7 @@
         <v>289</v>
       </c>
       <c r="U84" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="85">
@@ -5088,7 +5665,7 @@
         <v>273</v>
       </c>
       <c r="U85" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="86">
@@ -5096,7 +5673,7 @@
         <v>274</v>
       </c>
       <c r="U86" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
     </row>
     <row r="87">
@@ -5104,7 +5681,7 @@
         <v>307</v>
       </c>
       <c r="U87" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
     </row>
     <row r="88">
@@ -5112,7 +5689,7 @@
         <v>313</v>
       </c>
       <c r="U88" t="s">
-        <v>141</v>
+        <v>200</v>
       </c>
     </row>
     <row r="89">
@@ -5120,7 +5697,7 @@
         <v>296</v>
       </c>
       <c r="U89" t="s">
-        <v>384</v>
+        <v>141</v>
       </c>
     </row>
     <row r="90">
@@ -5128,7 +5705,7 @@
         <v>341</v>
       </c>
       <c r="U90" t="s">
-        <v>142</v>
+        <v>384</v>
       </c>
     </row>
     <row r="91">
@@ -5136,7 +5713,7 @@
         <v>278</v>
       </c>
       <c r="U91" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="92">
@@ -5144,101 +5721,106 @@
         <v>279</v>
       </c>
       <c r="U92" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="93">
       <c r="U93" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="94">
       <c r="U94" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="95">
       <c r="U95" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="96">
       <c r="U96" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="97">
       <c r="U97" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="98">
       <c r="U98" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="99">
       <c r="U99" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="100">
       <c r="U100" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="101">
       <c r="U101" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="102">
       <c r="U102" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="103">
       <c r="U103" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>40</v>
+        <v>158</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
-        <v>159</v>
+        <v>40</v>
       </c>
     </row>
     <row r="109">
       <c r="U109" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="110">
       <c r="U110" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="111">
       <c r="U111" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="U112" t="s">
         <v>162</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/base-showcase-macro.xlsx
+++ b/src/test/resources/showcase/artifact/script/base-showcase-macro.xlsx
@@ -19,16 +19,16 @@
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="base">'#system'!$C$2:$C$33</definedName>
-    <definedName name="csv">'#system'!$D$2:$D$4</definedName>
+    <definedName name="csv">'#system'!$D$2:$D$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
     <definedName name="excel">'#system'!$F$2:$F$8</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
-    <definedName name="io">'#system'!$I$2:$I$21</definedName>
+    <definedName name="io">'#system'!$I$2:$I$22</definedName>
     <definedName name="jms">'#system'!$J$2:$J$4</definedName>
-    <definedName name="json">'#system'!$K$2:$K$12</definedName>
+    <definedName name="json">'#system'!$K$2:$K$13</definedName>
     <definedName name="mail">'#system'!$L$2:$L$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
@@ -42,8 +42,8 @@
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="step">'#system'!$T$2:$T$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$112</definedName>
-    <definedName name="webalert">'#system'!$V$2:$V$6</definedName>
+    <definedName name="web">'#system'!$U$2:$U$114</definedName>
+    <definedName name="webalert">'#system'!$V$2:$V$8</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
     <definedName name="ws.async">'#system'!$Y$2:$Y$8</definedName>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2338" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2792" uniqueCount="484">
   <si>
     <t>description</t>
   </si>
@@ -1491,6 +1491,30 @@
   </si>
   <si>
     <t>dragAndDrop(fromLocator,toLocator)</t>
+  </si>
+  <si>
+    <t>fromExcel(excel,worksheet,csvFile)</t>
+  </si>
+  <si>
+    <t>writeFileAsIs(file,content,append)</t>
+  </si>
+  <si>
+    <t>fromCsv(csv,header,jsonFile)</t>
+  </si>
+  <si>
+    <t>checkAll(locator)</t>
+  </si>
+  <si>
+    <t>focus(locator)</t>
+  </si>
+  <si>
+    <t>uncheckAll(locator)</t>
+  </si>
+  <si>
+    <t>replyCancel(text)</t>
+  </si>
+  <si>
+    <t>replyOK(text)</t>
   </si>
 </sst>
 </file>
@@ -1498,7 +1522,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="68" x14ac:knownFonts="1">
+  <fonts count="83" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1928,8 +1952,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="111">
+  <fills count="138">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2554,8 +2672,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="114">
+  <borders count="142">
     <border>
       <left/>
       <right/>
@@ -3706,13 +3977,295 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="94">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -3910,49 +4463,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="52" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="86" borderId="93" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="93" fillId="86" fontId="53" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="54" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="89" borderId="97" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="97" fillId="89" fontId="55" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="92" borderId="101" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="101" fillId="92" fontId="56" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="57" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="95" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="95" fontId="58" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="59" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="98" borderId="105" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="105" fillId="98" fontId="60" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="101" borderId="109" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="109" fillId="101" fontId="61" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="104" borderId="113" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="113" fillId="104" fontId="62" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="104" borderId="113" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="113" fillId="104" fontId="63" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="107" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="107" fontId="64" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="110" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="110" fontId="65" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="107" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="107" fontId="66" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="67" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="113" borderId="121" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="116" borderId="125" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="119" borderId="129" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="122" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="125" borderId="133" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="128" borderId="137" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="131" borderId="141" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="131" borderId="141" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="134" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="137" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="134" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4250,7 +4848,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA112"/>
+  <dimension ref="A1:AA114"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125"/>
   </sheetViews>
@@ -4574,6 +5172,9 @@
       <c r="C5" t="s">
         <v>215</v>
       </c>
+      <c r="D5" t="s">
+        <v>476</v>
+      </c>
       <c r="E5" t="s">
         <v>337</v>
       </c>
@@ -4667,7 +5268,7 @@
         <v>91</v>
       </c>
       <c r="V6" t="s">
-        <v>167</v>
+        <v>482</v>
       </c>
       <c r="W6" t="s">
         <v>172</v>
@@ -4722,6 +5323,9 @@
       <c r="U7" t="s">
         <v>92</v>
       </c>
+      <c r="V7" t="s">
+        <v>483</v>
+      </c>
       <c r="W7" t="s">
         <v>173</v>
       </c>
@@ -4772,6 +5376,9 @@
       <c r="U8" t="s">
         <v>93</v>
       </c>
+      <c r="V8" t="s">
+        <v>167</v>
+      </c>
       <c r="W8" t="s">
         <v>174</v>
       </c>
@@ -4840,7 +5447,7 @@
         <v>13</v>
       </c>
       <c r="K10" t="s">
-        <v>32</v>
+        <v>478</v>
       </c>
       <c r="M10" t="s">
         <v>469</v>
@@ -4875,7 +5482,7 @@
         <v>35</v>
       </c>
       <c r="K11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M11" t="s">
         <v>85</v>
@@ -4907,7 +5514,7 @@
         <v>73</v>
       </c>
       <c r="K12" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="M12" t="s">
         <v>34</v>
@@ -4935,6 +5542,9 @@
       <c r="I13" t="s">
         <v>74</v>
       </c>
+      <c r="K13" t="s">
+        <v>36</v>
+      </c>
       <c r="M13" t="s">
         <v>86</v>
       </c>
@@ -5085,7 +5695,7 @@
         <v>298</v>
       </c>
       <c r="I20" t="s">
-        <v>38</v>
+        <v>477</v>
       </c>
       <c r="U20" t="s">
         <v>100</v>
@@ -5102,7 +5712,7 @@
         <v>299</v>
       </c>
       <c r="I21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="U21" t="s">
         <v>101</v>
@@ -5118,6 +5728,9 @@
       <c r="E22" t="s">
         <v>300</v>
       </c>
+      <c r="I22" t="s">
+        <v>39</v>
+      </c>
       <c r="U22" t="s">
         <v>102</v>
       </c>
@@ -5345,7 +5958,7 @@
         <v>343</v>
       </c>
       <c r="U45" t="s">
-        <v>205</v>
+        <v>479</v>
       </c>
     </row>
     <row r="46">
@@ -5353,7 +5966,7 @@
         <v>203</v>
       </c>
       <c r="U46" t="s">
-        <v>69</v>
+        <v>205</v>
       </c>
     </row>
     <row r="47">
@@ -5361,7 +5974,7 @@
         <v>303</v>
       </c>
       <c r="U47" t="s">
-        <v>120</v>
+        <v>69</v>
       </c>
     </row>
     <row r="48">
@@ -5369,7 +5982,7 @@
         <v>340</v>
       </c>
       <c r="U48" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="49">
@@ -5377,7 +5990,7 @@
         <v>369</v>
       </c>
       <c r="U49" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="50">
@@ -5385,7 +5998,7 @@
         <v>304</v>
       </c>
       <c r="U50" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="51">
@@ -5393,7 +6006,7 @@
         <v>357</v>
       </c>
       <c r="U51" t="s">
-        <v>347</v>
+        <v>123</v>
       </c>
     </row>
     <row r="52">
@@ -5401,7 +6014,7 @@
         <v>332</v>
       </c>
       <c r="U52" t="s">
-        <v>124</v>
+        <v>347</v>
       </c>
     </row>
     <row r="53">
@@ -5409,7 +6022,7 @@
         <v>269</v>
       </c>
       <c r="U53" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="54">
@@ -5417,7 +6030,7 @@
         <v>293</v>
       </c>
       <c r="U54" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="55">
@@ -5425,7 +6038,7 @@
         <v>294</v>
       </c>
       <c r="U55" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="56">
@@ -5433,7 +6046,7 @@
         <v>295</v>
       </c>
       <c r="U56" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="57">
@@ -5441,7 +6054,7 @@
         <v>305</v>
       </c>
       <c r="U57" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="58">
@@ -5449,7 +6062,7 @@
         <v>314</v>
       </c>
       <c r="U58" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="59">
@@ -5457,7 +6070,7 @@
         <v>338</v>
       </c>
       <c r="U59" t="s">
-        <v>475</v>
+        <v>130</v>
       </c>
     </row>
     <row r="60">
@@ -5465,7 +6078,7 @@
         <v>311</v>
       </c>
       <c r="U60" t="s">
-        <v>206</v>
+        <v>475</v>
       </c>
     </row>
     <row r="61">
@@ -5473,7 +6086,7 @@
         <v>312</v>
       </c>
       <c r="U61" t="s">
-        <v>390</v>
+        <v>206</v>
       </c>
     </row>
     <row r="62">
@@ -5481,7 +6094,7 @@
         <v>370</v>
       </c>
       <c r="U62" t="s">
-        <v>131</v>
+        <v>390</v>
       </c>
     </row>
     <row r="63">
@@ -5489,7 +6102,7 @@
         <v>371</v>
       </c>
       <c r="U63" t="s">
-        <v>132</v>
+        <v>480</v>
       </c>
     </row>
     <row r="64">
@@ -5497,7 +6110,7 @@
         <v>346</v>
       </c>
       <c r="U64" t="s">
-        <v>471</v>
+        <v>131</v>
       </c>
     </row>
     <row r="65">
@@ -5505,7 +6118,7 @@
         <v>315</v>
       </c>
       <c r="U65" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="66">
@@ -5513,7 +6126,7 @@
         <v>270</v>
       </c>
       <c r="U66" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="67">
@@ -5521,7 +6134,7 @@
         <v>354</v>
       </c>
       <c r="U67" t="s">
-        <v>189</v>
+        <v>134</v>
       </c>
     </row>
     <row r="68">
@@ -5529,7 +6142,7 @@
         <v>316</v>
       </c>
       <c r="U68" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="69">
@@ -5537,7 +6150,7 @@
         <v>409</v>
       </c>
       <c r="U69" t="s">
-        <v>135</v>
+        <v>190</v>
       </c>
     </row>
     <row r="70">
@@ -5545,7 +6158,7 @@
         <v>306</v>
       </c>
       <c r="U70" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="71">
@@ -5553,7 +6166,7 @@
         <v>410</v>
       </c>
       <c r="U71" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="72">
@@ -5561,7 +6174,7 @@
         <v>263</v>
       </c>
       <c r="U72" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="73">
@@ -5569,7 +6182,7 @@
         <v>345</v>
       </c>
       <c r="U73" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="74">
@@ -5577,7 +6190,7 @@
         <v>281</v>
       </c>
       <c r="U74" t="s">
-        <v>191</v>
+        <v>139</v>
       </c>
     </row>
     <row r="75">
@@ -5585,7 +6198,7 @@
         <v>287</v>
       </c>
       <c r="U75" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="76">
@@ -5593,7 +6206,7 @@
         <v>292</v>
       </c>
       <c r="U76" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="77">
@@ -5601,7 +6214,7 @@
         <v>464</v>
       </c>
       <c r="U77" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="78">
@@ -5609,7 +6222,7 @@
         <v>333</v>
       </c>
       <c r="U78" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
     </row>
     <row r="79">
@@ -5617,7 +6230,7 @@
         <v>271</v>
       </c>
       <c r="U79" t="s">
-        <v>140</v>
+        <v>207</v>
       </c>
     </row>
     <row r="80">
@@ -5625,7 +6238,7 @@
         <v>282</v>
       </c>
       <c r="U80" t="s">
-        <v>195</v>
+        <v>140</v>
       </c>
     </row>
     <row r="81">
@@ -5633,7 +6246,7 @@
         <v>288</v>
       </c>
       <c r="U81" t="s">
-        <v>472</v>
+        <v>195</v>
       </c>
     </row>
     <row r="82">
@@ -5641,7 +6254,7 @@
         <v>277</v>
       </c>
       <c r="U82" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="83">
@@ -5649,7 +6262,7 @@
         <v>272</v>
       </c>
       <c r="U83" t="s">
-        <v>196</v>
+        <v>474</v>
       </c>
     </row>
     <row r="84">
@@ -5657,7 +6270,7 @@
         <v>289</v>
       </c>
       <c r="U84" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="85">
@@ -5665,7 +6278,7 @@
         <v>273</v>
       </c>
       <c r="U85" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="86">
@@ -5673,7 +6286,7 @@
         <v>274</v>
       </c>
       <c r="U86" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="87">
@@ -5681,7 +6294,7 @@
         <v>307</v>
       </c>
       <c r="U87" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
     </row>
     <row r="88">
@@ -5689,7 +6302,7 @@
         <v>313</v>
       </c>
       <c r="U88" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
     </row>
     <row r="89">
@@ -5697,7 +6310,7 @@
         <v>296</v>
       </c>
       <c r="U89" t="s">
-        <v>141</v>
+        <v>200</v>
       </c>
     </row>
     <row r="90">
@@ -5705,7 +6318,7 @@
         <v>341</v>
       </c>
       <c r="U90" t="s">
-        <v>384</v>
+        <v>141</v>
       </c>
     </row>
     <row r="91">
@@ -5713,7 +6326,7 @@
         <v>278</v>
       </c>
       <c r="U91" t="s">
-        <v>142</v>
+        <v>384</v>
       </c>
     </row>
     <row r="92">
@@ -5721,106 +6334,116 @@
         <v>279</v>
       </c>
       <c r="U92" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="93">
       <c r="U93" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="94">
       <c r="U94" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="95">
       <c r="U95" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="96">
       <c r="U96" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="97">
       <c r="U97" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="98">
       <c r="U98" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="99">
       <c r="U99" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="100">
       <c r="U100" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="101">
       <c r="U101" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="102">
       <c r="U102" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="103">
       <c r="U103" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>156</v>
+        <v>481</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
-        <v>40</v>
+        <v>157</v>
       </c>
     </row>
     <row r="109">
       <c r="U109" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="110">
       <c r="U110" t="s">
-        <v>160</v>
+        <v>40</v>
       </c>
     </row>
     <row r="111">
       <c r="U111" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="112">
       <c r="U112" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="U113" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="U114" t="s">
         <v>162</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/base-showcase-macro.xlsx
+++ b/src/test/resources/showcase/artifact/script/base-showcase-macro.xlsx
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2792" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3246" uniqueCount="484">
   <si>
     <t>description</t>
   </si>
@@ -1522,7 +1522,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="83" x14ac:knownFonts="1">
+  <fonts count="98" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2046,8 +2046,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="138">
+  <fills count="165">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2825,8 +2919,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="142">
+  <borders count="170">
     <border>
       <left/>
       <right/>
@@ -4259,13 +4506,295 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="109">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -4508,49 +5037,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="67" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="113" borderId="121" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="121" fillId="113" fontId="68" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="69" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="116" borderId="125" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="125" fillId="116" fontId="70" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="119" borderId="129" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="129" fillId="119" fontId="71" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="72" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="73" fillId="122" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="122" fontId="73" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="74" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="75" fillId="125" borderId="133" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="133" fillId="125" fontId="75" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="76" fillId="128" borderId="137" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="137" fillId="128" fontId="76" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="77" fillId="131" borderId="141" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="141" fillId="131" fontId="77" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="78" fillId="131" borderId="141" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="141" fillId="131" fontId="78" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="79" fillId="134" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="134" fontId="79" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="80" fillId="137" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="137" fontId="80" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="81" fillId="134" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="134" fontId="81" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="82" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="140" borderId="149" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="143" borderId="153" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="146" borderId="157" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="149" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="152" borderId="161" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="155" borderId="165" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="158" borderId="169" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="158" borderId="169" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="161" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="164" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="161" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="97" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/src/test/resources/showcase/artifact/script/base-showcase-macro.xlsx
+++ b/src/test/resources/showcase/artifact/script/base-showcase-macro.xlsx
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3246" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3700" uniqueCount="484">
   <si>
     <t>description</t>
   </si>
@@ -1522,7 +1522,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="98" x14ac:knownFonts="1">
+  <fonts count="113" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2140,8 +2140,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="165">
+  <fills count="192">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3072,8 +3166,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="170">
+  <borders count="198">
     <border>
       <left/>
       <right/>
@@ -4788,13 +5035,295 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="124">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -5082,49 +5611,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="82" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="83" fillId="140" borderId="149" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="149" fillId="140" fontId="83" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="84" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="85" fillId="143" borderId="153" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="153" fillId="143" fontId="85" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="86" fillId="146" borderId="157" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="157" fillId="146" fontId="86" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="87" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="88" fillId="149" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="149" fontId="88" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="89" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="89" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="90" fillId="152" borderId="161" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="161" fillId="152" fontId="90" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="91" fillId="155" borderId="165" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="165" fillId="155" fontId="91" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="92" fillId="158" borderId="169" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="169" fillId="158" fontId="92" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="93" fillId="158" borderId="169" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="169" fillId="158" fontId="93" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="94" fillId="161" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="161" fontId="94" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="95" fillId="164" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="164" fontId="95" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="96" fillId="161" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="161" fontId="96" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="97" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="97" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="167" borderId="177" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="170" borderId="181" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="173" borderId="185" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="176" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="104" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="105" fillId="179" borderId="189" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="106" fillId="182" borderId="193" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="107" fillId="185" borderId="197" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="108" fillId="185" borderId="197" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="109" fillId="188" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="110" fillId="191" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="111" fillId="188" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="112" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/src/test/resources/showcase/artifact/script/base-showcase-macro.xlsx
+++ b/src/test/resources/showcase/artifact/script/base-showcase-macro.xlsx
@@ -28,7 +28,7 @@
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
     <definedName name="io">'#system'!$I$2:$I$22</definedName>
     <definedName name="jms">'#system'!$J$2:$J$4</definedName>
-    <definedName name="json">'#system'!$K$2:$K$13</definedName>
+    <definedName name="json">'#system'!$K$2:$K$14</definedName>
     <definedName name="mail">'#system'!$L$2:$L$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3700" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4155" uniqueCount="484">
   <si>
     <t>description</t>
   </si>
@@ -1522,7 +1522,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="113" x14ac:knownFonts="1">
+  <fonts count="128" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2234,8 +2234,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="192">
+  <fills count="219">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3319,8 +3413,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="198">
+  <borders count="226">
     <border>
       <left/>
       <right/>
@@ -5317,13 +5564,295 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="139">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -5656,49 +6185,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="97" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="98" fillId="167" borderId="177" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="177" fillId="167" fontId="98" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="99" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="99" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="100" fillId="170" borderId="181" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="181" fillId="170" fontId="100" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="101" fillId="173" borderId="185" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="185" fillId="173" fontId="101" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="102" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="103" fillId="176" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="176" fontId="103" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="104" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="104" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="105" fillId="179" borderId="189" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="189" fillId="179" fontId="105" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="106" fillId="182" borderId="193" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="193" fillId="182" fontId="106" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="107" fillId="185" borderId="197" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="197" fillId="185" fontId="107" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="108" fillId="185" borderId="197" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="197" fillId="185" fontId="108" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="109" fillId="188" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="188" fontId="109" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="110" fillId="191" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="191" fontId="110" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="111" fillId="188" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="188" fontId="111" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="112" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="112" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="113" fillId="194" borderId="205" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="114" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="115" fillId="197" borderId="209" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="116" fillId="200" borderId="213" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="117" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="118" fillId="203" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="119" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="120" fillId="206" borderId="217" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="121" fillId="209" borderId="221" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="122" fillId="212" borderId="225" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="123" fillId="212" borderId="225" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="124" fillId="215" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="125" fillId="218" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="126" fillId="215" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="127" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -6451,7 +7025,7 @@
         <v>72</v>
       </c>
       <c r="K7" t="s">
-        <v>27</v>
+        <v>317</v>
       </c>
       <c r="M7" t="s">
         <v>26</v>
@@ -6507,7 +7081,7 @@
         <v>31</v>
       </c>
       <c r="K8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M8" t="s">
         <v>83</v>
@@ -6557,7 +7131,7 @@
         <v>391</v>
       </c>
       <c r="K9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M9" t="s">
         <v>84</v>
@@ -6595,7 +7169,7 @@
         <v>13</v>
       </c>
       <c r="K10" t="s">
-        <v>478</v>
+        <v>29</v>
       </c>
       <c r="M10" t="s">
         <v>469</v>
@@ -6630,7 +7204,7 @@
         <v>35</v>
       </c>
       <c r="K11" t="s">
-        <v>32</v>
+        <v>478</v>
       </c>
       <c r="M11" t="s">
         <v>85</v>
@@ -6662,7 +7236,7 @@
         <v>73</v>
       </c>
       <c r="K12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M12" t="s">
         <v>34</v>
@@ -6691,7 +7265,7 @@
         <v>74</v>
       </c>
       <c r="K13" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="M13" t="s">
         <v>86</v>
@@ -6718,6 +7292,9 @@
       </c>
       <c r="I14" t="s">
         <v>75</v>
+      </c>
+      <c r="K14" t="s">
+        <v>36</v>
       </c>
       <c r="M14" t="s">
         <v>87</v>

--- a/src/test/resources/showcase/artifact/script/base-showcase-macro.xlsx
+++ b/src/test/resources/showcase/artifact/script/base-showcase-macro.xlsx
@@ -23,7 +23,7 @@
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
-    <definedName name="excel">'#system'!$F$2:$F$8</definedName>
+    <definedName name="excel">'#system'!$F$2:$F$10</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
     <definedName name="io">'#system'!$I$2:$I$22</definedName>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4155" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4612" uniqueCount="486">
   <si>
     <t>description</t>
   </si>
@@ -1515,6 +1515,12 @@
   </si>
   <si>
     <t>replyOK(text)</t>
+  </si>
+  <si>
+    <t>csv(file,worksheet,range,header,output)</t>
+  </si>
+  <si>
+    <t>json(file,worksheet,range,header,output)</t>
   </si>
 </sst>
 </file>
@@ -1522,7 +1528,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="128" x14ac:knownFonts="1">
+  <fonts count="143" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2328,8 +2334,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="219">
+  <fills count="246">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3566,8 +3666,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="226">
+  <borders count="254">
     <border>
       <left/>
       <right/>
@@ -5846,13 +6099,295 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="139">
+  <cellXfs count="154">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -6230,49 +6765,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="112" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="113" fillId="194" borderId="205" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="205" fillId="194" fontId="113" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="114" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="114" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="115" fillId="197" borderId="209" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="209" fillId="197" fontId="115" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="116" fillId="200" borderId="213" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="213" fillId="200" fontId="116" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="117" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="117" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="118" fillId="203" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="203" fontId="118" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="119" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="119" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="120" fillId="206" borderId="217" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="217" fillId="206" fontId="120" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="121" fillId="209" borderId="221" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="221" fillId="209" fontId="121" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="122" fillId="212" borderId="225" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="225" fillId="212" fontId="122" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="123" fillId="212" borderId="225" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="225" fillId="212" fontId="123" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="124" fillId="215" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="215" fontId="124" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="125" fillId="218" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="218" fontId="125" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="126" fillId="215" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="215" fontId="126" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="127" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="127" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="128" fillId="221" borderId="233" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="129" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="130" fillId="224" borderId="237" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="131" fillId="227" borderId="241" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="132" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="133" fillId="230" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="134" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="135" fillId="233" borderId="245" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="136" fillId="236" borderId="249" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="137" fillId="239" borderId="253" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="138" fillId="239" borderId="253" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="139" fillId="242" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="140" fillId="245" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="141" fillId="242" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="142" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -6756,7 +7336,7 @@
         <v>80</v>
       </c>
       <c r="F3" t="s">
-        <v>329</v>
+        <v>484</v>
       </c>
       <c r="G3" t="s">
         <v>21</v>
@@ -6830,7 +7410,7 @@
         <v>388</v>
       </c>
       <c r="F4" t="s">
-        <v>330</v>
+        <v>485</v>
       </c>
       <c r="H4" t="s">
         <v>352</v>
@@ -6901,7 +7481,7 @@
         <v>337</v>
       </c>
       <c r="F5" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="H5" t="s">
         <v>349</v>
@@ -6963,7 +7543,7 @@
         <v>389</v>
       </c>
       <c r="F6" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="I6" t="s">
         <v>12</v>
@@ -7019,7 +7599,7 @@
         <v>367</v>
       </c>
       <c r="F7" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="I7" t="s">
         <v>72</v>
@@ -7075,7 +7655,7 @@
         <v>368</v>
       </c>
       <c r="F8" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="I8" t="s">
         <v>31</v>
@@ -7127,6 +7707,9 @@
       <c r="E9" t="s">
         <v>308</v>
       </c>
+      <c r="F9" t="s">
+        <v>325</v>
+      </c>
       <c r="I9" t="s">
         <v>391</v>
       </c>
@@ -7164,6 +7747,9 @@
       </c>
       <c r="E10" t="s">
         <v>353</v>
+      </c>
+      <c r="F10" t="s">
+        <v>326</v>
       </c>
       <c r="I10" t="s">
         <v>13</v>

--- a/src/test/resources/showcase/artifact/script/base-showcase-macro.xlsx
+++ b/src/test/resources/showcase/artifact/script/base-showcase-macro.xlsx
@@ -18,12 +18,12 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$C$2:$C$33</definedName>
+    <definedName name="base">'#system'!$C$2:$C$34</definedName>
     <definedName name="csv">'#system'!$D$2:$D$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
-    <definedName name="excel">'#system'!$F$2:$F$10</definedName>
+    <definedName name="excel">'#system'!$F$2:$F$13</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
     <definedName name="io">'#system'!$I$2:$I$22</definedName>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4612" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5534" uniqueCount="491">
   <si>
     <t>description</t>
   </si>
@@ -1521,6 +1521,21 @@
   </si>
   <si>
     <t>json(file,worksheet,range,header,output)</t>
+  </si>
+  <si>
+    <t>saveCount(text,regex,saveVar)</t>
+  </si>
+  <si>
+    <t>assertPassword(file)</t>
+  </si>
+  <si>
+    <t>clearPassword(file,password)</t>
+  </si>
+  <si>
+    <t>csv(file,worksheet,range,output)</t>
+  </si>
+  <si>
+    <t>setPassword(file,password)</t>
   </si>
 </sst>
 </file>
@@ -1528,7 +1543,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="143" x14ac:knownFonts="1">
+  <fonts count="173" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2428,8 +2443,196 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="246">
+  <fills count="300">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3819,8 +4022,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="254">
+  <borders count="310">
     <border>
       <left/>
       <right/>
@@ -6381,13 +6890,577 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="154">
+  <cellXfs count="184">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -6810,49 +7883,139 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="127" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="128" fillId="221" borderId="233" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="233" fillId="221" fontId="128" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="129" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="129" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="130" fillId="224" borderId="237" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="237" fillId="224" fontId="130" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="131" fillId="227" borderId="241" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="241" fillId="227" fontId="131" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="132" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="132" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="133" fillId="230" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="230" fontId="133" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="134" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="134" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="135" fillId="233" borderId="245" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="245" fillId="233" fontId="135" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="136" fillId="236" borderId="249" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="249" fillId="236" fontId="136" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="137" fillId="239" borderId="253" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="253" fillId="239" fontId="137" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="138" fillId="239" borderId="253" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="253" fillId="239" fontId="138" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="139" fillId="242" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="242" fontId="139" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="140" fillId="245" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="245" fontId="140" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="141" fillId="242" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="242" fontId="141" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="142" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="142" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="261" fillId="248" fontId="143" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="144" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="265" fillId="251" fontId="145" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="269" fillId="254" fontId="146" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="147" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="257" fontId="148" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="149" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="273" fillId="260" fontId="150" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="277" fillId="263" fontId="151" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="281" fillId="266" fontId="152" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="281" fillId="266" fontId="153" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="269" fontId="154" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="272" fontId="155" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="269" fontId="156" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="157" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="158" fillId="275" borderId="289" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="159" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="160" fillId="278" borderId="293" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="161" fillId="281" borderId="297" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="162" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="163" fillId="284" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="164" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="165" fillId="287" borderId="301" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="166" fillId="290" borderId="305" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="167" fillId="293" borderId="309" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="168" fillId="293" borderId="309" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="169" fillId="296" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="170" fillId="299" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="171" fillId="296" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="172" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -7256,7 +8419,7 @@
         <v>66</v>
       </c>
       <c r="F2" t="s">
-        <v>41</v>
+        <v>487</v>
       </c>
       <c r="G2" t="s">
         <v>71</v>
@@ -7336,7 +8499,7 @@
         <v>80</v>
       </c>
       <c r="F3" t="s">
-        <v>484</v>
+        <v>41</v>
       </c>
       <c r="G3" t="s">
         <v>21</v>
@@ -7410,7 +8573,7 @@
         <v>388</v>
       </c>
       <c r="F4" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="H4" t="s">
         <v>352</v>
@@ -7481,7 +8644,7 @@
         <v>337</v>
       </c>
       <c r="F5" t="s">
-        <v>329</v>
+        <v>489</v>
       </c>
       <c r="H5" t="s">
         <v>349</v>
@@ -7543,7 +8706,7 @@
         <v>389</v>
       </c>
       <c r="F6" t="s">
-        <v>330</v>
+        <v>485</v>
       </c>
       <c r="I6" t="s">
         <v>12</v>
@@ -7599,7 +8762,7 @@
         <v>367</v>
       </c>
       <c r="F7" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="I7" t="s">
         <v>72</v>
@@ -7655,7 +8818,7 @@
         <v>368</v>
       </c>
       <c r="F8" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="I8" t="s">
         <v>31</v>
@@ -7708,7 +8871,7 @@
         <v>308</v>
       </c>
       <c r="F9" t="s">
-        <v>325</v>
+        <v>490</v>
       </c>
       <c r="I9" t="s">
         <v>391</v>
@@ -7749,7 +8912,7 @@
         <v>353</v>
       </c>
       <c r="F10" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="I10" t="s">
         <v>13</v>
@@ -7786,6 +8949,9 @@
       <c r="E11" t="s">
         <v>275</v>
       </c>
+      <c r="F11" t="s">
+        <v>324</v>
+      </c>
       <c r="I11" t="s">
         <v>35</v>
       </c>
@@ -7818,6 +8984,9 @@
       <c r="E12" t="s">
         <v>264</v>
       </c>
+      <c r="F12" t="s">
+        <v>325</v>
+      </c>
       <c r="I12" t="s">
         <v>73</v>
       </c>
@@ -7847,6 +9016,9 @@
       <c r="E13" t="s">
         <v>318</v>
       </c>
+      <c r="F13" t="s">
+        <v>326</v>
+      </c>
       <c r="I13" t="s">
         <v>74</v>
       </c>
@@ -8034,7 +9206,7 @@
         <v>47</v>
       </c>
       <c r="C22" t="s">
-        <v>216</v>
+        <v>486</v>
       </c>
       <c r="E22" t="s">
         <v>300</v>
@@ -8051,7 +9223,7 @@
         <v>48</v>
       </c>
       <c r="C23" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E23" t="s">
         <v>291</v>
@@ -8065,7 +9237,7 @@
         <v>49</v>
       </c>
       <c r="C24" t="s">
-        <v>453</v>
+        <v>217</v>
       </c>
       <c r="E24" t="s">
         <v>280</v>
@@ -8079,7 +9251,7 @@
         <v>458</v>
       </c>
       <c r="C25" t="s">
-        <v>56</v>
+        <v>453</v>
       </c>
       <c r="E25" t="s">
         <v>68</v>
@@ -8093,7 +9265,7 @@
         <v>218</v>
       </c>
       <c r="C26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E26" t="s">
         <v>283</v>
@@ -8104,7 +9276,7 @@
     </row>
     <row r="27">
       <c r="C27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E27" t="s">
         <v>267</v>
@@ -8115,7 +9287,7 @@
     </row>
     <row r="28">
       <c r="C28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E28" t="s">
         <v>284</v>
@@ -8126,7 +9298,7 @@
     </row>
     <row r="29">
       <c r="C29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E29" t="s">
         <v>285</v>
@@ -8137,7 +9309,7 @@
     </row>
     <row r="30">
       <c r="C30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E30" t="s">
         <v>208</v>
@@ -8148,7 +9320,7 @@
     </row>
     <row r="31">
       <c r="C31" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E31" t="s">
         <v>276</v>
@@ -8159,7 +9331,7 @@
     </row>
     <row r="32">
       <c r="C32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E32" t="s">
         <v>286</v>
@@ -8169,6 +9341,9 @@
       </c>
     </row>
     <row r="33">
+      <c r="C33" t="s">
+        <v>63</v>
+      </c>
       <c r="E33" t="s">
         <v>261</v>
       </c>

--- a/src/test/resources/showcase/artifact/script/base-showcase-macro.xlsx
+++ b/src/test/resources/showcase/artifact/script/base-showcase-macro.xlsx
@@ -42,7 +42,7 @@
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="step">'#system'!$T$2:$T$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$114</definedName>
+    <definedName name="web">'#system'!$U$2:$U$115</definedName>
     <definedName name="webalert">'#system'!$V$2:$V$8</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5534" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6458" uniqueCount="493">
   <si>
     <t>description</t>
   </si>
@@ -1536,6 +1536,12 @@
   </si>
   <si>
     <t>setPassword(file,password)</t>
+  </si>
+  <si>
+    <t>saveDivsAsCsv(headerCellsLoc,rowLocator,cellLocator,nextPageLocator,file)</t>
+  </si>
+  <si>
+    <t>saveDivsAsCsv(headers,rows,cells,nextPage,file)</t>
   </si>
 </sst>
 </file>
@@ -1543,7 +1549,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="173" x14ac:knownFonts="1">
+  <fonts count="203" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2631,8 +2637,196 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="300">
+  <fills count="354">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4328,8 +4522,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="310">
+  <borders count="366">
     <border>
       <left/>
       <right/>
@@ -7454,13 +7954,577 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="184">
+  <cellXfs count="214">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -7973,49 +9037,139 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="157" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="158" fillId="275" borderId="289" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="289" fillId="275" fontId="158" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="159" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="159" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="160" fillId="278" borderId="293" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="293" fillId="278" fontId="160" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="161" fillId="281" borderId="297" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="297" fillId="281" fontId="161" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="162" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="162" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="163" fillId="284" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="284" fontId="163" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="164" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="164" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="165" fillId="287" borderId="301" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="301" fillId="287" fontId="165" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="166" fillId="290" borderId="305" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="305" fillId="290" fontId="166" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="167" fillId="293" borderId="309" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="309" fillId="293" fontId="167" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="168" fillId="293" borderId="309" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="309" fillId="293" fontId="168" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="169" fillId="296" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="296" fontId="169" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="170" fillId="299" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="299" fontId="170" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="171" fillId="296" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="296" fontId="171" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="172" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="172" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="317" fillId="302" fontId="173" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="174" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="321" fillId="305" fontId="175" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="325" fillId="308" fontId="176" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="177" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="311" fontId="178" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="179" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="329" fillId="314" fontId="180" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="333" fillId="317" fontId="181" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="337" fillId="320" fontId="182" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="337" fillId="320" fontId="183" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="323" fontId="184" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="326" fontId="185" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="323" fontId="186" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="187" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="188" fillId="329" borderId="345" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="189" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="190" fillId="332" borderId="349" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="191" fillId="335" borderId="353" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="192" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="193" fillId="338" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="194" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="195" fillId="341" borderId="357" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="196" fillId="344" borderId="361" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="197" fillId="347" borderId="365" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="198" fillId="347" borderId="365" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="199" fillId="350" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="200" fillId="353" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="201" fillId="350" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="202" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -8313,7 +9467,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA114"/>
+  <dimension ref="A1:AA115"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125"/>
   </sheetViews>
@@ -9700,7 +10854,7 @@
         <v>464</v>
       </c>
       <c r="U77" t="s">
-        <v>193</v>
+        <v>492</v>
       </c>
     </row>
     <row r="78">
@@ -9708,7 +10862,7 @@
         <v>333</v>
       </c>
       <c r="U78" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="79">
@@ -9716,7 +10870,7 @@
         <v>271</v>
       </c>
       <c r="U79" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
     </row>
     <row r="80">
@@ -9724,7 +10878,7 @@
         <v>282</v>
       </c>
       <c r="U80" t="s">
-        <v>140</v>
+        <v>207</v>
       </c>
     </row>
     <row r="81">
@@ -9732,7 +10886,7 @@
         <v>288</v>
       </c>
       <c r="U81" t="s">
-        <v>195</v>
+        <v>140</v>
       </c>
     </row>
     <row r="82">
@@ -9740,7 +10894,7 @@
         <v>277</v>
       </c>
       <c r="U82" t="s">
-        <v>472</v>
+        <v>195</v>
       </c>
     </row>
     <row r="83">
@@ -9748,7 +10902,7 @@
         <v>272</v>
       </c>
       <c r="U83" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="84">
@@ -9756,7 +10910,7 @@
         <v>289</v>
       </c>
       <c r="U84" t="s">
-        <v>196</v>
+        <v>474</v>
       </c>
     </row>
     <row r="85">
@@ -9764,7 +10918,7 @@
         <v>273</v>
       </c>
       <c r="U85" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="86">
@@ -9772,7 +10926,7 @@
         <v>274</v>
       </c>
       <c r="U86" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="87">
@@ -9780,7 +10934,7 @@
         <v>307</v>
       </c>
       <c r="U87" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="88">
@@ -9788,7 +10942,7 @@
         <v>313</v>
       </c>
       <c r="U88" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
     </row>
     <row r="89">
@@ -9796,7 +10950,7 @@
         <v>296</v>
       </c>
       <c r="U89" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
     </row>
     <row r="90">
@@ -9804,7 +10958,7 @@
         <v>341</v>
       </c>
       <c r="U90" t="s">
-        <v>141</v>
+        <v>200</v>
       </c>
     </row>
     <row r="91">
@@ -9812,7 +10966,7 @@
         <v>278</v>
       </c>
       <c r="U91" t="s">
-        <v>384</v>
+        <v>141</v>
       </c>
     </row>
     <row r="92">
@@ -9820,116 +10974,121 @@
         <v>279</v>
       </c>
       <c r="U92" t="s">
-        <v>142</v>
+        <v>384</v>
       </c>
     </row>
     <row r="93">
       <c r="U93" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="94">
       <c r="U94" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="95">
       <c r="U95" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="96">
       <c r="U96" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="97">
       <c r="U97" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="98">
       <c r="U98" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="99">
       <c r="U99" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="100">
       <c r="U100" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="101">
       <c r="U101" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="102">
       <c r="U102" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="103">
       <c r="U103" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>481</v>
+        <v>154</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>155</v>
+        <v>481</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="109">
       <c r="U109" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="110">
       <c r="U110" t="s">
-        <v>40</v>
+        <v>158</v>
       </c>
     </row>
     <row r="111">
       <c r="U111" t="s">
-        <v>159</v>
+        <v>40</v>
       </c>
     </row>
     <row r="112">
       <c r="U112" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="113">
       <c r="U113" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="114">
       <c r="U114" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="U115" t="s">
         <v>162</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/base-showcase-macro.xlsx
+++ b/src/test/resources/showcase/artifact/script/base-showcase-macro.xlsx
@@ -42,7 +42,7 @@
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="step">'#system'!$T$2:$T$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$115</definedName>
+    <definedName name="web">'#system'!$U$2:$U$116</definedName>
     <definedName name="webalert">'#system'!$V$2:$V$8</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6458" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6921" uniqueCount="494">
   <si>
     <t>description</t>
   </si>
@@ -1542,6 +1542,9 @@
   </si>
   <si>
     <t>saveDivsAsCsv(headers,rows,cells,nextPage,file)</t>
+  </si>
+  <si>
+    <t>openHttpBasic(url,username,password)</t>
   </si>
 </sst>
 </file>
@@ -1549,7 +1552,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="203" x14ac:knownFonts="1">
+  <fonts count="218" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2825,8 +2828,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="354">
+  <fills count="381">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4828,8 +4925,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="366">
+  <borders count="394">
     <border>
       <left/>
       <right/>
@@ -8518,13 +8768,295 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="214">
+  <cellXfs count="229">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -9127,49 +9659,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="187" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="188" fillId="329" borderId="345" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="345" fillId="329" fontId="188" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="189" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="189" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="190" fillId="332" borderId="349" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="349" fillId="332" fontId="190" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="191" fillId="335" borderId="353" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="353" fillId="335" fontId="191" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="192" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="192" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="193" fillId="338" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="338" fontId="193" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="194" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="194" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="195" fillId="341" borderId="357" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="357" fillId="341" fontId="195" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="196" fillId="344" borderId="361" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="361" fillId="344" fontId="196" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="197" fillId="347" borderId="365" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="365" fillId="347" fontId="197" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="198" fillId="347" borderId="365" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="365" fillId="347" fontId="198" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="199" fillId="350" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="350" fontId="199" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="200" fillId="353" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="353" fontId="200" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="201" fillId="350" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="350" fontId="201" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="202" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="202" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="203" fillId="356" borderId="373" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="204" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="205" fillId="359" borderId="377" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="206" fillId="362" borderId="381" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="207" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="208" fillId="365" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="209" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="210" fillId="368" borderId="385" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="211" fillId="371" borderId="389" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="212" fillId="374" borderId="393" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="213" fillId="374" borderId="393" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="214" fillId="377" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="215" fillId="380" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="216" fillId="377" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="217" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -9467,7 +10044,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA115"/>
+  <dimension ref="A1:AA116"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125"/>
   </sheetViews>
@@ -10798,7 +11375,7 @@
         <v>306</v>
       </c>
       <c r="U70" t="s">
-        <v>135</v>
+        <v>493</v>
       </c>
     </row>
     <row r="71">
@@ -10806,7 +11383,7 @@
         <v>410</v>
       </c>
       <c r="U71" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="72">
@@ -10814,7 +11391,7 @@
         <v>263</v>
       </c>
       <c r="U72" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="73">
@@ -10822,7 +11399,7 @@
         <v>345</v>
       </c>
       <c r="U73" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="74">
@@ -10830,7 +11407,7 @@
         <v>281</v>
       </c>
       <c r="U74" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="75">
@@ -10838,7 +11415,7 @@
         <v>287</v>
       </c>
       <c r="U75" t="s">
-        <v>191</v>
+        <v>139</v>
       </c>
     </row>
     <row r="76">
@@ -10846,7 +11423,7 @@
         <v>292</v>
       </c>
       <c r="U76" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="77">
@@ -10854,7 +11431,7 @@
         <v>464</v>
       </c>
       <c r="U77" t="s">
-        <v>492</v>
+        <v>192</v>
       </c>
     </row>
     <row r="78">
@@ -10862,7 +11439,7 @@
         <v>333</v>
       </c>
       <c r="U78" t="s">
-        <v>193</v>
+        <v>492</v>
       </c>
     </row>
     <row r="79">
@@ -10870,7 +11447,7 @@
         <v>271</v>
       </c>
       <c r="U79" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="80">
@@ -10878,7 +11455,7 @@
         <v>282</v>
       </c>
       <c r="U80" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
     </row>
     <row r="81">
@@ -10886,7 +11463,7 @@
         <v>288</v>
       </c>
       <c r="U81" t="s">
-        <v>140</v>
+        <v>207</v>
       </c>
     </row>
     <row r="82">
@@ -10894,7 +11471,7 @@
         <v>277</v>
       </c>
       <c r="U82" t="s">
-        <v>195</v>
+        <v>140</v>
       </c>
     </row>
     <row r="83">
@@ -10902,7 +11479,7 @@
         <v>272</v>
       </c>
       <c r="U83" t="s">
-        <v>472</v>
+        <v>195</v>
       </c>
     </row>
     <row r="84">
@@ -10910,7 +11487,7 @@
         <v>289</v>
       </c>
       <c r="U84" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="85">
@@ -10918,7 +11495,7 @@
         <v>273</v>
       </c>
       <c r="U85" t="s">
-        <v>196</v>
+        <v>474</v>
       </c>
     </row>
     <row r="86">
@@ -10926,7 +11503,7 @@
         <v>274</v>
       </c>
       <c r="U86" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="87">
@@ -10934,7 +11511,7 @@
         <v>307</v>
       </c>
       <c r="U87" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="88">
@@ -10942,7 +11519,7 @@
         <v>313</v>
       </c>
       <c r="U88" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="89">
@@ -10950,7 +11527,7 @@
         <v>296</v>
       </c>
       <c r="U89" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
     </row>
     <row r="90">
@@ -10958,7 +11535,7 @@
         <v>341</v>
       </c>
       <c r="U90" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
     </row>
     <row r="91">
@@ -10966,7 +11543,7 @@
         <v>278</v>
       </c>
       <c r="U91" t="s">
-        <v>141</v>
+        <v>200</v>
       </c>
     </row>
     <row r="92">
@@ -10974,121 +11551,126 @@
         <v>279</v>
       </c>
       <c r="U92" t="s">
-        <v>384</v>
+        <v>141</v>
       </c>
     </row>
     <row r="93">
       <c r="U93" t="s">
-        <v>142</v>
+        <v>384</v>
       </c>
     </row>
     <row r="94">
       <c r="U94" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="95">
       <c r="U95" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="96">
       <c r="U96" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="97">
       <c r="U97" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="98">
       <c r="U98" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="99">
       <c r="U99" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="100">
       <c r="U100" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="101">
       <c r="U101" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="102">
       <c r="U102" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="103">
       <c r="U103" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>481</v>
+        <v>154</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>155</v>
+        <v>481</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="109">
       <c r="U109" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="110">
       <c r="U110" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="111">
       <c r="U111" t="s">
-        <v>40</v>
+        <v>158</v>
       </c>
     </row>
     <row r="112">
       <c r="U112" t="s">
-        <v>159</v>
+        <v>40</v>
       </c>
     </row>
     <row r="113">
       <c r="U113" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="114">
       <c r="U114" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="115">
       <c r="U115" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="U116" t="s">
         <v>162</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/base-showcase-macro.xlsx
+++ b/src/test/resources/showcase/artifact/script/base-showcase-macro.xlsx
@@ -23,7 +23,7 @@
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
-    <definedName name="excel">'#system'!$F$2:$F$13</definedName>
+    <definedName name="excel">'#system'!$F$2:$F$14</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
     <definedName name="io">'#system'!$I$2:$I$22</definedName>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6921" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7385" uniqueCount="495">
   <si>
     <t>description</t>
   </si>
@@ -1545,6 +1545,9 @@
   </si>
   <si>
     <t>openHttpBasic(url,username,password)</t>
+  </si>
+  <si>
+    <t>columnarCsv(file,worksheet,ranges,output)</t>
   </si>
 </sst>
 </file>
@@ -1552,7 +1555,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="218" x14ac:knownFonts="1">
+  <fonts count="233" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2922,8 +2925,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="381">
+  <fills count="408">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5078,8 +5175,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="394">
+  <borders count="422">
     <border>
       <left/>
       <right/>
@@ -9050,13 +9300,295 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="229">
+  <cellXfs count="244">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -9704,49 +10236,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="202" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="203" fillId="356" borderId="373" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="373" fillId="356" fontId="203" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="204" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="204" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="205" fillId="359" borderId="377" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="377" fillId="359" fontId="205" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="206" fillId="362" borderId="381" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="381" fillId="362" fontId="206" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="207" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="207" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="208" fillId="365" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="365" fontId="208" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="209" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="209" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="210" fillId="368" borderId="385" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="385" fillId="368" fontId="210" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="211" fillId="371" borderId="389" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="389" fillId="371" fontId="211" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="212" fillId="374" borderId="393" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="393" fillId="374" fontId="212" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="213" fillId="374" borderId="393" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="393" fillId="374" fontId="213" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="214" fillId="377" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="377" fontId="214" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="215" fillId="380" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="380" fontId="215" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="216" fillId="377" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="377" fontId="216" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="217" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="217" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="218" fillId="383" borderId="401" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="219" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="220" fillId="386" borderId="405" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="221" fillId="389" borderId="409" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="222" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="223" fillId="392" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="224" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="225" fillId="395" borderId="413" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="226" fillId="398" borderId="417" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="227" fillId="401" borderId="421" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="228" fillId="401" borderId="421" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="229" fillId="404" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="230" fillId="407" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="231" fillId="404" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="232" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -10375,7 +10952,7 @@
         <v>337</v>
       </c>
       <c r="F5" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="H5" t="s">
         <v>349</v>
@@ -10437,7 +11014,7 @@
         <v>389</v>
       </c>
       <c r="F6" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="I6" t="s">
         <v>12</v>
@@ -10493,7 +11070,7 @@
         <v>367</v>
       </c>
       <c r="F7" t="s">
-        <v>329</v>
+        <v>485</v>
       </c>
       <c r="I7" t="s">
         <v>72</v>
@@ -10549,7 +11126,7 @@
         <v>368</v>
       </c>
       <c r="F8" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I8" t="s">
         <v>31</v>
@@ -10602,7 +11179,7 @@
         <v>308</v>
       </c>
       <c r="F9" t="s">
-        <v>490</v>
+        <v>330</v>
       </c>
       <c r="I9" t="s">
         <v>391</v>
@@ -10643,7 +11220,7 @@
         <v>353</v>
       </c>
       <c r="F10" t="s">
-        <v>323</v>
+        <v>490</v>
       </c>
       <c r="I10" t="s">
         <v>13</v>
@@ -10681,7 +11258,7 @@
         <v>275</v>
       </c>
       <c r="F11" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I11" t="s">
         <v>35</v>
@@ -10716,7 +11293,7 @@
         <v>264</v>
       </c>
       <c r="F12" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I12" t="s">
         <v>73</v>
@@ -10748,7 +11325,7 @@
         <v>318</v>
       </c>
       <c r="F13" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I13" t="s">
         <v>74</v>
@@ -10778,6 +11355,9 @@
       </c>
       <c r="E14" t="s">
         <v>265</v>
+      </c>
+      <c r="F14" t="s">
+        <v>326</v>
       </c>
       <c r="I14" t="s">
         <v>75</v>

--- a/src/test/resources/showcase/artifact/script/base-showcase-macro.xlsx
+++ b/src/test/resources/showcase/artifact/script/base-showcase-macro.xlsx
@@ -26,7 +26,7 @@
     <definedName name="excel">'#system'!$F$2:$F$14</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
-    <definedName name="io">'#system'!$I$2:$I$22</definedName>
+    <definedName name="io">'#system'!$I$2:$I$23</definedName>
     <definedName name="jms">'#system'!$J$2:$J$4</definedName>
     <definedName name="json">'#system'!$K$2:$K$14</definedName>
     <definedName name="mail">'#system'!$L$2:$L$2</definedName>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7385" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8314" uniqueCount="496">
   <si>
     <t>description</t>
   </si>
@@ -1548,6 +1548,9 @@
   </si>
   <si>
     <t>columnarCsv(file,worksheet,ranges,output)</t>
+  </si>
+  <si>
+    <t>rename(target,newName)</t>
   </si>
 </sst>
 </file>
@@ -1555,7 +1558,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="233" x14ac:knownFonts="1">
+  <fonts count="263" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3019,8 +3022,196 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="408">
+  <fills count="462">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5328,8 +5519,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="422">
+  <borders count="478">
     <border>
       <left/>
       <right/>
@@ -9582,13 +10079,577 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="244">
+  <cellXfs count="274">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -10281,49 +11342,139 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="217" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="218" fillId="383" borderId="401" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="401" fillId="383" fontId="218" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="219" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="219" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="220" fillId="386" borderId="405" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="405" fillId="386" fontId="220" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="221" fillId="389" borderId="409" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="409" fillId="389" fontId="221" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="222" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="222" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="223" fillId="392" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="392" fontId="223" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="224" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="224" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="225" fillId="395" borderId="413" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="413" fillId="395" fontId="225" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="226" fillId="398" borderId="417" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="417" fillId="398" fontId="226" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="227" fillId="401" borderId="421" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="421" fillId="401" fontId="227" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="228" fillId="401" borderId="421" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="421" fillId="401" fontId="228" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="229" fillId="404" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="404" fontId="229" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="230" fillId="407" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="407" fontId="230" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="231" fillId="404" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="404" fontId="231" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="232" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="232" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="429" fillId="410" fontId="233" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="234" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="433" fillId="413" fontId="235" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="437" fillId="416" fontId="236" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="237" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="419" fontId="238" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="239" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="441" fillId="422" fontId="240" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="445" fillId="425" fontId="241" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="449" fillId="428" fontId="242" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="449" fillId="428" fontId="243" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="431" fontId="244" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="434" fontId="245" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="431" fontId="246" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="247" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="248" fillId="437" borderId="457" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="249" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="250" fillId="440" borderId="461" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="251" fillId="443" borderId="465" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="252" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="253" fillId="446" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="254" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="255" fillId="449" borderId="469" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="256" fillId="452" borderId="473" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="257" fillId="455" borderId="477" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="258" fillId="455" borderId="477" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="259" fillId="458" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="260" fillId="461" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="261" fillId="458" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="262" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -11360,7 +12511,7 @@
         <v>326</v>
       </c>
       <c r="I14" t="s">
-        <v>75</v>
+        <v>495</v>
       </c>
       <c r="K14" t="s">
         <v>36</v>
@@ -11389,7 +12540,7 @@
         <v>266</v>
       </c>
       <c r="I15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M15" t="s">
         <v>88</v>
@@ -11415,7 +12566,7 @@
         <v>319</v>
       </c>
       <c r="I16" t="s">
-        <v>381</v>
+        <v>76</v>
       </c>
       <c r="N16" t="s">
         <v>243</v>
@@ -11438,7 +12589,7 @@
         <v>81</v>
       </c>
       <c r="I17" t="s">
-        <v>37</v>
+        <v>381</v>
       </c>
       <c r="U17" t="s">
         <v>97</v>
@@ -11455,7 +12606,7 @@
         <v>82</v>
       </c>
       <c r="I18" t="s">
-        <v>393</v>
+        <v>37</v>
       </c>
       <c r="U18" t="s">
         <v>98</v>
@@ -11472,7 +12623,7 @@
         <v>297</v>
       </c>
       <c r="I19" t="s">
-        <v>77</v>
+        <v>393</v>
       </c>
       <c r="U19" t="s">
         <v>99</v>
@@ -11489,7 +12640,7 @@
         <v>298</v>
       </c>
       <c r="I20" t="s">
-        <v>477</v>
+        <v>77</v>
       </c>
       <c r="U20" t="s">
         <v>100</v>
@@ -11506,7 +12657,7 @@
         <v>299</v>
       </c>
       <c r="I21" t="s">
-        <v>38</v>
+        <v>477</v>
       </c>
       <c r="U21" t="s">
         <v>101</v>
@@ -11523,7 +12674,7 @@
         <v>300</v>
       </c>
       <c r="I22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="U22" t="s">
         <v>102</v>
@@ -11538,6 +12689,9 @@
       </c>
       <c r="E23" t="s">
         <v>291</v>
+      </c>
+      <c r="I23" t="s">
+        <v>39</v>
       </c>
       <c r="U23" t="s">
         <v>103</v>

--- a/src/test/resources/showcase/artifact/script/base-showcase-macro.xlsx
+++ b/src/test/resources/showcase/artifact/script/base-showcase-macro.xlsx
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$C$2:$C$34</definedName>
+    <definedName name="base">'#system'!$C$2:$C$36</definedName>
     <definedName name="csv">'#system'!$D$2:$D$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8314" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8781" uniqueCount="498">
   <si>
     <t>description</t>
   </si>
@@ -1551,6 +1551,12 @@
   </si>
   <si>
     <t>rename(target,newName)</t>
+  </si>
+  <si>
+    <t>assertArrayContain(array,expected)</t>
+  </si>
+  <si>
+    <t>assertArrayNotContain(array,unexpected)</t>
   </si>
 </sst>
 </file>
@@ -1558,7 +1564,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="263" x14ac:knownFonts="1">
+  <fonts count="278" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3210,8 +3216,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="462">
+  <fills count="489">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5825,8 +5925,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="478">
+  <borders count="506">
     <border>
       <left/>
       <right/>
@@ -10643,13 +10896,295 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="274">
+  <cellXfs count="289">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -11432,49 +11967,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="247" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="248" fillId="437" borderId="457" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="457" fillId="437" fontId="248" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="249" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="249" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="250" fillId="440" borderId="461" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="461" fillId="440" fontId="250" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="251" fillId="443" borderId="465" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="465" fillId="443" fontId="251" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="252" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="252" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="253" fillId="446" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="446" fontId="253" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="254" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="254" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="255" fillId="449" borderId="469" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="469" fillId="449" fontId="255" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="256" fillId="452" borderId="473" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="473" fillId="452" fontId="256" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="257" fillId="455" borderId="477" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="477" fillId="455" fontId="257" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="258" fillId="455" borderId="477" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="477" fillId="455" fontId="258" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="259" fillId="458" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="458" fontId="259" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="260" fillId="461" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="461" fontId="260" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="261" fillId="458" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="458" fontId="261" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="262" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="262" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="263" fillId="464" borderId="485" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="264" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="265" fillId="467" borderId="489" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="266" fillId="470" borderId="493" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="267" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="268" fillId="473" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="269" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="270" fillId="476" borderId="497" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="271" fillId="479" borderId="501" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="272" fillId="482" borderId="505" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="273" fillId="482" borderId="505" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="274" fillId="485" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="275" fillId="488" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="276" fillId="485" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="277" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -11949,7 +12529,7 @@
         <v>374</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>496</v>
       </c>
       <c r="D3" t="s">
         <v>366</v>
@@ -12023,7 +12603,7 @@
         <v>375</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
         <v>65</v>
@@ -12094,7 +12674,7 @@
         <v>376</v>
       </c>
       <c r="C5" t="s">
-        <v>215</v>
+        <v>497</v>
       </c>
       <c r="D5" t="s">
         <v>476</v>
@@ -12159,7 +12739,7 @@
         <v>377</v>
       </c>
       <c r="C6" t="s">
-        <v>320</v>
+        <v>20</v>
       </c>
       <c r="E6" t="s">
         <v>389</v>
@@ -12215,7 +12795,7 @@
         <v>378</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>215</v>
       </c>
       <c r="E7" t="s">
         <v>367</v>
@@ -12271,7 +12851,7 @@
         <v>379</v>
       </c>
       <c r="C8" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="E8" t="s">
         <v>368</v>
@@ -12324,7 +12904,7 @@
         <v>380</v>
       </c>
       <c r="C9" t="s">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E9" t="s">
         <v>308</v>
@@ -12365,7 +12945,7 @@
         <v>334</v>
       </c>
       <c r="C10" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="E10" t="s">
         <v>353</v>
@@ -12403,7 +12983,7 @@
         <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>342</v>
+        <v>250</v>
       </c>
       <c r="E11" t="s">
         <v>275</v>
@@ -12438,7 +13018,7 @@
         <v>188</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>321</v>
       </c>
       <c r="E12" t="s">
         <v>264</v>
@@ -12470,7 +13050,7 @@
         <v>44</v>
       </c>
       <c r="C13" t="s">
-        <v>51</v>
+        <v>342</v>
       </c>
       <c r="E13" t="s">
         <v>318</v>
@@ -12502,7 +13082,7 @@
         <v>230</v>
       </c>
       <c r="C14" t="s">
-        <v>386</v>
+        <v>30</v>
       </c>
       <c r="E14" t="s">
         <v>265</v>
@@ -12534,7 +13114,7 @@
         <v>45</v>
       </c>
       <c r="C15" t="s">
-        <v>387</v>
+        <v>51</v>
       </c>
       <c r="E15" t="s">
         <v>266</v>
@@ -12560,7 +13140,7 @@
         <v>399</v>
       </c>
       <c r="C16" t="s">
-        <v>411</v>
+        <v>386</v>
       </c>
       <c r="E16" t="s">
         <v>319</v>
@@ -12583,7 +13163,7 @@
         <v>456</v>
       </c>
       <c r="C17" t="s">
-        <v>52</v>
+        <v>387</v>
       </c>
       <c r="E17" t="s">
         <v>81</v>
@@ -12600,7 +13180,7 @@
         <v>413</v>
       </c>
       <c r="C18" t="s">
-        <v>53</v>
+        <v>411</v>
       </c>
       <c r="E18" t="s">
         <v>82</v>
@@ -12617,7 +13197,7 @@
         <v>358</v>
       </c>
       <c r="C19" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E19" t="s">
         <v>297</v>
@@ -12634,7 +13214,7 @@
         <v>395</v>
       </c>
       <c r="C20" t="s">
-        <v>322</v>
+        <v>53</v>
       </c>
       <c r="E20" t="s">
         <v>298</v>
@@ -12651,7 +13231,7 @@
         <v>46</v>
       </c>
       <c r="C21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E21" t="s">
         <v>299</v>
@@ -12668,7 +13248,7 @@
         <v>47</v>
       </c>
       <c r="C22" t="s">
-        <v>486</v>
+        <v>322</v>
       </c>
       <c r="E22" t="s">
         <v>300</v>
@@ -12685,7 +13265,7 @@
         <v>48</v>
       </c>
       <c r="C23" t="s">
-        <v>216</v>
+        <v>55</v>
       </c>
       <c r="E23" t="s">
         <v>291</v>
@@ -12702,7 +13282,7 @@
         <v>49</v>
       </c>
       <c r="C24" t="s">
-        <v>217</v>
+        <v>486</v>
       </c>
       <c r="E24" t="s">
         <v>280</v>
@@ -12716,7 +13296,7 @@
         <v>458</v>
       </c>
       <c r="C25" t="s">
-        <v>453</v>
+        <v>216</v>
       </c>
       <c r="E25" t="s">
         <v>68</v>
@@ -12730,7 +13310,7 @@
         <v>218</v>
       </c>
       <c r="C26" t="s">
-        <v>56</v>
+        <v>217</v>
       </c>
       <c r="E26" t="s">
         <v>283</v>
@@ -12741,7 +13321,7 @@
     </row>
     <row r="27">
       <c r="C27" t="s">
-        <v>57</v>
+        <v>453</v>
       </c>
       <c r="E27" t="s">
         <v>267</v>
@@ -12752,7 +13332,7 @@
     </row>
     <row r="28">
       <c r="C28" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E28" t="s">
         <v>284</v>
@@ -12763,7 +13343,7 @@
     </row>
     <row r="29">
       <c r="C29" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E29" t="s">
         <v>285</v>
@@ -12774,7 +13354,7 @@
     </row>
     <row r="30">
       <c r="C30" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E30" t="s">
         <v>208</v>
@@ -12785,7 +13365,7 @@
     </row>
     <row r="31">
       <c r="C31" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E31" t="s">
         <v>276</v>
@@ -12796,7 +13376,7 @@
     </row>
     <row r="32">
       <c r="C32" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E32" t="s">
         <v>286</v>
@@ -12807,7 +13387,7 @@
     </row>
     <row r="33">
       <c r="C33" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E33" t="s">
         <v>261</v>
@@ -12817,6 +13397,9 @@
       </c>
     </row>
     <row r="34">
+      <c r="C34" t="s">
+        <v>62</v>
+      </c>
       <c r="E34" t="s">
         <v>331</v>
       </c>
@@ -12825,6 +13408,9 @@
       </c>
     </row>
     <row r="35">
+      <c r="C35" t="s">
+        <v>63</v>
+      </c>
       <c r="E35" t="s">
         <v>309</v>
       </c>

--- a/src/test/resources/showcase/artifact/script/base-showcase-macro.xlsx
+++ b/src/test/resources/showcase/artifact/script/base-showcase-macro.xlsx
@@ -42,7 +42,7 @@
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="step">'#system'!$T$2:$T$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$116</definedName>
+    <definedName name="web">'#system'!$U$2:$U$117</definedName>
     <definedName name="webalert">'#system'!$V$2:$V$8</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8781" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9249" uniqueCount="499">
   <si>
     <t>description</t>
   </si>
@@ -1557,6 +1557,9 @@
   </si>
   <si>
     <t>assertArrayNotContain(array,unexpected)</t>
+  </si>
+  <si>
+    <t>deselect(locator,text)</t>
   </si>
 </sst>
 </file>
@@ -1564,7 +1567,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="278" x14ac:knownFonts="1">
+  <fonts count="293" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3310,8 +3313,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="489">
+  <fills count="516">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6078,8 +6175,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="506">
+  <borders count="534">
     <border>
       <left/>
       <right/>
@@ -11178,13 +11428,295 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="289">
+  <cellXfs count="304">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -12012,49 +12544,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="262" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="263" fillId="464" borderId="485" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="485" fillId="464" fontId="263" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="264" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="264" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="265" fillId="467" borderId="489" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="489" fillId="467" fontId="265" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="266" fillId="470" borderId="493" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="493" fillId="470" fontId="266" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="267" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="267" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="268" fillId="473" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="473" fontId="268" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="269" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="269" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="270" fillId="476" borderId="497" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="497" fillId="476" fontId="270" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="271" fillId="479" borderId="501" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="501" fillId="479" fontId="271" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="272" fillId="482" borderId="505" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="505" fillId="482" fontId="272" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="273" fillId="482" borderId="505" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="505" fillId="482" fontId="273" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="274" fillId="485" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="485" fontId="274" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="275" fillId="488" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="488" fontId="275" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="276" fillId="485" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="485" fontId="276" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="277" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="277" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="278" fillId="491" borderId="513" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="279" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="280" fillId="494" borderId="517" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="281" fillId="497" borderId="521" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="282" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="283" fillId="500" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="284" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="285" fillId="503" borderId="525" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="286" fillId="506" borderId="529" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="287" fillId="509" borderId="533" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="288" fillId="509" borderId="533" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="289" fillId="512" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="290" fillId="515" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="291" fillId="512" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="292" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -12352,7 +12929,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA116"/>
+  <dimension ref="A1:AA117"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125"/>
   </sheetViews>
@@ -13559,7 +14136,7 @@
         <v>269</v>
       </c>
       <c r="U53" t="s">
-        <v>124</v>
+        <v>498</v>
       </c>
     </row>
     <row r="54">
@@ -13567,7 +14144,7 @@
         <v>293</v>
       </c>
       <c r="U54" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="55">
@@ -13575,7 +14152,7 @@
         <v>294</v>
       </c>
       <c r="U55" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="56">
@@ -13583,7 +14160,7 @@
         <v>295</v>
       </c>
       <c r="U56" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="57">
@@ -13591,7 +14168,7 @@
         <v>305</v>
       </c>
       <c r="U57" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="58">
@@ -13599,7 +14176,7 @@
         <v>314</v>
       </c>
       <c r="U58" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="59">
@@ -13607,7 +14184,7 @@
         <v>338</v>
       </c>
       <c r="U59" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="60">
@@ -13615,7 +14192,7 @@
         <v>311</v>
       </c>
       <c r="U60" t="s">
-        <v>475</v>
+        <v>130</v>
       </c>
     </row>
     <row r="61">
@@ -13623,7 +14200,7 @@
         <v>312</v>
       </c>
       <c r="U61" t="s">
-        <v>206</v>
+        <v>475</v>
       </c>
     </row>
     <row r="62">
@@ -13631,7 +14208,7 @@
         <v>370</v>
       </c>
       <c r="U62" t="s">
-        <v>390</v>
+        <v>206</v>
       </c>
     </row>
     <row r="63">
@@ -13639,7 +14216,7 @@
         <v>371</v>
       </c>
       <c r="U63" t="s">
-        <v>480</v>
+        <v>390</v>
       </c>
     </row>
     <row r="64">
@@ -13647,7 +14224,7 @@
         <v>346</v>
       </c>
       <c r="U64" t="s">
-        <v>131</v>
+        <v>480</v>
       </c>
     </row>
     <row r="65">
@@ -13655,7 +14232,7 @@
         <v>315</v>
       </c>
       <c r="U65" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="66">
@@ -13663,7 +14240,7 @@
         <v>270</v>
       </c>
       <c r="U66" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="67">
@@ -13671,7 +14248,7 @@
         <v>354</v>
       </c>
       <c r="U67" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="68">
@@ -13679,7 +14256,7 @@
         <v>316</v>
       </c>
       <c r="U68" t="s">
-        <v>189</v>
+        <v>134</v>
       </c>
     </row>
     <row r="69">
@@ -13687,7 +14264,7 @@
         <v>409</v>
       </c>
       <c r="U69" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="70">
@@ -13695,7 +14272,7 @@
         <v>306</v>
       </c>
       <c r="U70" t="s">
-        <v>493</v>
+        <v>190</v>
       </c>
     </row>
     <row r="71">
@@ -13703,7 +14280,7 @@
         <v>410</v>
       </c>
       <c r="U71" t="s">
-        <v>135</v>
+        <v>493</v>
       </c>
     </row>
     <row r="72">
@@ -13711,7 +14288,7 @@
         <v>263</v>
       </c>
       <c r="U72" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="73">
@@ -13719,7 +14296,7 @@
         <v>345</v>
       </c>
       <c r="U73" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="74">
@@ -13727,7 +14304,7 @@
         <v>281</v>
       </c>
       <c r="U74" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="75">
@@ -13735,7 +14312,7 @@
         <v>287</v>
       </c>
       <c r="U75" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="76">
@@ -13743,7 +14320,7 @@
         <v>292</v>
       </c>
       <c r="U76" t="s">
-        <v>191</v>
+        <v>139</v>
       </c>
     </row>
     <row r="77">
@@ -13751,7 +14328,7 @@
         <v>464</v>
       </c>
       <c r="U77" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="78">
@@ -13759,7 +14336,7 @@
         <v>333</v>
       </c>
       <c r="U78" t="s">
-        <v>492</v>
+        <v>192</v>
       </c>
     </row>
     <row r="79">
@@ -13767,7 +14344,7 @@
         <v>271</v>
       </c>
       <c r="U79" t="s">
-        <v>193</v>
+        <v>492</v>
       </c>
     </row>
     <row r="80">
@@ -13775,7 +14352,7 @@
         <v>282</v>
       </c>
       <c r="U80" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="81">
@@ -13783,7 +14360,7 @@
         <v>288</v>
       </c>
       <c r="U81" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
     </row>
     <row r="82">
@@ -13791,7 +14368,7 @@
         <v>277</v>
       </c>
       <c r="U82" t="s">
-        <v>140</v>
+        <v>207</v>
       </c>
     </row>
     <row r="83">
@@ -13799,7 +14376,7 @@
         <v>272</v>
       </c>
       <c r="U83" t="s">
-        <v>195</v>
+        <v>140</v>
       </c>
     </row>
     <row r="84">
@@ -13807,7 +14384,7 @@
         <v>289</v>
       </c>
       <c r="U84" t="s">
-        <v>472</v>
+        <v>195</v>
       </c>
     </row>
     <row r="85">
@@ -13815,7 +14392,7 @@
         <v>273</v>
       </c>
       <c r="U85" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="86">
@@ -13823,7 +14400,7 @@
         <v>274</v>
       </c>
       <c r="U86" t="s">
-        <v>196</v>
+        <v>474</v>
       </c>
     </row>
     <row r="87">
@@ -13831,7 +14408,7 @@
         <v>307</v>
       </c>
       <c r="U87" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="88">
@@ -13839,7 +14416,7 @@
         <v>313</v>
       </c>
       <c r="U88" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="89">
@@ -13847,7 +14424,7 @@
         <v>296</v>
       </c>
       <c r="U89" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="90">
@@ -13855,7 +14432,7 @@
         <v>341</v>
       </c>
       <c r="U90" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
     </row>
     <row r="91">
@@ -13863,7 +14440,7 @@
         <v>278</v>
       </c>
       <c r="U91" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
     </row>
     <row r="92">
@@ -13871,126 +14448,131 @@
         <v>279</v>
       </c>
       <c r="U92" t="s">
-        <v>141</v>
+        <v>200</v>
       </c>
     </row>
     <row r="93">
       <c r="U93" t="s">
-        <v>384</v>
+        <v>141</v>
       </c>
     </row>
     <row r="94">
       <c r="U94" t="s">
-        <v>142</v>
+        <v>384</v>
       </c>
     </row>
     <row r="95">
       <c r="U95" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="96">
       <c r="U96" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="97">
       <c r="U97" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="98">
       <c r="U98" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="99">
       <c r="U99" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="100">
       <c r="U100" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="101">
       <c r="U101" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="102">
       <c r="U102" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="103">
       <c r="U103" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>481</v>
+        <v>154</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
-        <v>155</v>
+        <v>481</v>
       </c>
     </row>
     <row r="109">
       <c r="U109" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="110">
       <c r="U110" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="111">
       <c r="U111" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="112">
       <c r="U112" t="s">
-        <v>40</v>
+        <v>158</v>
       </c>
     </row>
     <row r="113">
       <c r="U113" t="s">
-        <v>159</v>
+        <v>40</v>
       </c>
     </row>
     <row r="114">
       <c r="U114" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="115">
       <c r="U115" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="116">
       <c r="U116" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="U117" t="s">
         <v>162</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/base-showcase-macro.xlsx
+++ b/src/test/resources/showcase/artifact/script/base-showcase-macro.xlsx
@@ -26,7 +26,7 @@
     <definedName name="excel">'#system'!$F$2:$F$14</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
-    <definedName name="io">'#system'!$I$2:$I$23</definedName>
+    <definedName name="io">'#system'!$I$2:$I$24</definedName>
     <definedName name="jms">'#system'!$J$2:$J$4</definedName>
     <definedName name="json">'#system'!$K$2:$K$14</definedName>
     <definedName name="mail">'#system'!$L$2:$L$2</definedName>
@@ -45,7 +45,7 @@
     <definedName name="web">'#system'!$U$2:$U$117</definedName>
     <definedName name="webalert">'#system'!$V$2:$V$8</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
-    <definedName name="ws">'#system'!$X$2:$X$16</definedName>
+    <definedName name="ws">'#system'!$X$2:$X$17</definedName>
     <definedName name="ws.async">'#system'!$Y$2:$Y$8</definedName>
     <definedName name="xml">'#system'!$Z$2:$Z$11</definedName>
   </definedNames>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9249" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9719" uniqueCount="501">
   <si>
     <t>description</t>
   </si>
@@ -1560,6 +1560,12 @@
   </si>
   <si>
     <t>deselect(locator,text)</t>
+  </si>
+  <si>
+    <t>base64(var,file)</t>
+  </si>
+  <si>
+    <t>upload(url,body,fileParams,var)</t>
   </si>
 </sst>
 </file>
@@ -1567,7 +1573,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="293" x14ac:knownFonts="1">
+  <fonts count="309" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3407,8 +3413,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="516">
+  <fills count="543">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6328,8 +6435,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="534">
+  <borders count="562">
     <border>
       <left/>
       <right/>
@@ -11710,13 +11970,295 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="304">
+  <cellXfs count="320">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -12589,49 +13131,97 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="277" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="278" fillId="491" borderId="513" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="513" fillId="491" fontId="278" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="279" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="279" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="280" fillId="494" borderId="517" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="517" fillId="494" fontId="280" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="281" fillId="497" borderId="521" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="521" fillId="497" fontId="281" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="282" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="282" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="283" fillId="500" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="500" fontId="283" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="284" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="284" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="285" fillId="503" borderId="525" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="525" fillId="503" fontId="285" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="286" fillId="506" borderId="529" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="529" fillId="506" fontId="286" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="287" fillId="509" borderId="533" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="533" fillId="509" fontId="287" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="288" fillId="509" borderId="533" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="533" fillId="509" fontId="288" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="289" fillId="512" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="512" fontId="289" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="290" fillId="515" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="515" fontId="290" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="291" fillId="512" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="512" fontId="291" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="292" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="292" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="518" borderId="541" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="294" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="295" fillId="521" borderId="545" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="296" fillId="524" borderId="549" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="297" fillId="527" borderId="549" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="298" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="299" fillId="530" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="300" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="301" fillId="533" borderId="553" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="302" fillId="536" borderId="557" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="303" fillId="539" borderId="561" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="304" fillId="539" borderId="561" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="305" fillId="527" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="306" fillId="542" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="307" fillId="527" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="308" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -13266,7 +13856,7 @@
         <v>349</v>
       </c>
       <c r="I5" t="s">
-        <v>64</v>
+        <v>499</v>
       </c>
       <c r="K5" t="s">
         <v>79</v>
@@ -13325,7 +13915,7 @@
         <v>489</v>
       </c>
       <c r="I6" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="K6" t="s">
         <v>22</v>
@@ -13381,7 +13971,7 @@
         <v>485</v>
       </c>
       <c r="I7" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="K7" t="s">
         <v>317</v>
@@ -13437,7 +14027,7 @@
         <v>329</v>
       </c>
       <c r="I8" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="K8" t="s">
         <v>27</v>
@@ -13490,7 +14080,7 @@
         <v>330</v>
       </c>
       <c r="I9" t="s">
-        <v>391</v>
+        <v>31</v>
       </c>
       <c r="K9" t="s">
         <v>28</v>
@@ -13531,7 +14121,7 @@
         <v>490</v>
       </c>
       <c r="I10" t="s">
-        <v>13</v>
+        <v>391</v>
       </c>
       <c r="K10" t="s">
         <v>29</v>
@@ -13569,7 +14159,7 @@
         <v>323</v>
       </c>
       <c r="I11" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="K11" t="s">
         <v>478</v>
@@ -13604,7 +14194,7 @@
         <v>324</v>
       </c>
       <c r="I12" t="s">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="K12" t="s">
         <v>32</v>
@@ -13636,7 +14226,7 @@
         <v>325</v>
       </c>
       <c r="I13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K13" t="s">
         <v>33</v>
@@ -13668,7 +14258,7 @@
         <v>326</v>
       </c>
       <c r="I14" t="s">
-        <v>495</v>
+        <v>74</v>
       </c>
       <c r="K14" t="s">
         <v>36</v>
@@ -13697,7 +14287,7 @@
         <v>266</v>
       </c>
       <c r="I15" t="s">
-        <v>75</v>
+        <v>495</v>
       </c>
       <c r="M15" t="s">
         <v>88</v>
@@ -13723,7 +14313,7 @@
         <v>319</v>
       </c>
       <c r="I16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N16" t="s">
         <v>243</v>
@@ -13746,10 +14336,13 @@
         <v>81</v>
       </c>
       <c r="I17" t="s">
-        <v>381</v>
+        <v>76</v>
       </c>
       <c r="U17" t="s">
         <v>97</v>
+      </c>
+      <c r="X17" t="s">
+        <v>500</v>
       </c>
     </row>
     <row r="18">
@@ -13763,7 +14356,7 @@
         <v>82</v>
       </c>
       <c r="I18" t="s">
-        <v>37</v>
+        <v>381</v>
       </c>
       <c r="U18" t="s">
         <v>98</v>
@@ -13780,7 +14373,7 @@
         <v>297</v>
       </c>
       <c r="I19" t="s">
-        <v>393</v>
+        <v>37</v>
       </c>
       <c r="U19" t="s">
         <v>99</v>
@@ -13797,7 +14390,7 @@
         <v>298</v>
       </c>
       <c r="I20" t="s">
-        <v>77</v>
+        <v>393</v>
       </c>
       <c r="U20" t="s">
         <v>100</v>
@@ -13814,7 +14407,7 @@
         <v>299</v>
       </c>
       <c r="I21" t="s">
-        <v>477</v>
+        <v>77</v>
       </c>
       <c r="U21" t="s">
         <v>101</v>
@@ -13831,7 +14424,7 @@
         <v>300</v>
       </c>
       <c r="I22" t="s">
-        <v>38</v>
+        <v>477</v>
       </c>
       <c r="U22" t="s">
         <v>102</v>
@@ -13848,7 +14441,7 @@
         <v>291</v>
       </c>
       <c r="I23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="U23" t="s">
         <v>103</v>
@@ -13863,6 +14456,9 @@
       </c>
       <c r="E24" t="s">
         <v>280</v>
+      </c>
+      <c r="I24" t="s">
+        <v>39</v>
       </c>
       <c r="U24" t="s">
         <v>104</v>

--- a/src/test/resources/showcase/artifact/script/base-showcase-macro.xlsx
+++ b/src/test/resources/showcase/artifact/script/base-showcase-macro.xlsx
@@ -18,36 +18,37 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$C$2:$C$36</definedName>
-    <definedName name="csv">'#system'!$D$2:$D$5</definedName>
+    <definedName name="base">'#system'!$D$2:$D$36</definedName>
+    <definedName name="csv">'#system'!$E$2:$E$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
-    <definedName name="excel">'#system'!$F$2:$F$14</definedName>
-    <definedName name="external">'#system'!$G$2:$G$3</definedName>
-    <definedName name="image">'#system'!$H$2:$H$5</definedName>
-    <definedName name="io">'#system'!$I$2:$I$24</definedName>
-    <definedName name="jms">'#system'!$J$2:$J$4</definedName>
-    <definedName name="json">'#system'!$K$2:$K$14</definedName>
-    <definedName name="mail">'#system'!$L$2:$L$2</definedName>
+    <definedName name="desktop">'#system'!$F$2:$F$92</definedName>
+    <definedName name="excel">'#system'!$G$2:$G$14</definedName>
+    <definedName name="external">'#system'!$H$2:$H$3</definedName>
+    <definedName name="image">'#system'!$I$2:$I$5</definedName>
+    <definedName name="io">'#system'!$J$2:$J$24</definedName>
+    <definedName name="jms">'#system'!$K$2:$K$4</definedName>
+    <definedName name="json">'#system'!$L$2:$L$14</definedName>
+    <definedName name="mail">'#system'!$M$2:$M$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$M$2:$M$15</definedName>
-    <definedName name="pdf">'#system'!$N$2:$N$16</definedName>
-    <definedName name="rdbms">'#system'!$O$2:$O$7</definedName>
-    <definedName name="redis">'#system'!$P$2:$P$10</definedName>
-    <definedName name="sms">'#system'!$Q$2:$Q$2</definedName>
-    <definedName name="sound">'#system'!$R$2:$R$5</definedName>
-    <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
-    <definedName name="step">'#system'!$T$2:$T$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$117</definedName>
-    <definedName name="webalert">'#system'!$V$2:$V$8</definedName>
-    <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
-    <definedName name="ws">'#system'!$X$2:$X$17</definedName>
-    <definedName name="ws.async">'#system'!$Y$2:$Y$8</definedName>
-    <definedName name="xml">'#system'!$Z$2:$Z$11</definedName>
+    <definedName name="number">'#system'!$N$2:$N$15</definedName>
+    <definedName name="pdf">'#system'!$O$2:$O$16</definedName>
+    <definedName name="rdbms">'#system'!$P$2:$P$7</definedName>
+    <definedName name="redis">'#system'!$Q$2:$Q$10</definedName>
+    <definedName name="sms">'#system'!$R$2:$R$2</definedName>
+    <definedName name="sound">'#system'!$S$2:$S$5</definedName>
+    <definedName name="ssh">'#system'!$T$2:$T$9</definedName>
+    <definedName name="step">'#system'!$U$2:$U$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$27</definedName>
+    <definedName name="web">'#system'!$V$2:$V$117</definedName>
+    <definedName name="webalert">'#system'!$W$2:$W$8</definedName>
+    <definedName name="webcookie">'#system'!$X$2:$X$8</definedName>
+    <definedName name="ws">'#system'!$Y$2:$Y$17</definedName>
+    <definedName name="ws.async">'#system'!$Z$2:$Z$8</definedName>
+    <definedName name="xml">'#system'!$AA$2:$AA$11</definedName>
+    <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
@@ -62,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9719" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10193" uniqueCount="504">
   <si>
     <t>description</t>
   </si>
@@ -1566,6 +1567,15 @@
   </si>
   <si>
     <t>upload(url,body,fileParams,var)</t>
+  </si>
+  <si>
+    <t>aws.ses</t>
+  </si>
+  <si>
+    <t>sendMail(profile,to,subject,body)</t>
+  </si>
+  <si>
+    <t>sendTextMail(profile,to,subject,body)</t>
   </si>
 </sst>
 </file>
@@ -1573,7 +1583,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="309" x14ac:knownFonts="1">
+  <fonts count="325" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3514,8 +3524,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="543">
+  <fills count="570">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6588,8 +6699,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="562">
+  <borders count="590">
     <border>
       <left/>
       <right/>
@@ -12252,13 +12516,295 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="320">
+  <cellXfs count="336">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -13176,52 +13722,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="292" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="293" fillId="518" borderId="541" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="541" fillId="518" fontId="293" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="294" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="294" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="295" fillId="521" borderId="545" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="545" fillId="521" fontId="295" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="296" fillId="524" borderId="549" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="549" fillId="524" fontId="296" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="297" fillId="527" borderId="549" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="549" fillId="527" fontId="297" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="298" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="298" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="299" fillId="530" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="530" fontId="299" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="300" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="300" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="301" fillId="533" borderId="553" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="553" fillId="533" fontId="301" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="302" fillId="536" borderId="557" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="557" fillId="536" fontId="302" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="303" fillId="539" borderId="561" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="561" fillId="539" fontId="303" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="304" fillId="539" borderId="561" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="561" fillId="539" fontId="304" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="305" fillId="527" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="527" fontId="305" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="306" fillId="542" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="542" fontId="306" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="307" fillId="527" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="527" fontId="307" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="308" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="308" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="309" fillId="545" borderId="569" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="310" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="311" fillId="548" borderId="573" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="312" fillId="551" borderId="577" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="313" fillId="554" borderId="577" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="314" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="315" fillId="557" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="316" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="317" fillId="560" borderId="581" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="318" fillId="563" borderId="585" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="319" fillId="566" borderId="589" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="320" fillId="566" borderId="589" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="321" fillId="554" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="322" fillId="569" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="323" fillId="554" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="324" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -13519,7 +14113,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA117"/>
+  <dimension ref="A1:AB117"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125"/>
   </sheetViews>
@@ -13536,75 +14130,78 @@
         <v>372</v>
       </c>
       <c r="C1" t="s">
+        <v>501</v>
+      </c>
+      <c r="D1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>43</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>14</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>15</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>16</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>348</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>10</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>334</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>17</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>188</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>44</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>230</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>45</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>399</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>456</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>413</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>358</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>395</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>46</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>47</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>48</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>49</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>458</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>218</v>
       </c>
     </row>
@@ -13616,1559 +14213,1568 @@
         <v>373</v>
       </c>
       <c r="C2" t="s">
+        <v>502</v>
+      </c>
+      <c r="D2" t="s">
         <v>50</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>64</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>66</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>487</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>71</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>350</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>317</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>385</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>465</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>412</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>466</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>244</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>209</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>400</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>457</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>454</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>382</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>396</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>89</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>163</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>168</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>175</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>468</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>501</v>
       </c>
       <c r="B3" t="s">
         <v>374</v>
       </c>
       <c r="C3" t="s">
+        <v>503</v>
+      </c>
+      <c r="D3" t="s">
         <v>496</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>366</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>80</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>41</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>21</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>351</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>342</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>335</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>78</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>467</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>231</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>210</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>401</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>415</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>383</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>397</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>90</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>164</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>169</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>365</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>176</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>375</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>65</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>388</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>488</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>352</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>229</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>336</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>18</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>19</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>232</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>211</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>402</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>416</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>359</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>398</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>355</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>165</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>170</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>176</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>459</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="B5" t="s">
         <v>376</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>497</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>476</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>337</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>494</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>349</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>499</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>79</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>23</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>233</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>212</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>403</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>417</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>360</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>356</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>166</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>171</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>177</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>460</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
         <v>377</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>20</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>389</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>489</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>64</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>22</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>24</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>234</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>392</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>404</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>362</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>91</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>482</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>172</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>178</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>461</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
         <v>378</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>215</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>367</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>485</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>12</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>317</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>26</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>235</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>414</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>405</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>361</v>
       </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>92</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>483</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>173</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>179</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>462</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>348</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
         <v>379</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>320</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>368</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>329</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>72</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>27</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>83</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>236</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>406</v>
       </c>
-      <c r="S8" t="s">
+      <c r="T8" t="s">
         <v>363</v>
       </c>
-      <c r="U8" t="s">
+      <c r="V8" t="s">
         <v>93</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>167</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>174</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>180</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>463</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>348</v>
       </c>
       <c r="B9" t="s">
         <v>380</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>25</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>308</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>330</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>31</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>28</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>84</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>237</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>407</v>
       </c>
-      <c r="S9" t="s">
+      <c r="T9" t="s">
         <v>364</v>
       </c>
-      <c r="U9" t="s">
+      <c r="V9" t="s">
         <v>201</v>
       </c>
-      <c r="X9" t="s">
+      <c r="Y9" t="s">
         <v>181</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="AA9" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>334</v>
-      </c>
-      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
         <v>317</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>353</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>490</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>391</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>29</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>469</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>238</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>408</v>
       </c>
-      <c r="U10" t="s">
+      <c r="V10" t="s">
         <v>258</v>
       </c>
-      <c r="X10" t="s">
+      <c r="Y10" t="s">
         <v>182</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="AA10" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" t="s">
+        <v>334</v>
+      </c>
+      <c r="D11" t="s">
         <v>250</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>275</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>323</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>13</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>478</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>85</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>239</v>
       </c>
-      <c r="U11" t="s">
+      <c r="V11" t="s">
         <v>259</v>
       </c>
-      <c r="X11" t="s">
+      <c r="Y11" t="s">
         <v>260</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="AA11" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>188</v>
-      </c>
-      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" t="s">
         <v>321</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>264</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>324</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>35</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>32</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>34</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>240</v>
       </c>
-      <c r="U12" t="s">
+      <c r="V12" t="s">
         <v>94</v>
       </c>
-      <c r="X12" t="s">
+      <c r="Y12" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" t="s">
+        <v>188</v>
+      </c>
+      <c r="D13" t="s">
         <v>342</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>318</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>325</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>73</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>33</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>86</v>
       </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
         <v>245</v>
       </c>
-      <c r="U13" t="s">
+      <c r="V13" t="s">
         <v>327</v>
       </c>
-      <c r="X13" t="s">
+      <c r="Y13" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>230</v>
-      </c>
-      <c r="C14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" t="s">
         <v>30</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>265</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>326</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>74</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>36</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
         <v>87</v>
       </c>
-      <c r="N14" t="s">
+      <c r="O14" t="s">
         <v>241</v>
       </c>
-      <c r="U14" t="s">
+      <c r="V14" t="s">
         <v>95</v>
       </c>
-      <c r="X14" t="s">
+      <c r="Y14" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" t="s">
+        <v>230</v>
+      </c>
+      <c r="D15" t="s">
         <v>51</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>266</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>495</v>
       </c>
-      <c r="M15" t="s">
+      <c r="N15" t="s">
         <v>88</v>
       </c>
-      <c r="N15" t="s">
+      <c r="O15" t="s">
         <v>242</v>
       </c>
-      <c r="U15" t="s">
+      <c r="V15" t="s">
         <v>96</v>
       </c>
-      <c r="X15" t="s">
+      <c r="Y15" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>399</v>
-      </c>
-      <c r="C16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" t="s">
         <v>386</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>319</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>75</v>
       </c>
-      <c r="N16" t="s">
+      <c r="O16" t="s">
         <v>243</v>
       </c>
-      <c r="U16" t="s">
+      <c r="V16" t="s">
         <v>67</v>
       </c>
-      <c r="X16" t="s">
+      <c r="Y16" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>456</v>
-      </c>
-      <c r="C17" t="s">
+        <v>399</v>
+      </c>
+      <c r="D17" t="s">
         <v>387</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>81</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>76</v>
       </c>
-      <c r="U17" t="s">
+      <c r="V17" t="s">
         <v>97</v>
       </c>
-      <c r="X17" t="s">
+      <c r="Y17" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>413</v>
-      </c>
-      <c r="C18" t="s">
+        <v>456</v>
+      </c>
+      <c r="D18" t="s">
         <v>411</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>82</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>381</v>
       </c>
-      <c r="U18" t="s">
+      <c r="V18" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>358</v>
-      </c>
-      <c r="C19" t="s">
+        <v>413</v>
+      </c>
+      <c r="D19" t="s">
         <v>52</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>297</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>37</v>
       </c>
-      <c r="U19" t="s">
+      <c r="V19" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>395</v>
-      </c>
-      <c r="C20" t="s">
+        <v>358</v>
+      </c>
+      <c r="D20" t="s">
         <v>53</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>298</v>
       </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
         <v>393</v>
       </c>
-      <c r="U20" t="s">
+      <c r="V20" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>46</v>
-      </c>
-      <c r="C21" t="s">
+        <v>395</v>
+      </c>
+      <c r="D21" t="s">
         <v>54</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>299</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>77</v>
       </c>
-      <c r="U21" t="s">
+      <c r="V21" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" t="s">
         <v>322</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>300</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>477</v>
       </c>
-      <c r="U22" t="s">
+      <c r="V22" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>48</v>
-      </c>
-      <c r="C23" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" t="s">
         <v>55</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>291</v>
       </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
         <v>38</v>
       </c>
-      <c r="U23" t="s">
+      <c r="V23" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>49</v>
-      </c>
-      <c r="C24" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" t="s">
         <v>486</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>280</v>
       </c>
-      <c r="I24" t="s">
+      <c r="J24" t="s">
         <v>39</v>
       </c>
-      <c r="U24" t="s">
+      <c r="V24" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>458</v>
-      </c>
-      <c r="C25" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" t="s">
         <v>216</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>68</v>
       </c>
-      <c r="U25" t="s">
+      <c r="V25" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
+        <v>458</v>
+      </c>
+      <c r="D26" t="s">
+        <v>217</v>
+      </c>
+      <c r="F26" t="s">
+        <v>283</v>
+      </c>
+      <c r="V26" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
         <v>218</v>
       </c>
-      <c r="C26" t="s">
-        <v>217</v>
-      </c>
-      <c r="E26" t="s">
-        <v>283</v>
-      </c>
-      <c r="U26" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>453</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>267</v>
       </c>
-      <c r="U27" t="s">
+      <c r="V27" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="28">
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>56</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>284</v>
       </c>
-      <c r="U28" t="s">
+      <c r="V28" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="29">
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>57</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>285</v>
       </c>
-      <c r="U29" t="s">
+      <c r="V29" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="30">
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>58</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>208</v>
       </c>
-      <c r="U30" t="s">
+      <c r="V30" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="31">
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>59</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>276</v>
       </c>
-      <c r="U31" t="s">
+      <c r="V31" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="32">
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>60</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>286</v>
       </c>
-      <c r="U32" t="s">
+      <c r="V32" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="33">
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>61</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>261</v>
       </c>
-      <c r="U33" t="s">
+      <c r="V33" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="34">
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>62</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>331</v>
       </c>
-      <c r="U34" t="s">
+      <c r="V34" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="35">
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>63</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>309</v>
       </c>
-      <c r="U35" t="s">
+      <c r="V35" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="36">
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>262</v>
       </c>
-      <c r="U36" t="s">
+      <c r="V36" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="37">
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>310</v>
       </c>
-      <c r="U37" t="s">
+      <c r="V37" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="38">
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>268</v>
       </c>
-      <c r="U38" t="s">
+      <c r="V38" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="39">
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>70</v>
       </c>
-      <c r="U39" t="s">
+      <c r="V39" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="40">
-      <c r="E40" t="s">
+      <c r="F40" t="s">
         <v>204</v>
       </c>
-      <c r="U40" t="s">
+      <c r="V40" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="41">
-      <c r="E41" t="s">
+      <c r="F41" t="s">
         <v>290</v>
       </c>
-      <c r="U41" t="s">
+      <c r="V41" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="42">
-      <c r="E42" t="s">
+      <c r="F42" t="s">
         <v>301</v>
       </c>
-      <c r="U42" t="s">
+      <c r="V42" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="43">
-      <c r="E43" t="s">
+      <c r="F43" t="s">
         <v>302</v>
       </c>
-      <c r="U43" t="s">
+      <c r="V43" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="44">
-      <c r="E44" t="s">
+      <c r="F44" t="s">
         <v>344</v>
       </c>
-      <c r="U44" t="s">
+      <c r="V44" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="45">
-      <c r="E45" t="s">
+      <c r="F45" t="s">
         <v>343</v>
       </c>
-      <c r="U45" t="s">
+      <c r="V45" t="s">
         <v>479</v>
       </c>
     </row>
     <row r="46">
-      <c r="E46" t="s">
+      <c r="F46" t="s">
         <v>203</v>
       </c>
-      <c r="U46" t="s">
+      <c r="V46" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="47">
-      <c r="E47" t="s">
+      <c r="F47" t="s">
         <v>303</v>
       </c>
-      <c r="U47" t="s">
+      <c r="V47" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="48">
-      <c r="E48" t="s">
+      <c r="F48" t="s">
         <v>340</v>
       </c>
-      <c r="U48" t="s">
+      <c r="V48" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="49">
-      <c r="E49" t="s">
+      <c r="F49" t="s">
         <v>369</v>
       </c>
-      <c r="U49" t="s">
+      <c r="V49" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="50">
-      <c r="E50" t="s">
+      <c r="F50" t="s">
         <v>304</v>
       </c>
-      <c r="U50" t="s">
+      <c r="V50" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="51">
-      <c r="E51" t="s">
+      <c r="F51" t="s">
         <v>357</v>
       </c>
-      <c r="U51" t="s">
+      <c r="V51" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="52">
-      <c r="E52" t="s">
+      <c r="F52" t="s">
         <v>332</v>
       </c>
-      <c r="U52" t="s">
+      <c r="V52" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="53">
-      <c r="E53" t="s">
+      <c r="F53" t="s">
         <v>269</v>
       </c>
-      <c r="U53" t="s">
+      <c r="V53" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="54">
-      <c r="E54" t="s">
+      <c r="F54" t="s">
         <v>293</v>
       </c>
-      <c r="U54" t="s">
+      <c r="V54" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="55">
-      <c r="E55" t="s">
+      <c r="F55" t="s">
         <v>294</v>
       </c>
-      <c r="U55" t="s">
+      <c r="V55" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="56">
-      <c r="E56" t="s">
+      <c r="F56" t="s">
         <v>295</v>
       </c>
-      <c r="U56" t="s">
+      <c r="V56" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="57">
-      <c r="E57" t="s">
+      <c r="F57" t="s">
         <v>305</v>
       </c>
-      <c r="U57" t="s">
+      <c r="V57" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="58">
-      <c r="E58" t="s">
+      <c r="F58" t="s">
         <v>314</v>
       </c>
-      <c r="U58" t="s">
+      <c r="V58" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="59">
-      <c r="E59" t="s">
+      <c r="F59" t="s">
         <v>338</v>
       </c>
-      <c r="U59" t="s">
+      <c r="V59" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="60">
-      <c r="E60" t="s">
+      <c r="F60" t="s">
         <v>311</v>
       </c>
-      <c r="U60" t="s">
+      <c r="V60" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="61">
-      <c r="E61" t="s">
+      <c r="F61" t="s">
         <v>312</v>
       </c>
-      <c r="U61" t="s">
+      <c r="V61" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="62">
-      <c r="E62" t="s">
+      <c r="F62" t="s">
         <v>370</v>
       </c>
-      <c r="U62" t="s">
+      <c r="V62" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="63">
-      <c r="E63" t="s">
+      <c r="F63" t="s">
         <v>371</v>
       </c>
-      <c r="U63" t="s">
+      <c r="V63" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="64">
-      <c r="E64" t="s">
+      <c r="F64" t="s">
         <v>346</v>
       </c>
-      <c r="U64" t="s">
+      <c r="V64" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="65">
-      <c r="E65" t="s">
+      <c r="F65" t="s">
         <v>315</v>
       </c>
-      <c r="U65" t="s">
+      <c r="V65" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="66">
-      <c r="E66" t="s">
+      <c r="F66" t="s">
         <v>270</v>
       </c>
-      <c r="U66" t="s">
+      <c r="V66" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="67">
-      <c r="E67" t="s">
+      <c r="F67" t="s">
         <v>354</v>
       </c>
-      <c r="U67" t="s">
+      <c r="V67" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="68">
-      <c r="E68" t="s">
+      <c r="F68" t="s">
         <v>316</v>
       </c>
-      <c r="U68" t="s">
+      <c r="V68" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="69">
-      <c r="E69" t="s">
+      <c r="F69" t="s">
         <v>409</v>
       </c>
-      <c r="U69" t="s">
+      <c r="V69" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="70">
-      <c r="E70" t="s">
+      <c r="F70" t="s">
         <v>306</v>
       </c>
-      <c r="U70" t="s">
+      <c r="V70" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="71">
-      <c r="E71" t="s">
+      <c r="F71" t="s">
         <v>410</v>
       </c>
-      <c r="U71" t="s">
+      <c r="V71" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="72">
-      <c r="E72" t="s">
+      <c r="F72" t="s">
         <v>263</v>
       </c>
-      <c r="U72" t="s">
+      <c r="V72" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="73">
-      <c r="E73" t="s">
+      <c r="F73" t="s">
         <v>345</v>
       </c>
-      <c r="U73" t="s">
+      <c r="V73" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="74">
-      <c r="E74" t="s">
+      <c r="F74" t="s">
         <v>281</v>
       </c>
-      <c r="U74" t="s">
+      <c r="V74" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="75">
-      <c r="E75" t="s">
+      <c r="F75" t="s">
         <v>287</v>
       </c>
-      <c r="U75" t="s">
+      <c r="V75" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="76">
-      <c r="E76" t="s">
+      <c r="F76" t="s">
         <v>292</v>
       </c>
-      <c r="U76" t="s">
+      <c r="V76" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="77">
-      <c r="E77" t="s">
+      <c r="F77" t="s">
         <v>464</v>
       </c>
-      <c r="U77" t="s">
+      <c r="V77" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="78">
-      <c r="E78" t="s">
+      <c r="F78" t="s">
         <v>333</v>
       </c>
-      <c r="U78" t="s">
+      <c r="V78" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="79">
-      <c r="E79" t="s">
+      <c r="F79" t="s">
         <v>271</v>
       </c>
-      <c r="U79" t="s">
+      <c r="V79" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="80">
-      <c r="E80" t="s">
+      <c r="F80" t="s">
         <v>282</v>
       </c>
-      <c r="U80" t="s">
+      <c r="V80" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="81">
-      <c r="E81" t="s">
+      <c r="F81" t="s">
         <v>288</v>
       </c>
-      <c r="U81" t="s">
+      <c r="V81" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="82">
-      <c r="E82" t="s">
+      <c r="F82" t="s">
         <v>277</v>
       </c>
-      <c r="U82" t="s">
+      <c r="V82" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="83">
-      <c r="E83" t="s">
+      <c r="F83" t="s">
         <v>272</v>
       </c>
-      <c r="U83" t="s">
+      <c r="V83" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="84">
-      <c r="E84" t="s">
+      <c r="F84" t="s">
         <v>289</v>
       </c>
-      <c r="U84" t="s">
+      <c r="V84" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="85">
-      <c r="E85" t="s">
+      <c r="F85" t="s">
         <v>273</v>
       </c>
-      <c r="U85" t="s">
+      <c r="V85" t="s">
         <v>472</v>
       </c>
     </row>
     <row r="86">
-      <c r="E86" t="s">
+      <c r="F86" t="s">
         <v>274</v>
       </c>
-      <c r="U86" t="s">
+      <c r="V86" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="87">
-      <c r="E87" t="s">
+      <c r="F87" t="s">
         <v>307</v>
       </c>
-      <c r="U87" t="s">
+      <c r="V87" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="88">
-      <c r="E88" t="s">
+      <c r="F88" t="s">
         <v>313</v>
       </c>
-      <c r="U88" t="s">
+      <c r="V88" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="89">
-      <c r="E89" t="s">
+      <c r="F89" t="s">
         <v>296</v>
       </c>
-      <c r="U89" t="s">
+      <c r="V89" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="90">
-      <c r="E90" t="s">
+      <c r="F90" t="s">
         <v>341</v>
       </c>
-      <c r="U90" t="s">
+      <c r="V90" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="91">
-      <c r="E91" t="s">
+      <c r="F91" t="s">
         <v>278</v>
       </c>
-      <c r="U91" t="s">
+      <c r="V91" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="92">
-      <c r="E92" t="s">
+      <c r="F92" t="s">
         <v>279</v>
       </c>
-      <c r="U92" t="s">
+      <c r="V92" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="93">
-      <c r="U93" t="s">
+      <c r="V93" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="94">
-      <c r="U94" t="s">
+      <c r="V94" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="95">
-      <c r="U95" t="s">
+      <c r="V95" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="96">
-      <c r="U96" t="s">
+      <c r="V96" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="97">
-      <c r="U97" t="s">
+      <c r="V97" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="98">
-      <c r="U98" t="s">
+      <c r="V98" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="99">
-      <c r="U99" t="s">
+      <c r="V99" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="100">
-      <c r="U100" t="s">
+      <c r="V100" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="101">
-      <c r="U101" t="s">
+      <c r="V101" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="102">
-      <c r="U102" t="s">
+      <c r="V102" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="103">
-      <c r="U103" t="s">
+      <c r="V103" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="104">
-      <c r="U104" t="s">
+      <c r="V104" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="105">
-      <c r="U105" t="s">
+      <c r="V105" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="106">
-      <c r="U106" t="s">
+      <c r="V106" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="107">
-      <c r="U107" t="s">
+      <c r="V107" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="108">
-      <c r="U108" t="s">
+      <c r="V108" t="s">
         <v>481</v>
       </c>
     </row>
     <row r="109">
-      <c r="U109" t="s">
+      <c r="V109" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="110">
-      <c r="U110" t="s">
+      <c r="V110" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="111">
-      <c r="U111" t="s">
+      <c r="V111" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="112">
-      <c r="U112" t="s">
+      <c r="V112" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="113">
-      <c r="U113" t="s">
+      <c r="V113" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="114">
-      <c r="U114" t="s">
+      <c r="V114" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="115">
-      <c r="U115" t="s">
+      <c r="V115" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="116">
-      <c r="U116" t="s">
+      <c r="V116" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="117">
-      <c r="U117" t="s">
+      <c r="V117" t="s">
         <v>162</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/base-showcase-macro.xlsx
+++ b/src/test/resources/showcase/artifact/script/base-showcase-macro.xlsx
@@ -42,7 +42,7 @@
     <definedName name="ssh">'#system'!$T$2:$T$9</definedName>
     <definedName name="step">'#system'!$U$2:$U$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$27</definedName>
-    <definedName name="web">'#system'!$V$2:$V$117</definedName>
+    <definedName name="web">'#system'!$V$2:$V$118</definedName>
     <definedName name="webalert">'#system'!$W$2:$W$8</definedName>
     <definedName name="webcookie">'#system'!$X$2:$X$8</definedName>
     <definedName name="ws">'#system'!$Y$2:$Y$17</definedName>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10193" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10668" uniqueCount="506">
   <si>
     <t>description</t>
   </si>
@@ -1576,6 +1576,12 @@
   </si>
   <si>
     <t>sendTextMail(profile,to,subject,body)</t>
+  </si>
+  <si>
+    <t>sendHtmlMail(profile,to,subject,body)</t>
+  </si>
+  <si>
+    <t>clickWithKeys(locator,keys)</t>
   </si>
 </sst>
 </file>
@@ -1583,7 +1589,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="325" x14ac:knownFonts="1">
+  <fonts count="341" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3625,8 +3631,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="570">
+  <fills count="597">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6852,8 +6959,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="590">
+  <borders count="618">
     <border>
       <left/>
       <right/>
@@ -6875,6 +7135,288 @@
         <color theme="2" tint="-0.499984740745262"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -12804,7 +13346,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="336">
+  <cellXfs count="352">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -13770,52 +14312,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="308" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="309" fillId="545" borderId="569" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="569" fillId="545" fontId="309" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="310" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="310" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="311" fillId="548" borderId="573" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="573" fillId="548" fontId="311" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="312" fillId="551" borderId="577" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="577" fillId="551" fontId="312" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="313" fillId="554" borderId="577" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="577" fillId="554" fontId="313" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="314" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="314" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="315" fillId="557" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="557" fontId="315" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="316" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="316" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="317" fillId="560" borderId="581" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="581" fillId="560" fontId="317" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="318" fillId="563" borderId="585" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="585" fillId="563" fontId="318" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="319" fillId="566" borderId="589" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="589" fillId="566" fontId="319" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="320" fillId="566" borderId="589" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="589" fillId="566" fontId="320" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="321" fillId="554" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="554" fontId="321" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="322" fillId="569" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="569" fontId="322" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="323" fillId="554" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="554" fontId="323" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="324" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="324" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="325" fillId="572" borderId="597" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="326" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="327" fillId="575" borderId="601" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="328" fillId="578" borderId="605" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="329" fillId="581" borderId="605" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="330" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="331" fillId="584" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="332" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="333" fillId="587" borderId="609" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="334" fillId="590" borderId="613" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="335" fillId="593" borderId="617" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="336" fillId="593" borderId="617" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="337" fillId="581" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="338" fillId="596" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="339" fillId="581" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="340" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -14113,7 +14703,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB117"/>
+  <dimension ref="A1:AB118"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125"/>
   </sheetViews>
@@ -14213,7 +14803,7 @@
         <v>373</v>
       </c>
       <c r="C2" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="D2" t="s">
         <v>50</v>
@@ -15322,7 +15912,7 @@
         <v>357</v>
       </c>
       <c r="V51" t="s">
-        <v>123</v>
+        <v>505</v>
       </c>
     </row>
     <row r="52">
@@ -15330,7 +15920,7 @@
         <v>332</v>
       </c>
       <c r="V52" t="s">
-        <v>347</v>
+        <v>123</v>
       </c>
     </row>
     <row r="53">
@@ -15338,7 +15928,7 @@
         <v>269</v>
       </c>
       <c r="V53" t="s">
-        <v>498</v>
+        <v>347</v>
       </c>
     </row>
     <row r="54">
@@ -15346,7 +15936,7 @@
         <v>293</v>
       </c>
       <c r="V54" t="s">
-        <v>124</v>
+        <v>498</v>
       </c>
     </row>
     <row r="55">
@@ -15354,7 +15944,7 @@
         <v>294</v>
       </c>
       <c r="V55" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="56">
@@ -15362,7 +15952,7 @@
         <v>295</v>
       </c>
       <c r="V56" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="57">
@@ -15370,7 +15960,7 @@
         <v>305</v>
       </c>
       <c r="V57" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="58">
@@ -15378,7 +15968,7 @@
         <v>314</v>
       </c>
       <c r="V58" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="59">
@@ -15386,7 +15976,7 @@
         <v>338</v>
       </c>
       <c r="V59" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="60">
@@ -15394,7 +15984,7 @@
         <v>311</v>
       </c>
       <c r="V60" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="61">
@@ -15402,7 +15992,7 @@
         <v>312</v>
       </c>
       <c r="V61" t="s">
-        <v>475</v>
+        <v>130</v>
       </c>
     </row>
     <row r="62">
@@ -15410,7 +16000,7 @@
         <v>370</v>
       </c>
       <c r="V62" t="s">
-        <v>206</v>
+        <v>475</v>
       </c>
     </row>
     <row r="63">
@@ -15418,7 +16008,7 @@
         <v>371</v>
       </c>
       <c r="V63" t="s">
-        <v>390</v>
+        <v>206</v>
       </c>
     </row>
     <row r="64">
@@ -15426,7 +16016,7 @@
         <v>346</v>
       </c>
       <c r="V64" t="s">
-        <v>480</v>
+        <v>390</v>
       </c>
     </row>
     <row r="65">
@@ -15434,7 +16024,7 @@
         <v>315</v>
       </c>
       <c r="V65" t="s">
-        <v>131</v>
+        <v>480</v>
       </c>
     </row>
     <row r="66">
@@ -15442,7 +16032,7 @@
         <v>270</v>
       </c>
       <c r="V66" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="67">
@@ -15450,7 +16040,7 @@
         <v>354</v>
       </c>
       <c r="V67" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="68">
@@ -15458,7 +16048,7 @@
         <v>316</v>
       </c>
       <c r="V68" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="69">
@@ -15466,7 +16056,7 @@
         <v>409</v>
       </c>
       <c r="V69" t="s">
-        <v>189</v>
+        <v>134</v>
       </c>
     </row>
     <row r="70">
@@ -15474,7 +16064,7 @@
         <v>306</v>
       </c>
       <c r="V70" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="71">
@@ -15482,7 +16072,7 @@
         <v>410</v>
       </c>
       <c r="V71" t="s">
-        <v>493</v>
+        <v>190</v>
       </c>
     </row>
     <row r="72">
@@ -15490,7 +16080,7 @@
         <v>263</v>
       </c>
       <c r="V72" t="s">
-        <v>135</v>
+        <v>493</v>
       </c>
     </row>
     <row r="73">
@@ -15498,7 +16088,7 @@
         <v>345</v>
       </c>
       <c r="V73" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="74">
@@ -15506,7 +16096,7 @@
         <v>281</v>
       </c>
       <c r="V74" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="75">
@@ -15514,7 +16104,7 @@
         <v>287</v>
       </c>
       <c r="V75" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="76">
@@ -15522,7 +16112,7 @@
         <v>292</v>
       </c>
       <c r="V76" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="77">
@@ -15530,7 +16120,7 @@
         <v>464</v>
       </c>
       <c r="V77" t="s">
-        <v>191</v>
+        <v>139</v>
       </c>
     </row>
     <row r="78">
@@ -15538,7 +16128,7 @@
         <v>333</v>
       </c>
       <c r="V78" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="79">
@@ -15546,7 +16136,7 @@
         <v>271</v>
       </c>
       <c r="V79" t="s">
-        <v>492</v>
+        <v>192</v>
       </c>
     </row>
     <row r="80">
@@ -15554,7 +16144,7 @@
         <v>282</v>
       </c>
       <c r="V80" t="s">
-        <v>193</v>
+        <v>492</v>
       </c>
     </row>
     <row r="81">
@@ -15562,7 +16152,7 @@
         <v>288</v>
       </c>
       <c r="V81" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="82">
@@ -15570,7 +16160,7 @@
         <v>277</v>
       </c>
       <c r="V82" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
     </row>
     <row r="83">
@@ -15578,7 +16168,7 @@
         <v>272</v>
       </c>
       <c r="V83" t="s">
-        <v>140</v>
+        <v>207</v>
       </c>
     </row>
     <row r="84">
@@ -15586,7 +16176,7 @@
         <v>289</v>
       </c>
       <c r="V84" t="s">
-        <v>195</v>
+        <v>140</v>
       </c>
     </row>
     <row r="85">
@@ -15594,7 +16184,7 @@
         <v>273</v>
       </c>
       <c r="V85" t="s">
-        <v>472</v>
+        <v>195</v>
       </c>
     </row>
     <row r="86">
@@ -15602,7 +16192,7 @@
         <v>274</v>
       </c>
       <c r="V86" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="87">
@@ -15610,7 +16200,7 @@
         <v>307</v>
       </c>
       <c r="V87" t="s">
-        <v>196</v>
+        <v>474</v>
       </c>
     </row>
     <row r="88">
@@ -15618,7 +16208,7 @@
         <v>313</v>
       </c>
       <c r="V88" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="89">
@@ -15626,7 +16216,7 @@
         <v>296</v>
       </c>
       <c r="V89" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="90">
@@ -15634,7 +16224,7 @@
         <v>341</v>
       </c>
       <c r="V90" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="91">
@@ -15642,7 +16232,7 @@
         <v>278</v>
       </c>
       <c r="V91" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
     </row>
     <row r="92">
@@ -15650,131 +16240,136 @@
         <v>279</v>
       </c>
       <c r="V92" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
     </row>
     <row r="93">
       <c r="V93" t="s">
-        <v>141</v>
+        <v>200</v>
       </c>
     </row>
     <row r="94">
       <c r="V94" t="s">
-        <v>384</v>
+        <v>141</v>
       </c>
     </row>
     <row r="95">
       <c r="V95" t="s">
-        <v>142</v>
+        <v>384</v>
       </c>
     </row>
     <row r="96">
       <c r="V96" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="97">
       <c r="V97" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="98">
       <c r="V98" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="99">
       <c r="V99" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="100">
       <c r="V100" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="101">
       <c r="V101" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="102">
       <c r="V102" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="103">
       <c r="V103" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="104">
       <c r="V104" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="105">
       <c r="V105" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="106">
       <c r="V106" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="107">
       <c r="V107" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="108">
       <c r="V108" t="s">
-        <v>481</v>
+        <v>154</v>
       </c>
     </row>
     <row r="109">
       <c r="V109" t="s">
-        <v>155</v>
+        <v>481</v>
       </c>
     </row>
     <row r="110">
       <c r="V110" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="111">
       <c r="V111" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="112">
       <c r="V112" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="113">
       <c r="V113" t="s">
-        <v>40</v>
+        <v>158</v>
       </c>
     </row>
     <row r="114">
       <c r="V114" t="s">
-        <v>159</v>
+        <v>40</v>
       </c>
     </row>
     <row r="115">
       <c r="V115" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="116">
       <c r="V116" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="117">
       <c r="V117" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="V118" t="s">
         <v>162</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/base-showcase-macro.xlsx
+++ b/src/test/resources/showcase/artifact/script/base-showcase-macro.xlsx
@@ -25,7 +25,7 @@
     <definedName name="desktop">'#system'!$F$2:$F$92</definedName>
     <definedName name="excel">'#system'!$G$2:$G$14</definedName>
     <definedName name="external">'#system'!$H$2:$H$3</definedName>
-    <definedName name="image">'#system'!$I$2:$I$5</definedName>
+    <definedName name="image">'#system'!$I$2:$I$6</definedName>
     <definedName name="io">'#system'!$J$2:$J$24</definedName>
     <definedName name="jms">'#system'!$K$2:$K$4</definedName>
     <definedName name="json">'#system'!$L$2:$L$14</definedName>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10668" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12097" uniqueCount="509">
   <si>
     <t>description</t>
   </si>
@@ -1582,6 +1582,15 @@
   </si>
   <si>
     <t>clickWithKeys(locator,keys)</t>
+  </si>
+  <si>
+    <t>colorbit(image,bit,saveTo)</t>
+  </si>
+  <si>
+    <t>saveDiff(baseline,actual,saveTo)</t>
+  </si>
+  <si>
+    <t>colorbit(source,bit,saveTo)</t>
   </si>
 </sst>
 </file>
@@ -1589,7 +1598,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="341" x14ac:knownFonts="1">
+  <fonts count="389" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3732,8 +3741,311 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="597">
+  <fills count="678">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7112,8 +7424,467 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="618">
+  <borders count="702">
     <border>
       <left/>
       <right/>
@@ -7135,6 +7906,852 @@
         <color theme="2" tint="-0.499984740745262"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -13346,7 +14963,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="352">
+  <cellXfs count="400">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -14360,52 +15977,196 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="324" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="325" fillId="572" borderId="597" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="597" fillId="572" fontId="325" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="326" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="326" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="327" fillId="575" borderId="601" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="601" fillId="575" fontId="327" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="328" fillId="578" borderId="605" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="605" fillId="578" fontId="328" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="329" fillId="581" borderId="605" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="605" fillId="581" fontId="329" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="330" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="330" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="331" fillId="584" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="584" fontId="331" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="332" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="332" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="333" fillId="587" borderId="609" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="609" fillId="587" fontId="333" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="334" fillId="590" borderId="613" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="613" fillId="590" fontId="334" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="335" fillId="593" borderId="617" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="617" fillId="593" fontId="335" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="336" fillId="593" borderId="617" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="617" fillId="593" fontId="336" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="337" fillId="581" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="581" fontId="337" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="338" fillId="596" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="596" fontId="338" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="339" fillId="581" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="581" fontId="339" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="340" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="340" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="625" fillId="599" fontId="341" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="342" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="629" fillId="602" fontId="343" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="633" fillId="605" fontId="344" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="633" fillId="608" fontId="345" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="346" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="611" fontId="347" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="348" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="637" fillId="614" fontId="349" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="641" fillId="617" fontId="350" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="645" fillId="620" fontId="351" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="645" fillId="620" fontId="352" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="608" fontId="353" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="623" fontId="354" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="608" fontId="355" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="356" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="653" fillId="626" fontId="357" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="358" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="657" fillId="629" fontId="359" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="661" fillId="632" fontId="360" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="661" fillId="635" fontId="361" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="362" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="638" fontId="363" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="364" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="665" fillId="641" fontId="365" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="669" fillId="644" fontId="366" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="673" fillId="647" fontId="367" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="673" fillId="647" fontId="368" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="635" fontId="369" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="650" fontId="370" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="635" fontId="371" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="372" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="373" fillId="653" borderId="681" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="374" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="375" fillId="656" borderId="685" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="376" fillId="659" borderId="689" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="377" fillId="662" borderId="689" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="378" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="379" fillId="665" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="380" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="381" fillId="668" borderId="693" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="382" fillId="671" borderId="697" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="383" fillId="674" borderId="701" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="384" fillId="674" borderId="701" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="385" fillId="662" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="386" fillId="677" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="387" fillId="662" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="388" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -14821,7 +16582,7 @@
         <v>71</v>
       </c>
       <c r="I2" t="s">
-        <v>350</v>
+        <v>508</v>
       </c>
       <c r="J2" t="s">
         <v>317</v>
@@ -14904,7 +16665,7 @@
         <v>21</v>
       </c>
       <c r="I3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="J3" t="s">
         <v>342</v>
@@ -14975,7 +16736,7 @@
         <v>488</v>
       </c>
       <c r="I4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="J4" t="s">
         <v>229</v>
@@ -15046,7 +16807,7 @@
         <v>494</v>
       </c>
       <c r="I5" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="J5" t="s">
         <v>499</v>
@@ -15106,6 +16867,9 @@
       </c>
       <c r="G6" t="s">
         <v>489</v>
+      </c>
+      <c r="I6" t="s">
+        <v>349</v>
       </c>
       <c r="J6" t="s">
         <v>64</v>

--- a/src/test/resources/showcase/artifact/script/base-showcase-macro.xlsx
+++ b/src/test/resources/showcase/artifact/script/base-showcase-macro.xlsx
@@ -42,7 +42,7 @@
     <definedName name="ssh">'#system'!$T$2:$T$9</definedName>
     <definedName name="step">'#system'!$U$2:$U$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$27</definedName>
-    <definedName name="web">'#system'!$V$2:$V$118</definedName>
+    <definedName name="web">'#system'!$V$2:$V$119</definedName>
     <definedName name="webalert">'#system'!$W$2:$W$8</definedName>
     <definedName name="webcookie">'#system'!$X$2:$X$8</definedName>
     <definedName name="ws">'#system'!$Y$2:$Y$17</definedName>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12097" uniqueCount="509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12574" uniqueCount="510">
   <si>
     <t>description</t>
   </si>
@@ -1591,6 +1591,9 @@
   </si>
   <si>
     <t>colorbit(source,bit,saveTo)</t>
+  </si>
+  <si>
+    <t>openIgnoreTimeout(url)</t>
   </si>
 </sst>
 </file>
@@ -1598,7 +1601,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="389" x14ac:knownFonts="1">
+  <fonts count="405" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4044,8 +4047,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="678">
+  <fills count="705">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7883,8 +7987,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="702">
+  <borders count="730">
     <border>
       <left/>
       <right/>
@@ -7906,6 +8163,288 @@
         <color theme="2" tint="-0.499984740745262"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -14963,7 +15502,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="400">
+  <cellXfs count="416">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -16121,52 +16660,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="372" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="373" fillId="653" borderId="681" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="681" fillId="653" fontId="373" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="374" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="374" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="375" fillId="656" borderId="685" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="685" fillId="656" fontId="375" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="376" fillId="659" borderId="689" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="689" fillId="659" fontId="376" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="377" fillId="662" borderId="689" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="689" fillId="662" fontId="377" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="378" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="378" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="379" fillId="665" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="665" fontId="379" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="380" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="380" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="381" fillId="668" borderId="693" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="693" fillId="668" fontId="381" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="382" fillId="671" borderId="697" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="697" fillId="671" fontId="382" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="383" fillId="674" borderId="701" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="701" fillId="674" fontId="383" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="384" fillId="674" borderId="701" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="701" fillId="674" fontId="384" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="385" fillId="662" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="662" fontId="385" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="386" fillId="677" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="677" fontId="386" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="387" fillId="662" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="662" fontId="387" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="388" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="388" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="389" fillId="680" borderId="709" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="390" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="391" fillId="683" borderId="713" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="392" fillId="686" borderId="717" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="393" fillId="689" borderId="717" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="394" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="395" fillId="692" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="396" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="397" fillId="695" borderId="721" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="398" fillId="698" borderId="725" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="399" fillId="701" borderId="729" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="400" fillId="701" borderId="729" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="401" fillId="689" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="402" fillId="704" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="403" fillId="689" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="404" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -16464,7 +17051,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB118"/>
+  <dimension ref="A1:AB119"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125"/>
   </sheetViews>
@@ -17852,7 +18439,7 @@
         <v>345</v>
       </c>
       <c r="V73" t="s">
-        <v>135</v>
+        <v>509</v>
       </c>
     </row>
     <row r="74">
@@ -17860,7 +18447,7 @@
         <v>281</v>
       </c>
       <c r="V74" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="75">
@@ -17868,7 +18455,7 @@
         <v>287</v>
       </c>
       <c r="V75" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="76">
@@ -17876,7 +18463,7 @@
         <v>292</v>
       </c>
       <c r="V76" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="77">
@@ -17884,7 +18471,7 @@
         <v>464</v>
       </c>
       <c r="V77" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="78">
@@ -17892,7 +18479,7 @@
         <v>333</v>
       </c>
       <c r="V78" t="s">
-        <v>191</v>
+        <v>139</v>
       </c>
     </row>
     <row r="79">
@@ -17900,7 +18487,7 @@
         <v>271</v>
       </c>
       <c r="V79" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="80">
@@ -17908,7 +18495,7 @@
         <v>282</v>
       </c>
       <c r="V80" t="s">
-        <v>492</v>
+        <v>192</v>
       </c>
     </row>
     <row r="81">
@@ -17916,7 +18503,7 @@
         <v>288</v>
       </c>
       <c r="V81" t="s">
-        <v>193</v>
+        <v>492</v>
       </c>
     </row>
     <row r="82">
@@ -17924,7 +18511,7 @@
         <v>277</v>
       </c>
       <c r="V82" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="83">
@@ -17932,7 +18519,7 @@
         <v>272</v>
       </c>
       <c r="V83" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
     </row>
     <row r="84">
@@ -17940,7 +18527,7 @@
         <v>289</v>
       </c>
       <c r="V84" t="s">
-        <v>140</v>
+        <v>207</v>
       </c>
     </row>
     <row r="85">
@@ -17948,7 +18535,7 @@
         <v>273</v>
       </c>
       <c r="V85" t="s">
-        <v>195</v>
+        <v>140</v>
       </c>
     </row>
     <row r="86">
@@ -17956,7 +18543,7 @@
         <v>274</v>
       </c>
       <c r="V86" t="s">
-        <v>472</v>
+        <v>195</v>
       </c>
     </row>
     <row r="87">
@@ -17964,7 +18551,7 @@
         <v>307</v>
       </c>
       <c r="V87" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="88">
@@ -17972,7 +18559,7 @@
         <v>313</v>
       </c>
       <c r="V88" t="s">
-        <v>196</v>
+        <v>474</v>
       </c>
     </row>
     <row r="89">
@@ -17980,7 +18567,7 @@
         <v>296</v>
       </c>
       <c r="V89" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="90">
@@ -17988,7 +18575,7 @@
         <v>341</v>
       </c>
       <c r="V90" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="91">
@@ -17996,7 +18583,7 @@
         <v>278</v>
       </c>
       <c r="V91" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="92">
@@ -18004,136 +18591,141 @@
         <v>279</v>
       </c>
       <c r="V92" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
     </row>
     <row r="93">
       <c r="V93" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
     </row>
     <row r="94">
       <c r="V94" t="s">
-        <v>141</v>
+        <v>200</v>
       </c>
     </row>
     <row r="95">
       <c r="V95" t="s">
-        <v>384</v>
+        <v>141</v>
       </c>
     </row>
     <row r="96">
       <c r="V96" t="s">
-        <v>142</v>
+        <v>384</v>
       </c>
     </row>
     <row r="97">
       <c r="V97" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="98">
       <c r="V98" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="99">
       <c r="V99" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="100">
       <c r="V100" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="101">
       <c r="V101" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="102">
       <c r="V102" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="103">
       <c r="V103" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="104">
       <c r="V104" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="105">
       <c r="V105" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="106">
       <c r="V106" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="107">
       <c r="V107" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="108">
       <c r="V108" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="109">
       <c r="V109" t="s">
-        <v>481</v>
+        <v>154</v>
       </c>
     </row>
     <row r="110">
       <c r="V110" t="s">
-        <v>155</v>
+        <v>481</v>
       </c>
     </row>
     <row r="111">
       <c r="V111" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="112">
       <c r="V112" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="113">
       <c r="V113" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="114">
       <c r="V114" t="s">
-        <v>40</v>
+        <v>158</v>
       </c>
     </row>
     <row r="115">
       <c r="V115" t="s">
-        <v>159</v>
+        <v>40</v>
       </c>
     </row>
     <row r="116">
       <c r="V116" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="117">
       <c r="V117" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="118">
       <c r="V118" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="V119" t="s">
         <v>162</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/base-showcase-macro.xlsx
+++ b/src/test/resources/showcase/artifact/script/base-showcase-macro.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11202"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/nexial-core/src/test/resources/showcase/artifact/script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BE96B42-DF10-4D4C-8649-F64CBD9D5FE1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{9BE96B42-DF10-4D4C-8649-F64CBD9D5FE1}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="33600" windowHeight="20560" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="1" tabRatio="500" windowHeight="20560" windowWidth="33600" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="440"/>
   </bookViews>
   <sheets>
-    <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
-    <sheet name="macros" sheetId="2" r:id="rId2"/>
+    <sheet name="#system" r:id="rId1" sheetId="4" state="hidden"/>
+    <sheet name="macros" r:id="rId2" sheetId="2"/>
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
-    <definedName name="base">'#system'!$D$2:$D$36</definedName>
+    <definedName name="base">'#system'!$D$2:$D$38</definedName>
     <definedName name="csv">'#system'!$E$2:$E$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -27,7 +27,7 @@
     <definedName name="excel">'#system'!$G$2:$G$14</definedName>
     <definedName name="external">'#system'!$H$2:$H$3</definedName>
     <definedName name="image">'#system'!$I$2:$I$6</definedName>
-    <definedName name="io">'#system'!$J$2:$J$24</definedName>
+    <definedName name="io">'#system'!$J$2:$J$25</definedName>
     <definedName name="jms">'#system'!$K$2:$K$4</definedName>
     <definedName name="json">'#system'!$L$2:$L$14</definedName>
     <definedName name="mail">'#system'!$M$2:$M$2</definedName>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2020" uniqueCount="506">
   <si>
     <t>description</t>
   </si>
@@ -1573,13 +1573,23 @@
   </si>
   <si>
     <t>openIgnoreTimeout(url)</t>
+  </si>
+  <si>
+    <t>saveVariablesByPrefix(var,prefix)</t>
+  </si>
+  <si>
+    <t>saveVariablesByRegex(var,regex)</t>
+  </si>
+  <si>
+    <t>searchAndReplace(file,config,saveAs)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="56" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1633,8 +1643,311 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="84">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1647,8 +1960,467 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="86">
     <border>
       <left/>
       <right/>
@@ -1671,83 +2443,1073 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+  <cellXfs count="67">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="9" fillId="5" fontId="8" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="13" fillId="8" fontId="10" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="17" fillId="11" fontId="11" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="17" fillId="14" fontId="12" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="17" fontId="14" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="21" fillId="20" fontId="16" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="25" fillId="23" fontId="17" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="29" fillId="26" fontId="18" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="29" fillId="26" fontId="19" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="14" fontId="20" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="29" fontId="21" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="14" fontId="22" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="23" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="37" fillId="32" fontId="24" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="41" fillId="35" fontId="26" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="45" fillId="38" fontId="27" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="45" fillId="41" fontId="28" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="29" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="44" fontId="30" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="31" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="49" fillId="47" fontId="32" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="53" fillId="50" fontId="33" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="57" fillId="53" fontId="34" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="57" fillId="53" fontId="35" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="41" fontId="36" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="56" fontId="37" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="41" fontId="38" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="39" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="59" borderId="65" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="62" borderId="69" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="65" borderId="73" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="68" borderId="73" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="71" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="74" borderId="77" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="77" borderId="81" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="80" borderId="85" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="80" borderId="85" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="68" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="83" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="68" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="1"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="2"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <mruColors>
       <color rgb="FFB4B4B4"/>
@@ -1777,10 +3539,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1815,7 +3577,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -1850,7 +3612,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -1944,21 +3706,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1975,7 +3737,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -2027,24 +3789,24 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA119"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AB119"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0"/>
+    <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="18" width="8.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="18" customWidth="true" width="8.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2127,7 +3889,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" t="s">
         <v>372</v>
       </c>
@@ -2210,7 +3972,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="3">
       <c r="A3" t="s">
         <v>497</v>
       </c>
@@ -2287,7 +4049,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="4">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -2358,7 +4120,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5">
       <c r="A5" t="s">
         <v>43</v>
       </c>
@@ -2423,7 +4185,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -2482,7 +4244,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -2538,7 +4300,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -2591,7 +4353,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9">
       <c r="A9" t="s">
         <v>348</v>
       </c>
@@ -2635,7 +4397,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -2673,7 +4435,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11">
       <c r="A11" t="s">
         <v>334</v>
       </c>
@@ -2708,7 +4470,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="12">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -2740,7 +4502,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13">
       <c r="A13" t="s">
         <v>188</v>
       </c>
@@ -2772,7 +4534,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="14">
       <c r="A14" t="s">
         <v>44</v>
       </c>
@@ -2804,7 +4566,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15">
       <c r="A15" t="s">
         <v>230</v>
       </c>
@@ -2830,7 +4592,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16">
       <c r="A16" t="s">
         <v>45</v>
       </c>
@@ -2853,7 +4615,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="17">
       <c r="A17" t="s">
         <v>399</v>
       </c>
@@ -2873,7 +4635,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="18">
       <c r="A18" t="s">
         <v>456</v>
       </c>
@@ -2890,7 +4652,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="19">
       <c r="A19" t="s">
         <v>413</v>
       </c>
@@ -2901,13 +4663,13 @@
         <v>297</v>
       </c>
       <c r="J19" t="s">
-        <v>37</v>
+        <v>505</v>
       </c>
       <c r="V19" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="20">
       <c r="A20" t="s">
         <v>358</v>
       </c>
@@ -2918,13 +4680,13 @@
         <v>298</v>
       </c>
       <c r="J20" t="s">
-        <v>393</v>
+        <v>37</v>
       </c>
       <c r="V20" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="21">
       <c r="A21" t="s">
         <v>395</v>
       </c>
@@ -2935,13 +4697,13 @@
         <v>299</v>
       </c>
       <c r="J21" t="s">
-        <v>77</v>
+        <v>393</v>
       </c>
       <c r="V21" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="22">
       <c r="A22" t="s">
         <v>46</v>
       </c>
@@ -2952,13 +4714,13 @@
         <v>300</v>
       </c>
       <c r="J22" t="s">
-        <v>475</v>
+        <v>77</v>
       </c>
       <c r="V22" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="23">
       <c r="A23" t="s">
         <v>47</v>
       </c>
@@ -2969,13 +4731,13 @@
         <v>291</v>
       </c>
       <c r="J23" t="s">
-        <v>38</v>
+        <v>475</v>
       </c>
       <c r="V23" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="24">
       <c r="A24" t="s">
         <v>48</v>
       </c>
@@ -2986,13 +4748,13 @@
         <v>280</v>
       </c>
       <c r="J24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="V24" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="25">
       <c r="A25" t="s">
         <v>49</v>
       </c>
@@ -3002,11 +4764,14 @@
       <c r="F25" t="s">
         <v>68</v>
       </c>
+      <c r="J25" t="s">
+        <v>39</v>
+      </c>
       <c r="V25" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="26">
       <c r="A26" t="s">
         <v>458</v>
       </c>
@@ -3020,12 +4785,12 @@
         <v>106</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="27">
       <c r="A27" t="s">
         <v>218</v>
       </c>
       <c r="D27" t="s">
-        <v>453</v>
+        <v>503</v>
       </c>
       <c r="F27" t="s">
         <v>267</v>
@@ -3034,9 +4799,9 @@
         <v>328</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="28">
       <c r="D28" t="s">
-        <v>56</v>
+        <v>504</v>
       </c>
       <c r="F28" t="s">
         <v>284</v>
@@ -3045,9 +4810,9 @@
         <v>107</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="29">
       <c r="D29" t="s">
-        <v>57</v>
+        <v>453</v>
       </c>
       <c r="F29" t="s">
         <v>285</v>
@@ -3056,9 +4821,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="30">
       <c r="D30" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F30" t="s">
         <v>208</v>
@@ -3067,9 +4832,9 @@
         <v>109</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="31">
       <c r="D31" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F31" t="s">
         <v>276</v>
@@ -3078,9 +4843,9 @@
         <v>110</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="32">
       <c r="D32" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F32" t="s">
         <v>286</v>
@@ -3089,9 +4854,9 @@
         <v>111</v>
       </c>
     </row>
-    <row r="33" spans="4:22" x14ac:dyDescent="0.2">
+    <row r="33">
       <c r="D33" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F33" t="s">
         <v>261</v>
@@ -3100,9 +4865,9 @@
         <v>112</v>
       </c>
     </row>
-    <row r="34" spans="4:22" x14ac:dyDescent="0.2">
+    <row r="34">
       <c r="D34" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F34" t="s">
         <v>331</v>
@@ -3111,9 +4876,9 @@
         <v>202</v>
       </c>
     </row>
-    <row r="35" spans="4:22" x14ac:dyDescent="0.2">
+    <row r="35">
       <c r="D35" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F35" t="s">
         <v>309</v>
@@ -3122,7 +4887,10 @@
         <v>113</v>
       </c>
     </row>
-    <row r="36" spans="4:22" x14ac:dyDescent="0.2">
+    <row r="36">
+      <c r="D36" t="s">
+        <v>62</v>
+      </c>
       <c r="F36" t="s">
         <v>262</v>
       </c>
@@ -3130,7 +4898,10 @@
         <v>339</v>
       </c>
     </row>
-    <row r="37" spans="4:22" x14ac:dyDescent="0.2">
+    <row r="37">
+      <c r="D37" t="s">
+        <v>63</v>
+      </c>
       <c r="F37" t="s">
         <v>310</v>
       </c>
@@ -3138,7 +4909,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="38" spans="4:22" x14ac:dyDescent="0.2">
+    <row r="38">
       <c r="F38" t="s">
         <v>268</v>
       </c>
@@ -3146,7 +4917,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="39" spans="4:22" x14ac:dyDescent="0.2">
+    <row r="39">
       <c r="F39" t="s">
         <v>70</v>
       </c>
@@ -3154,7 +4925,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="40" spans="4:22" x14ac:dyDescent="0.2">
+    <row r="40">
       <c r="F40" t="s">
         <v>204</v>
       </c>
@@ -3162,7 +4933,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="41" spans="4:22" x14ac:dyDescent="0.2">
+    <row r="41">
       <c r="F41" t="s">
         <v>290</v>
       </c>
@@ -3170,7 +4941,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="42" spans="4:22" x14ac:dyDescent="0.2">
+    <row r="42">
       <c r="F42" t="s">
         <v>301</v>
       </c>
@@ -3178,7 +4949,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="43" spans="4:22" x14ac:dyDescent="0.2">
+    <row r="43">
       <c r="F43" t="s">
         <v>302</v>
       </c>
@@ -3186,7 +4957,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="44" spans="4:22" x14ac:dyDescent="0.2">
+    <row r="44">
       <c r="F44" t="s">
         <v>344</v>
       </c>
@@ -3194,7 +4965,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="45" spans="4:22" x14ac:dyDescent="0.2">
+    <row r="45">
       <c r="F45" t="s">
         <v>343</v>
       </c>
@@ -3202,7 +4973,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="46" spans="4:22" x14ac:dyDescent="0.2">
+    <row r="46">
       <c r="F46" t="s">
         <v>203</v>
       </c>
@@ -3210,7 +4981,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="47" spans="4:22" x14ac:dyDescent="0.2">
+    <row r="47">
       <c r="F47" t="s">
         <v>303</v>
       </c>
@@ -3218,7 +4989,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="48" spans="4:22" x14ac:dyDescent="0.2">
+    <row r="48">
       <c r="F48" t="s">
         <v>340</v>
       </c>
@@ -3226,7 +4997,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="49" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="49">
       <c r="F49" t="s">
         <v>369</v>
       </c>
@@ -3234,7 +5005,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="50" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="50">
       <c r="F50" t="s">
         <v>304</v>
       </c>
@@ -3242,7 +5013,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="51" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="51">
       <c r="F51" t="s">
         <v>357</v>
       </c>
@@ -3250,7 +5021,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="52" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="52">
       <c r="F52" t="s">
         <v>332</v>
       </c>
@@ -3258,7 +5029,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="53" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="53">
       <c r="F53" t="s">
         <v>269</v>
       </c>
@@ -3266,7 +5037,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="54" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="54">
       <c r="F54" t="s">
         <v>293</v>
       </c>
@@ -3274,7 +5045,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="55" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="55">
       <c r="F55" t="s">
         <v>294</v>
       </c>
@@ -3282,7 +5053,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="56" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="56">
       <c r="F56" t="s">
         <v>295</v>
       </c>
@@ -3290,7 +5061,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="57" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="57">
       <c r="F57" t="s">
         <v>305</v>
       </c>
@@ -3298,7 +5069,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="58" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="58">
       <c r="F58" t="s">
         <v>314</v>
       </c>
@@ -3306,7 +5077,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="59" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="59">
       <c r="F59" t="s">
         <v>338</v>
       </c>
@@ -3314,7 +5085,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="60" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="60">
       <c r="F60" t="s">
         <v>311</v>
       </c>
@@ -3322,7 +5093,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="61" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="61">
       <c r="F61" t="s">
         <v>312</v>
       </c>
@@ -3330,7 +5101,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="62" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="62">
       <c r="F62" t="s">
         <v>370</v>
       </c>
@@ -3338,7 +5109,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="63" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="63">
       <c r="F63" t="s">
         <v>371</v>
       </c>
@@ -3346,7 +5117,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="64" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="64">
       <c r="F64" t="s">
         <v>346</v>
       </c>
@@ -3354,7 +5125,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="65" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="65">
       <c r="F65" t="s">
         <v>315</v>
       </c>
@@ -3362,7 +5133,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="66" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="66">
       <c r="F66" t="s">
         <v>270</v>
       </c>
@@ -3370,7 +5141,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="67" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="67">
       <c r="F67" t="s">
         <v>354</v>
       </c>
@@ -3378,7 +5149,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="68" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="68">
       <c r="F68" t="s">
         <v>316</v>
       </c>
@@ -3386,7 +5157,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="69" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="69">
       <c r="F69" t="s">
         <v>409</v>
       </c>
@@ -3394,7 +5165,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="70" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="70">
       <c r="F70" t="s">
         <v>306</v>
       </c>
@@ -3402,7 +5173,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="71" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="71">
       <c r="F71" t="s">
         <v>410</v>
       </c>
@@ -3410,7 +5181,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="72" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="72">
       <c r="F72" t="s">
         <v>263</v>
       </c>
@@ -3418,7 +5189,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="73" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="73">
       <c r="F73" t="s">
         <v>345</v>
       </c>
@@ -3426,7 +5197,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="74" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="74">
       <c r="F74" t="s">
         <v>281</v>
       </c>
@@ -3434,7 +5205,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="75" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="75">
       <c r="F75" t="s">
         <v>287</v>
       </c>
@@ -3442,7 +5213,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="76" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="76">
       <c r="F76" t="s">
         <v>292</v>
       </c>
@@ -3450,7 +5221,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="77" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="77">
       <c r="F77" t="s">
         <v>464</v>
       </c>
@@ -3458,7 +5229,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="78" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="78">
       <c r="F78" t="s">
         <v>333</v>
       </c>
@@ -3466,7 +5237,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="79" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="79">
       <c r="F79" t="s">
         <v>271</v>
       </c>
@@ -3474,7 +5245,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="80" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="80">
       <c r="F80" t="s">
         <v>282</v>
       </c>
@@ -3482,7 +5253,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="81" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="81">
       <c r="F81" t="s">
         <v>288</v>
       </c>
@@ -3490,7 +5261,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="82" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="82">
       <c r="F82" t="s">
         <v>277</v>
       </c>
@@ -3498,7 +5269,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="83" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="83">
       <c r="F83" t="s">
         <v>272</v>
       </c>
@@ -3506,7 +5277,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="84" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="84">
       <c r="F84" t="s">
         <v>289</v>
       </c>
@@ -3514,7 +5285,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="85" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="85">
       <c r="F85" t="s">
         <v>273</v>
       </c>
@@ -3522,7 +5293,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="86" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="86">
       <c r="F86" t="s">
         <v>274</v>
       </c>
@@ -3530,7 +5301,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="87" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="87">
       <c r="F87" t="s">
         <v>307</v>
       </c>
@@ -3538,7 +5309,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="88" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="88">
       <c r="F88" t="s">
         <v>313</v>
       </c>
@@ -3546,7 +5317,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="89" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="89">
       <c r="F89" t="s">
         <v>296</v>
       </c>
@@ -3554,7 +5325,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="90" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="90">
       <c r="F90" t="s">
         <v>341</v>
       </c>
@@ -3562,7 +5333,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="91" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="91">
       <c r="F91" t="s">
         <v>278</v>
       </c>
@@ -3570,7 +5341,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="92" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="92">
       <c r="F92" t="s">
         <v>279</v>
       </c>
@@ -3578,171 +5349,171 @@
         <v>199</v>
       </c>
     </row>
-    <row r="93" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="93">
       <c r="V93" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="94" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="94">
       <c r="V94" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="95" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="95">
       <c r="V95" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="96" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="96">
       <c r="V96" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="97" spans="22:22" x14ac:dyDescent="0.2">
+    <row r="97">
       <c r="V97" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="98" spans="22:22" x14ac:dyDescent="0.2">
+    <row r="98">
       <c r="V98" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="99" spans="22:22" x14ac:dyDescent="0.2">
+    <row r="99">
       <c r="V99" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="100" spans="22:22" x14ac:dyDescent="0.2">
+    <row r="100">
       <c r="V100" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="101" spans="22:22" x14ac:dyDescent="0.2">
+    <row r="101">
       <c r="V101" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="102" spans="22:22" x14ac:dyDescent="0.2">
+    <row r="102">
       <c r="V102" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="103" spans="22:22" x14ac:dyDescent="0.2">
+    <row r="103">
       <c r="V103" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="104" spans="22:22" x14ac:dyDescent="0.2">
+    <row r="104">
       <c r="V104" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="105" spans="22:22" x14ac:dyDescent="0.2">
+    <row r="105">
       <c r="V105" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="106" spans="22:22" x14ac:dyDescent="0.2">
+    <row r="106">
       <c r="V106" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="107" spans="22:22" x14ac:dyDescent="0.2">
+    <row r="107">
       <c r="V107" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="108" spans="22:22" x14ac:dyDescent="0.2">
+    <row r="108">
       <c r="V108" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="109" spans="22:22" x14ac:dyDescent="0.2">
+    <row r="109">
       <c r="V109" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="110" spans="22:22" x14ac:dyDescent="0.2">
+    <row r="110">
       <c r="V110" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="111" spans="22:22" x14ac:dyDescent="0.2">
+    <row r="111">
       <c r="V111" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="112" spans="22:22" x14ac:dyDescent="0.2">
+    <row r="112">
       <c r="V112" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="113" spans="22:22" x14ac:dyDescent="0.2">
+    <row r="113">
       <c r="V113" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="114" spans="22:22" x14ac:dyDescent="0.2">
+    <row r="114">
       <c r="V114" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="115" spans="22:22" x14ac:dyDescent="0.2">
+    <row r="115">
       <c r="V115" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="116" spans="22:22" x14ac:dyDescent="0.2">
+    <row r="116">
       <c r="V116" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="117" spans="22:22" x14ac:dyDescent="0.2">
+    <row r="117">
       <c r="V117" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="118" spans="22:22" x14ac:dyDescent="0.2">
+    <row r="118">
       <c r="V118" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="119" spans="22:22" x14ac:dyDescent="0.2">
+    <row r="119">
       <c r="V119" t="s">
         <v>162</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O998"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:P998"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0" zoomScaleNormal="100">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
+      <selection activeCell="C22" pane="bottomLeft" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.83203125" style="8" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="29.1640625" style="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.6640625" style="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="42.1640625" style="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="40.83203125" style="9" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="68.5" style="9" customWidth="1" collapsed="1"/>
-    <col min="7" max="9" width="18.33203125" style="9" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="28.6640625" style="16" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="1.6640625" style="10" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12" style="14" customWidth="1" collapsed="1"/>
-    <col min="13" max="16384" width="10.83203125" style="3" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="8" width="17.83203125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="8" width="29.1640625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="12" width="9.6640625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="9" width="42.1640625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="9" width="40.83203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="9" width="68.5" collapsed="true"/>
+    <col min="7" max="9" customWidth="true" style="9" width="18.33203125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="16" width="28.6640625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="10" width="1.6640625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="14" width="12.0" collapsed="true"/>
+    <col min="13" max="16384" style="3" width="10.83203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="5" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="20" r="1" s="5" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>246</v>
       </c>
@@ -3778,7 +5549,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="18" r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>247</v>
       </c>
@@ -3802,7 +5573,7 @@
       <c r="K2" s="2"/>
       <c r="L2" s="13"/>
     </row>
-    <row r="3" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>252</v>
       </c>
@@ -3826,7 +5597,7 @@
       <c r="K3" s="2"/>
       <c r="L3" s="13"/>
     </row>
-    <row r="4" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
       <c r="B4" s="4" t="s">
         <v>419</v>
@@ -3851,7 +5622,7 @@
       <c r="N4"/>
       <c r="O4"/>
     </row>
-    <row r="5" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
         <v>420</v>
@@ -3873,7 +5644,7 @@
       <c r="K5" s="2"/>
       <c r="L5" s="13"/>
     </row>
-    <row r="6" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
       <c r="B6" s="4" t="s">
         <v>421</v>
@@ -3895,7 +5666,7 @@
       <c r="K6" s="2"/>
       <c r="L6" s="13"/>
     </row>
-    <row r="7" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="11" t="s">
@@ -3923,7 +5694,7 @@
       <c r="K7" s="2"/>
       <c r="L7" s="13"/>
     </row>
-    <row r="8" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="11" t="s">
@@ -3943,7 +5714,7 @@
       <c r="K8" s="2"/>
       <c r="L8" s="13"/>
     </row>
-    <row r="9" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>256</v>
       </c>
@@ -3965,7 +5736,7 @@
       <c r="K9" s="2"/>
       <c r="L9" s="13"/>
     </row>
-    <row r="10" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>427</v>
       </c>
@@ -3991,7 +5762,7 @@
       <c r="K10" s="2"/>
       <c r="L10" s="13"/>
     </row>
-    <row r="11" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="B11" s="4" t="s">
         <v>428</v>
@@ -4015,7 +5786,7 @@
       <c r="K11" s="2"/>
       <c r="L11" s="13"/>
     </row>
-    <row r="12" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
       <c r="B12" s="4" t="s">
         <v>434</v>
@@ -4039,7 +5810,7 @@
       <c r="K12" s="2"/>
       <c r="L12" s="13"/>
     </row>
-    <row r="13" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="36" r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
       <c r="B13" s="4" t="s">
         <v>435</v>
@@ -4067,7 +5838,7 @@
       <c r="K13" s="2"/>
       <c r="L13" s="13"/>
     </row>
-    <row r="14" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
       <c r="B14" s="4" t="s">
         <v>436</v>
@@ -4091,7 +5862,7 @@
       <c r="K14" s="2"/>
       <c r="L14" s="13"/>
     </row>
-    <row r="15" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" s="4" t="s">
         <v>437</v>
@@ -4115,7 +5886,7 @@
       <c r="K15" s="2"/>
       <c r="L15" s="13"/>
     </row>
-    <row r="16" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="4" t="s">
         <v>438</v>
@@ -4137,7 +5908,7 @@
       <c r="K16" s="2"/>
       <c r="L16" s="13"/>
     </row>
-    <row r="17" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="4" t="s">
         <v>446</v>
@@ -4161,7 +5932,7 @@
       <c r="K17" s="2"/>
       <c r="L17" s="13"/>
     </row>
-    <row r="18" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
       <c r="B18" s="4" t="s">
         <v>447</v>
@@ -4185,7 +5956,7 @@
       <c r="K18" s="2"/>
       <c r="L18" s="13"/>
     </row>
-    <row r="19" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
       <c r="B19" s="4" t="s">
         <v>449</v>
@@ -4207,7 +5978,7 @@
       <c r="K19" s="2"/>
       <c r="L19" s="13"/>
     </row>
-    <row r="20" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
       <c r="B20" s="4" t="s">
         <v>451</v>
@@ -4231,7 +6002,7 @@
       <c r="K20" s="2"/>
       <c r="L20" s="13"/>
     </row>
-    <row r="21" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
       <c r="B21" s="4" t="s">
         <v>455</v>
@@ -4253,7 +6024,7 @@
       <c r="K21" s="2"/>
       <c r="L21" s="13"/>
     </row>
-    <row r="22" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="11"/>
@@ -4267,7 +6038,7 @@
       <c r="K22" s="2"/>
       <c r="L22" s="13"/>
     </row>
-    <row r="23" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="11"/>
@@ -4281,7 +6052,7 @@
       <c r="K23" s="2"/>
       <c r="L23" s="13"/>
     </row>
-    <row r="24" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="11"/>
@@ -4295,7 +6066,7 @@
       <c r="K24" s="2"/>
       <c r="L24" s="13"/>
     </row>
-    <row r="25" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="11"/>
@@ -4309,7 +6080,7 @@
       <c r="K25" s="2"/>
       <c r="L25" s="13"/>
     </row>
-    <row r="26" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="4"/>
       <c r="B26" s="7"/>
       <c r="C26" s="11"/>
@@ -4323,7 +6094,7 @@
       <c r="K26" s="2"/>
       <c r="L26" s="13"/>
     </row>
-    <row r="27" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="11"/>
@@ -4337,7 +6108,7 @@
       <c r="K27" s="2"/>
       <c r="L27" s="13"/>
     </row>
-    <row r="28" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="11"/>
@@ -4351,7 +6122,7 @@
       <c r="K28" s="2"/>
       <c r="L28" s="13"/>
     </row>
-    <row r="29" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="11"/>
@@ -4365,7 +6136,7 @@
       <c r="K29" s="2"/>
       <c r="L29" s="13"/>
     </row>
-    <row r="30" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="11"/>
@@ -4379,7 +6150,7 @@
       <c r="K30" s="2"/>
       <c r="L30" s="13"/>
     </row>
-    <row r="31" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="11"/>
@@ -4393,7 +6164,7 @@
       <c r="K31" s="2"/>
       <c r="L31" s="13"/>
     </row>
-    <row r="32" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="11"/>
@@ -4407,7 +6178,7 @@
       <c r="K32" s="2"/>
       <c r="L32" s="13"/>
     </row>
-    <row r="33" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="11"/>
@@ -4421,7 +6192,7 @@
       <c r="K33" s="2"/>
       <c r="L33" s="13"/>
     </row>
-    <row r="34" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="11"/>
@@ -4435,7 +6206,7 @@
       <c r="K34" s="2"/>
       <c r="L34" s="13"/>
     </row>
-    <row r="35" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="11"/>
@@ -4449,7 +6220,7 @@
       <c r="K35" s="2"/>
       <c r="L35" s="13"/>
     </row>
-    <row r="36" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="11"/>
@@ -4463,7 +6234,7 @@
       <c r="K36" s="2"/>
       <c r="L36" s="13"/>
     </row>
-    <row r="37" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="11"/>
@@ -4477,7 +6248,7 @@
       <c r="K37" s="2"/>
       <c r="L37" s="13"/>
     </row>
-    <row r="38" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="11"/>
@@ -4491,7 +6262,7 @@
       <c r="K38" s="2"/>
       <c r="L38" s="13"/>
     </row>
-    <row r="39" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="11"/>
@@ -4505,7 +6276,7 @@
       <c r="K39" s="2"/>
       <c r="L39" s="13"/>
     </row>
-    <row r="40" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="11"/>
@@ -4519,7 +6290,7 @@
       <c r="K40" s="2"/>
       <c r="L40" s="13"/>
     </row>
-    <row r="41" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="11"/>
@@ -4533,7 +6304,7 @@
       <c r="K41" s="2"/>
       <c r="L41" s="13"/>
     </row>
-    <row r="42" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="11"/>
@@ -4547,7 +6318,7 @@
       <c r="K42" s="2"/>
       <c r="L42" s="13"/>
     </row>
-    <row r="43" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="11"/>
@@ -4561,7 +6332,7 @@
       <c r="K43" s="2"/>
       <c r="L43" s="13"/>
     </row>
-    <row r="44" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="11"/>
@@ -4575,7 +6346,7 @@
       <c r="K44" s="2"/>
       <c r="L44" s="13"/>
     </row>
-    <row r="45" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="11"/>
@@ -4589,7 +6360,7 @@
       <c r="K45" s="2"/>
       <c r="L45" s="13"/>
     </row>
-    <row r="46" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="11"/>
@@ -4603,7 +6374,7 @@
       <c r="K46" s="2"/>
       <c r="L46" s="13"/>
     </row>
-    <row r="47" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="11"/>
@@ -4617,7 +6388,7 @@
       <c r="K47" s="2"/>
       <c r="L47" s="13"/>
     </row>
-    <row r="48" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="11"/>
@@ -4631,7 +6402,7 @@
       <c r="K48" s="2"/>
       <c r="L48" s="13"/>
     </row>
-    <row r="49" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="11"/>
@@ -4645,7 +6416,7 @@
       <c r="K49" s="2"/>
       <c r="L49" s="13"/>
     </row>
-    <row r="50" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="11"/>
@@ -4659,7 +6430,7 @@
       <c r="K50" s="2"/>
       <c r="L50" s="13"/>
     </row>
-    <row r="51" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="11"/>
@@ -4673,7 +6444,7 @@
       <c r="K51" s="2"/>
       <c r="L51" s="13"/>
     </row>
-    <row r="52" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="11"/>
@@ -4687,7 +6458,7 @@
       <c r="K52" s="2"/>
       <c r="L52" s="13"/>
     </row>
-    <row r="53" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="11"/>
@@ -4701,7 +6472,7 @@
       <c r="K53" s="2"/>
       <c r="L53" s="13"/>
     </row>
-    <row r="54" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="11"/>
@@ -4715,7 +6486,7 @@
       <c r="K54" s="2"/>
       <c r="L54" s="13"/>
     </row>
-    <row r="55" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="11"/>
@@ -4729,7 +6500,7 @@
       <c r="K55" s="2"/>
       <c r="L55" s="13"/>
     </row>
-    <row r="56" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="11"/>
@@ -4743,7 +6514,7 @@
       <c r="K56" s="2"/>
       <c r="L56" s="13"/>
     </row>
-    <row r="57" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="11"/>
@@ -4757,7 +6528,7 @@
       <c r="K57" s="2"/>
       <c r="L57" s="13"/>
     </row>
-    <row r="58" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="11"/>
@@ -4771,7 +6542,7 @@
       <c r="K58" s="2"/>
       <c r="L58" s="13"/>
     </row>
-    <row r="59" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="11"/>
@@ -4785,7 +6556,7 @@
       <c r="K59" s="2"/>
       <c r="L59" s="13"/>
     </row>
-    <row r="60" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="11"/>
@@ -4799,7 +6570,7 @@
       <c r="K60" s="2"/>
       <c r="L60" s="13"/>
     </row>
-    <row r="61" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="11"/>
@@ -4813,7 +6584,7 @@
       <c r="K61" s="2"/>
       <c r="L61" s="13"/>
     </row>
-    <row r="62" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="11"/>
@@ -4827,7 +6598,7 @@
       <c r="K62" s="2"/>
       <c r="L62" s="13"/>
     </row>
-    <row r="63" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="11"/>
@@ -4841,7 +6612,7 @@
       <c r="K63" s="2"/>
       <c r="L63" s="13"/>
     </row>
-    <row r="64" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="C64" s="11"/>
@@ -4855,7 +6626,7 @@
       <c r="K64" s="2"/>
       <c r="L64" s="13"/>
     </row>
-    <row r="65" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="C65" s="11"/>
@@ -4869,7 +6640,7 @@
       <c r="K65" s="2"/>
       <c r="L65" s="13"/>
     </row>
-    <row r="66" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
       <c r="C66" s="11"/>
@@ -4883,7 +6654,7 @@
       <c r="K66" s="2"/>
       <c r="L66" s="13"/>
     </row>
-    <row r="67" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="C67" s="11"/>
@@ -4897,7 +6668,7 @@
       <c r="K67" s="2"/>
       <c r="L67" s="13"/>
     </row>
-    <row r="68" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="C68" s="11"/>
@@ -4911,7 +6682,7 @@
       <c r="K68" s="2"/>
       <c r="L68" s="13"/>
     </row>
-    <row r="69" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="C69" s="11"/>
@@ -4925,7 +6696,7 @@
       <c r="K69" s="2"/>
       <c r="L69" s="13"/>
     </row>
-    <row r="70" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="C70" s="11"/>
@@ -4939,7 +6710,7 @@
       <c r="K70" s="2"/>
       <c r="L70" s="13"/>
     </row>
-    <row r="71" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" s="11"/>
@@ -4953,7 +6724,7 @@
       <c r="K71" s="2"/>
       <c r="L71" s="13"/>
     </row>
-    <row r="72" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="C72" s="11"/>
@@ -4967,7 +6738,7 @@
       <c r="K72" s="2"/>
       <c r="L72" s="13"/>
     </row>
-    <row r="73" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="C73" s="11"/>
@@ -4981,7 +6752,7 @@
       <c r="K73" s="2"/>
       <c r="L73" s="13"/>
     </row>
-    <row r="74" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74" s="4"/>
       <c r="B74" s="4"/>
       <c r="C74" s="11"/>
@@ -4995,7 +6766,7 @@
       <c r="K74" s="2"/>
       <c r="L74" s="13"/>
     </row>
-    <row r="75" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
       <c r="C75" s="11"/>
@@ -5009,7 +6780,7 @@
       <c r="K75" s="2"/>
       <c r="L75" s="13"/>
     </row>
-    <row r="76" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76" s="4"/>
       <c r="B76" s="4"/>
       <c r="C76" s="11"/>
@@ -5023,7 +6794,7 @@
       <c r="K76" s="2"/>
       <c r="L76" s="13"/>
     </row>
-    <row r="77" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77" s="4"/>
       <c r="B77" s="4"/>
       <c r="C77" s="11"/>
@@ -5037,7 +6808,7 @@
       <c r="K77" s="2"/>
       <c r="L77" s="13"/>
     </row>
-    <row r="78" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A78" s="4"/>
       <c r="B78" s="4"/>
       <c r="C78" s="11"/>
@@ -5051,7 +6822,7 @@
       <c r="K78" s="2"/>
       <c r="L78" s="13"/>
     </row>
-    <row r="79" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
       <c r="C79" s="11"/>
@@ -5065,7 +6836,7 @@
       <c r="K79" s="2"/>
       <c r="L79" s="13"/>
     </row>
-    <row r="80" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A80" s="4"/>
       <c r="B80" s="4"/>
       <c r="C80" s="11"/>
@@ -5079,7 +6850,7 @@
       <c r="K80" s="2"/>
       <c r="L80" s="13"/>
     </row>
-    <row r="81" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="81" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A81" s="4"/>
       <c r="B81" s="4"/>
       <c r="C81" s="11"/>
@@ -5093,7 +6864,7 @@
       <c r="K81" s="2"/>
       <c r="L81" s="13"/>
     </row>
-    <row r="82" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="82" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A82" s="4"/>
       <c r="B82" s="4"/>
       <c r="C82" s="11"/>
@@ -5107,7 +6878,7 @@
       <c r="K82" s="2"/>
       <c r="L82" s="13"/>
     </row>
-    <row r="83" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="83" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
       <c r="C83" s="11"/>
@@ -5121,7 +6892,7 @@
       <c r="K83" s="2"/>
       <c r="L83" s="13"/>
     </row>
-    <row r="84" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="84" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A84" s="4"/>
       <c r="B84" s="4"/>
       <c r="C84" s="11"/>
@@ -5135,7 +6906,7 @@
       <c r="K84" s="2"/>
       <c r="L84" s="13"/>
     </row>
-    <row r="85" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="85" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A85" s="4"/>
       <c r="B85" s="4"/>
       <c r="C85" s="11"/>
@@ -5149,7 +6920,7 @@
       <c r="K85" s="2"/>
       <c r="L85" s="13"/>
     </row>
-    <row r="86" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="86" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A86" s="4"/>
       <c r="B86" s="4"/>
       <c r="C86" s="11"/>
@@ -5163,7 +6934,7 @@
       <c r="K86" s="2"/>
       <c r="L86" s="13"/>
     </row>
-    <row r="87" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="87" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
       <c r="C87" s="11"/>
@@ -5177,7 +6948,7 @@
       <c r="K87" s="2"/>
       <c r="L87" s="13"/>
     </row>
-    <row r="88" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="88" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A88" s="4"/>
       <c r="B88" s="4"/>
       <c r="C88" s="11"/>
@@ -5191,7 +6962,7 @@
       <c r="K88" s="2"/>
       <c r="L88" s="13"/>
     </row>
-    <row r="89" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="89" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A89" s="4"/>
       <c r="B89" s="4"/>
       <c r="C89" s="11"/>
@@ -5205,7 +6976,7 @@
       <c r="K89" s="2"/>
       <c r="L89" s="13"/>
     </row>
-    <row r="90" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="90" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A90" s="4"/>
       <c r="B90" s="4"/>
       <c r="C90" s="11"/>
@@ -5219,7 +6990,7 @@
       <c r="K90" s="2"/>
       <c r="L90" s="13"/>
     </row>
-    <row r="91" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="91" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A91" s="4"/>
       <c r="B91" s="4"/>
       <c r="C91" s="11"/>
@@ -5233,7 +7004,7 @@
       <c r="K91" s="2"/>
       <c r="L91" s="13"/>
     </row>
-    <row r="92" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="92" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A92" s="4"/>
       <c r="B92" s="4"/>
       <c r="C92" s="11"/>
@@ -5247,7 +7018,7 @@
       <c r="K92" s="2"/>
       <c r="L92" s="13"/>
     </row>
-    <row r="93" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="93" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A93" s="4"/>
       <c r="B93" s="4"/>
       <c r="C93" s="11"/>
@@ -5261,7 +7032,7 @@
       <c r="K93" s="2"/>
       <c r="L93" s="13"/>
     </row>
-    <row r="94" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="94" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A94" s="4"/>
       <c r="B94" s="4"/>
       <c r="C94" s="11"/>
@@ -5275,7 +7046,7 @@
       <c r="K94" s="2"/>
       <c r="L94" s="13"/>
     </row>
-    <row r="95" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="95" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A95" s="4"/>
       <c r="B95" s="4"/>
       <c r="C95" s="11"/>
@@ -5289,7 +7060,7 @@
       <c r="K95" s="2"/>
       <c r="L95" s="13"/>
     </row>
-    <row r="96" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="96" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A96" s="4"/>
       <c r="B96" s="4"/>
       <c r="C96" s="11"/>
@@ -5303,7 +7074,7 @@
       <c r="K96" s="2"/>
       <c r="L96" s="13"/>
     </row>
-    <row r="97" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="97" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A97" s="4"/>
       <c r="B97" s="4"/>
       <c r="C97" s="11"/>
@@ -5317,7 +7088,7 @@
       <c r="K97" s="2"/>
       <c r="L97" s="13"/>
     </row>
-    <row r="98" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="98" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A98" s="4"/>
       <c r="B98" s="4"/>
       <c r="C98" s="11"/>
@@ -5331,7 +7102,7 @@
       <c r="K98" s="2"/>
       <c r="L98" s="13"/>
     </row>
-    <row r="99" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="99" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A99" s="4"/>
       <c r="B99" s="4"/>
       <c r="C99" s="11"/>
@@ -5345,7 +7116,7 @@
       <c r="K99" s="2"/>
       <c r="L99" s="13"/>
     </row>
-    <row r="100" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="100" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A100" s="4"/>
       <c r="B100" s="4"/>
       <c r="C100" s="11"/>
@@ -5359,7 +7130,7 @@
       <c r="K100" s="2"/>
       <c r="L100" s="13"/>
     </row>
-    <row r="101" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="101" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A101" s="4"/>
       <c r="B101" s="4"/>
       <c r="C101" s="11"/>
@@ -5373,7 +7144,7 @@
       <c r="K101" s="2"/>
       <c r="L101" s="13"/>
     </row>
-    <row r="102" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="102" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A102" s="4"/>
       <c r="B102" s="4"/>
       <c r="C102" s="11"/>
@@ -5387,7 +7158,7 @@
       <c r="K102" s="2"/>
       <c r="L102" s="13"/>
     </row>
-    <row r="103" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="103" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A103" s="4"/>
       <c r="B103" s="4"/>
       <c r="C103" s="11"/>
@@ -5401,7 +7172,7 @@
       <c r="K103" s="2"/>
       <c r="L103" s="13"/>
     </row>
-    <row r="104" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="104" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A104" s="4"/>
       <c r="B104" s="4"/>
       <c r="C104" s="11"/>
@@ -5415,7 +7186,7 @@
       <c r="K104" s="2"/>
       <c r="L104" s="13"/>
     </row>
-    <row r="105" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="105" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A105" s="4"/>
       <c r="B105" s="4"/>
       <c r="C105" s="11"/>
@@ -5429,7 +7200,7 @@
       <c r="K105" s="2"/>
       <c r="L105" s="13"/>
     </row>
-    <row r="106" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="106" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A106" s="4"/>
       <c r="B106" s="4"/>
       <c r="C106" s="11"/>
@@ -5443,7 +7214,7 @@
       <c r="K106" s="2"/>
       <c r="L106" s="13"/>
     </row>
-    <row r="107" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="107" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A107" s="4"/>
       <c r="B107" s="4"/>
       <c r="C107" s="11"/>
@@ -5457,7 +7228,7 @@
       <c r="K107" s="2"/>
       <c r="L107" s="13"/>
     </row>
-    <row r="108" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="108" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A108" s="4"/>
       <c r="B108" s="4"/>
       <c r="C108" s="11"/>
@@ -5471,7 +7242,7 @@
       <c r="K108" s="2"/>
       <c r="L108" s="13"/>
     </row>
-    <row r="109" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="109" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A109" s="4"/>
       <c r="B109" s="4"/>
       <c r="C109" s="11"/>
@@ -5485,7 +7256,7 @@
       <c r="K109" s="2"/>
       <c r="L109" s="13"/>
     </row>
-    <row r="110" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="110" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A110" s="4"/>
       <c r="B110" s="4"/>
       <c r="C110" s="11"/>
@@ -5499,7 +7270,7 @@
       <c r="K110" s="2"/>
       <c r="L110" s="13"/>
     </row>
-    <row r="111" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="111" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A111" s="4"/>
       <c r="B111" s="4"/>
       <c r="C111" s="11"/>
@@ -5513,7 +7284,7 @@
       <c r="K111" s="2"/>
       <c r="L111" s="13"/>
     </row>
-    <row r="112" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="112" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A112" s="4"/>
       <c r="B112" s="4"/>
       <c r="C112" s="11"/>
@@ -5527,7 +7298,7 @@
       <c r="K112" s="2"/>
       <c r="L112" s="13"/>
     </row>
-    <row r="113" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="113" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A113" s="4"/>
       <c r="B113" s="4"/>
       <c r="C113" s="11"/>
@@ -5541,7 +7312,7 @@
       <c r="K113" s="2"/>
       <c r="L113" s="13"/>
     </row>
-    <row r="114" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="114" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A114" s="4"/>
       <c r="B114" s="4"/>
       <c r="C114" s="11"/>
@@ -5555,7 +7326,7 @@
       <c r="K114" s="2"/>
       <c r="L114" s="13"/>
     </row>
-    <row r="115" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="115" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A115" s="4"/>
       <c r="B115" s="4"/>
       <c r="C115" s="11"/>
@@ -5569,7 +7340,7 @@
       <c r="K115" s="2"/>
       <c r="L115" s="13"/>
     </row>
-    <row r="116" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="116" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A116" s="4"/>
       <c r="B116" s="4"/>
       <c r="C116" s="11"/>
@@ -5583,7 +7354,7 @@
       <c r="K116" s="2"/>
       <c r="L116" s="13"/>
     </row>
-    <row r="117" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="117" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A117" s="4"/>
       <c r="B117" s="4"/>
       <c r="C117" s="11"/>
@@ -5597,7 +7368,7 @@
       <c r="K117" s="2"/>
       <c r="L117" s="13"/>
     </row>
-    <row r="118" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="118" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A118" s="4"/>
       <c r="B118" s="4"/>
       <c r="C118" s="11"/>
@@ -5611,7 +7382,7 @@
       <c r="K118" s="2"/>
       <c r="L118" s="13"/>
     </row>
-    <row r="119" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="119" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A119" s="4"/>
       <c r="B119" s="4"/>
       <c r="C119" s="11"/>
@@ -5625,7 +7396,7 @@
       <c r="K119" s="2"/>
       <c r="L119" s="13"/>
     </row>
-    <row r="120" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="120" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A120" s="4"/>
       <c r="B120" s="4"/>
       <c r="C120" s="11"/>
@@ -5639,7 +7410,7 @@
       <c r="K120" s="2"/>
       <c r="L120" s="13"/>
     </row>
-    <row r="121" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="121" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A121" s="4"/>
       <c r="B121" s="4"/>
       <c r="C121" s="11"/>
@@ -5653,7 +7424,7 @@
       <c r="K121" s="2"/>
       <c r="L121" s="13"/>
     </row>
-    <row r="122" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="122" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A122" s="4"/>
       <c r="B122" s="4"/>
       <c r="C122" s="11"/>
@@ -5667,7 +7438,7 @@
       <c r="K122" s="2"/>
       <c r="L122" s="13"/>
     </row>
-    <row r="123" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="123" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A123" s="4"/>
       <c r="B123" s="4"/>
       <c r="C123" s="11"/>
@@ -5681,7 +7452,7 @@
       <c r="K123" s="2"/>
       <c r="L123" s="13"/>
     </row>
-    <row r="124" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="124" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A124" s="4"/>
       <c r="B124" s="4"/>
       <c r="C124" s="11"/>
@@ -5695,7 +7466,7 @@
       <c r="K124" s="2"/>
       <c r="L124" s="13"/>
     </row>
-    <row r="125" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="125" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A125" s="4"/>
       <c r="B125" s="4"/>
       <c r="C125" s="11"/>
@@ -5709,7 +7480,7 @@
       <c r="K125" s="2"/>
       <c r="L125" s="13"/>
     </row>
-    <row r="126" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="126" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A126" s="4"/>
       <c r="B126" s="4"/>
       <c r="C126" s="11"/>
@@ -5723,7 +7494,7 @@
       <c r="K126" s="2"/>
       <c r="L126" s="13"/>
     </row>
-    <row r="127" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="127" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A127" s="4"/>
       <c r="B127" s="4"/>
       <c r="C127" s="11"/>
@@ -5737,7 +7508,7 @@
       <c r="K127" s="2"/>
       <c r="L127" s="13"/>
     </row>
-    <row r="128" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="128" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A128" s="4"/>
       <c r="B128" s="4"/>
       <c r="C128" s="11"/>
@@ -5751,7 +7522,7 @@
       <c r="K128" s="2"/>
       <c r="L128" s="13"/>
     </row>
-    <row r="129" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="129" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A129" s="4"/>
       <c r="B129" s="4"/>
       <c r="C129" s="11"/>
@@ -5765,7 +7536,7 @@
       <c r="K129" s="2"/>
       <c r="L129" s="13"/>
     </row>
-    <row r="130" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="130" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A130" s="4"/>
       <c r="B130" s="4"/>
       <c r="C130" s="11"/>
@@ -5779,7 +7550,7 @@
       <c r="K130" s="2"/>
       <c r="L130" s="13"/>
     </row>
-    <row r="131" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="131" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A131" s="4"/>
       <c r="B131" s="4"/>
       <c r="C131" s="11"/>
@@ -5793,7 +7564,7 @@
       <c r="K131" s="2"/>
       <c r="L131" s="13"/>
     </row>
-    <row r="132" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="132" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A132" s="4"/>
       <c r="B132" s="4"/>
       <c r="C132" s="11"/>
@@ -5807,7 +7578,7 @@
       <c r="K132" s="2"/>
       <c r="L132" s="13"/>
     </row>
-    <row r="133" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="133" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A133" s="4"/>
       <c r="B133" s="4"/>
       <c r="C133" s="11"/>
@@ -5821,7 +7592,7 @@
       <c r="K133" s="2"/>
       <c r="L133" s="13"/>
     </row>
-    <row r="134" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="134" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A134" s="4"/>
       <c r="B134" s="4"/>
       <c r="C134" s="11"/>
@@ -5835,7 +7606,7 @@
       <c r="K134" s="2"/>
       <c r="L134" s="13"/>
     </row>
-    <row r="135" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="135" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A135" s="4"/>
       <c r="B135" s="4"/>
       <c r="C135" s="11"/>
@@ -5849,7 +7620,7 @@
       <c r="K135" s="2"/>
       <c r="L135" s="13"/>
     </row>
-    <row r="136" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="136" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A136" s="4"/>
       <c r="B136" s="4"/>
       <c r="C136" s="11"/>
@@ -5863,7 +7634,7 @@
       <c r="K136" s="2"/>
       <c r="L136" s="13"/>
     </row>
-    <row r="137" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="137" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A137" s="4"/>
       <c r="B137" s="4"/>
       <c r="C137" s="11"/>
@@ -5877,7 +7648,7 @@
       <c r="K137" s="2"/>
       <c r="L137" s="13"/>
     </row>
-    <row r="138" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="138" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A138" s="4"/>
       <c r="B138" s="4"/>
       <c r="C138" s="11"/>
@@ -5891,7 +7662,7 @@
       <c r="K138" s="2"/>
       <c r="L138" s="13"/>
     </row>
-    <row r="139" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="139" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A139" s="4"/>
       <c r="B139" s="4"/>
       <c r="C139" s="11"/>
@@ -5905,7 +7676,7 @@
       <c r="K139" s="2"/>
       <c r="L139" s="13"/>
     </row>
-    <row r="140" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="140" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A140" s="4"/>
       <c r="B140" s="4"/>
       <c r="C140" s="11"/>
@@ -5919,7 +7690,7 @@
       <c r="K140" s="2"/>
       <c r="L140" s="13"/>
     </row>
-    <row r="141" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="141" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A141" s="4"/>
       <c r="B141" s="4"/>
       <c r="C141" s="11"/>
@@ -5933,7 +7704,7 @@
       <c r="K141" s="2"/>
       <c r="L141" s="13"/>
     </row>
-    <row r="142" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="142" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A142" s="4"/>
       <c r="B142" s="4"/>
       <c r="C142" s="11"/>
@@ -5947,7 +7718,7 @@
       <c r="K142" s="2"/>
       <c r="L142" s="13"/>
     </row>
-    <row r="143" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="143" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A143" s="4"/>
       <c r="B143" s="4"/>
       <c r="C143" s="11"/>
@@ -5961,7 +7732,7 @@
       <c r="K143" s="2"/>
       <c r="L143" s="13"/>
     </row>
-    <row r="144" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="144" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A144" s="4"/>
       <c r="B144" s="4"/>
       <c r="C144" s="11"/>
@@ -5975,7 +7746,7 @@
       <c r="K144" s="2"/>
       <c r="L144" s="13"/>
     </row>
-    <row r="145" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="145" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A145" s="4"/>
       <c r="B145" s="4"/>
       <c r="C145" s="11"/>
@@ -5989,7 +7760,7 @@
       <c r="K145" s="2"/>
       <c r="L145" s="13"/>
     </row>
-    <row r="146" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="146" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A146" s="4"/>
       <c r="B146" s="4"/>
       <c r="C146" s="11"/>
@@ -6003,7 +7774,7 @@
       <c r="K146" s="2"/>
       <c r="L146" s="13"/>
     </row>
-    <row r="147" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="147" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A147" s="4"/>
       <c r="B147" s="4"/>
       <c r="C147" s="11"/>
@@ -6017,7 +7788,7 @@
       <c r="K147" s="2"/>
       <c r="L147" s="13"/>
     </row>
-    <row r="148" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="148" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A148" s="4"/>
       <c r="B148" s="4"/>
       <c r="C148" s="11"/>
@@ -6031,7 +7802,7 @@
       <c r="K148" s="2"/>
       <c r="L148" s="13"/>
     </row>
-    <row r="149" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="149" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A149" s="4"/>
       <c r="B149" s="4"/>
       <c r="C149" s="11"/>
@@ -6045,7 +7816,7 @@
       <c r="K149" s="2"/>
       <c r="L149" s="13"/>
     </row>
-    <row r="150" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="150" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A150" s="4"/>
       <c r="B150" s="4"/>
       <c r="C150" s="11"/>
@@ -6059,7 +7830,7 @@
       <c r="K150" s="2"/>
       <c r="L150" s="13"/>
     </row>
-    <row r="151" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="151" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A151" s="4"/>
       <c r="B151" s="4"/>
       <c r="C151" s="11"/>
@@ -6073,7 +7844,7 @@
       <c r="K151" s="2"/>
       <c r="L151" s="13"/>
     </row>
-    <row r="152" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="152" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A152" s="4"/>
       <c r="B152" s="4"/>
       <c r="C152" s="11"/>
@@ -6087,7 +7858,7 @@
       <c r="K152" s="2"/>
       <c r="L152" s="13"/>
     </row>
-    <row r="153" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="153" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A153" s="4"/>
       <c r="B153" s="4"/>
       <c r="C153" s="11"/>
@@ -6101,7 +7872,7 @@
       <c r="K153" s="2"/>
       <c r="L153" s="13"/>
     </row>
-    <row r="154" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="154" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A154" s="4"/>
       <c r="B154" s="4"/>
       <c r="C154" s="11"/>
@@ -6115,7 +7886,7 @@
       <c r="K154" s="2"/>
       <c r="L154" s="13"/>
     </row>
-    <row r="155" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="155" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A155" s="4"/>
       <c r="B155" s="4"/>
       <c r="C155" s="11"/>
@@ -6129,7 +7900,7 @@
       <c r="K155" s="2"/>
       <c r="L155" s="13"/>
     </row>
-    <row r="156" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="156" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A156" s="4"/>
       <c r="B156" s="4"/>
       <c r="C156" s="11"/>
@@ -6143,7 +7914,7 @@
       <c r="K156" s="2"/>
       <c r="L156" s="13"/>
     </row>
-    <row r="157" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="157" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A157" s="4"/>
       <c r="B157" s="4"/>
       <c r="C157" s="11"/>
@@ -6157,7 +7928,7 @@
       <c r="K157" s="2"/>
       <c r="L157" s="13"/>
     </row>
-    <row r="158" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="158" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A158" s="4"/>
       <c r="B158" s="4"/>
       <c r="C158" s="11"/>
@@ -6171,7 +7942,7 @@
       <c r="K158" s="2"/>
       <c r="L158" s="13"/>
     </row>
-    <row r="159" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="159" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A159" s="4"/>
       <c r="B159" s="4"/>
       <c r="C159" s="11"/>
@@ -6185,7 +7956,7 @@
       <c r="K159" s="2"/>
       <c r="L159" s="13"/>
     </row>
-    <row r="160" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="160" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A160" s="4"/>
       <c r="B160" s="4"/>
       <c r="C160" s="11"/>
@@ -6199,7 +7970,7 @@
       <c r="K160" s="2"/>
       <c r="L160" s="13"/>
     </row>
-    <row r="161" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="161" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A161" s="4"/>
       <c r="B161" s="4"/>
       <c r="C161" s="11"/>
@@ -6213,7 +7984,7 @@
       <c r="K161" s="2"/>
       <c r="L161" s="13"/>
     </row>
-    <row r="162" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="162" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A162" s="4"/>
       <c r="B162" s="4"/>
       <c r="C162" s="11"/>
@@ -6227,7 +7998,7 @@
       <c r="K162" s="2"/>
       <c r="L162" s="13"/>
     </row>
-    <row r="163" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="163" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A163" s="4"/>
       <c r="B163" s="4"/>
       <c r="C163" s="11"/>
@@ -6241,7 +8012,7 @@
       <c r="K163" s="2"/>
       <c r="L163" s="13"/>
     </row>
-    <row r="164" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="164" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A164" s="4"/>
       <c r="B164" s="4"/>
       <c r="C164" s="11"/>
@@ -6255,7 +8026,7 @@
       <c r="K164" s="2"/>
       <c r="L164" s="13"/>
     </row>
-    <row r="165" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="165" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A165" s="4"/>
       <c r="B165" s="4"/>
       <c r="C165" s="11"/>
@@ -6269,7 +8040,7 @@
       <c r="K165" s="2"/>
       <c r="L165" s="13"/>
     </row>
-    <row r="166" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="166" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A166" s="4"/>
       <c r="B166" s="4"/>
       <c r="C166" s="11"/>
@@ -6283,7 +8054,7 @@
       <c r="K166" s="2"/>
       <c r="L166" s="13"/>
     </row>
-    <row r="167" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="167" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A167" s="4"/>
       <c r="B167" s="4"/>
       <c r="C167" s="11"/>
@@ -6297,7 +8068,7 @@
       <c r="K167" s="2"/>
       <c r="L167" s="13"/>
     </row>
-    <row r="168" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="168" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A168" s="4"/>
       <c r="B168" s="4"/>
       <c r="C168" s="11"/>
@@ -6311,7 +8082,7 @@
       <c r="K168" s="2"/>
       <c r="L168" s="13"/>
     </row>
-    <row r="169" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="169" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A169" s="4"/>
       <c r="B169" s="4"/>
       <c r="C169" s="11"/>
@@ -6325,7 +8096,7 @@
       <c r="K169" s="2"/>
       <c r="L169" s="13"/>
     </row>
-    <row r="170" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="170" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A170" s="4"/>
       <c r="B170" s="4"/>
       <c r="C170" s="11"/>
@@ -6339,7 +8110,7 @@
       <c r="K170" s="2"/>
       <c r="L170" s="13"/>
     </row>
-    <row r="171" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="171" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A171" s="4"/>
       <c r="B171" s="4"/>
       <c r="C171" s="11"/>
@@ -6353,7 +8124,7 @@
       <c r="K171" s="2"/>
       <c r="L171" s="13"/>
     </row>
-    <row r="172" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="172" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A172" s="4"/>
       <c r="B172" s="4"/>
       <c r="C172" s="11"/>
@@ -6367,7 +8138,7 @@
       <c r="K172" s="2"/>
       <c r="L172" s="13"/>
     </row>
-    <row r="173" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="173" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A173" s="4"/>
       <c r="B173" s="4"/>
       <c r="C173" s="11"/>
@@ -6381,7 +8152,7 @@
       <c r="K173" s="2"/>
       <c r="L173" s="13"/>
     </row>
-    <row r="174" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="174" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A174" s="4"/>
       <c r="B174" s="4"/>
       <c r="C174" s="11"/>
@@ -6395,7 +8166,7 @@
       <c r="K174" s="2"/>
       <c r="L174" s="13"/>
     </row>
-    <row r="175" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="175" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A175" s="4"/>
       <c r="B175" s="4"/>
       <c r="C175" s="11"/>
@@ -6409,7 +8180,7 @@
       <c r="K175" s="2"/>
       <c r="L175" s="13"/>
     </row>
-    <row r="176" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="176" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A176" s="4"/>
       <c r="B176" s="4"/>
       <c r="C176" s="11"/>
@@ -6423,7 +8194,7 @@
       <c r="K176" s="2"/>
       <c r="L176" s="13"/>
     </row>
-    <row r="177" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="177" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A177" s="4"/>
       <c r="B177" s="4"/>
       <c r="C177" s="11"/>
@@ -6437,7 +8208,7 @@
       <c r="K177" s="2"/>
       <c r="L177" s="13"/>
     </row>
-    <row r="178" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="178" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A178" s="4"/>
       <c r="B178" s="4"/>
       <c r="C178" s="11"/>
@@ -6451,7 +8222,7 @@
       <c r="K178" s="2"/>
       <c r="L178" s="13"/>
     </row>
-    <row r="179" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="179" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A179" s="4"/>
       <c r="B179" s="4"/>
       <c r="C179" s="11"/>
@@ -6465,7 +8236,7 @@
       <c r="K179" s="2"/>
       <c r="L179" s="13"/>
     </row>
-    <row r="180" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="180" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A180" s="4"/>
       <c r="B180" s="4"/>
       <c r="C180" s="11"/>
@@ -6479,7 +8250,7 @@
       <c r="K180" s="2"/>
       <c r="L180" s="13"/>
     </row>
-    <row r="181" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="181" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A181" s="4"/>
       <c r="B181" s="4"/>
       <c r="C181" s="11"/>
@@ -6493,7 +8264,7 @@
       <c r="K181" s="2"/>
       <c r="L181" s="13"/>
     </row>
-    <row r="182" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="182" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A182" s="4"/>
       <c r="B182" s="4"/>
       <c r="C182" s="11"/>
@@ -6507,7 +8278,7 @@
       <c r="K182" s="2"/>
       <c r="L182" s="13"/>
     </row>
-    <row r="183" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="183" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A183" s="4"/>
       <c r="B183" s="4"/>
       <c r="C183" s="11"/>
@@ -6521,7 +8292,7 @@
       <c r="K183" s="2"/>
       <c r="L183" s="13"/>
     </row>
-    <row r="184" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="184" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A184" s="4"/>
       <c r="B184" s="4"/>
       <c r="C184" s="11"/>
@@ -6535,7 +8306,7 @@
       <c r="K184" s="2"/>
       <c r="L184" s="13"/>
     </row>
-    <row r="185" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="185" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A185" s="4"/>
       <c r="B185" s="4"/>
       <c r="C185" s="11"/>
@@ -6549,7 +8320,7 @@
       <c r="K185" s="2"/>
       <c r="L185" s="13"/>
     </row>
-    <row r="186" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="186" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A186" s="4"/>
       <c r="B186" s="4"/>
       <c r="C186" s="11"/>
@@ -6563,7 +8334,7 @@
       <c r="K186" s="2"/>
       <c r="L186" s="13"/>
     </row>
-    <row r="187" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="187" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A187" s="4"/>
       <c r="B187" s="4"/>
       <c r="C187" s="11"/>
@@ -6577,7 +8348,7 @@
       <c r="K187" s="2"/>
       <c r="L187" s="13"/>
     </row>
-    <row r="188" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="188" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A188" s="4"/>
       <c r="B188" s="4"/>
       <c r="C188" s="11"/>
@@ -6591,7 +8362,7 @@
       <c r="K188" s="2"/>
       <c r="L188" s="13"/>
     </row>
-    <row r="189" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="189" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A189" s="4"/>
       <c r="B189" s="4"/>
       <c r="C189" s="11"/>
@@ -6605,7 +8376,7 @@
       <c r="K189" s="2"/>
       <c r="L189" s="13"/>
     </row>
-    <row r="190" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="190" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A190" s="4"/>
       <c r="B190" s="4"/>
       <c r="C190" s="11"/>
@@ -6619,7 +8390,7 @@
       <c r="K190" s="2"/>
       <c r="L190" s="13"/>
     </row>
-    <row r="191" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="191" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A191" s="4"/>
       <c r="B191" s="4"/>
       <c r="C191" s="11"/>
@@ -6633,7 +8404,7 @@
       <c r="K191" s="2"/>
       <c r="L191" s="13"/>
     </row>
-    <row r="192" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="192" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A192" s="4"/>
       <c r="B192" s="4"/>
       <c r="C192" s="11"/>
@@ -6647,7 +8418,7 @@
       <c r="K192" s="2"/>
       <c r="L192" s="13"/>
     </row>
-    <row r="193" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="193" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A193" s="4"/>
       <c r="B193" s="4"/>
       <c r="C193" s="11"/>
@@ -6661,7 +8432,7 @@
       <c r="K193" s="2"/>
       <c r="L193" s="13"/>
     </row>
-    <row r="194" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="194" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A194" s="4"/>
       <c r="B194" s="4"/>
       <c r="C194" s="11"/>
@@ -6675,7 +8446,7 @@
       <c r="K194" s="2"/>
       <c r="L194" s="13"/>
     </row>
-    <row r="195" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="195" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A195" s="4"/>
       <c r="B195" s="4"/>
       <c r="C195" s="11"/>
@@ -6689,7 +8460,7 @@
       <c r="K195" s="2"/>
       <c r="L195" s="13"/>
     </row>
-    <row r="196" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="196" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A196" s="4"/>
       <c r="B196" s="4"/>
       <c r="C196" s="11"/>
@@ -6703,7 +8474,7 @@
       <c r="K196" s="2"/>
       <c r="L196" s="13"/>
     </row>
-    <row r="197" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="197" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A197" s="4"/>
       <c r="B197" s="4"/>
       <c r="C197" s="11"/>
@@ -6717,7 +8488,7 @@
       <c r="K197" s="2"/>
       <c r="L197" s="13"/>
     </row>
-    <row r="198" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="198" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A198" s="4"/>
       <c r="B198" s="4"/>
       <c r="C198" s="11"/>
@@ -6731,7 +8502,7 @@
       <c r="K198" s="2"/>
       <c r="L198" s="13"/>
     </row>
-    <row r="199" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="199" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A199" s="4"/>
       <c r="B199" s="4"/>
       <c r="C199" s="11"/>
@@ -6745,7 +8516,7 @@
       <c r="K199" s="2"/>
       <c r="L199" s="13"/>
     </row>
-    <row r="200" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="200" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A200" s="4"/>
       <c r="B200" s="4"/>
       <c r="C200" s="11"/>
@@ -6759,7 +8530,7 @@
       <c r="K200" s="2"/>
       <c r="L200" s="13"/>
     </row>
-    <row r="201" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="201" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A201" s="4"/>
       <c r="B201" s="4"/>
       <c r="C201" s="11"/>
@@ -6773,7 +8544,7 @@
       <c r="K201" s="2"/>
       <c r="L201" s="13"/>
     </row>
-    <row r="202" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="202" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A202" s="4"/>
       <c r="B202" s="4"/>
       <c r="C202" s="11"/>
@@ -6787,7 +8558,7 @@
       <c r="K202" s="2"/>
       <c r="L202" s="13"/>
     </row>
-    <row r="203" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="203" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A203" s="4"/>
       <c r="B203" s="4"/>
       <c r="C203" s="11"/>
@@ -6801,7 +8572,7 @@
       <c r="K203" s="2"/>
       <c r="L203" s="13"/>
     </row>
-    <row r="204" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="204" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A204" s="4"/>
       <c r="B204" s="4"/>
       <c r="C204" s="11"/>
@@ -6815,7 +8586,7 @@
       <c r="K204" s="2"/>
       <c r="L204" s="13"/>
     </row>
-    <row r="205" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="205" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A205" s="4"/>
       <c r="B205" s="4"/>
       <c r="C205" s="11"/>
@@ -6829,7 +8600,7 @@
       <c r="K205" s="2"/>
       <c r="L205" s="13"/>
     </row>
-    <row r="206" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="206" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A206" s="4"/>
       <c r="B206" s="4"/>
       <c r="C206" s="11"/>
@@ -6843,7 +8614,7 @@
       <c r="K206" s="2"/>
       <c r="L206" s="13"/>
     </row>
-    <row r="207" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="207" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A207" s="4"/>
       <c r="B207" s="4"/>
       <c r="C207" s="11"/>
@@ -6857,7 +8628,7 @@
       <c r="K207" s="2"/>
       <c r="L207" s="13"/>
     </row>
-    <row r="208" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="208" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A208" s="4"/>
       <c r="B208" s="4"/>
       <c r="C208" s="11"/>
@@ -6871,7 +8642,7 @@
       <c r="K208" s="2"/>
       <c r="L208" s="13"/>
     </row>
-    <row r="209" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="209" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A209" s="4"/>
       <c r="B209" s="4"/>
       <c r="C209" s="11"/>
@@ -6885,7 +8656,7 @@
       <c r="K209" s="2"/>
       <c r="L209" s="13"/>
     </row>
-    <row r="210" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="210" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A210" s="4"/>
       <c r="B210" s="4"/>
       <c r="C210" s="11"/>
@@ -6899,7 +8670,7 @@
       <c r="K210" s="2"/>
       <c r="L210" s="13"/>
     </row>
-    <row r="211" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="211" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A211" s="4"/>
       <c r="B211" s="4"/>
       <c r="C211" s="11"/>
@@ -6913,7 +8684,7 @@
       <c r="K211" s="2"/>
       <c r="L211" s="13"/>
     </row>
-    <row r="212" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="212" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A212" s="4"/>
       <c r="B212" s="4"/>
       <c r="C212" s="11"/>
@@ -6927,7 +8698,7 @@
       <c r="K212" s="2"/>
       <c r="L212" s="13"/>
     </row>
-    <row r="213" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="213" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A213" s="4"/>
       <c r="B213" s="4"/>
       <c r="C213" s="11"/>
@@ -6941,7 +8712,7 @@
       <c r="K213" s="2"/>
       <c r="L213" s="13"/>
     </row>
-    <row r="214" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="214" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A214" s="4"/>
       <c r="B214" s="4"/>
       <c r="C214" s="11"/>
@@ -6955,7 +8726,7 @@
       <c r="K214" s="2"/>
       <c r="L214" s="13"/>
     </row>
-    <row r="215" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="215" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A215" s="4"/>
       <c r="B215" s="4"/>
       <c r="C215" s="11"/>
@@ -6969,7 +8740,7 @@
       <c r="K215" s="2"/>
       <c r="L215" s="13"/>
     </row>
-    <row r="216" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="216" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A216" s="4"/>
       <c r="B216" s="4"/>
       <c r="C216" s="11"/>
@@ -6983,7 +8754,7 @@
       <c r="K216" s="2"/>
       <c r="L216" s="13"/>
     </row>
-    <row r="217" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="217" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A217" s="4"/>
       <c r="B217" s="4"/>
       <c r="C217" s="11"/>
@@ -6997,7 +8768,7 @@
       <c r="K217" s="2"/>
       <c r="L217" s="13"/>
     </row>
-    <row r="218" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="218" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A218" s="4"/>
       <c r="B218" s="4"/>
       <c r="C218" s="11"/>
@@ -7011,7 +8782,7 @@
       <c r="K218" s="2"/>
       <c r="L218" s="13"/>
     </row>
-    <row r="219" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="219" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A219" s="4"/>
       <c r="B219" s="4"/>
       <c r="C219" s="11"/>
@@ -7025,7 +8796,7 @@
       <c r="K219" s="2"/>
       <c r="L219" s="13"/>
     </row>
-    <row r="220" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="220" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A220" s="4"/>
       <c r="B220" s="4"/>
       <c r="C220" s="11"/>
@@ -7039,7 +8810,7 @@
       <c r="K220" s="2"/>
       <c r="L220" s="13"/>
     </row>
-    <row r="221" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="221" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A221" s="4"/>
       <c r="B221" s="4"/>
       <c r="C221" s="11"/>
@@ -7053,7 +8824,7 @@
       <c r="K221" s="2"/>
       <c r="L221" s="13"/>
     </row>
-    <row r="222" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="222" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A222" s="4"/>
       <c r="B222" s="4"/>
       <c r="C222" s="11"/>
@@ -7067,7 +8838,7 @@
       <c r="K222" s="2"/>
       <c r="L222" s="13"/>
     </row>
-    <row r="223" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="223" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A223" s="4"/>
       <c r="B223" s="4"/>
       <c r="C223" s="11"/>
@@ -7081,7 +8852,7 @@
       <c r="K223" s="2"/>
       <c r="L223" s="13"/>
     </row>
-    <row r="224" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="224" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A224" s="4"/>
       <c r="B224" s="4"/>
       <c r="C224" s="11"/>
@@ -7095,7 +8866,7 @@
       <c r="K224" s="2"/>
       <c r="L224" s="13"/>
     </row>
-    <row r="225" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="225" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A225" s="4"/>
       <c r="B225" s="4"/>
       <c r="C225" s="11"/>
@@ -7109,7 +8880,7 @@
       <c r="K225" s="2"/>
       <c r="L225" s="13"/>
     </row>
-    <row r="226" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="226" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A226" s="4"/>
       <c r="B226" s="4"/>
       <c r="C226" s="11"/>
@@ -7123,7 +8894,7 @@
       <c r="K226" s="2"/>
       <c r="L226" s="13"/>
     </row>
-    <row r="227" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="227" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A227" s="4"/>
       <c r="B227" s="4"/>
       <c r="C227" s="11"/>
@@ -7137,7 +8908,7 @@
       <c r="K227" s="2"/>
       <c r="L227" s="13"/>
     </row>
-    <row r="228" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="228" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A228" s="4"/>
       <c r="B228" s="4"/>
       <c r="C228" s="11"/>
@@ -7151,7 +8922,7 @@
       <c r="K228" s="2"/>
       <c r="L228" s="13"/>
     </row>
-    <row r="229" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="229" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A229" s="4"/>
       <c r="B229" s="4"/>
       <c r="C229" s="11"/>
@@ -7165,7 +8936,7 @@
       <c r="K229" s="2"/>
       <c r="L229" s="13"/>
     </row>
-    <row r="230" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="230" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A230" s="4"/>
       <c r="B230" s="4"/>
       <c r="C230" s="11"/>
@@ -7179,7 +8950,7 @@
       <c r="K230" s="2"/>
       <c r="L230" s="13"/>
     </row>
-    <row r="231" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="231" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A231" s="4"/>
       <c r="B231" s="4"/>
       <c r="C231" s="11"/>
@@ -7193,7 +8964,7 @@
       <c r="K231" s="2"/>
       <c r="L231" s="13"/>
     </row>
-    <row r="232" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="232" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A232" s="4"/>
       <c r="B232" s="4"/>
       <c r="C232" s="11"/>
@@ -7207,7 +8978,7 @@
       <c r="K232" s="2"/>
       <c r="L232" s="13"/>
     </row>
-    <row r="233" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="233" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A233" s="4"/>
       <c r="B233" s="4"/>
       <c r="C233" s="11"/>
@@ -7221,7 +8992,7 @@
       <c r="K233" s="2"/>
       <c r="L233" s="13"/>
     </row>
-    <row r="234" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="234" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A234" s="4"/>
       <c r="B234" s="4"/>
       <c r="C234" s="11"/>
@@ -7235,7 +9006,7 @@
       <c r="K234" s="2"/>
       <c r="L234" s="13"/>
     </row>
-    <row r="235" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="235" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A235" s="4"/>
       <c r="B235" s="4"/>
       <c r="C235" s="11"/>
@@ -7249,7 +9020,7 @@
       <c r="K235" s="2"/>
       <c r="L235" s="13"/>
     </row>
-    <row r="236" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="236" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A236" s="4"/>
       <c r="B236" s="4"/>
       <c r="C236" s="11"/>
@@ -7263,7 +9034,7 @@
       <c r="K236" s="2"/>
       <c r="L236" s="13"/>
     </row>
-    <row r="237" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="237" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A237" s="4"/>
       <c r="B237" s="4"/>
       <c r="C237" s="11"/>
@@ -7277,7 +9048,7 @@
       <c r="K237" s="2"/>
       <c r="L237" s="13"/>
     </row>
-    <row r="238" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="238" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A238" s="4"/>
       <c r="B238" s="4"/>
       <c r="C238" s="11"/>
@@ -7291,7 +9062,7 @@
       <c r="K238" s="2"/>
       <c r="L238" s="13"/>
     </row>
-    <row r="239" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="239" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A239" s="4"/>
       <c r="B239" s="4"/>
       <c r="C239" s="11"/>
@@ -7305,7 +9076,7 @@
       <c r="K239" s="2"/>
       <c r="L239" s="13"/>
     </row>
-    <row r="240" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="240" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A240" s="4"/>
       <c r="B240" s="4"/>
       <c r="C240" s="11"/>
@@ -7319,7 +9090,7 @@
       <c r="K240" s="2"/>
       <c r="L240" s="13"/>
     </row>
-    <row r="241" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="241" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A241" s="4"/>
       <c r="B241" s="4"/>
       <c r="C241" s="11"/>
@@ -7333,7 +9104,7 @@
       <c r="K241" s="2"/>
       <c r="L241" s="13"/>
     </row>
-    <row r="242" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="242" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A242" s="4"/>
       <c r="B242" s="4"/>
       <c r="C242" s="11"/>
@@ -7347,7 +9118,7 @@
       <c r="K242" s="2"/>
       <c r="L242" s="13"/>
     </row>
-    <row r="243" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="243" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A243" s="4"/>
       <c r="B243" s="4"/>
       <c r="C243" s="11"/>
@@ -7361,7 +9132,7 @@
       <c r="K243" s="2"/>
       <c r="L243" s="13"/>
     </row>
-    <row r="244" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="244" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A244" s="4"/>
       <c r="B244" s="4"/>
       <c r="C244" s="11"/>
@@ -7375,7 +9146,7 @@
       <c r="K244" s="2"/>
       <c r="L244" s="13"/>
     </row>
-    <row r="245" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="245" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A245" s="4"/>
       <c r="B245" s="4"/>
       <c r="C245" s="11"/>
@@ -7389,7 +9160,7 @@
       <c r="K245" s="2"/>
       <c r="L245" s="13"/>
     </row>
-    <row r="246" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="246" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A246" s="4"/>
       <c r="B246" s="4"/>
       <c r="C246" s="11"/>
@@ -7403,7 +9174,7 @@
       <c r="K246" s="2"/>
       <c r="L246" s="13"/>
     </row>
-    <row r="247" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="247" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A247" s="4"/>
       <c r="B247" s="4"/>
       <c r="C247" s="11"/>
@@ -7417,7 +9188,7 @@
       <c r="K247" s="2"/>
       <c r="L247" s="13"/>
     </row>
-    <row r="248" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="248" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A248" s="4"/>
       <c r="B248" s="4"/>
       <c r="C248" s="11"/>
@@ -7431,7 +9202,7 @@
       <c r="K248" s="2"/>
       <c r="L248" s="13"/>
     </row>
-    <row r="249" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="249" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A249" s="4"/>
       <c r="B249" s="4"/>
       <c r="C249" s="11"/>
@@ -7445,7 +9216,7 @@
       <c r="K249" s="2"/>
       <c r="L249" s="13"/>
     </row>
-    <row r="250" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="250" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A250" s="4"/>
       <c r="B250" s="4"/>
       <c r="C250" s="11"/>
@@ -7459,7 +9230,7 @@
       <c r="K250" s="2"/>
       <c r="L250" s="13"/>
     </row>
-    <row r="251" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="251" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A251" s="4"/>
       <c r="B251" s="4"/>
       <c r="C251" s="11"/>
@@ -7473,7 +9244,7 @@
       <c r="K251" s="2"/>
       <c r="L251" s="13"/>
     </row>
-    <row r="252" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="252" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A252" s="4"/>
       <c r="B252" s="4"/>
       <c r="C252" s="11"/>
@@ -7487,7 +9258,7 @@
       <c r="K252" s="2"/>
       <c r="L252" s="13"/>
     </row>
-    <row r="253" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="253" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A253" s="4"/>
       <c r="B253" s="4"/>
       <c r="C253" s="11"/>
@@ -7501,7 +9272,7 @@
       <c r="K253" s="2"/>
       <c r="L253" s="13"/>
     </row>
-    <row r="254" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="254" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A254" s="4"/>
       <c r="B254" s="4"/>
       <c r="C254" s="11"/>
@@ -7515,7 +9286,7 @@
       <c r="K254" s="2"/>
       <c r="L254" s="13"/>
     </row>
-    <row r="255" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="255" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A255" s="4"/>
       <c r="B255" s="4"/>
       <c r="C255" s="11"/>
@@ -7529,7 +9300,7 @@
       <c r="K255" s="2"/>
       <c r="L255" s="13"/>
     </row>
-    <row r="256" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="256" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A256" s="4"/>
       <c r="B256" s="4"/>
       <c r="C256" s="11"/>
@@ -7543,7 +9314,7 @@
       <c r="K256" s="2"/>
       <c r="L256" s="13"/>
     </row>
-    <row r="257" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="257" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A257" s="4"/>
       <c r="B257" s="4"/>
       <c r="C257" s="11"/>
@@ -7557,7 +9328,7 @@
       <c r="K257" s="2"/>
       <c r="L257" s="13"/>
     </row>
-    <row r="258" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="258" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A258" s="4"/>
       <c r="B258" s="4"/>
       <c r="C258" s="11"/>
@@ -7571,7 +9342,7 @@
       <c r="K258" s="2"/>
       <c r="L258" s="13"/>
     </row>
-    <row r="259" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="259" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A259" s="4"/>
       <c r="B259" s="4"/>
       <c r="C259" s="11"/>
@@ -7585,7 +9356,7 @@
       <c r="K259" s="2"/>
       <c r="L259" s="13"/>
     </row>
-    <row r="260" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="260" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A260" s="4"/>
       <c r="B260" s="4"/>
       <c r="C260" s="11"/>
@@ -7599,7 +9370,7 @@
       <c r="K260" s="2"/>
       <c r="L260" s="13"/>
     </row>
-    <row r="261" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="261" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A261" s="4"/>
       <c r="B261" s="4"/>
       <c r="C261" s="11"/>
@@ -7613,7 +9384,7 @@
       <c r="K261" s="2"/>
       <c r="L261" s="13"/>
     </row>
-    <row r="262" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="262" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A262" s="4"/>
       <c r="B262" s="4"/>
       <c r="C262" s="11"/>
@@ -7627,7 +9398,7 @@
       <c r="K262" s="2"/>
       <c r="L262" s="13"/>
     </row>
-    <row r="263" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="263" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A263" s="4"/>
       <c r="B263" s="4"/>
       <c r="C263" s="11"/>
@@ -7641,7 +9412,7 @@
       <c r="K263" s="2"/>
       <c r="L263" s="13"/>
     </row>
-    <row r="264" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="264" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A264" s="4"/>
       <c r="B264" s="4"/>
       <c r="C264" s="11"/>
@@ -7655,7 +9426,7 @@
       <c r="K264" s="2"/>
       <c r="L264" s="13"/>
     </row>
-    <row r="265" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="265" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A265" s="4"/>
       <c r="B265" s="4"/>
       <c r="C265" s="11"/>
@@ -7669,7 +9440,7 @@
       <c r="K265" s="2"/>
       <c r="L265" s="13"/>
     </row>
-    <row r="266" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="266" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A266" s="4"/>
       <c r="B266" s="4"/>
       <c r="C266" s="11"/>
@@ -7683,7 +9454,7 @@
       <c r="K266" s="2"/>
       <c r="L266" s="13"/>
     </row>
-    <row r="267" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="267" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A267" s="4"/>
       <c r="B267" s="4"/>
       <c r="C267" s="11"/>
@@ -7697,7 +9468,7 @@
       <c r="K267" s="2"/>
       <c r="L267" s="13"/>
     </row>
-    <row r="268" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="268" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A268" s="4"/>
       <c r="B268" s="4"/>
       <c r="C268" s="11"/>
@@ -7711,7 +9482,7 @@
       <c r="K268" s="2"/>
       <c r="L268" s="13"/>
     </row>
-    <row r="269" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="269" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A269" s="4"/>
       <c r="B269" s="4"/>
       <c r="C269" s="11"/>
@@ -7725,7 +9496,7 @@
       <c r="K269" s="2"/>
       <c r="L269" s="13"/>
     </row>
-    <row r="270" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="270" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A270" s="4"/>
       <c r="B270" s="4"/>
       <c r="C270" s="11"/>
@@ -7739,7 +9510,7 @@
       <c r="K270" s="2"/>
       <c r="L270" s="13"/>
     </row>
-    <row r="271" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="271" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A271" s="4"/>
       <c r="B271" s="4"/>
       <c r="C271" s="11"/>
@@ -7753,7 +9524,7 @@
       <c r="K271" s="2"/>
       <c r="L271" s="13"/>
     </row>
-    <row r="272" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="272" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A272" s="4"/>
       <c r="B272" s="4"/>
       <c r="C272" s="11"/>
@@ -7767,7 +9538,7 @@
       <c r="K272" s="2"/>
       <c r="L272" s="13"/>
     </row>
-    <row r="273" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="273" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A273" s="4"/>
       <c r="B273" s="4"/>
       <c r="C273" s="11"/>
@@ -7781,7 +9552,7 @@
       <c r="K273" s="2"/>
       <c r="L273" s="13"/>
     </row>
-    <row r="274" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="274" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A274" s="4"/>
       <c r="B274" s="4"/>
       <c r="C274" s="11"/>
@@ -7795,7 +9566,7 @@
       <c r="K274" s="2"/>
       <c r="L274" s="13"/>
     </row>
-    <row r="275" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="275" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A275" s="4"/>
       <c r="B275" s="4"/>
       <c r="C275" s="11"/>
@@ -7809,7 +9580,7 @@
       <c r="K275" s="2"/>
       <c r="L275" s="13"/>
     </row>
-    <row r="276" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="276" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A276" s="4"/>
       <c r="B276" s="4"/>
       <c r="C276" s="11"/>
@@ -7823,7 +9594,7 @@
       <c r="K276" s="2"/>
       <c r="L276" s="13"/>
     </row>
-    <row r="277" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="277" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A277" s="4"/>
       <c r="B277" s="4"/>
       <c r="C277" s="11"/>
@@ -7837,7 +9608,7 @@
       <c r="K277" s="2"/>
       <c r="L277" s="13"/>
     </row>
-    <row r="278" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="278" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A278" s="4"/>
       <c r="B278" s="4"/>
       <c r="C278" s="11"/>
@@ -7851,7 +9622,7 @@
       <c r="K278" s="2"/>
       <c r="L278" s="13"/>
     </row>
-    <row r="279" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="279" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A279" s="4"/>
       <c r="B279" s="4"/>
       <c r="C279" s="11"/>
@@ -7865,7 +9636,7 @@
       <c r="K279" s="2"/>
       <c r="L279" s="13"/>
     </row>
-    <row r="280" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="280" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A280" s="4"/>
       <c r="B280" s="4"/>
       <c r="C280" s="11"/>
@@ -7879,7 +9650,7 @@
       <c r="K280" s="2"/>
       <c r="L280" s="13"/>
     </row>
-    <row r="281" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="281" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A281" s="4"/>
       <c r="B281" s="4"/>
       <c r="C281" s="11"/>
@@ -7893,7 +9664,7 @@
       <c r="K281" s="2"/>
       <c r="L281" s="13"/>
     </row>
-    <row r="282" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="282" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A282" s="4"/>
       <c r="B282" s="4"/>
       <c r="C282" s="11"/>
@@ -7907,7 +9678,7 @@
       <c r="K282" s="2"/>
       <c r="L282" s="13"/>
     </row>
-    <row r="283" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="283" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A283" s="4"/>
       <c r="B283" s="4"/>
       <c r="C283" s="11"/>
@@ -7921,7 +9692,7 @@
       <c r="K283" s="2"/>
       <c r="L283" s="13"/>
     </row>
-    <row r="284" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="284" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A284" s="4"/>
       <c r="B284" s="4"/>
       <c r="C284" s="11"/>
@@ -7935,7 +9706,7 @@
       <c r="K284" s="2"/>
       <c r="L284" s="13"/>
     </row>
-    <row r="285" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="285" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A285" s="4"/>
       <c r="B285" s="4"/>
       <c r="C285" s="11"/>
@@ -7949,7 +9720,7 @@
       <c r="K285" s="2"/>
       <c r="L285" s="13"/>
     </row>
-    <row r="286" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="286" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A286" s="4"/>
       <c r="B286" s="4"/>
       <c r="C286" s="11"/>
@@ -7963,7 +9734,7 @@
       <c r="K286" s="2"/>
       <c r="L286" s="13"/>
     </row>
-    <row r="287" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="287" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A287" s="4"/>
       <c r="B287" s="4"/>
       <c r="C287" s="11"/>
@@ -7977,7 +9748,7 @@
       <c r="K287" s="2"/>
       <c r="L287" s="13"/>
     </row>
-    <row r="288" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="288" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A288" s="4"/>
       <c r="B288" s="4"/>
       <c r="C288" s="11"/>
@@ -7991,7 +9762,7 @@
       <c r="K288" s="2"/>
       <c r="L288" s="13"/>
     </row>
-    <row r="289" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="289" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A289" s="4"/>
       <c r="B289" s="4"/>
       <c r="C289" s="11"/>
@@ -8005,7 +9776,7 @@
       <c r="K289" s="2"/>
       <c r="L289" s="13"/>
     </row>
-    <row r="290" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="290" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A290" s="4"/>
       <c r="B290" s="4"/>
       <c r="C290" s="11"/>
@@ -8019,7 +9790,7 @@
       <c r="K290" s="2"/>
       <c r="L290" s="13"/>
     </row>
-    <row r="291" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="291" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A291" s="4"/>
       <c r="B291" s="4"/>
       <c r="C291" s="11"/>
@@ -8033,7 +9804,7 @@
       <c r="K291" s="2"/>
       <c r="L291" s="13"/>
     </row>
-    <row r="292" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="292" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A292" s="4"/>
       <c r="B292" s="4"/>
       <c r="C292" s="11"/>
@@ -8047,7 +9818,7 @@
       <c r="K292" s="2"/>
       <c r="L292" s="13"/>
     </row>
-    <row r="293" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="293" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A293" s="4"/>
       <c r="B293" s="4"/>
       <c r="C293" s="11"/>
@@ -8061,7 +9832,7 @@
       <c r="K293" s="2"/>
       <c r="L293" s="13"/>
     </row>
-    <row r="294" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="294" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A294" s="4"/>
       <c r="B294" s="4"/>
       <c r="C294" s="11"/>
@@ -8075,7 +9846,7 @@
       <c r="K294" s="2"/>
       <c r="L294" s="13"/>
     </row>
-    <row r="295" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="295" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A295" s="4"/>
       <c r="B295" s="4"/>
       <c r="C295" s="11"/>
@@ -8089,7 +9860,7 @@
       <c r="K295" s="2"/>
       <c r="L295" s="13"/>
     </row>
-    <row r="296" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="296" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A296" s="4"/>
       <c r="B296" s="4"/>
       <c r="C296" s="11"/>
@@ -8103,7 +9874,7 @@
       <c r="K296" s="2"/>
       <c r="L296" s="13"/>
     </row>
-    <row r="297" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="297" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A297" s="4"/>
       <c r="B297" s="4"/>
       <c r="C297" s="11"/>
@@ -8117,7 +9888,7 @@
       <c r="K297" s="2"/>
       <c r="L297" s="13"/>
     </row>
-    <row r="298" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="298" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A298" s="4"/>
       <c r="B298" s="4"/>
       <c r="C298" s="11"/>
@@ -8131,7 +9902,7 @@
       <c r="K298" s="2"/>
       <c r="L298" s="13"/>
     </row>
-    <row r="299" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="299" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A299" s="4"/>
       <c r="B299" s="4"/>
       <c r="C299" s="11"/>
@@ -8145,7 +9916,7 @@
       <c r="K299" s="2"/>
       <c r="L299" s="13"/>
     </row>
-    <row r="300" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="300" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A300" s="4"/>
       <c r="B300" s="4"/>
       <c r="C300" s="11"/>
@@ -8159,7 +9930,7 @@
       <c r="K300" s="2"/>
       <c r="L300" s="13"/>
     </row>
-    <row r="301" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="301" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A301" s="4"/>
       <c r="B301" s="4"/>
       <c r="C301" s="11"/>
@@ -8173,7 +9944,7 @@
       <c r="K301" s="2"/>
       <c r="L301" s="13"/>
     </row>
-    <row r="302" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="302" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A302" s="4"/>
       <c r="B302" s="4"/>
       <c r="C302" s="11"/>
@@ -8187,7 +9958,7 @@
       <c r="K302" s="2"/>
       <c r="L302" s="13"/>
     </row>
-    <row r="303" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="303" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A303" s="4"/>
       <c r="B303" s="4"/>
       <c r="C303" s="11"/>
@@ -8201,7 +9972,7 @@
       <c r="K303" s="2"/>
       <c r="L303" s="13"/>
     </row>
-    <row r="304" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="304" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A304" s="4"/>
       <c r="B304" s="4"/>
       <c r="C304" s="11"/>
@@ -8215,7 +9986,7 @@
       <c r="K304" s="2"/>
       <c r="L304" s="13"/>
     </row>
-    <row r="305" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="305" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A305" s="4"/>
       <c r="B305" s="4"/>
       <c r="C305" s="11"/>
@@ -8229,7 +10000,7 @@
       <c r="K305" s="2"/>
       <c r="L305" s="13"/>
     </row>
-    <row r="306" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="306" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A306" s="4"/>
       <c r="B306" s="4"/>
       <c r="C306" s="11"/>
@@ -8243,7 +10014,7 @@
       <c r="K306" s="2"/>
       <c r="L306" s="13"/>
     </row>
-    <row r="307" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="307" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A307" s="4"/>
       <c r="B307" s="4"/>
       <c r="C307" s="11"/>
@@ -8257,7 +10028,7 @@
       <c r="K307" s="2"/>
       <c r="L307" s="13"/>
     </row>
-    <row r="308" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="308" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A308" s="4"/>
       <c r="B308" s="4"/>
       <c r="C308" s="11"/>
@@ -8271,7 +10042,7 @@
       <c r="K308" s="2"/>
       <c r="L308" s="13"/>
     </row>
-    <row r="309" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="309" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A309" s="4"/>
       <c r="B309" s="4"/>
       <c r="C309" s="11"/>
@@ -8285,7 +10056,7 @@
       <c r="K309" s="2"/>
       <c r="L309" s="13"/>
     </row>
-    <row r="310" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="310" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A310" s="4"/>
       <c r="B310" s="4"/>
       <c r="C310" s="11"/>
@@ -8299,7 +10070,7 @@
       <c r="K310" s="2"/>
       <c r="L310" s="13"/>
     </row>
-    <row r="311" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="311" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A311" s="4"/>
       <c r="B311" s="4"/>
       <c r="C311" s="11"/>
@@ -8313,7 +10084,7 @@
       <c r="K311" s="2"/>
       <c r="L311" s="13"/>
     </row>
-    <row r="312" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="312" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A312" s="4"/>
       <c r="B312" s="4"/>
       <c r="C312" s="11"/>
@@ -8327,7 +10098,7 @@
       <c r="K312" s="2"/>
       <c r="L312" s="13"/>
     </row>
-    <row r="313" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="313" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A313" s="4"/>
       <c r="B313" s="4"/>
       <c r="C313" s="11"/>
@@ -8341,7 +10112,7 @@
       <c r="K313" s="2"/>
       <c r="L313" s="13"/>
     </row>
-    <row r="314" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="314" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A314" s="4"/>
       <c r="B314" s="4"/>
       <c r="C314" s="11"/>
@@ -8355,7 +10126,7 @@
       <c r="K314" s="2"/>
       <c r="L314" s="13"/>
     </row>
-    <row r="315" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="315" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A315" s="4"/>
       <c r="B315" s="4"/>
       <c r="C315" s="11"/>
@@ -8369,7 +10140,7 @@
       <c r="K315" s="2"/>
       <c r="L315" s="13"/>
     </row>
-    <row r="316" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="316" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A316" s="4"/>
       <c r="B316" s="4"/>
       <c r="C316" s="11"/>
@@ -8383,7 +10154,7 @@
       <c r="K316" s="2"/>
       <c r="L316" s="13"/>
     </row>
-    <row r="317" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="317" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A317" s="4"/>
       <c r="B317" s="4"/>
       <c r="C317" s="11"/>
@@ -8397,7 +10168,7 @@
       <c r="K317" s="2"/>
       <c r="L317" s="13"/>
     </row>
-    <row r="318" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="318" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A318" s="4"/>
       <c r="B318" s="4"/>
       <c r="C318" s="11"/>
@@ -8411,7 +10182,7 @@
       <c r="K318" s="2"/>
       <c r="L318" s="13"/>
     </row>
-    <row r="319" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="319" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A319" s="4"/>
       <c r="B319" s="4"/>
       <c r="C319" s="11"/>
@@ -8425,7 +10196,7 @@
       <c r="K319" s="2"/>
       <c r="L319" s="13"/>
     </row>
-    <row r="320" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="320" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A320" s="4"/>
       <c r="B320" s="4"/>
       <c r="C320" s="11"/>
@@ -8439,7 +10210,7 @@
       <c r="K320" s="2"/>
       <c r="L320" s="13"/>
     </row>
-    <row r="321" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="321" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A321" s="4"/>
       <c r="B321" s="4"/>
       <c r="C321" s="11"/>
@@ -8453,7 +10224,7 @@
       <c r="K321" s="2"/>
       <c r="L321" s="13"/>
     </row>
-    <row r="322" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="322" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A322" s="4"/>
       <c r="B322" s="4"/>
       <c r="C322" s="11"/>
@@ -8467,7 +10238,7 @@
       <c r="K322" s="2"/>
       <c r="L322" s="13"/>
     </row>
-    <row r="323" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="323" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A323" s="4"/>
       <c r="B323" s="4"/>
       <c r="C323" s="11"/>
@@ -8481,7 +10252,7 @@
       <c r="K323" s="2"/>
       <c r="L323" s="13"/>
     </row>
-    <row r="324" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="324" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A324" s="4"/>
       <c r="B324" s="4"/>
       <c r="C324" s="11"/>
@@ -8495,7 +10266,7 @@
       <c r="K324" s="2"/>
       <c r="L324" s="13"/>
     </row>
-    <row r="325" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="325" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A325" s="4"/>
       <c r="B325" s="4"/>
       <c r="C325" s="11"/>
@@ -8509,7 +10280,7 @@
       <c r="K325" s="2"/>
       <c r="L325" s="13"/>
     </row>
-    <row r="326" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="326" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A326" s="4"/>
       <c r="B326" s="4"/>
       <c r="C326" s="11"/>
@@ -8523,7 +10294,7 @@
       <c r="K326" s="2"/>
       <c r="L326" s="13"/>
     </row>
-    <row r="327" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="327" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A327" s="4"/>
       <c r="B327" s="4"/>
       <c r="C327" s="11"/>
@@ -8537,7 +10308,7 @@
       <c r="K327" s="2"/>
       <c r="L327" s="13"/>
     </row>
-    <row r="328" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="328" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A328" s="4"/>
       <c r="B328" s="4"/>
       <c r="C328" s="11"/>
@@ -8551,7 +10322,7 @@
       <c r="K328" s="2"/>
       <c r="L328" s="13"/>
     </row>
-    <row r="329" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="329" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A329" s="4"/>
       <c r="B329" s="4"/>
       <c r="C329" s="11"/>
@@ -8565,7 +10336,7 @@
       <c r="K329" s="2"/>
       <c r="L329" s="13"/>
     </row>
-    <row r="330" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="330" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A330" s="4"/>
       <c r="B330" s="4"/>
       <c r="C330" s="11"/>
@@ -8579,7 +10350,7 @@
       <c r="K330" s="2"/>
       <c r="L330" s="13"/>
     </row>
-    <row r="331" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="331" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A331" s="4"/>
       <c r="B331" s="4"/>
       <c r="C331" s="11"/>
@@ -8593,7 +10364,7 @@
       <c r="K331" s="2"/>
       <c r="L331" s="13"/>
     </row>
-    <row r="332" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="332" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A332" s="4"/>
       <c r="B332" s="4"/>
       <c r="C332" s="11"/>
@@ -8607,7 +10378,7 @@
       <c r="K332" s="2"/>
       <c r="L332" s="13"/>
     </row>
-    <row r="333" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="333" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A333" s="4"/>
       <c r="B333" s="4"/>
       <c r="C333" s="11"/>
@@ -8621,7 +10392,7 @@
       <c r="K333" s="2"/>
       <c r="L333" s="13"/>
     </row>
-    <row r="334" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="334" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A334" s="4"/>
       <c r="B334" s="4"/>
       <c r="C334" s="11"/>
@@ -8635,7 +10406,7 @@
       <c r="K334" s="2"/>
       <c r="L334" s="13"/>
     </row>
-    <row r="335" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="335" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A335" s="4"/>
       <c r="B335" s="4"/>
       <c r="C335" s="11"/>
@@ -8649,7 +10420,7 @@
       <c r="K335" s="2"/>
       <c r="L335" s="13"/>
     </row>
-    <row r="336" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="336" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A336" s="4"/>
       <c r="B336" s="4"/>
       <c r="C336" s="11"/>
@@ -8663,7 +10434,7 @@
       <c r="K336" s="2"/>
       <c r="L336" s="13"/>
     </row>
-    <row r="337" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="337" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A337" s="4"/>
       <c r="B337" s="4"/>
       <c r="C337" s="11"/>
@@ -8677,7 +10448,7 @@
       <c r="K337" s="2"/>
       <c r="L337" s="13"/>
     </row>
-    <row r="338" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="338" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A338" s="4"/>
       <c r="B338" s="4"/>
       <c r="C338" s="11"/>
@@ -8691,7 +10462,7 @@
       <c r="K338" s="2"/>
       <c r="L338" s="13"/>
     </row>
-    <row r="339" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="339" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A339" s="4"/>
       <c r="B339" s="4"/>
       <c r="C339" s="11"/>
@@ -8705,7 +10476,7 @@
       <c r="K339" s="2"/>
       <c r="L339" s="13"/>
     </row>
-    <row r="340" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="340" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A340" s="4"/>
       <c r="B340" s="4"/>
       <c r="C340" s="11"/>
@@ -8719,7 +10490,7 @@
       <c r="K340" s="2"/>
       <c r="L340" s="13"/>
     </row>
-    <row r="341" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="341" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A341" s="4"/>
       <c r="B341" s="4"/>
       <c r="C341" s="11"/>
@@ -8733,7 +10504,7 @@
       <c r="K341" s="2"/>
       <c r="L341" s="13"/>
     </row>
-    <row r="342" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="342" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A342" s="4"/>
       <c r="B342" s="4"/>
       <c r="C342" s="11"/>
@@ -8747,7 +10518,7 @@
       <c r="K342" s="2"/>
       <c r="L342" s="13"/>
     </row>
-    <row r="343" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="343" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A343" s="4"/>
       <c r="B343" s="4"/>
       <c r="C343" s="11"/>
@@ -8761,7 +10532,7 @@
       <c r="K343" s="2"/>
       <c r="L343" s="13"/>
     </row>
-    <row r="344" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="344" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A344" s="4"/>
       <c r="B344" s="4"/>
       <c r="C344" s="11"/>
@@ -8775,7 +10546,7 @@
       <c r="K344" s="2"/>
       <c r="L344" s="13"/>
     </row>
-    <row r="345" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="345" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A345" s="4"/>
       <c r="B345" s="4"/>
       <c r="C345" s="11"/>
@@ -8789,7 +10560,7 @@
       <c r="K345" s="2"/>
       <c r="L345" s="13"/>
     </row>
-    <row r="346" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="346" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A346" s="4"/>
       <c r="B346" s="4"/>
       <c r="C346" s="11"/>
@@ -8803,7 +10574,7 @@
       <c r="K346" s="2"/>
       <c r="L346" s="13"/>
     </row>
-    <row r="347" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="347" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A347" s="4"/>
       <c r="B347" s="4"/>
       <c r="C347" s="11"/>
@@ -8817,7 +10588,7 @@
       <c r="K347" s="2"/>
       <c r="L347" s="13"/>
     </row>
-    <row r="348" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="348" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A348" s="4"/>
       <c r="B348" s="4"/>
       <c r="C348" s="11"/>
@@ -8831,7 +10602,7 @@
       <c r="K348" s="2"/>
       <c r="L348" s="13"/>
     </row>
-    <row r="349" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="349" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A349" s="4"/>
       <c r="B349" s="4"/>
       <c r="C349" s="11"/>
@@ -8845,7 +10616,7 @@
       <c r="K349" s="2"/>
       <c r="L349" s="13"/>
     </row>
-    <row r="350" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="350" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A350" s="4"/>
       <c r="B350" s="4"/>
       <c r="C350" s="11"/>
@@ -8859,7 +10630,7 @@
       <c r="K350" s="2"/>
       <c r="L350" s="13"/>
     </row>
-    <row r="351" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="351" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A351" s="4"/>
       <c r="B351" s="4"/>
       <c r="C351" s="11"/>
@@ -8873,7 +10644,7 @@
       <c r="K351" s="2"/>
       <c r="L351" s="13"/>
     </row>
-    <row r="352" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="352" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A352" s="4"/>
       <c r="B352" s="4"/>
       <c r="C352" s="11"/>
@@ -8887,7 +10658,7 @@
       <c r="K352" s="2"/>
       <c r="L352" s="13"/>
     </row>
-    <row r="353" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="353" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A353" s="4"/>
       <c r="B353" s="4"/>
       <c r="C353" s="11"/>
@@ -8901,7 +10672,7 @@
       <c r="K353" s="2"/>
       <c r="L353" s="13"/>
     </row>
-    <row r="354" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="354" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A354" s="4"/>
       <c r="B354" s="4"/>
       <c r="C354" s="11"/>
@@ -8915,7 +10686,7 @@
       <c r="K354" s="2"/>
       <c r="L354" s="13"/>
     </row>
-    <row r="355" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="355" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A355" s="4"/>
       <c r="B355" s="4"/>
       <c r="C355" s="11"/>
@@ -8929,7 +10700,7 @@
       <c r="K355" s="2"/>
       <c r="L355" s="13"/>
     </row>
-    <row r="356" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="356" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A356" s="4"/>
       <c r="B356" s="4"/>
       <c r="C356" s="11"/>
@@ -8943,7 +10714,7 @@
       <c r="K356" s="2"/>
       <c r="L356" s="13"/>
     </row>
-    <row r="357" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="357" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A357" s="4"/>
       <c r="B357" s="4"/>
       <c r="C357" s="11"/>
@@ -8957,7 +10728,7 @@
       <c r="K357" s="2"/>
       <c r="L357" s="13"/>
     </row>
-    <row r="358" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="358" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A358" s="4"/>
       <c r="B358" s="4"/>
       <c r="C358" s="11"/>
@@ -8971,7 +10742,7 @@
       <c r="K358" s="2"/>
       <c r="L358" s="13"/>
     </row>
-    <row r="359" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="359" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A359" s="4"/>
       <c r="B359" s="4"/>
       <c r="C359" s="11"/>
@@ -8985,7 +10756,7 @@
       <c r="K359" s="2"/>
       <c r="L359" s="13"/>
     </row>
-    <row r="360" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="360" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A360" s="4"/>
       <c r="B360" s="4"/>
       <c r="C360" s="11"/>
@@ -8999,7 +10770,7 @@
       <c r="K360" s="2"/>
       <c r="L360" s="13"/>
     </row>
-    <row r="361" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="361" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A361" s="4"/>
       <c r="B361" s="4"/>
       <c r="C361" s="11"/>
@@ -9013,7 +10784,7 @@
       <c r="K361" s="2"/>
       <c r="L361" s="13"/>
     </row>
-    <row r="362" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="362" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A362" s="4"/>
       <c r="B362" s="4"/>
       <c r="C362" s="11"/>
@@ -9027,7 +10798,7 @@
       <c r="K362" s="2"/>
       <c r="L362" s="13"/>
     </row>
-    <row r="363" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="363" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A363" s="4"/>
       <c r="B363" s="4"/>
       <c r="C363" s="11"/>
@@ -9041,7 +10812,7 @@
       <c r="K363" s="2"/>
       <c r="L363" s="13"/>
     </row>
-    <row r="364" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="364" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A364" s="4"/>
       <c r="B364" s="4"/>
       <c r="C364" s="11"/>
@@ -9055,7 +10826,7 @@
       <c r="K364" s="2"/>
       <c r="L364" s="13"/>
     </row>
-    <row r="365" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="365" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A365" s="4"/>
       <c r="B365" s="4"/>
       <c r="C365" s="11"/>
@@ -9069,7 +10840,7 @@
       <c r="K365" s="2"/>
       <c r="L365" s="13"/>
     </row>
-    <row r="366" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="366" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A366" s="4"/>
       <c r="B366" s="4"/>
       <c r="C366" s="11"/>
@@ -9083,7 +10854,7 @@
       <c r="K366" s="2"/>
       <c r="L366" s="13"/>
     </row>
-    <row r="367" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="367" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A367" s="4"/>
       <c r="B367" s="4"/>
       <c r="C367" s="11"/>
@@ -9097,7 +10868,7 @@
       <c r="K367" s="2"/>
       <c r="L367" s="13"/>
     </row>
-    <row r="368" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="368" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A368" s="4"/>
       <c r="B368" s="4"/>
       <c r="C368" s="11"/>
@@ -9111,7 +10882,7 @@
       <c r="K368" s="2"/>
       <c r="L368" s="13"/>
     </row>
-    <row r="369" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="369" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A369" s="4"/>
       <c r="B369" s="4"/>
       <c r="C369" s="11"/>
@@ -9125,7 +10896,7 @@
       <c r="K369" s="2"/>
       <c r="L369" s="13"/>
     </row>
-    <row r="370" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="370" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A370" s="4"/>
       <c r="B370" s="4"/>
       <c r="C370" s="11"/>
@@ -9139,7 +10910,7 @@
       <c r="K370" s="2"/>
       <c r="L370" s="13"/>
     </row>
-    <row r="371" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="371" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A371" s="4"/>
       <c r="B371" s="4"/>
       <c r="C371" s="11"/>
@@ -9153,7 +10924,7 @@
       <c r="K371" s="2"/>
       <c r="L371" s="13"/>
     </row>
-    <row r="372" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="372" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A372" s="4"/>
       <c r="B372" s="4"/>
       <c r="C372" s="11"/>
@@ -9167,7 +10938,7 @@
       <c r="K372" s="2"/>
       <c r="L372" s="13"/>
     </row>
-    <row r="373" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="373" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A373" s="4"/>
       <c r="B373" s="4"/>
       <c r="C373" s="11"/>
@@ -9181,7 +10952,7 @@
       <c r="K373" s="2"/>
       <c r="L373" s="13"/>
     </row>
-    <row r="374" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="374" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A374" s="4"/>
       <c r="B374" s="4"/>
       <c r="C374" s="11"/>
@@ -9195,7 +10966,7 @@
       <c r="K374" s="2"/>
       <c r="L374" s="13"/>
     </row>
-    <row r="375" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="375" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A375" s="4"/>
       <c r="B375" s="4"/>
       <c r="C375" s="11"/>
@@ -9209,7 +10980,7 @@
       <c r="K375" s="2"/>
       <c r="L375" s="13"/>
     </row>
-    <row r="376" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="376" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A376" s="4"/>
       <c r="B376" s="4"/>
       <c r="C376" s="11"/>
@@ -9223,7 +10994,7 @@
       <c r="K376" s="2"/>
       <c r="L376" s="13"/>
     </row>
-    <row r="377" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="377" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A377" s="4"/>
       <c r="B377" s="4"/>
       <c r="C377" s="11"/>
@@ -9237,7 +11008,7 @@
       <c r="K377" s="2"/>
       <c r="L377" s="13"/>
     </row>
-    <row r="378" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="378" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A378" s="4"/>
       <c r="B378" s="4"/>
       <c r="C378" s="11"/>
@@ -9251,7 +11022,7 @@
       <c r="K378" s="2"/>
       <c r="L378" s="13"/>
     </row>
-    <row r="379" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="379" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A379" s="4"/>
       <c r="B379" s="4"/>
       <c r="C379" s="11"/>
@@ -9265,7 +11036,7 @@
       <c r="K379" s="2"/>
       <c r="L379" s="13"/>
     </row>
-    <row r="380" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="380" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A380" s="4"/>
       <c r="B380" s="4"/>
       <c r="C380" s="11"/>
@@ -9279,7 +11050,7 @@
       <c r="K380" s="2"/>
       <c r="L380" s="13"/>
     </row>
-    <row r="381" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="381" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A381" s="4"/>
       <c r="B381" s="4"/>
       <c r="C381" s="11"/>
@@ -9293,7 +11064,7 @@
       <c r="K381" s="2"/>
       <c r="L381" s="13"/>
     </row>
-    <row r="382" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="382" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A382" s="4"/>
       <c r="B382" s="4"/>
       <c r="C382" s="11"/>
@@ -9307,7 +11078,7 @@
       <c r="K382" s="2"/>
       <c r="L382" s="13"/>
     </row>
-    <row r="383" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="383" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A383" s="4"/>
       <c r="B383" s="4"/>
       <c r="C383" s="11"/>
@@ -9321,7 +11092,7 @@
       <c r="K383" s="2"/>
       <c r="L383" s="13"/>
     </row>
-    <row r="384" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="384" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A384" s="4"/>
       <c r="B384" s="4"/>
       <c r="C384" s="11"/>
@@ -9335,7 +11106,7 @@
       <c r="K384" s="2"/>
       <c r="L384" s="13"/>
     </row>
-    <row r="385" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="385" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A385" s="4"/>
       <c r="B385" s="4"/>
       <c r="C385" s="11"/>
@@ -9349,7 +11120,7 @@
       <c r="K385" s="2"/>
       <c r="L385" s="13"/>
     </row>
-    <row r="386" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="386" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A386" s="4"/>
       <c r="B386" s="4"/>
       <c r="C386" s="11"/>
@@ -9363,7 +11134,7 @@
       <c r="K386" s="2"/>
       <c r="L386" s="13"/>
     </row>
-    <row r="387" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="387" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A387" s="4"/>
       <c r="B387" s="4"/>
       <c r="C387" s="11"/>
@@ -9377,7 +11148,7 @@
       <c r="K387" s="2"/>
       <c r="L387" s="13"/>
     </row>
-    <row r="388" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="388" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A388" s="4"/>
       <c r="B388" s="4"/>
       <c r="C388" s="11"/>
@@ -9391,7 +11162,7 @@
       <c r="K388" s="2"/>
       <c r="L388" s="13"/>
     </row>
-    <row r="389" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="389" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A389" s="4"/>
       <c r="B389" s="4"/>
       <c r="C389" s="11"/>
@@ -9405,7 +11176,7 @@
       <c r="K389" s="2"/>
       <c r="L389" s="13"/>
     </row>
-    <row r="390" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="390" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A390" s="4"/>
       <c r="B390" s="4"/>
       <c r="C390" s="11"/>
@@ -9419,7 +11190,7 @@
       <c r="K390" s="2"/>
       <c r="L390" s="13"/>
     </row>
-    <row r="391" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="391" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A391" s="4"/>
       <c r="B391" s="4"/>
       <c r="C391" s="11"/>
@@ -9433,7 +11204,7 @@
       <c r="K391" s="2"/>
       <c r="L391" s="13"/>
     </row>
-    <row r="392" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="392" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A392" s="4"/>
       <c r="B392" s="4"/>
       <c r="C392" s="11"/>
@@ -9447,7 +11218,7 @@
       <c r="K392" s="2"/>
       <c r="L392" s="13"/>
     </row>
-    <row r="393" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="393" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A393" s="4"/>
       <c r="B393" s="4"/>
       <c r="C393" s="11"/>
@@ -9461,7 +11232,7 @@
       <c r="K393" s="2"/>
       <c r="L393" s="13"/>
     </row>
-    <row r="394" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="394" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A394" s="4"/>
       <c r="B394" s="4"/>
       <c r="C394" s="11"/>
@@ -9475,7 +11246,7 @@
       <c r="K394" s="2"/>
       <c r="L394" s="13"/>
     </row>
-    <row r="395" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="395" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A395" s="4"/>
       <c r="B395" s="4"/>
       <c r="C395" s="11"/>
@@ -9489,7 +11260,7 @@
       <c r="K395" s="2"/>
       <c r="L395" s="13"/>
     </row>
-    <row r="396" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="396" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A396" s="4"/>
       <c r="B396" s="4"/>
       <c r="C396" s="11"/>
@@ -9503,7 +11274,7 @@
       <c r="K396" s="2"/>
       <c r="L396" s="13"/>
     </row>
-    <row r="397" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="397" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A397" s="4"/>
       <c r="B397" s="4"/>
       <c r="C397" s="11"/>
@@ -9517,7 +11288,7 @@
       <c r="K397" s="2"/>
       <c r="L397" s="13"/>
     </row>
-    <row r="398" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="398" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A398" s="4"/>
       <c r="B398" s="4"/>
       <c r="C398" s="11"/>
@@ -9531,7 +11302,7 @@
       <c r="K398" s="2"/>
       <c r="L398" s="13"/>
     </row>
-    <row r="399" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="399" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A399" s="4"/>
       <c r="B399" s="4"/>
       <c r="C399" s="11"/>
@@ -9545,7 +11316,7 @@
       <c r="K399" s="2"/>
       <c r="L399" s="13"/>
     </row>
-    <row r="400" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="400" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A400" s="4"/>
       <c r="B400" s="4"/>
       <c r="C400" s="11"/>
@@ -9559,7 +11330,7 @@
       <c r="K400" s="2"/>
       <c r="L400" s="13"/>
     </row>
-    <row r="401" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="401" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A401" s="4"/>
       <c r="B401" s="4"/>
       <c r="C401" s="11"/>
@@ -9573,7 +11344,7 @@
       <c r="K401" s="2"/>
       <c r="L401" s="13"/>
     </row>
-    <row r="402" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="402" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A402" s="4"/>
       <c r="B402" s="4"/>
       <c r="C402" s="11"/>
@@ -9587,7 +11358,7 @@
       <c r="K402" s="2"/>
       <c r="L402" s="13"/>
     </row>
-    <row r="403" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="403" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A403" s="4"/>
       <c r="B403" s="4"/>
       <c r="C403" s="11"/>
@@ -9601,7 +11372,7 @@
       <c r="K403" s="2"/>
       <c r="L403" s="13"/>
     </row>
-    <row r="404" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="404" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A404" s="4"/>
       <c r="B404" s="4"/>
       <c r="C404" s="11"/>
@@ -9615,7 +11386,7 @@
       <c r="K404" s="2"/>
       <c r="L404" s="13"/>
     </row>
-    <row r="405" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="405" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A405" s="4"/>
       <c r="B405" s="4"/>
       <c r="C405" s="11"/>
@@ -9629,7 +11400,7 @@
       <c r="K405" s="2"/>
       <c r="L405" s="13"/>
     </row>
-    <row r="406" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="406" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A406" s="4"/>
       <c r="B406" s="4"/>
       <c r="C406" s="11"/>
@@ -9643,7 +11414,7 @@
       <c r="K406" s="2"/>
       <c r="L406" s="13"/>
     </row>
-    <row r="407" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="407" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A407" s="4"/>
       <c r="B407" s="4"/>
       <c r="C407" s="11"/>
@@ -9657,7 +11428,7 @@
       <c r="K407" s="2"/>
       <c r="L407" s="13"/>
     </row>
-    <row r="408" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="408" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A408" s="4"/>
       <c r="B408" s="4"/>
       <c r="C408" s="11"/>
@@ -9671,7 +11442,7 @@
       <c r="K408" s="2"/>
       <c r="L408" s="13"/>
     </row>
-    <row r="409" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="409" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A409" s="4"/>
       <c r="B409" s="4"/>
       <c r="C409" s="11"/>
@@ -9685,7 +11456,7 @@
       <c r="K409" s="2"/>
       <c r="L409" s="13"/>
     </row>
-    <row r="410" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="410" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A410" s="4"/>
       <c r="B410" s="4"/>
       <c r="C410" s="11"/>
@@ -9699,7 +11470,7 @@
       <c r="K410" s="2"/>
       <c r="L410" s="13"/>
     </row>
-    <row r="411" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="411" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A411" s="4"/>
       <c r="B411" s="4"/>
       <c r="C411" s="11"/>
@@ -9713,7 +11484,7 @@
       <c r="K411" s="2"/>
       <c r="L411" s="13"/>
     </row>
-    <row r="412" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="412" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A412" s="4"/>
       <c r="B412" s="4"/>
       <c r="C412" s="11"/>
@@ -9727,7 +11498,7 @@
       <c r="K412" s="2"/>
       <c r="L412" s="13"/>
     </row>
-    <row r="413" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="413" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A413" s="4"/>
       <c r="B413" s="4"/>
       <c r="C413" s="11"/>
@@ -9741,7 +11512,7 @@
       <c r="K413" s="2"/>
       <c r="L413" s="13"/>
     </row>
-    <row r="414" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="414" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A414" s="4"/>
       <c r="B414" s="4"/>
       <c r="C414" s="11"/>
@@ -9755,7 +11526,7 @@
       <c r="K414" s="2"/>
       <c r="L414" s="13"/>
     </row>
-    <row r="415" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="415" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A415" s="4"/>
       <c r="B415" s="4"/>
       <c r="C415" s="11"/>
@@ -9769,7 +11540,7 @@
       <c r="K415" s="2"/>
       <c r="L415" s="13"/>
     </row>
-    <row r="416" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="416" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A416" s="4"/>
       <c r="B416" s="4"/>
       <c r="C416" s="11"/>
@@ -9783,7 +11554,7 @@
       <c r="K416" s="2"/>
       <c r="L416" s="13"/>
     </row>
-    <row r="417" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="417" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A417" s="4"/>
       <c r="B417" s="4"/>
       <c r="C417" s="11"/>
@@ -9797,7 +11568,7 @@
       <c r="K417" s="2"/>
       <c r="L417" s="13"/>
     </row>
-    <row r="418" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="418" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A418" s="4"/>
       <c r="B418" s="4"/>
       <c r="C418" s="11"/>
@@ -9811,7 +11582,7 @@
       <c r="K418" s="2"/>
       <c r="L418" s="13"/>
     </row>
-    <row r="419" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="419" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A419" s="4"/>
       <c r="B419" s="4"/>
       <c r="C419" s="11"/>
@@ -9825,7 +11596,7 @@
       <c r="K419" s="2"/>
       <c r="L419" s="13"/>
     </row>
-    <row r="420" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="420" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A420" s="4"/>
       <c r="B420" s="4"/>
       <c r="C420" s="11"/>
@@ -9839,7 +11610,7 @@
       <c r="K420" s="2"/>
       <c r="L420" s="13"/>
     </row>
-    <row r="421" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="421" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A421" s="4"/>
       <c r="B421" s="4"/>
       <c r="C421" s="11"/>
@@ -9853,7 +11624,7 @@
       <c r="K421" s="2"/>
       <c r="L421" s="13"/>
     </row>
-    <row r="422" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="422" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A422" s="4"/>
       <c r="B422" s="4"/>
       <c r="C422" s="11"/>
@@ -9867,7 +11638,7 @@
       <c r="K422" s="2"/>
       <c r="L422" s="13"/>
     </row>
-    <row r="423" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="423" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A423" s="4"/>
       <c r="B423" s="4"/>
       <c r="C423" s="11"/>
@@ -9881,7 +11652,7 @@
       <c r="K423" s="2"/>
       <c r="L423" s="13"/>
     </row>
-    <row r="424" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="424" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A424" s="4"/>
       <c r="B424" s="4"/>
       <c r="C424" s="11"/>
@@ -9895,7 +11666,7 @@
       <c r="K424" s="2"/>
       <c r="L424" s="13"/>
     </row>
-    <row r="425" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="425" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A425" s="4"/>
       <c r="B425" s="4"/>
       <c r="C425" s="11"/>
@@ -9909,7 +11680,7 @@
       <c r="K425" s="2"/>
       <c r="L425" s="13"/>
     </row>
-    <row r="426" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="426" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A426" s="4"/>
       <c r="B426" s="4"/>
       <c r="C426" s="11"/>
@@ -9923,7 +11694,7 @@
       <c r="K426" s="2"/>
       <c r="L426" s="13"/>
     </row>
-    <row r="427" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="427" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A427" s="4"/>
       <c r="B427" s="4"/>
       <c r="C427" s="11"/>
@@ -9937,7 +11708,7 @@
       <c r="K427" s="2"/>
       <c r="L427" s="13"/>
     </row>
-    <row r="428" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="428" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A428" s="4"/>
       <c r="B428" s="4"/>
       <c r="C428" s="11"/>
@@ -9951,7 +11722,7 @@
       <c r="K428" s="2"/>
       <c r="L428" s="13"/>
     </row>
-    <row r="429" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="429" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A429" s="4"/>
       <c r="B429" s="4"/>
       <c r="C429" s="11"/>
@@ -9965,7 +11736,7 @@
       <c r="K429" s="2"/>
       <c r="L429" s="13"/>
     </row>
-    <row r="430" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="430" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A430" s="4"/>
       <c r="B430" s="4"/>
       <c r="C430" s="11"/>
@@ -9979,7 +11750,7 @@
       <c r="K430" s="2"/>
       <c r="L430" s="13"/>
     </row>
-    <row r="431" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="431" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A431" s="4"/>
       <c r="B431" s="4"/>
       <c r="C431" s="11"/>
@@ -9993,7 +11764,7 @@
       <c r="K431" s="2"/>
       <c r="L431" s="13"/>
     </row>
-    <row r="432" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="432" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A432" s="4"/>
       <c r="B432" s="4"/>
       <c r="C432" s="11"/>
@@ -10007,7 +11778,7 @@
       <c r="K432" s="2"/>
       <c r="L432" s="13"/>
     </row>
-    <row r="433" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="433" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A433" s="4"/>
       <c r="B433" s="4"/>
       <c r="C433" s="11"/>
@@ -10021,7 +11792,7 @@
       <c r="K433" s="2"/>
       <c r="L433" s="13"/>
     </row>
-    <row r="434" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="434" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A434" s="4"/>
       <c r="B434" s="4"/>
       <c r="C434" s="11"/>
@@ -10035,7 +11806,7 @@
       <c r="K434" s="2"/>
       <c r="L434" s="13"/>
     </row>
-    <row r="435" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="435" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A435" s="4"/>
       <c r="B435" s="4"/>
       <c r="C435" s="11"/>
@@ -10049,7 +11820,7 @@
       <c r="K435" s="2"/>
       <c r="L435" s="13"/>
     </row>
-    <row r="436" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="436" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A436" s="4"/>
       <c r="B436" s="4"/>
       <c r="C436" s="11"/>
@@ -10063,7 +11834,7 @@
       <c r="K436" s="2"/>
       <c r="L436" s="13"/>
     </row>
-    <row r="437" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="437" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A437" s="4"/>
       <c r="B437" s="4"/>
       <c r="C437" s="11"/>
@@ -10077,7 +11848,7 @@
       <c r="K437" s="2"/>
       <c r="L437" s="13"/>
     </row>
-    <row r="438" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="438" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A438" s="4"/>
       <c r="B438" s="4"/>
       <c r="C438" s="11"/>
@@ -10091,7 +11862,7 @@
       <c r="K438" s="2"/>
       <c r="L438" s="13"/>
     </row>
-    <row r="439" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="439" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A439" s="4"/>
       <c r="B439" s="4"/>
       <c r="C439" s="11"/>
@@ -10105,7 +11876,7 @@
       <c r="K439" s="2"/>
       <c r="L439" s="13"/>
     </row>
-    <row r="440" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="440" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A440" s="4"/>
       <c r="B440" s="4"/>
       <c r="C440" s="11"/>
@@ -10119,7 +11890,7 @@
       <c r="K440" s="2"/>
       <c r="L440" s="13"/>
     </row>
-    <row r="441" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="441" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A441" s="4"/>
       <c r="B441" s="4"/>
       <c r="C441" s="11"/>
@@ -10133,7 +11904,7 @@
       <c r="K441" s="2"/>
       <c r="L441" s="13"/>
     </row>
-    <row r="442" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="442" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A442" s="4"/>
       <c r="B442" s="4"/>
       <c r="C442" s="11"/>
@@ -10147,7 +11918,7 @@
       <c r="K442" s="2"/>
       <c r="L442" s="13"/>
     </row>
-    <row r="443" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="443" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A443" s="4"/>
       <c r="B443" s="4"/>
       <c r="C443" s="11"/>
@@ -10161,7 +11932,7 @@
       <c r="K443" s="2"/>
       <c r="L443" s="13"/>
     </row>
-    <row r="444" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="444" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A444" s="4"/>
       <c r="B444" s="4"/>
       <c r="C444" s="11"/>
@@ -10175,7 +11946,7 @@
       <c r="K444" s="2"/>
       <c r="L444" s="13"/>
     </row>
-    <row r="445" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="445" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A445" s="4"/>
       <c r="B445" s="4"/>
       <c r="C445" s="11"/>
@@ -10189,7 +11960,7 @@
       <c r="K445" s="2"/>
       <c r="L445" s="13"/>
     </row>
-    <row r="446" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="446" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A446" s="4"/>
       <c r="B446" s="4"/>
       <c r="C446" s="11"/>
@@ -10203,7 +11974,7 @@
       <c r="K446" s="2"/>
       <c r="L446" s="13"/>
     </row>
-    <row r="447" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="447" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A447" s="4"/>
       <c r="B447" s="4"/>
       <c r="C447" s="11"/>
@@ -10217,7 +11988,7 @@
       <c r="K447" s="2"/>
       <c r="L447" s="13"/>
     </row>
-    <row r="448" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="448" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A448" s="4"/>
       <c r="B448" s="4"/>
       <c r="C448" s="11"/>
@@ -10231,7 +12002,7 @@
       <c r="K448" s="2"/>
       <c r="L448" s="13"/>
     </row>
-    <row r="449" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="449" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A449" s="4"/>
       <c r="B449" s="4"/>
       <c r="C449" s="11"/>
@@ -10245,7 +12016,7 @@
       <c r="K449" s="2"/>
       <c r="L449" s="13"/>
     </row>
-    <row r="450" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="450" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A450" s="4"/>
       <c r="B450" s="4"/>
       <c r="C450" s="11"/>
@@ -10259,7 +12030,7 @@
       <c r="K450" s="2"/>
       <c r="L450" s="13"/>
     </row>
-    <row r="451" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="451" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A451" s="4"/>
       <c r="B451" s="4"/>
       <c r="C451" s="11"/>
@@ -10273,7 +12044,7 @@
       <c r="K451" s="2"/>
       <c r="L451" s="13"/>
     </row>
-    <row r="452" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="452" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A452" s="4"/>
       <c r="B452" s="4"/>
       <c r="C452" s="11"/>
@@ -10287,7 +12058,7 @@
       <c r="K452" s="2"/>
       <c r="L452" s="13"/>
     </row>
-    <row r="453" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="453" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A453" s="4"/>
       <c r="B453" s="4"/>
       <c r="C453" s="11"/>
@@ -10301,7 +12072,7 @@
       <c r="K453" s="2"/>
       <c r="L453" s="13"/>
     </row>
-    <row r="454" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="454" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A454" s="4"/>
       <c r="B454" s="4"/>
       <c r="C454" s="11"/>
@@ -10315,7 +12086,7 @@
       <c r="K454" s="2"/>
       <c r="L454" s="13"/>
     </row>
-    <row r="455" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="455" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A455" s="4"/>
       <c r="B455" s="4"/>
       <c r="C455" s="11"/>
@@ -10329,7 +12100,7 @@
       <c r="K455" s="2"/>
       <c r="L455" s="13"/>
     </row>
-    <row r="456" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="456" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A456" s="4"/>
       <c r="B456" s="4"/>
       <c r="C456" s="11"/>
@@ -10343,7 +12114,7 @@
       <c r="K456" s="2"/>
       <c r="L456" s="13"/>
     </row>
-    <row r="457" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="457" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A457" s="4"/>
       <c r="B457" s="4"/>
       <c r="C457" s="11"/>
@@ -10357,7 +12128,7 @@
       <c r="K457" s="2"/>
       <c r="L457" s="13"/>
     </row>
-    <row r="458" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="458" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A458" s="4"/>
       <c r="B458" s="4"/>
       <c r="C458" s="11"/>
@@ -10371,7 +12142,7 @@
       <c r="K458" s="2"/>
       <c r="L458" s="13"/>
     </row>
-    <row r="459" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="459" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A459" s="4"/>
       <c r="B459" s="4"/>
       <c r="C459" s="11"/>
@@ -10385,7 +12156,7 @@
       <c r="K459" s="2"/>
       <c r="L459" s="13"/>
     </row>
-    <row r="460" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="460" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A460" s="4"/>
       <c r="B460" s="4"/>
       <c r="C460" s="11"/>
@@ -10399,7 +12170,7 @@
       <c r="K460" s="2"/>
       <c r="L460" s="13"/>
     </row>
-    <row r="461" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="461" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A461" s="4"/>
       <c r="B461" s="4"/>
       <c r="C461" s="11"/>
@@ -10413,7 +12184,7 @@
       <c r="K461" s="2"/>
       <c r="L461" s="13"/>
     </row>
-    <row r="462" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="462" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A462" s="4"/>
       <c r="B462" s="4"/>
       <c r="C462" s="11"/>
@@ -10427,7 +12198,7 @@
       <c r="K462" s="2"/>
       <c r="L462" s="13"/>
     </row>
-    <row r="463" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="463" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A463" s="4"/>
       <c r="B463" s="4"/>
       <c r="C463" s="11"/>
@@ -10441,7 +12212,7 @@
       <c r="K463" s="2"/>
       <c r="L463" s="13"/>
     </row>
-    <row r="464" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="464" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A464" s="4"/>
       <c r="B464" s="4"/>
       <c r="C464" s="11"/>
@@ -10455,7 +12226,7 @@
       <c r="K464" s="2"/>
       <c r="L464" s="13"/>
     </row>
-    <row r="465" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="465" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A465" s="4"/>
       <c r="B465" s="4"/>
       <c r="C465" s="11"/>
@@ -10469,7 +12240,7 @@
       <c r="K465" s="2"/>
       <c r="L465" s="13"/>
     </row>
-    <row r="466" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="466" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A466" s="4"/>
       <c r="B466" s="4"/>
       <c r="C466" s="11"/>
@@ -10483,7 +12254,7 @@
       <c r="K466" s="2"/>
       <c r="L466" s="13"/>
     </row>
-    <row r="467" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="467" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A467" s="4"/>
       <c r="B467" s="4"/>
       <c r="C467" s="11"/>
@@ -10497,7 +12268,7 @@
       <c r="K467" s="2"/>
       <c r="L467" s="13"/>
     </row>
-    <row r="468" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="468" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A468" s="4"/>
       <c r="B468" s="4"/>
       <c r="C468" s="11"/>
@@ -10511,7 +12282,7 @@
       <c r="K468" s="2"/>
       <c r="L468" s="13"/>
     </row>
-    <row r="469" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="469" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A469" s="4"/>
       <c r="B469" s="4"/>
       <c r="C469" s="11"/>
@@ -10525,7 +12296,7 @@
       <c r="K469" s="2"/>
       <c r="L469" s="13"/>
     </row>
-    <row r="470" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="470" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A470" s="4"/>
       <c r="B470" s="4"/>
       <c r="C470" s="11"/>
@@ -10539,7 +12310,7 @@
       <c r="K470" s="2"/>
       <c r="L470" s="13"/>
     </row>
-    <row r="471" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="471" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A471" s="4"/>
       <c r="B471" s="4"/>
       <c r="C471" s="11"/>
@@ -10553,7 +12324,7 @@
       <c r="K471" s="2"/>
       <c r="L471" s="13"/>
     </row>
-    <row r="472" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="472" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A472" s="4"/>
       <c r="B472" s="4"/>
       <c r="C472" s="11"/>
@@ -10567,7 +12338,7 @@
       <c r="K472" s="2"/>
       <c r="L472" s="13"/>
     </row>
-    <row r="473" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="473" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A473" s="4"/>
       <c r="B473" s="4"/>
       <c r="C473" s="11"/>
@@ -10581,7 +12352,7 @@
       <c r="K473" s="2"/>
       <c r="L473" s="13"/>
     </row>
-    <row r="474" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="474" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A474" s="4"/>
       <c r="B474" s="4"/>
       <c r="C474" s="11"/>
@@ -10595,7 +12366,7 @@
       <c r="K474" s="2"/>
       <c r="L474" s="13"/>
     </row>
-    <row r="475" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="475" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A475" s="4"/>
       <c r="B475" s="4"/>
       <c r="C475" s="11"/>
@@ -10609,7 +12380,7 @@
       <c r="K475" s="2"/>
       <c r="L475" s="13"/>
     </row>
-    <row r="476" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="476" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A476" s="4"/>
       <c r="B476" s="4"/>
       <c r="C476" s="11"/>
@@ -10623,7 +12394,7 @@
       <c r="K476" s="2"/>
       <c r="L476" s="13"/>
     </row>
-    <row r="477" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="477" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A477" s="4"/>
       <c r="B477" s="4"/>
       <c r="C477" s="11"/>
@@ -10637,7 +12408,7 @@
       <c r="K477" s="2"/>
       <c r="L477" s="13"/>
     </row>
-    <row r="478" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="478" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A478" s="4"/>
       <c r="B478" s="4"/>
       <c r="C478" s="11"/>
@@ -10651,7 +12422,7 @@
       <c r="K478" s="2"/>
       <c r="L478" s="13"/>
     </row>
-    <row r="479" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="479" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A479" s="4"/>
       <c r="B479" s="4"/>
       <c r="C479" s="11"/>
@@ -10665,7 +12436,7 @@
       <c r="K479" s="2"/>
       <c r="L479" s="13"/>
     </row>
-    <row r="480" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="480" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A480" s="4"/>
       <c r="B480" s="4"/>
       <c r="C480" s="11"/>
@@ -10679,7 +12450,7 @@
       <c r="K480" s="2"/>
       <c r="L480" s="13"/>
     </row>
-    <row r="481" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="481" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A481" s="4"/>
       <c r="B481" s="4"/>
       <c r="C481" s="11"/>
@@ -10693,7 +12464,7 @@
       <c r="K481" s="2"/>
       <c r="L481" s="13"/>
     </row>
-    <row r="482" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="482" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A482" s="4"/>
       <c r="B482" s="4"/>
       <c r="C482" s="11"/>
@@ -10707,7 +12478,7 @@
       <c r="K482" s="2"/>
       <c r="L482" s="13"/>
     </row>
-    <row r="483" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="483" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A483" s="4"/>
       <c r="B483" s="4"/>
       <c r="C483" s="11"/>
@@ -10721,7 +12492,7 @@
       <c r="K483" s="2"/>
       <c r="L483" s="13"/>
     </row>
-    <row r="484" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="484" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A484" s="4"/>
       <c r="B484" s="4"/>
       <c r="C484" s="11"/>
@@ -10735,7 +12506,7 @@
       <c r="K484" s="2"/>
       <c r="L484" s="13"/>
     </row>
-    <row r="485" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="485" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A485" s="4"/>
       <c r="B485" s="4"/>
       <c r="C485" s="11"/>
@@ -10749,7 +12520,7 @@
       <c r="K485" s="2"/>
       <c r="L485" s="13"/>
     </row>
-    <row r="486" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="486" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A486" s="4"/>
       <c r="B486" s="4"/>
       <c r="C486" s="11"/>
@@ -10763,7 +12534,7 @@
       <c r="K486" s="2"/>
       <c r="L486" s="13"/>
     </row>
-    <row r="487" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="487" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A487" s="4"/>
       <c r="B487" s="4"/>
       <c r="C487" s="11"/>
@@ -10777,7 +12548,7 @@
       <c r="K487" s="2"/>
       <c r="L487" s="13"/>
     </row>
-    <row r="488" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="488" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A488" s="4"/>
       <c r="B488" s="4"/>
       <c r="C488" s="11"/>
@@ -10791,7 +12562,7 @@
       <c r="K488" s="2"/>
       <c r="L488" s="13"/>
     </row>
-    <row r="489" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="489" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A489" s="4"/>
       <c r="B489" s="4"/>
       <c r="C489" s="11"/>
@@ -10805,7 +12576,7 @@
       <c r="K489" s="2"/>
       <c r="L489" s="13"/>
     </row>
-    <row r="490" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="490" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A490" s="4"/>
       <c r="B490" s="4"/>
       <c r="C490" s="11"/>
@@ -10819,7 +12590,7 @@
       <c r="K490" s="2"/>
       <c r="L490" s="13"/>
     </row>
-    <row r="491" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="491" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A491" s="4"/>
       <c r="B491" s="4"/>
       <c r="C491" s="11"/>
@@ -10833,7 +12604,7 @@
       <c r="K491" s="2"/>
       <c r="L491" s="13"/>
     </row>
-    <row r="492" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="492" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A492" s="4"/>
       <c r="B492" s="4"/>
       <c r="C492" s="11"/>
@@ -10847,7 +12618,7 @@
       <c r="K492" s="2"/>
       <c r="L492" s="13"/>
     </row>
-    <row r="493" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="493" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A493" s="4"/>
       <c r="B493" s="4"/>
       <c r="C493" s="11"/>
@@ -10861,7 +12632,7 @@
       <c r="K493" s="2"/>
       <c r="L493" s="13"/>
     </row>
-    <row r="494" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="494" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A494" s="4"/>
       <c r="B494" s="4"/>
       <c r="C494" s="11"/>
@@ -10875,7 +12646,7 @@
       <c r="K494" s="2"/>
       <c r="L494" s="13"/>
     </row>
-    <row r="495" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="495" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A495" s="4"/>
       <c r="B495" s="4"/>
       <c r="C495" s="11"/>
@@ -10889,7 +12660,7 @@
       <c r="K495" s="2"/>
       <c r="L495" s="13"/>
     </row>
-    <row r="496" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="496" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A496" s="4"/>
       <c r="B496" s="4"/>
       <c r="C496" s="11"/>
@@ -10903,7 +12674,7 @@
       <c r="K496" s="2"/>
       <c r="L496" s="13"/>
     </row>
-    <row r="497" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="497" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A497" s="4"/>
       <c r="B497" s="4"/>
       <c r="C497" s="11"/>
@@ -10917,7 +12688,7 @@
       <c r="K497" s="2"/>
       <c r="L497" s="13"/>
     </row>
-    <row r="498" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="498" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A498" s="4"/>
       <c r="B498" s="4"/>
       <c r="C498" s="11"/>
@@ -10931,7 +12702,7 @@
       <c r="K498" s="2"/>
       <c r="L498" s="13"/>
     </row>
-    <row r="499" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="499" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A499" s="4"/>
       <c r="B499" s="4"/>
       <c r="C499" s="11"/>
@@ -10945,7 +12716,7 @@
       <c r="K499" s="2"/>
       <c r="L499" s="13"/>
     </row>
-    <row r="500" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="500" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A500" s="4"/>
       <c r="B500" s="4"/>
       <c r="C500" s="11"/>
@@ -10959,7 +12730,7 @@
       <c r="K500" s="2"/>
       <c r="L500" s="13"/>
     </row>
-    <row r="501" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="501" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A501" s="4"/>
       <c r="B501" s="4"/>
       <c r="C501" s="11"/>
@@ -10973,7 +12744,7 @@
       <c r="K501" s="2"/>
       <c r="L501" s="13"/>
     </row>
-    <row r="502" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="502" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A502" s="4"/>
       <c r="B502" s="4"/>
       <c r="C502" s="11"/>
@@ -10987,7 +12758,7 @@
       <c r="K502" s="2"/>
       <c r="L502" s="13"/>
     </row>
-    <row r="503" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="503" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A503" s="4"/>
       <c r="B503" s="4"/>
       <c r="C503" s="11"/>
@@ -11001,7 +12772,7 @@
       <c r="K503" s="2"/>
       <c r="L503" s="13"/>
     </row>
-    <row r="504" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="504" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A504" s="4"/>
       <c r="B504" s="4"/>
       <c r="C504" s="11"/>
@@ -11015,7 +12786,7 @@
       <c r="K504" s="2"/>
       <c r="L504" s="13"/>
     </row>
-    <row r="505" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="505" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A505" s="4"/>
       <c r="B505" s="4"/>
       <c r="C505" s="11"/>
@@ -11029,7 +12800,7 @@
       <c r="K505" s="2"/>
       <c r="L505" s="13"/>
     </row>
-    <row r="506" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="506" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A506" s="4"/>
       <c r="B506" s="4"/>
       <c r="C506" s="11"/>
@@ -11043,7 +12814,7 @@
       <c r="K506" s="2"/>
       <c r="L506" s="13"/>
     </row>
-    <row r="507" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="507" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A507" s="4"/>
       <c r="B507" s="4"/>
       <c r="C507" s="11"/>
@@ -11057,7 +12828,7 @@
       <c r="K507" s="2"/>
       <c r="L507" s="13"/>
     </row>
-    <row r="508" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="508" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A508" s="4"/>
       <c r="B508" s="4"/>
       <c r="C508" s="11"/>
@@ -11071,7 +12842,7 @@
       <c r="K508" s="2"/>
       <c r="L508" s="13"/>
     </row>
-    <row r="509" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="509" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A509" s="4"/>
       <c r="B509" s="4"/>
       <c r="C509" s="11"/>
@@ -11085,7 +12856,7 @@
       <c r="K509" s="2"/>
       <c r="L509" s="13"/>
     </row>
-    <row r="510" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="510" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A510" s="4"/>
       <c r="B510" s="4"/>
       <c r="C510" s="11"/>
@@ -11099,7 +12870,7 @@
       <c r="K510" s="2"/>
       <c r="L510" s="13"/>
     </row>
-    <row r="511" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="511" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A511" s="4"/>
       <c r="B511" s="4"/>
       <c r="C511" s="11"/>
@@ -11113,7 +12884,7 @@
       <c r="K511" s="2"/>
       <c r="L511" s="13"/>
     </row>
-    <row r="512" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="512" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A512" s="4"/>
       <c r="B512" s="4"/>
       <c r="C512" s="11"/>
@@ -11127,7 +12898,7 @@
       <c r="K512" s="2"/>
       <c r="L512" s="13"/>
     </row>
-    <row r="513" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="513" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A513" s="4"/>
       <c r="B513" s="4"/>
       <c r="C513" s="11"/>
@@ -11141,7 +12912,7 @@
       <c r="K513" s="2"/>
       <c r="L513" s="13"/>
     </row>
-    <row r="514" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="514" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A514" s="4"/>
       <c r="B514" s="4"/>
       <c r="C514" s="11"/>
@@ -11155,7 +12926,7 @@
       <c r="K514" s="2"/>
       <c r="L514" s="13"/>
     </row>
-    <row r="515" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="515" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A515" s="4"/>
       <c r="B515" s="4"/>
       <c r="C515" s="11"/>
@@ -11169,7 +12940,7 @@
       <c r="K515" s="2"/>
       <c r="L515" s="13"/>
     </row>
-    <row r="516" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="516" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A516" s="4"/>
       <c r="B516" s="4"/>
       <c r="C516" s="11"/>
@@ -11183,7 +12954,7 @@
       <c r="K516" s="2"/>
       <c r="L516" s="13"/>
     </row>
-    <row r="517" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="517" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A517" s="4"/>
       <c r="B517" s="4"/>
       <c r="C517" s="11"/>
@@ -11197,7 +12968,7 @@
       <c r="K517" s="2"/>
       <c r="L517" s="13"/>
     </row>
-    <row r="518" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="518" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A518" s="4"/>
       <c r="B518" s="4"/>
       <c r="C518" s="11"/>
@@ -11211,7 +12982,7 @@
       <c r="K518" s="2"/>
       <c r="L518" s="13"/>
     </row>
-    <row r="519" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="519" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A519" s="4"/>
       <c r="B519" s="4"/>
       <c r="C519" s="11"/>
@@ -11225,7 +12996,7 @@
       <c r="K519" s="2"/>
       <c r="L519" s="13"/>
     </row>
-    <row r="520" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="520" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A520" s="4"/>
       <c r="B520" s="4"/>
       <c r="C520" s="11"/>
@@ -11239,7 +13010,7 @@
       <c r="K520" s="2"/>
       <c r="L520" s="13"/>
     </row>
-    <row r="521" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="521" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A521" s="4"/>
       <c r="B521" s="4"/>
       <c r="C521" s="11"/>
@@ -11253,7 +13024,7 @@
       <c r="K521" s="2"/>
       <c r="L521" s="13"/>
     </row>
-    <row r="522" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="522" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A522" s="4"/>
       <c r="B522" s="4"/>
       <c r="C522" s="11"/>
@@ -11267,7 +13038,7 @@
       <c r="K522" s="2"/>
       <c r="L522" s="13"/>
     </row>
-    <row r="523" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="523" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A523" s="4"/>
       <c r="B523" s="4"/>
       <c r="C523" s="11"/>
@@ -11281,7 +13052,7 @@
       <c r="K523" s="2"/>
       <c r="L523" s="13"/>
     </row>
-    <row r="524" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="524" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A524" s="4"/>
       <c r="B524" s="4"/>
       <c r="C524" s="11"/>
@@ -11295,7 +13066,7 @@
       <c r="K524" s="2"/>
       <c r="L524" s="13"/>
     </row>
-    <row r="525" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="525" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A525" s="4"/>
       <c r="B525" s="4"/>
       <c r="C525" s="11"/>
@@ -11309,7 +13080,7 @@
       <c r="K525" s="2"/>
       <c r="L525" s="13"/>
     </row>
-    <row r="526" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="526" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A526" s="4"/>
       <c r="B526" s="4"/>
       <c r="C526" s="11"/>
@@ -11323,7 +13094,7 @@
       <c r="K526" s="2"/>
       <c r="L526" s="13"/>
     </row>
-    <row r="527" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="527" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A527" s="4"/>
       <c r="B527" s="4"/>
       <c r="C527" s="11"/>
@@ -11337,7 +13108,7 @@
       <c r="K527" s="2"/>
       <c r="L527" s="13"/>
     </row>
-    <row r="528" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="528" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A528" s="4"/>
       <c r="B528" s="4"/>
       <c r="C528" s="11"/>
@@ -11351,7 +13122,7 @@
       <c r="K528" s="2"/>
       <c r="L528" s="13"/>
     </row>
-    <row r="529" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="529" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A529" s="4"/>
       <c r="B529" s="4"/>
       <c r="C529" s="11"/>
@@ -11365,7 +13136,7 @@
       <c r="K529" s="2"/>
       <c r="L529" s="13"/>
     </row>
-    <row r="530" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="530" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A530" s="4"/>
       <c r="B530" s="4"/>
       <c r="C530" s="11"/>
@@ -11379,7 +13150,7 @@
       <c r="K530" s="2"/>
       <c r="L530" s="13"/>
     </row>
-    <row r="531" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="531" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A531" s="4"/>
       <c r="B531" s="4"/>
       <c r="C531" s="11"/>
@@ -11393,7 +13164,7 @@
       <c r="K531" s="2"/>
       <c r="L531" s="13"/>
     </row>
-    <row r="532" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="532" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A532" s="4"/>
       <c r="B532" s="4"/>
       <c r="C532" s="11"/>
@@ -11407,7 +13178,7 @@
       <c r="K532" s="2"/>
       <c r="L532" s="13"/>
     </row>
-    <row r="533" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="533" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A533" s="4"/>
       <c r="B533" s="4"/>
       <c r="C533" s="11"/>
@@ -11421,7 +13192,7 @@
       <c r="K533" s="2"/>
       <c r="L533" s="13"/>
     </row>
-    <row r="534" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="534" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A534" s="4"/>
       <c r="B534" s="4"/>
       <c r="C534" s="11"/>
@@ -11435,7 +13206,7 @@
       <c r="K534" s="2"/>
       <c r="L534" s="13"/>
     </row>
-    <row r="535" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="535" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A535" s="4"/>
       <c r="B535" s="4"/>
       <c r="C535" s="11"/>
@@ -11449,7 +13220,7 @@
       <c r="K535" s="2"/>
       <c r="L535" s="13"/>
     </row>
-    <row r="536" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="536" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A536" s="4"/>
       <c r="B536" s="4"/>
       <c r="C536" s="11"/>
@@ -11463,7 +13234,7 @@
       <c r="K536" s="2"/>
       <c r="L536" s="13"/>
     </row>
-    <row r="537" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="537" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A537" s="4"/>
       <c r="B537" s="4"/>
       <c r="C537" s="11"/>
@@ -11477,7 +13248,7 @@
       <c r="K537" s="2"/>
       <c r="L537" s="13"/>
     </row>
-    <row r="538" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="538" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A538" s="4"/>
       <c r="B538" s="4"/>
       <c r="C538" s="11"/>
@@ -11491,7 +13262,7 @@
       <c r="K538" s="2"/>
       <c r="L538" s="13"/>
     </row>
-    <row r="539" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="539" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A539" s="4"/>
       <c r="B539" s="4"/>
       <c r="C539" s="11"/>
@@ -11505,7 +13276,7 @@
       <c r="K539" s="2"/>
       <c r="L539" s="13"/>
     </row>
-    <row r="540" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="540" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A540" s="4"/>
       <c r="B540" s="4"/>
       <c r="C540" s="11"/>
@@ -11519,7 +13290,7 @@
       <c r="K540" s="2"/>
       <c r="L540" s="13"/>
     </row>
-    <row r="541" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="541" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A541" s="4"/>
       <c r="B541" s="4"/>
       <c r="C541" s="11"/>
@@ -11533,7 +13304,7 @@
       <c r="K541" s="2"/>
       <c r="L541" s="13"/>
     </row>
-    <row r="542" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="542" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A542" s="4"/>
       <c r="B542" s="4"/>
       <c r="C542" s="11"/>
@@ -11547,7 +13318,7 @@
       <c r="K542" s="2"/>
       <c r="L542" s="13"/>
     </row>
-    <row r="543" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="543" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A543" s="4"/>
       <c r="B543" s="4"/>
       <c r="C543" s="11"/>
@@ -11561,7 +13332,7 @@
       <c r="K543" s="2"/>
       <c r="L543" s="13"/>
     </row>
-    <row r="544" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="544" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A544" s="4"/>
       <c r="B544" s="4"/>
       <c r="C544" s="11"/>
@@ -11575,7 +13346,7 @@
       <c r="K544" s="2"/>
       <c r="L544" s="13"/>
     </row>
-    <row r="545" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="545" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A545" s="4"/>
       <c r="B545" s="4"/>
       <c r="C545" s="11"/>
@@ -11589,7 +13360,7 @@
       <c r="K545" s="2"/>
       <c r="L545" s="13"/>
     </row>
-    <row r="546" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="546" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A546" s="4"/>
       <c r="B546" s="4"/>
       <c r="C546" s="11"/>
@@ -11603,7 +13374,7 @@
       <c r="K546" s="2"/>
       <c r="L546" s="13"/>
     </row>
-    <row r="547" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="547" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A547" s="4"/>
       <c r="B547" s="4"/>
       <c r="C547" s="11"/>
@@ -11617,7 +13388,7 @@
       <c r="K547" s="2"/>
       <c r="L547" s="13"/>
     </row>
-    <row r="548" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="548" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A548" s="4"/>
       <c r="B548" s="4"/>
       <c r="C548" s="11"/>
@@ -11631,7 +13402,7 @@
       <c r="K548" s="2"/>
       <c r="L548" s="13"/>
     </row>
-    <row r="549" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="549" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A549" s="4"/>
       <c r="B549" s="4"/>
       <c r="C549" s="11"/>
@@ -11645,7 +13416,7 @@
       <c r="K549" s="2"/>
       <c r="L549" s="13"/>
     </row>
-    <row r="550" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="550" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A550" s="4"/>
       <c r="B550" s="4"/>
       <c r="C550" s="11"/>
@@ -11659,7 +13430,7 @@
       <c r="K550" s="2"/>
       <c r="L550" s="13"/>
     </row>
-    <row r="551" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="551" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A551" s="4"/>
       <c r="B551" s="4"/>
       <c r="C551" s="11"/>
@@ -11673,7 +13444,7 @@
       <c r="K551" s="2"/>
       <c r="L551" s="13"/>
     </row>
-    <row r="552" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="552" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A552" s="4"/>
       <c r="B552" s="4"/>
       <c r="C552" s="11"/>
@@ -11687,7 +13458,7 @@
       <c r="K552" s="2"/>
       <c r="L552" s="13"/>
     </row>
-    <row r="553" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="553" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A553" s="4"/>
       <c r="B553" s="4"/>
       <c r="C553" s="11"/>
@@ -11701,7 +13472,7 @@
       <c r="K553" s="2"/>
       <c r="L553" s="13"/>
     </row>
-    <row r="554" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="554" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A554" s="4"/>
       <c r="B554" s="4"/>
       <c r="C554" s="11"/>
@@ -11715,7 +13486,7 @@
       <c r="K554" s="2"/>
       <c r="L554" s="13"/>
     </row>
-    <row r="555" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="555" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A555" s="4"/>
       <c r="B555" s="4"/>
       <c r="C555" s="11"/>
@@ -11729,7 +13500,7 @@
       <c r="K555" s="2"/>
       <c r="L555" s="13"/>
     </row>
-    <row r="556" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="556" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A556" s="4"/>
       <c r="B556" s="4"/>
       <c r="C556" s="11"/>
@@ -11743,7 +13514,7 @@
       <c r="K556" s="2"/>
       <c r="L556" s="13"/>
     </row>
-    <row r="557" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="557" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A557" s="4"/>
       <c r="B557" s="4"/>
       <c r="C557" s="11"/>
@@ -11757,7 +13528,7 @@
       <c r="K557" s="2"/>
       <c r="L557" s="13"/>
     </row>
-    <row r="558" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="558" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A558" s="4"/>
       <c r="B558" s="4"/>
       <c r="C558" s="11"/>
@@ -11771,7 +13542,7 @@
       <c r="K558" s="2"/>
       <c r="L558" s="13"/>
     </row>
-    <row r="559" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="559" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A559" s="4"/>
       <c r="B559" s="4"/>
       <c r="C559" s="11"/>
@@ -11785,7 +13556,7 @@
       <c r="K559" s="2"/>
       <c r="L559" s="13"/>
     </row>
-    <row r="560" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="560" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A560" s="4"/>
       <c r="B560" s="4"/>
       <c r="C560" s="11"/>
@@ -11799,7 +13570,7 @@
       <c r="K560" s="2"/>
       <c r="L560" s="13"/>
     </row>
-    <row r="561" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="561" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A561" s="4"/>
       <c r="B561" s="4"/>
       <c r="C561" s="11"/>
@@ -11813,7 +13584,7 @@
       <c r="K561" s="2"/>
       <c r="L561" s="13"/>
     </row>
-    <row r="562" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="562" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A562" s="4"/>
       <c r="B562" s="4"/>
       <c r="C562" s="11"/>
@@ -11827,7 +13598,7 @@
       <c r="K562" s="2"/>
       <c r="L562" s="13"/>
     </row>
-    <row r="563" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="563" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A563" s="4"/>
       <c r="B563" s="4"/>
       <c r="C563" s="11"/>
@@ -11841,7 +13612,7 @@
       <c r="K563" s="2"/>
       <c r="L563" s="13"/>
     </row>
-    <row r="564" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="564" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A564" s="4"/>
       <c r="B564" s="4"/>
       <c r="C564" s="11"/>
@@ -11855,7 +13626,7 @@
       <c r="K564" s="2"/>
       <c r="L564" s="13"/>
     </row>
-    <row r="565" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="565" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A565" s="4"/>
       <c r="B565" s="4"/>
       <c r="C565" s="11"/>
@@ -11869,7 +13640,7 @@
       <c r="K565" s="2"/>
       <c r="L565" s="13"/>
     </row>
-    <row r="566" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="566" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A566" s="4"/>
       <c r="B566" s="4"/>
       <c r="C566" s="11"/>
@@ -11883,7 +13654,7 @@
       <c r="K566" s="2"/>
       <c r="L566" s="13"/>
     </row>
-    <row r="567" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="567" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A567" s="4"/>
       <c r="B567" s="4"/>
       <c r="C567" s="11"/>
@@ -11897,7 +13668,7 @@
       <c r="K567" s="2"/>
       <c r="L567" s="13"/>
     </row>
-    <row r="568" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="568" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A568" s="4"/>
       <c r="B568" s="4"/>
       <c r="C568" s="11"/>
@@ -11911,7 +13682,7 @@
       <c r="K568" s="2"/>
       <c r="L568" s="13"/>
     </row>
-    <row r="569" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="569" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A569" s="4"/>
       <c r="B569" s="4"/>
       <c r="C569" s="11"/>
@@ -11925,7 +13696,7 @@
       <c r="K569" s="2"/>
       <c r="L569" s="13"/>
     </row>
-    <row r="570" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="570" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A570" s="4"/>
       <c r="B570" s="4"/>
       <c r="C570" s="11"/>
@@ -11939,7 +13710,7 @@
       <c r="K570" s="2"/>
       <c r="L570" s="13"/>
     </row>
-    <row r="571" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="571" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A571" s="4"/>
       <c r="B571" s="4"/>
       <c r="C571" s="11"/>
@@ -11953,7 +13724,7 @@
       <c r="K571" s="2"/>
       <c r="L571" s="13"/>
     </row>
-    <row r="572" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="572" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A572" s="4"/>
       <c r="B572" s="4"/>
       <c r="C572" s="11"/>
@@ -11967,7 +13738,7 @@
       <c r="K572" s="2"/>
       <c r="L572" s="13"/>
     </row>
-    <row r="573" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="573" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A573" s="4"/>
       <c r="B573" s="4"/>
       <c r="C573" s="11"/>
@@ -11981,7 +13752,7 @@
       <c r="K573" s="2"/>
       <c r="L573" s="13"/>
     </row>
-    <row r="574" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="574" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A574" s="4"/>
       <c r="B574" s="4"/>
       <c r="C574" s="11"/>
@@ -11995,7 +13766,7 @@
       <c r="K574" s="2"/>
       <c r="L574" s="13"/>
     </row>
-    <row r="575" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="575" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A575" s="4"/>
       <c r="B575" s="4"/>
       <c r="C575" s="11"/>
@@ -12009,7 +13780,7 @@
       <c r="K575" s="2"/>
       <c r="L575" s="13"/>
     </row>
-    <row r="576" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="576" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A576" s="4"/>
       <c r="B576" s="4"/>
       <c r="C576" s="11"/>
@@ -12023,7 +13794,7 @@
       <c r="K576" s="2"/>
       <c r="L576" s="13"/>
     </row>
-    <row r="577" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="577" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A577" s="4"/>
       <c r="B577" s="4"/>
       <c r="C577" s="11"/>
@@ -12037,7 +13808,7 @@
       <c r="K577" s="2"/>
       <c r="L577" s="13"/>
     </row>
-    <row r="578" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="578" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A578" s="4"/>
       <c r="B578" s="4"/>
       <c r="C578" s="11"/>
@@ -12051,7 +13822,7 @@
       <c r="K578" s="2"/>
       <c r="L578" s="13"/>
     </row>
-    <row r="579" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="579" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A579" s="4"/>
       <c r="B579" s="4"/>
       <c r="C579" s="11"/>
@@ -12065,7 +13836,7 @@
       <c r="K579" s="2"/>
       <c r="L579" s="13"/>
     </row>
-    <row r="580" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="580" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A580" s="4"/>
       <c r="B580" s="4"/>
       <c r="C580" s="11"/>
@@ -12079,7 +13850,7 @@
       <c r="K580" s="2"/>
       <c r="L580" s="13"/>
     </row>
-    <row r="581" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="581" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A581" s="4"/>
       <c r="B581" s="4"/>
       <c r="C581" s="11"/>
@@ -12093,7 +13864,7 @@
       <c r="K581" s="2"/>
       <c r="L581" s="13"/>
     </row>
-    <row r="582" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="582" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A582" s="4"/>
       <c r="B582" s="4"/>
       <c r="C582" s="11"/>
@@ -12107,7 +13878,7 @@
       <c r="K582" s="2"/>
       <c r="L582" s="13"/>
     </row>
-    <row r="583" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="583" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A583" s="4"/>
       <c r="B583" s="4"/>
       <c r="C583" s="11"/>
@@ -12121,7 +13892,7 @@
       <c r="K583" s="2"/>
       <c r="L583" s="13"/>
     </row>
-    <row r="584" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="584" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A584" s="4"/>
       <c r="B584" s="4"/>
       <c r="C584" s="11"/>
@@ -12135,7 +13906,7 @@
       <c r="K584" s="2"/>
       <c r="L584" s="13"/>
     </row>
-    <row r="585" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="585" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A585" s="4"/>
       <c r="B585" s="4"/>
       <c r="C585" s="11"/>
@@ -12149,7 +13920,7 @@
       <c r="K585" s="2"/>
       <c r="L585" s="13"/>
     </row>
-    <row r="586" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="586" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A586" s="4"/>
       <c r="B586" s="4"/>
       <c r="C586" s="11"/>
@@ -12163,7 +13934,7 @@
       <c r="K586" s="2"/>
       <c r="L586" s="13"/>
     </row>
-    <row r="587" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="587" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A587" s="4"/>
       <c r="B587" s="4"/>
       <c r="C587" s="11"/>
@@ -12177,7 +13948,7 @@
       <c r="K587" s="2"/>
       <c r="L587" s="13"/>
     </row>
-    <row r="588" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="588" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A588" s="4"/>
       <c r="B588" s="4"/>
       <c r="C588" s="11"/>
@@ -12191,7 +13962,7 @@
       <c r="K588" s="2"/>
       <c r="L588" s="13"/>
     </row>
-    <row r="589" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="589" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A589" s="4"/>
       <c r="B589" s="4"/>
       <c r="C589" s="11"/>
@@ -12205,7 +13976,7 @@
       <c r="K589" s="2"/>
       <c r="L589" s="13"/>
     </row>
-    <row r="590" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="590" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A590" s="4"/>
       <c r="B590" s="4"/>
       <c r="C590" s="11"/>
@@ -12219,7 +13990,7 @@
       <c r="K590" s="2"/>
       <c r="L590" s="13"/>
     </row>
-    <row r="591" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="591" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A591" s="4"/>
       <c r="B591" s="4"/>
       <c r="C591" s="11"/>
@@ -12233,7 +14004,7 @@
       <c r="K591" s="2"/>
       <c r="L591" s="13"/>
     </row>
-    <row r="592" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="592" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A592" s="4"/>
       <c r="B592" s="4"/>
       <c r="C592" s="11"/>
@@ -12247,7 +14018,7 @@
       <c r="K592" s="2"/>
       <c r="L592" s="13"/>
     </row>
-    <row r="593" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="593" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A593" s="4"/>
       <c r="B593" s="4"/>
       <c r="C593" s="11"/>
@@ -12261,7 +14032,7 @@
       <c r="K593" s="2"/>
       <c r="L593" s="13"/>
     </row>
-    <row r="594" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="594" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A594" s="4"/>
       <c r="B594" s="4"/>
       <c r="C594" s="11"/>
@@ -12275,7 +14046,7 @@
       <c r="K594" s="2"/>
       <c r="L594" s="13"/>
     </row>
-    <row r="595" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="595" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A595" s="4"/>
       <c r="B595" s="4"/>
       <c r="C595" s="11"/>
@@ -12289,7 +14060,7 @@
       <c r="K595" s="2"/>
       <c r="L595" s="13"/>
     </row>
-    <row r="596" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="596" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A596" s="4"/>
       <c r="B596" s="4"/>
       <c r="C596" s="11"/>
@@ -12303,7 +14074,7 @@
       <c r="K596" s="2"/>
       <c r="L596" s="13"/>
     </row>
-    <row r="597" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="597" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A597" s="4"/>
       <c r="B597" s="4"/>
       <c r="C597" s="11"/>
@@ -12317,7 +14088,7 @@
       <c r="K597" s="2"/>
       <c r="L597" s="13"/>
     </row>
-    <row r="598" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="598" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A598" s="4"/>
       <c r="B598" s="4"/>
       <c r="C598" s="11"/>
@@ -12331,7 +14102,7 @@
       <c r="K598" s="2"/>
       <c r="L598" s="13"/>
     </row>
-    <row r="599" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="599" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A599" s="4"/>
       <c r="B599" s="4"/>
       <c r="C599" s="11"/>
@@ -12345,7 +14116,7 @@
       <c r="K599" s="2"/>
       <c r="L599" s="13"/>
     </row>
-    <row r="600" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="600" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A600" s="4"/>
       <c r="B600" s="4"/>
       <c r="C600" s="11"/>
@@ -12359,7 +14130,7 @@
       <c r="K600" s="2"/>
       <c r="L600" s="13"/>
     </row>
-    <row r="601" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="601" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A601" s="4"/>
       <c r="B601" s="4"/>
       <c r="C601" s="11"/>
@@ -12373,7 +14144,7 @@
       <c r="K601" s="2"/>
       <c r="L601" s="13"/>
     </row>
-    <row r="602" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="602" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A602" s="4"/>
       <c r="B602" s="4"/>
       <c r="C602" s="11"/>
@@ -12387,7 +14158,7 @@
       <c r="K602" s="2"/>
       <c r="L602" s="13"/>
     </row>
-    <row r="603" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="603" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A603" s="4"/>
       <c r="B603" s="4"/>
       <c r="C603" s="11"/>
@@ -12401,7 +14172,7 @@
       <c r="K603" s="2"/>
       <c r="L603" s="13"/>
     </row>
-    <row r="604" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="604" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A604" s="4"/>
       <c r="B604" s="4"/>
       <c r="C604" s="11"/>
@@ -12415,7 +14186,7 @@
       <c r="K604" s="2"/>
       <c r="L604" s="13"/>
     </row>
-    <row r="605" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="605" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A605" s="4"/>
       <c r="B605" s="4"/>
       <c r="C605" s="11"/>
@@ -12429,7 +14200,7 @@
       <c r="K605" s="2"/>
       <c r="L605" s="13"/>
     </row>
-    <row r="606" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="606" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A606" s="4"/>
       <c r="B606" s="4"/>
       <c r="C606" s="11"/>
@@ -12443,7 +14214,7 @@
       <c r="K606" s="2"/>
       <c r="L606" s="13"/>
     </row>
-    <row r="607" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="607" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A607" s="4"/>
       <c r="B607" s="4"/>
       <c r="C607" s="11"/>
@@ -12457,7 +14228,7 @@
       <c r="K607" s="2"/>
       <c r="L607" s="13"/>
     </row>
-    <row r="608" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="608" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A608" s="4"/>
       <c r="B608" s="4"/>
       <c r="C608" s="11"/>
@@ -12471,7 +14242,7 @@
       <c r="K608" s="2"/>
       <c r="L608" s="13"/>
     </row>
-    <row r="609" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="609" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A609" s="4"/>
       <c r="B609" s="4"/>
       <c r="C609" s="11"/>
@@ -12485,7 +14256,7 @@
       <c r="K609" s="2"/>
       <c r="L609" s="13"/>
     </row>
-    <row r="610" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="610" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A610" s="4"/>
       <c r="B610" s="4"/>
       <c r="C610" s="11"/>
@@ -12499,7 +14270,7 @@
       <c r="K610" s="2"/>
       <c r="L610" s="13"/>
     </row>
-    <row r="611" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="611" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A611" s="4"/>
       <c r="B611" s="4"/>
       <c r="C611" s="11"/>
@@ -12513,7 +14284,7 @@
       <c r="K611" s="2"/>
       <c r="L611" s="13"/>
     </row>
-    <row r="612" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="612" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A612" s="4"/>
       <c r="B612" s="4"/>
       <c r="C612" s="11"/>
@@ -12527,7 +14298,7 @@
       <c r="K612" s="2"/>
       <c r="L612" s="13"/>
     </row>
-    <row r="613" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="613" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A613" s="4"/>
       <c r="B613" s="4"/>
       <c r="C613" s="11"/>
@@ -12541,7 +14312,7 @@
       <c r="K613" s="2"/>
       <c r="L613" s="13"/>
     </row>
-    <row r="614" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="614" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A614" s="4"/>
       <c r="B614" s="4"/>
       <c r="C614" s="11"/>
@@ -12555,7 +14326,7 @@
       <c r="K614" s="2"/>
       <c r="L614" s="13"/>
     </row>
-    <row r="615" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="615" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A615" s="4"/>
       <c r="B615" s="4"/>
       <c r="C615" s="11"/>
@@ -12569,7 +14340,7 @@
       <c r="K615" s="2"/>
       <c r="L615" s="13"/>
     </row>
-    <row r="616" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="616" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A616" s="4"/>
       <c r="B616" s="4"/>
       <c r="C616" s="11"/>
@@ -12583,7 +14354,7 @@
       <c r="K616" s="2"/>
       <c r="L616" s="13"/>
     </row>
-    <row r="617" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="617" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A617" s="4"/>
       <c r="B617" s="4"/>
       <c r="C617" s="11"/>
@@ -12597,7 +14368,7 @@
       <c r="K617" s="2"/>
       <c r="L617" s="13"/>
     </row>
-    <row r="618" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="618" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A618" s="4"/>
       <c r="B618" s="4"/>
       <c r="C618" s="11"/>
@@ -12611,7 +14382,7 @@
       <c r="K618" s="2"/>
       <c r="L618" s="13"/>
     </row>
-    <row r="619" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="619" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A619" s="4"/>
       <c r="B619" s="4"/>
       <c r="C619" s="11"/>
@@ -12625,7 +14396,7 @@
       <c r="K619" s="2"/>
       <c r="L619" s="13"/>
     </row>
-    <row r="620" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="620" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A620" s="4"/>
       <c r="B620" s="4"/>
       <c r="C620" s="11"/>
@@ -12639,7 +14410,7 @@
       <c r="K620" s="2"/>
       <c r="L620" s="13"/>
     </row>
-    <row r="621" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="621" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A621" s="4"/>
       <c r="B621" s="4"/>
       <c r="C621" s="11"/>
@@ -12653,7 +14424,7 @@
       <c r="K621" s="2"/>
       <c r="L621" s="13"/>
     </row>
-    <row r="622" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="622" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A622" s="4"/>
       <c r="B622" s="4"/>
       <c r="C622" s="11"/>
@@ -12667,7 +14438,7 @@
       <c r="K622" s="2"/>
       <c r="L622" s="13"/>
     </row>
-    <row r="623" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="623" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A623" s="4"/>
       <c r="B623" s="4"/>
       <c r="C623" s="11"/>
@@ -12681,7 +14452,7 @@
       <c r="K623" s="2"/>
       <c r="L623" s="13"/>
     </row>
-    <row r="624" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="624" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A624" s="4"/>
       <c r="B624" s="4"/>
       <c r="C624" s="11"/>
@@ -12695,7 +14466,7 @@
       <c r="K624" s="2"/>
       <c r="L624" s="13"/>
     </row>
-    <row r="625" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="625" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A625" s="4"/>
       <c r="B625" s="4"/>
       <c r="C625" s="11"/>
@@ -12709,7 +14480,7 @@
       <c r="K625" s="2"/>
       <c r="L625" s="13"/>
     </row>
-    <row r="626" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="626" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A626" s="4"/>
       <c r="B626" s="4"/>
       <c r="C626" s="11"/>
@@ -12723,7 +14494,7 @@
       <c r="K626" s="2"/>
       <c r="L626" s="13"/>
     </row>
-    <row r="627" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="627" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A627" s="4"/>
       <c r="B627" s="4"/>
       <c r="C627" s="11"/>
@@ -12737,7 +14508,7 @@
       <c r="K627" s="2"/>
       <c r="L627" s="13"/>
     </row>
-    <row r="628" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="628" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A628" s="4"/>
       <c r="B628" s="4"/>
       <c r="C628" s="11"/>
@@ -12751,7 +14522,7 @@
       <c r="K628" s="2"/>
       <c r="L628" s="13"/>
     </row>
-    <row r="629" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="629" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A629" s="4"/>
       <c r="B629" s="4"/>
       <c r="C629" s="11"/>
@@ -12765,7 +14536,7 @@
       <c r="K629" s="2"/>
       <c r="L629" s="13"/>
     </row>
-    <row r="630" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="630" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A630" s="4"/>
       <c r="B630" s="4"/>
       <c r="C630" s="11"/>
@@ -12779,7 +14550,7 @@
       <c r="K630" s="2"/>
       <c r="L630" s="13"/>
     </row>
-    <row r="631" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="631" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A631" s="4"/>
       <c r="B631" s="4"/>
       <c r="C631" s="11"/>
@@ -12793,7 +14564,7 @@
       <c r="K631" s="2"/>
       <c r="L631" s="13"/>
     </row>
-    <row r="632" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="632" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A632" s="4"/>
       <c r="B632" s="4"/>
       <c r="C632" s="11"/>
@@ -12807,7 +14578,7 @@
       <c r="K632" s="2"/>
       <c r="L632" s="13"/>
     </row>
-    <row r="633" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="633" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A633" s="4"/>
       <c r="B633" s="4"/>
       <c r="C633" s="11"/>
@@ -12821,7 +14592,7 @@
       <c r="K633" s="2"/>
       <c r="L633" s="13"/>
     </row>
-    <row r="634" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="634" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A634" s="4"/>
       <c r="B634" s="4"/>
       <c r="C634" s="11"/>
@@ -12835,7 +14606,7 @@
       <c r="K634" s="2"/>
       <c r="L634" s="13"/>
     </row>
-    <row r="635" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="635" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A635" s="4"/>
       <c r="B635" s="4"/>
       <c r="C635" s="11"/>
@@ -12849,7 +14620,7 @@
       <c r="K635" s="2"/>
       <c r="L635" s="13"/>
     </row>
-    <row r="636" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="636" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A636" s="4"/>
       <c r="B636" s="4"/>
       <c r="C636" s="11"/>
@@ -12863,7 +14634,7 @@
       <c r="K636" s="2"/>
       <c r="L636" s="13"/>
     </row>
-    <row r="637" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="637" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A637" s="4"/>
       <c r="B637" s="4"/>
       <c r="C637" s="11"/>
@@ -12877,7 +14648,7 @@
       <c r="K637" s="2"/>
       <c r="L637" s="13"/>
     </row>
-    <row r="638" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="638" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A638" s="4"/>
       <c r="B638" s="4"/>
       <c r="C638" s="11"/>
@@ -12891,7 +14662,7 @@
       <c r="K638" s="2"/>
       <c r="L638" s="13"/>
     </row>
-    <row r="639" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="639" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A639" s="4"/>
       <c r="B639" s="4"/>
       <c r="C639" s="11"/>
@@ -12905,7 +14676,7 @@
       <c r="K639" s="2"/>
       <c r="L639" s="13"/>
     </row>
-    <row r="640" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="640" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A640" s="4"/>
       <c r="B640" s="4"/>
       <c r="C640" s="11"/>
@@ -12919,7 +14690,7 @@
       <c r="K640" s="2"/>
       <c r="L640" s="13"/>
     </row>
-    <row r="641" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="641" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A641" s="4"/>
       <c r="B641" s="4"/>
       <c r="C641" s="11"/>
@@ -12933,7 +14704,7 @@
       <c r="K641" s="2"/>
       <c r="L641" s="13"/>
     </row>
-    <row r="642" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="642" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A642" s="4"/>
       <c r="B642" s="4"/>
       <c r="C642" s="11"/>
@@ -12947,7 +14718,7 @@
       <c r="K642" s="2"/>
       <c r="L642" s="13"/>
     </row>
-    <row r="643" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="643" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A643" s="4"/>
       <c r="B643" s="4"/>
       <c r="C643" s="11"/>
@@ -12961,7 +14732,7 @@
       <c r="K643" s="2"/>
       <c r="L643" s="13"/>
     </row>
-    <row r="644" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="644" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A644" s="4"/>
       <c r="B644" s="4"/>
       <c r="C644" s="11"/>
@@ -12975,7 +14746,7 @@
       <c r="K644" s="2"/>
       <c r="L644" s="13"/>
     </row>
-    <row r="645" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="645" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A645" s="4"/>
       <c r="B645" s="4"/>
       <c r="C645" s="11"/>
@@ -12989,7 +14760,7 @@
       <c r="K645" s="2"/>
       <c r="L645" s="13"/>
     </row>
-    <row r="646" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="646" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A646" s="4"/>
       <c r="B646" s="4"/>
       <c r="C646" s="11"/>
@@ -13003,368 +14774,368 @@
       <c r="K646" s="2"/>
       <c r="L646" s="13"/>
     </row>
-    <row r="647" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="648" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="649" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="650" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="651" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="652" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="653" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="654" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="655" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="656" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="657" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="658" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="659" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="660" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="661" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="662" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="663" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="664" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="665" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="666" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="667" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="668" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="669" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="670" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="671" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="672" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="673" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="674" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="675" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="676" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="677" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="678" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="679" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="680" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="681" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="682" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="683" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="684" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="685" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="686" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="687" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="688" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="689" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="690" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="691" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="692" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="693" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="694" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="695" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="696" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="697" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="698" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="699" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="700" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="701" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="702" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="703" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="704" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="705" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="706" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="707" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="708" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="709" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="710" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="711" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="712" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="713" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="714" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="715" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="716" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="717" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="718" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="719" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="720" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="721" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="722" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="723" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="724" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="725" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="726" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="727" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="728" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="729" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="730" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="731" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="732" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="733" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="734" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="735" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="736" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="737" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="738" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="739" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="740" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="741" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="742" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="743" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="744" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="745" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="746" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="747" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="748" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="749" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="750" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="751" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="752" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="753" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="754" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="755" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="756" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="757" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="758" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="759" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="760" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="761" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="762" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="763" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="764" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="765" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="766" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="767" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="768" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="769" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="770" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="771" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="772" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="773" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="774" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="775" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="776" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="777" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="778" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="779" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="780" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="781" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="782" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="783" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="784" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="785" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="786" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="787" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="788" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="789" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="790" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="791" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="792" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="793" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="794" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="795" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="796" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="797" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="798" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="799" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="800" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="801" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="802" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="803" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="804" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="805" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="806" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="807" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="808" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="809" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="810" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="811" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="812" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="813" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="814" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="815" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="816" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="817" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="818" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="819" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="820" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="821" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="822" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="823" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="824" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="825" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="826" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="827" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="828" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="829" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="830" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="831" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="832" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="833" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="834" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="835" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="836" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="837" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="838" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="839" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="840" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="841" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="842" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="843" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="844" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="845" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="846" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="847" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="848" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="849" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="850" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="851" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="852" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="853" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="854" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="855" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="856" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="857" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="858" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="859" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="860" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="861" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="862" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="863" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="864" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="865" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="866" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="867" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="868" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="869" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="870" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="871" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="872" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="873" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="874" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="875" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="876" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="877" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="878" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="879" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="880" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="881" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="882" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="883" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="884" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="885" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="886" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="887" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="888" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="889" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="890" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="891" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="892" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="893" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="894" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="895" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="896" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="897" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="898" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="899" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="900" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="901" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="902" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="903" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="904" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="905" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="906" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="907" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="908" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="909" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="910" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="911" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="912" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="913" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="914" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="915" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="916" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="917" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="918" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="919" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="920" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="921" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="922" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="923" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="924" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="925" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="926" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="927" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="928" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="929" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="930" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="931" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="932" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="933" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="934" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="935" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="936" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="937" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="938" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="939" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="940" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="941" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="942" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="943" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="944" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="945" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="946" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="947" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="948" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="949" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="950" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="951" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="952" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="953" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="954" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="955" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="956" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="957" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="958" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="959" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="960" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="961" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="962" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="963" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="964" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="965" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="966" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="967" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="968" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="969" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="970" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="971" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="972" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="973" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="974" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="975" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="976" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="977" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="978" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="979" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="980" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="981" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="982" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="983" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="984" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="985" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="986" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="987" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="988" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="989" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="990" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="991" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="992" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="993" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="994" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="995" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="996" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="997" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="998" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="647" spans="1:12" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="648" spans="1:12" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="649" spans="1:12" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="650" spans="1:12" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="651" spans="1:12" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="652" spans="1:12" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="653" spans="1:12" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="654" spans="1:12" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="655" spans="1:12" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="656" spans="1:12" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="657" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="658" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="659" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="660" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="661" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="662" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="663" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="664" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="665" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="666" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="667" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="668" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="669" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="670" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="671" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="672" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="673" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="674" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="675" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="676" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="677" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="678" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="679" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="680" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="681" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="682" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="683" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="684" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="685" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="686" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="687" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="688" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="689" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="690" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="691" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="692" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="693" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="694" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="695" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="696" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="697" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="698" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="699" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="700" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="701" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="702" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="703" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="704" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="705" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="706" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="707" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="708" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="709" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="710" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="711" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="712" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="713" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="714" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="715" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="716" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="717" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="718" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="719" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="720" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="721" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="722" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="723" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="724" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="725" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="726" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="727" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="728" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="729" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="730" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="731" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="732" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="733" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="734" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="735" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="736" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="737" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="738" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="739" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="740" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="741" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="742" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="743" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="744" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="745" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="746" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="747" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="748" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="749" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="750" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="751" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="752" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="753" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="754" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="755" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="756" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="757" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="758" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="759" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="760" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="761" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="762" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="763" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="764" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="765" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="766" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="767" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="768" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="769" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="770" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="771" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="772" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="773" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="774" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="775" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="776" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="777" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="778" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="779" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="780" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="781" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="782" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="783" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="784" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="785" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="786" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="787" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="788" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="789" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="790" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="791" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="792" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="793" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="794" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="795" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="796" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="797" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="798" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="799" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="800" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="801" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="802" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="803" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="804" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="805" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="806" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="807" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="808" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="809" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="810" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="811" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="812" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="813" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="814" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="815" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="816" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="817" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="818" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="819" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="820" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="821" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="822" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="823" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="824" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="825" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="826" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="827" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="828" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="829" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="830" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="831" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="832" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="833" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="834" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="835" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="836" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="837" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="838" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="839" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="840" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="841" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="842" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="843" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="844" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="845" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="846" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="847" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="848" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="849" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="850" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="851" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="852" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="853" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="854" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="855" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="856" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="857" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="858" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="859" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="860" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="861" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="862" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="863" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="864" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="865" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="866" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="867" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="868" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="869" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="870" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="871" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="872" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="873" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="874" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="875" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="876" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="877" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="878" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="879" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="880" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="881" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="882" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="883" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="884" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="885" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="886" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="887" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="888" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="889" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="890" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="891" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="892" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="893" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="894" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="895" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="896" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="897" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="898" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="899" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="900" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="901" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="902" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="903" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="904" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="905" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="906" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="907" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="908" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="909" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="910" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="911" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="912" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="913" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="914" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="915" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="916" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="917" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="918" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="919" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="920" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="921" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="922" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="923" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="924" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="925" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="926" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="927" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="928" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="929" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="930" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="931" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="932" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="933" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="934" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="935" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="936" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="937" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="938" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="939" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="940" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="941" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="942" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="943" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="944" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="945" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="946" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="947" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="948" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="949" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="950" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="951" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="952" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="953" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="954" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="955" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="956" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="957" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="958" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="959" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="960" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="961" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="962" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="963" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="964" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="965" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="966" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="967" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="968" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="969" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="970" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="971" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="972" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="973" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="974" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="975" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="976" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="977" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="978" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="979" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="980" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="981" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="982" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="983" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="984" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="985" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="986" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="987" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="988" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="989" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="990" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="991" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="992" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="993" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="994" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="995" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="996" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="997" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="998" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0"/>
+  <sheetProtection deleteRows="0" insertHyperlinks="0" insertRows="0"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D696" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D2:D696" type="list" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>INDIRECT(C2)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C698" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C2:C698" type="list" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>target</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/src/test/resources/showcase/artifact/script/base-showcase-macro.xlsx
+++ b/src/test/resources/showcase/artifact/script/base-showcase-macro.xlsx
@@ -29,7 +29,7 @@
     <definedName name="image">'#system'!$I$2:$I$6</definedName>
     <definedName name="io">'#system'!$J$2:$J$25</definedName>
     <definedName name="jms">'#system'!$K$2:$K$4</definedName>
-    <definedName name="json">'#system'!$L$2:$L$14</definedName>
+    <definedName name="json">'#system'!$L$2:$L$16</definedName>
     <definedName name="mail">'#system'!$M$2:$M$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2020" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2983" uniqueCount="508">
   <si>
     <t>description</t>
   </si>
@@ -1582,6 +1582,12 @@
   </si>
   <si>
     <t>searchAndReplace(file,config,saveAs)</t>
+  </si>
+  <si>
+    <t>minify(json,var)</t>
+  </si>
+  <si>
+    <t>beautify(json,var)</t>
   </si>
 </sst>
 </file>
@@ -1589,7 +1595,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="56" x14ac:knownFonts="1">
+  <fonts count="88" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1946,8 +1952,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="84">
+  <fills count="138">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2419,8 +2627,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="86">
+  <borders count="142">
     <border>
       <left/>
       <right/>
@@ -3289,13 +3803,577 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="99">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -3454,52 +4532,148 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="39" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="59" borderId="65" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="65" fillId="59" fontId="40" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="41" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="62" borderId="69" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="69" fillId="62" fontId="42" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="65" borderId="73" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="73" fillId="65" fontId="43" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="68" borderId="73" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="73" fillId="68" fontId="44" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="45" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="71" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="71" fontId="46" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="47" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="74" borderId="77" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="77" fillId="74" fontId="48" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="77" borderId="81" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="81" fillId="77" fontId="49" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="80" borderId="85" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="85" fillId="80" fontId="50" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="80" borderId="85" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="85" fillId="80" fontId="51" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="68" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="68" fontId="52" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="83" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="83" fontId="53" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="68" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="68" fontId="54" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="55" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="93" fillId="86" fontId="56" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="57" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="97" fillId="89" fontId="58" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="101" fillId="92" fontId="59" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="101" fillId="95" fontId="60" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="61" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="98" fontId="62" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="63" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="105" fillId="101" fontId="64" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="109" fillId="104" fontId="65" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="113" fillId="107" fontId="66" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="113" fillId="107" fontId="67" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="95" fontId="68" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="110" fontId="69" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="95" fontId="70" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="71" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="113" borderId="121" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="116" borderId="125" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="119" borderId="129" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="122" borderId="129" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="125" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="128" borderId="133" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="131" borderId="137" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="134" borderId="141" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="134" borderId="141" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="122" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="137" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="122" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4452,7 +5626,7 @@
         <v>13</v>
       </c>
       <c r="L11" t="s">
-        <v>476</v>
+        <v>507</v>
       </c>
       <c r="N11" t="s">
         <v>85</v>
@@ -4487,7 +5661,7 @@
         <v>35</v>
       </c>
       <c r="L12" t="s">
-        <v>32</v>
+        <v>476</v>
       </c>
       <c r="N12" t="s">
         <v>34</v>
@@ -4519,7 +5693,7 @@
         <v>73</v>
       </c>
       <c r="L13" t="s">
-        <v>33</v>
+        <v>506</v>
       </c>
       <c r="N13" t="s">
         <v>86</v>
@@ -4551,7 +5725,7 @@
         <v>74</v>
       </c>
       <c r="L14" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="N14" t="s">
         <v>87</v>
@@ -4579,6 +5753,9 @@
       <c r="J15" t="s">
         <v>491</v>
       </c>
+      <c r="L15" t="s">
+        <v>33</v>
+      </c>
       <c r="N15" t="s">
         <v>88</v>
       </c>
@@ -4604,6 +5781,9 @@
       </c>
       <c r="J16" t="s">
         <v>75</v>
+      </c>
+      <c r="L16" t="s">
+        <v>36</v>
       </c>
       <c r="O16" t="s">
         <v>243</v>

--- a/src/test/resources/showcase/artifact/script/base-showcase-macro.xlsx
+++ b/src/test/resources/showcase/artifact/script/base-showcase-macro.xlsx
@@ -43,12 +43,12 @@
     <definedName name="ssh">'#system'!$T$2:$T$9</definedName>
     <definedName name="step">'#system'!$U$2:$U$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$27</definedName>
-    <definedName name="web">'#system'!$V$2:$V$119</definedName>
+    <definedName name="web">'#system'!$V$2:$V$120</definedName>
     <definedName name="webalert">'#system'!$W$2:$W$8</definedName>
     <definedName name="webcookie">'#system'!$X$2:$X$8</definedName>
     <definedName name="ws">'#system'!$Y$2:$Y$17</definedName>
     <definedName name="ws.async">'#system'!$Z$2:$Z$8</definedName>
-    <definedName name="xml">'#system'!$AA$2:$AA$11</definedName>
+    <definedName name="xml">'#system'!$AA$2:$AA$13</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2983" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3468" uniqueCount="511">
   <si>
     <t>description</t>
   </si>
@@ -1588,6 +1588,15 @@
   </si>
   <si>
     <t>beautify(json,var)</t>
+  </si>
+  <si>
+    <t>dragTo(fromLocator,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>beautify(xml,var)</t>
+  </si>
+  <si>
+    <t>minify(xml,var)</t>
   </si>
 </sst>
 </file>
@@ -1595,7 +1604,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="88" x14ac:knownFonts="1">
+  <fonts count="104" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2154,8 +2163,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="138">
+  <fills count="165">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2933,8 +3043,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="142">
+  <borders count="170">
     <border>
       <left/>
       <right/>
@@ -4367,13 +4630,295 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="115">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -4628,52 +5173,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="71" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="72" fillId="113" borderId="121" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="121" fillId="113" fontId="72" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="73" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="74" fillId="116" borderId="125" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="125" fillId="116" fontId="74" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="75" fillId="119" borderId="129" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="129" fillId="119" fontId="75" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="76" fillId="122" borderId="129" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="129" fillId="122" fontId="76" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="77" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="78" fillId="125" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="125" fontId="78" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="79" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="80" fillId="128" borderId="133" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="133" fillId="128" fontId="80" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="81" fillId="131" borderId="137" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="137" fillId="131" fontId="81" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="82" fillId="134" borderId="141" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="141" fillId="134" fontId="82" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="83" fillId="134" borderId="141" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="141" fillId="134" fontId="83" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="84" fillId="122" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="122" fontId="84" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="85" fillId="137" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="137" fontId="85" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="86" fillId="122" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="122" fontId="86" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="87" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="140" borderId="149" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="143" borderId="153" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="146" borderId="157" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="149" borderId="157" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="152" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="155" borderId="161" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="97" fillId="158" borderId="165" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="161" borderId="169" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="161" borderId="169" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="149" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="164" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="149" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4971,7 +5564,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB119"/>
+  <dimension ref="A1:AB120"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125"/>
   </sheetViews>
@@ -5568,7 +6161,7 @@
         <v>181</v>
       </c>
       <c r="AA9" t="s">
-        <v>226</v>
+        <v>509</v>
       </c>
     </row>
     <row r="10">
@@ -5606,7 +6199,7 @@
         <v>182</v>
       </c>
       <c r="AA10" t="s">
-        <v>227</v>
+        <v>510</v>
       </c>
     </row>
     <row r="11">
@@ -5641,7 +6234,7 @@
         <v>260</v>
       </c>
       <c r="AA11" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="12">
@@ -5675,6 +6268,9 @@
       <c r="Y12" t="s">
         <v>183</v>
       </c>
+      <c r="AA12" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -5707,6 +6303,9 @@
       <c r="Y13" t="s">
         <v>184</v>
       </c>
+      <c r="AA13" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -6294,7 +6893,7 @@
         <v>371</v>
       </c>
       <c r="V63" t="s">
-        <v>206</v>
+        <v>508</v>
       </c>
     </row>
     <row r="64">
@@ -6302,7 +6901,7 @@
         <v>346</v>
       </c>
       <c r="V64" t="s">
-        <v>390</v>
+        <v>206</v>
       </c>
     </row>
     <row r="65">
@@ -6310,7 +6909,7 @@
         <v>315</v>
       </c>
       <c r="V65" t="s">
-        <v>478</v>
+        <v>390</v>
       </c>
     </row>
     <row r="66">
@@ -6318,7 +6917,7 @@
         <v>270</v>
       </c>
       <c r="V66" t="s">
-        <v>131</v>
+        <v>478</v>
       </c>
     </row>
     <row r="67">
@@ -6326,7 +6925,7 @@
         <v>354</v>
       </c>
       <c r="V67" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="68">
@@ -6334,7 +6933,7 @@
         <v>316</v>
       </c>
       <c r="V68" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="69">
@@ -6342,7 +6941,7 @@
         <v>409</v>
       </c>
       <c r="V69" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="70">
@@ -6350,7 +6949,7 @@
         <v>306</v>
       </c>
       <c r="V70" t="s">
-        <v>189</v>
+        <v>134</v>
       </c>
     </row>
     <row r="71">
@@ -6358,7 +6957,7 @@
         <v>410</v>
       </c>
       <c r="V71" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="72">
@@ -6366,7 +6965,7 @@
         <v>263</v>
       </c>
       <c r="V72" t="s">
-        <v>489</v>
+        <v>190</v>
       </c>
     </row>
     <row r="73">
@@ -6374,7 +6973,7 @@
         <v>345</v>
       </c>
       <c r="V73" t="s">
-        <v>502</v>
+        <v>489</v>
       </c>
     </row>
     <row r="74">
@@ -6382,7 +6981,7 @@
         <v>281</v>
       </c>
       <c r="V74" t="s">
-        <v>135</v>
+        <v>502</v>
       </c>
     </row>
     <row r="75">
@@ -6390,7 +6989,7 @@
         <v>287</v>
       </c>
       <c r="V75" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="76">
@@ -6398,7 +6997,7 @@
         <v>292</v>
       </c>
       <c r="V76" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="77">
@@ -6406,7 +7005,7 @@
         <v>464</v>
       </c>
       <c r="V77" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="78">
@@ -6414,7 +7013,7 @@
         <v>333</v>
       </c>
       <c r="V78" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="79">
@@ -6422,7 +7021,7 @@
         <v>271</v>
       </c>
       <c r="V79" t="s">
-        <v>191</v>
+        <v>139</v>
       </c>
     </row>
     <row r="80">
@@ -6430,7 +7029,7 @@
         <v>282</v>
       </c>
       <c r="V80" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="81">
@@ -6438,7 +7037,7 @@
         <v>288</v>
       </c>
       <c r="V81" t="s">
-        <v>488</v>
+        <v>192</v>
       </c>
     </row>
     <row r="82">
@@ -6446,7 +7045,7 @@
         <v>277</v>
       </c>
       <c r="V82" t="s">
-        <v>193</v>
+        <v>488</v>
       </c>
     </row>
     <row r="83">
@@ -6454,7 +7053,7 @@
         <v>272</v>
       </c>
       <c r="V83" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="84">
@@ -6462,7 +7061,7 @@
         <v>289</v>
       </c>
       <c r="V84" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
     </row>
     <row r="85">
@@ -6470,7 +7069,7 @@
         <v>273</v>
       </c>
       <c r="V85" t="s">
-        <v>140</v>
+        <v>207</v>
       </c>
     </row>
     <row r="86">
@@ -6478,7 +7077,7 @@
         <v>274</v>
       </c>
       <c r="V86" t="s">
-        <v>195</v>
+        <v>140</v>
       </c>
     </row>
     <row r="87">
@@ -6486,7 +7085,7 @@
         <v>307</v>
       </c>
       <c r="V87" t="s">
-        <v>471</v>
+        <v>195</v>
       </c>
     </row>
     <row r="88">
@@ -6494,7 +7093,7 @@
         <v>313</v>
       </c>
       <c r="V88" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="89">
@@ -6502,7 +7101,7 @@
         <v>296</v>
       </c>
       <c r="V89" t="s">
-        <v>196</v>
+        <v>472</v>
       </c>
     </row>
     <row r="90">
@@ -6510,7 +7109,7 @@
         <v>341</v>
       </c>
       <c r="V90" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="91">
@@ -6518,7 +7117,7 @@
         <v>278</v>
       </c>
       <c r="V91" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="92">
@@ -6526,141 +7125,146 @@
         <v>279</v>
       </c>
       <c r="V92" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="93">
       <c r="V93" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
     </row>
     <row r="94">
       <c r="V94" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
     </row>
     <row r="95">
       <c r="V95" t="s">
-        <v>141</v>
+        <v>200</v>
       </c>
     </row>
     <row r="96">
       <c r="V96" t="s">
-        <v>384</v>
+        <v>141</v>
       </c>
     </row>
     <row r="97">
       <c r="V97" t="s">
-        <v>142</v>
+        <v>384</v>
       </c>
     </row>
     <row r="98">
       <c r="V98" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="99">
       <c r="V99" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="100">
       <c r="V100" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="101">
       <c r="V101" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="102">
       <c r="V102" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="103">
       <c r="V103" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="104">
       <c r="V104" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="105">
       <c r="V105" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="106">
       <c r="V106" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="107">
       <c r="V107" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="108">
       <c r="V108" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="109">
       <c r="V109" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="110">
       <c r="V110" t="s">
-        <v>479</v>
+        <v>154</v>
       </c>
     </row>
     <row r="111">
       <c r="V111" t="s">
-        <v>155</v>
+        <v>479</v>
       </c>
     </row>
     <row r="112">
       <c r="V112" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="113">
       <c r="V113" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="114">
       <c r="V114" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="115">
       <c r="V115" t="s">
-        <v>40</v>
+        <v>158</v>
       </c>
     </row>
     <row r="116">
       <c r="V116" t="s">
-        <v>159</v>
+        <v>40</v>
       </c>
     </row>
     <row r="117">
       <c r="V117" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="118">
       <c r="V118" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="119">
       <c r="V119" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="V120" t="s">
         <v>162</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/base-showcase-macro.xlsx
+++ b/src/test/resources/showcase/artifact/script/base-showcase-macro.xlsx
@@ -25,30 +25,31 @@
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$F$2:$F$92</definedName>
     <definedName name="excel">'#system'!$G$2:$G$14</definedName>
-    <definedName name="external">'#system'!$H$2:$H$3</definedName>
+    <definedName name="external">'#system'!$H$2:$H$4</definedName>
     <definedName name="image">'#system'!$I$2:$I$6</definedName>
     <definedName name="io">'#system'!$J$2:$J$25</definedName>
     <definedName name="jms">'#system'!$K$2:$K$4</definedName>
     <definedName name="json">'#system'!$L$2:$L$16</definedName>
-    <definedName name="mail">'#system'!$M$2:$M$2</definedName>
+    <definedName name="mail">'#system'!$N$2:$N$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$N$2:$N$15</definedName>
-    <definedName name="pdf">'#system'!$O$2:$O$16</definedName>
-    <definedName name="rdbms">'#system'!$P$2:$P$7</definedName>
-    <definedName name="redis">'#system'!$Q$2:$Q$10</definedName>
-    <definedName name="sms">'#system'!$R$2:$R$2</definedName>
-    <definedName name="sound">'#system'!$S$2:$S$5</definedName>
-    <definedName name="ssh">'#system'!$T$2:$T$9</definedName>
-    <definedName name="step">'#system'!$U$2:$U$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$27</definedName>
-    <definedName name="web">'#system'!$V$2:$V$120</definedName>
-    <definedName name="webalert">'#system'!$W$2:$W$8</definedName>
-    <definedName name="webcookie">'#system'!$X$2:$X$8</definedName>
-    <definedName name="ws">'#system'!$Y$2:$Y$17</definedName>
-    <definedName name="ws.async">'#system'!$Z$2:$Z$8</definedName>
-    <definedName name="xml">'#system'!$AA$2:$AA$13</definedName>
+    <definedName name="number">'#system'!$O$2:$O$15</definedName>
+    <definedName name="pdf">'#system'!$P$2:$P$16</definedName>
+    <definedName name="rdbms">'#system'!$Q$2:$Q$7</definedName>
+    <definedName name="redis">'#system'!$R$2:$R$10</definedName>
+    <definedName name="sms">'#system'!$S$2:$S$2</definedName>
+    <definedName name="sound">'#system'!$T$2:$T$5</definedName>
+    <definedName name="ssh">'#system'!$U$2:$U$9</definedName>
+    <definedName name="step">'#system'!$V$2:$V$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$28</definedName>
+    <definedName name="web">'#system'!$W$2:$W$122</definedName>
+    <definedName name="webalert">'#system'!$X$2:$X$8</definedName>
+    <definedName name="webcookie">'#system'!$Y$2:$Y$8</definedName>
+    <definedName name="ws">'#system'!$Z$2:$Z$17</definedName>
+    <definedName name="ws.async">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="xml">'#system'!$AB$2:$AB$13</definedName>
+    <definedName name="macro">'#system'!$M$2:$M$4</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
@@ -63,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3468" uniqueCount="511">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3961" uniqueCount="518">
   <si>
     <t>description</t>
   </si>
@@ -1597,6 +1598,27 @@
   </si>
   <si>
     <t>minify(xml,var)</t>
+  </si>
+  <si>
+    <t>runProgram(programPathAndParams)</t>
+  </si>
+  <si>
+    <t>runProgramNoWait(programPathAndParams)</t>
+  </si>
+  <si>
+    <t>description()</t>
+  </si>
+  <si>
+    <t>expects(var,default)</t>
+  </si>
+  <si>
+    <t>produces(var,value)</t>
+  </si>
+  <si>
+    <t>clickOffset(locator,x,y)</t>
+  </si>
+  <si>
+    <t>saveAttributeList(var,locator,attrName)</t>
   </si>
 </sst>
 </file>
@@ -1604,7 +1626,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="104" x14ac:knownFonts="1">
+  <fonts count="120" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2264,8 +2286,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="165">
+  <fills count="192">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3196,8 +3319,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="170">
+  <borders count="198">
     <border>
       <left/>
       <right/>
@@ -4912,13 +5188,295 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="131">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -5221,52 +5779,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="87" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="88" fillId="140" borderId="149" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="149" fillId="140" fontId="88" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="89" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="89" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="90" fillId="143" borderId="153" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="153" fillId="143" fontId="90" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="91" fillId="146" borderId="157" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="157" fillId="146" fontId="91" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="92" fillId="149" borderId="157" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="157" fillId="149" fontId="92" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="93" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="93" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="94" fillId="152" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="152" fontId="94" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="95" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="95" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="96" fillId="155" borderId="161" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="161" fillId="155" fontId="96" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="97" fillId="158" borderId="165" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="165" fillId="158" fontId="97" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="98" fillId="161" borderId="169" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="169" fillId="161" fontId="98" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="99" fillId="161" borderId="169" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="169" fillId="161" fontId="99" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="100" fillId="149" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="149" fontId="100" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="101" fillId="164" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="164" fontId="101" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="102" fillId="149" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="149" fontId="102" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="103" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="103" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="104" fillId="167" borderId="177" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="106" fillId="170" borderId="181" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="107" fillId="173" borderId="185" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="108" fillId="176" borderId="185" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="109" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="110" fillId="179" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="111" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="112" fillId="182" borderId="189" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="113" fillId="185" borderId="193" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="114" fillId="188" borderId="197" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="115" fillId="188" borderId="197" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="116" fillId="176" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="117" fillId="191" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="118" fillId="176" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="119" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5564,7 +6170,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB120"/>
+  <dimension ref="A1:AC122"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125"/>
   </sheetViews>
@@ -5611,48 +6217,51 @@
         <v>17</v>
       </c>
       <c r="M1" t="s">
+        <v>246</v>
+      </c>
+      <c r="N1" t="s">
         <v>188</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>44</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>230</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>45</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>399</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>456</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>413</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>358</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>395</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>46</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>47</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>48</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>49</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>458</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>218</v>
       </c>
     </row>
@@ -5694,48 +6303,51 @@
         <v>465</v>
       </c>
       <c r="M2" t="s">
+        <v>513</v>
+      </c>
+      <c r="N2" t="s">
         <v>412</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>466</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>244</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>209</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>400</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>457</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>454</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>382</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>396</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>89</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>163</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>168</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>175</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>468</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>219</v>
       </c>
     </row>
@@ -5762,7 +6374,7 @@
         <v>41</v>
       </c>
       <c r="H3" t="s">
-        <v>21</v>
+        <v>511</v>
       </c>
       <c r="I3" t="s">
         <v>350</v>
@@ -5776,43 +6388,46 @@
       <c r="L3" t="s">
         <v>78</v>
       </c>
-      <c r="N3" t="s">
+      <c r="M3" t="s">
+        <v>514</v>
+      </c>
+      <c r="O3" t="s">
         <v>467</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>231</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>210</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>401</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>415</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>383</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>397</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>90</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>164</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>169</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>365</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>176</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>220</v>
       </c>
     </row>
@@ -5835,6 +6450,9 @@
       <c r="G4" t="s">
         <v>485</v>
       </c>
+      <c r="H4" t="s">
+        <v>512</v>
+      </c>
       <c r="I4" t="s">
         <v>351</v>
       </c>
@@ -5847,43 +6465,46 @@
       <c r="L4" t="s">
         <v>18</v>
       </c>
-      <c r="N4" t="s">
+      <c r="M4" t="s">
+        <v>515</v>
+      </c>
+      <c r="O4" t="s">
         <v>19</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>232</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>211</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>402</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>416</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>359</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>398</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>355</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>165</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>170</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>176</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>459</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>221</v>
       </c>
     </row>
@@ -5915,40 +6536,40 @@
       <c r="L5" t="s">
         <v>79</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>23</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>233</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>212</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>403</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>417</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>360</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>356</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>166</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>171</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>177</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>460</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>222</v>
       </c>
     </row>
@@ -5977,37 +6598,37 @@
       <c r="L6" t="s">
         <v>22</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>24</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>234</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>392</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>404</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>362</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>91</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>480</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>172</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>178</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>461</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>223</v>
       </c>
     </row>
@@ -6033,37 +6654,37 @@
       <c r="L7" t="s">
         <v>317</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>26</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>235</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>414</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>405</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>361</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>92</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>481</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>173</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>179</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>462</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>224</v>
       </c>
     </row>
@@ -6089,34 +6710,34 @@
       <c r="L8" t="s">
         <v>27</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>83</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>236</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>406</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
         <v>363</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>93</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>167</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>174</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>180</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>463</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>225</v>
       </c>
     </row>
@@ -6142,25 +6763,25 @@
       <c r="L9" t="s">
         <v>28</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>84</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>237</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>407</v>
       </c>
-      <c r="T9" t="s">
+      <c r="U9" t="s">
         <v>364</v>
       </c>
-      <c r="V9" t="s">
+      <c r="W9" t="s">
         <v>201</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Z9" t="s">
         <v>181</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AB9" t="s">
         <v>509</v>
       </c>
     </row>
@@ -6183,22 +6804,22 @@
       <c r="L10" t="s">
         <v>29</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>469</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>238</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>408</v>
       </c>
-      <c r="V10" t="s">
+      <c r="W10" t="s">
         <v>258</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="Z10" t="s">
         <v>182</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="AB10" t="s">
         <v>510</v>
       </c>
     </row>
@@ -6221,19 +6842,19 @@
       <c r="L11" t="s">
         <v>507</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>85</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>239</v>
       </c>
-      <c r="V11" t="s">
+      <c r="W11" t="s">
         <v>259</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="Z11" t="s">
         <v>260</v>
       </c>
-      <c r="AA11" t="s">
+      <c r="AB11" t="s">
         <v>226</v>
       </c>
     </row>
@@ -6256,25 +6877,25 @@
       <c r="L12" t="s">
         <v>476</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>34</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>240</v>
       </c>
-      <c r="V12" t="s">
+      <c r="W12" t="s">
         <v>94</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="Z12" t="s">
         <v>183</v>
       </c>
-      <c r="AA12" t="s">
+      <c r="AB12" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>188</v>
+        <v>246</v>
       </c>
       <c r="D13" t="s">
         <v>342</v>
@@ -6291,25 +6912,25 @@
       <c r="L13" t="s">
         <v>506</v>
       </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
         <v>86</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>245</v>
       </c>
-      <c r="V13" t="s">
+      <c r="W13" t="s">
         <v>327</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="Z13" t="s">
         <v>184</v>
       </c>
-      <c r="AA13" t="s">
+      <c r="AB13" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>188</v>
       </c>
       <c r="D14" t="s">
         <v>30</v>
@@ -6326,22 +6947,22 @@
       <c r="L14" t="s">
         <v>32</v>
       </c>
-      <c r="N14" t="s">
+      <c r="O14" t="s">
         <v>87</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>241</v>
       </c>
-      <c r="V14" t="s">
+      <c r="W14" t="s">
         <v>95</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="Z14" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>230</v>
+        <v>44</v>
       </c>
       <c r="D15" t="s">
         <v>51</v>
@@ -6355,22 +6976,22 @@
       <c r="L15" t="s">
         <v>33</v>
       </c>
-      <c r="N15" t="s">
+      <c r="O15" t="s">
         <v>88</v>
       </c>
-      <c r="O15" t="s">
+      <c r="P15" t="s">
         <v>242</v>
       </c>
-      <c r="V15" t="s">
+      <c r="W15" t="s">
         <v>96</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="Z15" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>45</v>
+        <v>230</v>
       </c>
       <c r="D16" t="s">
         <v>386</v>
@@ -6384,19 +7005,19 @@
       <c r="L16" t="s">
         <v>36</v>
       </c>
-      <c r="O16" t="s">
+      <c r="P16" t="s">
         <v>243</v>
       </c>
-      <c r="V16" t="s">
+      <c r="W16" t="s">
         <v>67</v>
       </c>
-      <c r="Y16" t="s">
+      <c r="Z16" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>399</v>
+        <v>45</v>
       </c>
       <c r="D17" t="s">
         <v>387</v>
@@ -6407,16 +7028,16 @@
       <c r="J17" t="s">
         <v>76</v>
       </c>
-      <c r="V17" t="s">
+      <c r="W17" t="s">
         <v>97</v>
       </c>
-      <c r="Y17" t="s">
+      <c r="Z17" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>456</v>
+        <v>399</v>
       </c>
       <c r="D18" t="s">
         <v>411</v>
@@ -6427,13 +7048,13 @@
       <c r="J18" t="s">
         <v>381</v>
       </c>
-      <c r="V18" t="s">
+      <c r="W18" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>413</v>
+        <v>456</v>
       </c>
       <c r="D19" t="s">
         <v>52</v>
@@ -6444,13 +7065,13 @@
       <c r="J19" t="s">
         <v>505</v>
       </c>
-      <c r="V19" t="s">
+      <c r="W19" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>358</v>
+        <v>413</v>
       </c>
       <c r="D20" t="s">
         <v>53</v>
@@ -6461,13 +7082,13 @@
       <c r="J20" t="s">
         <v>37</v>
       </c>
-      <c r="V20" t="s">
+      <c r="W20" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>395</v>
+        <v>358</v>
       </c>
       <c r="D21" t="s">
         <v>54</v>
@@ -6478,13 +7099,13 @@
       <c r="J21" t="s">
         <v>393</v>
       </c>
-      <c r="V21" t="s">
+      <c r="W21" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>46</v>
+        <v>395</v>
       </c>
       <c r="D22" t="s">
         <v>322</v>
@@ -6495,13 +7116,13 @@
       <c r="J22" t="s">
         <v>77</v>
       </c>
-      <c r="V22" t="s">
+      <c r="W22" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D23" t="s">
         <v>55</v>
@@ -6512,13 +7133,13 @@
       <c r="J23" t="s">
         <v>475</v>
       </c>
-      <c r="V23" t="s">
+      <c r="W23" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D24" t="s">
         <v>483</v>
@@ -6529,13 +7150,13 @@
       <c r="J24" t="s">
         <v>38</v>
       </c>
-      <c r="V24" t="s">
+      <c r="W24" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D25" t="s">
         <v>216</v>
@@ -6546,13 +7167,13 @@
       <c r="J25" t="s">
         <v>39</v>
       </c>
-      <c r="V25" t="s">
+      <c r="W25" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>458</v>
+        <v>49</v>
       </c>
       <c r="D26" t="s">
         <v>217</v>
@@ -6560,13 +7181,13 @@
       <c r="F26" t="s">
         <v>283</v>
       </c>
-      <c r="V26" t="s">
+      <c r="W26" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>218</v>
+        <v>458</v>
       </c>
       <c r="D27" t="s">
         <v>503</v>
@@ -6574,18 +7195,21 @@
       <c r="F27" t="s">
         <v>267</v>
       </c>
-      <c r="V27" t="s">
+      <c r="W27" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="s">
+        <v>218</v>
+      </c>
       <c r="D28" t="s">
         <v>504</v>
       </c>
       <c r="F28" t="s">
         <v>284</v>
       </c>
-      <c r="V28" t="s">
+      <c r="W28" t="s">
         <v>107</v>
       </c>
     </row>
@@ -6596,7 +7220,7 @@
       <c r="F29" t="s">
         <v>285</v>
       </c>
-      <c r="V29" t="s">
+      <c r="W29" t="s">
         <v>108</v>
       </c>
     </row>
@@ -6607,7 +7231,7 @@
       <c r="F30" t="s">
         <v>208</v>
       </c>
-      <c r="V30" t="s">
+      <c r="W30" t="s">
         <v>109</v>
       </c>
     </row>
@@ -6618,7 +7242,7 @@
       <c r="F31" t="s">
         <v>276</v>
       </c>
-      <c r="V31" t="s">
+      <c r="W31" t="s">
         <v>110</v>
       </c>
     </row>
@@ -6629,7 +7253,7 @@
       <c r="F32" t="s">
         <v>286</v>
       </c>
-      <c r="V32" t="s">
+      <c r="W32" t="s">
         <v>111</v>
       </c>
     </row>
@@ -6640,7 +7264,7 @@
       <c r="F33" t="s">
         <v>261</v>
       </c>
-      <c r="V33" t="s">
+      <c r="W33" t="s">
         <v>112</v>
       </c>
     </row>
@@ -6651,7 +7275,7 @@
       <c r="F34" t="s">
         <v>331</v>
       </c>
-      <c r="V34" t="s">
+      <c r="W34" t="s">
         <v>202</v>
       </c>
     </row>
@@ -6662,7 +7286,7 @@
       <c r="F35" t="s">
         <v>309</v>
       </c>
-      <c r="V35" t="s">
+      <c r="W35" t="s">
         <v>113</v>
       </c>
     </row>
@@ -6673,7 +7297,7 @@
       <c r="F36" t="s">
         <v>262</v>
       </c>
-      <c r="V36" t="s">
+      <c r="W36" t="s">
         <v>339</v>
       </c>
     </row>
@@ -6684,7 +7308,7 @@
       <c r="F37" t="s">
         <v>310</v>
       </c>
-      <c r="V37" t="s">
+      <c r="W37" t="s">
         <v>470</v>
       </c>
     </row>
@@ -6692,7 +7316,7 @@
       <c r="F38" t="s">
         <v>268</v>
       </c>
-      <c r="V38" t="s">
+      <c r="W38" t="s">
         <v>394</v>
       </c>
     </row>
@@ -6700,7 +7324,7 @@
       <c r="F39" t="s">
         <v>70</v>
       </c>
-      <c r="V39" t="s">
+      <c r="W39" t="s">
         <v>114</v>
       </c>
     </row>
@@ -6708,7 +7332,7 @@
       <c r="F40" t="s">
         <v>204</v>
       </c>
-      <c r="V40" t="s">
+      <c r="W40" t="s">
         <v>115</v>
       </c>
     </row>
@@ -6716,7 +7340,7 @@
       <c r="F41" t="s">
         <v>290</v>
       </c>
-      <c r="V41" t="s">
+      <c r="W41" t="s">
         <v>116</v>
       </c>
     </row>
@@ -6724,7 +7348,7 @@
       <c r="F42" t="s">
         <v>301</v>
       </c>
-      <c r="V42" t="s">
+      <c r="W42" t="s">
         <v>117</v>
       </c>
     </row>
@@ -6732,7 +7356,7 @@
       <c r="F43" t="s">
         <v>302</v>
       </c>
-      <c r="V43" t="s">
+      <c r="W43" t="s">
         <v>118</v>
       </c>
     </row>
@@ -6740,7 +7364,7 @@
       <c r="F44" t="s">
         <v>344</v>
       </c>
-      <c r="V44" t="s">
+      <c r="W44" t="s">
         <v>119</v>
       </c>
     </row>
@@ -6748,7 +7372,7 @@
       <c r="F45" t="s">
         <v>343</v>
       </c>
-      <c r="V45" t="s">
+      <c r="W45" t="s">
         <v>477</v>
       </c>
     </row>
@@ -6756,7 +7380,7 @@
       <c r="F46" t="s">
         <v>203</v>
       </c>
-      <c r="V46" t="s">
+      <c r="W46" t="s">
         <v>205</v>
       </c>
     </row>
@@ -6764,7 +7388,7 @@
       <c r="F47" t="s">
         <v>303</v>
       </c>
-      <c r="V47" t="s">
+      <c r="W47" t="s">
         <v>69</v>
       </c>
     </row>
@@ -6772,7 +7396,7 @@
       <c r="F48" t="s">
         <v>340</v>
       </c>
-      <c r="V48" t="s">
+      <c r="W48" t="s">
         <v>120</v>
       </c>
     </row>
@@ -6780,7 +7404,7 @@
       <c r="F49" t="s">
         <v>369</v>
       </c>
-      <c r="V49" t="s">
+      <c r="W49" t="s">
         <v>121</v>
       </c>
     </row>
@@ -6788,7 +7412,7 @@
       <c r="F50" t="s">
         <v>304</v>
       </c>
-      <c r="V50" t="s">
+      <c r="W50" t="s">
         <v>122</v>
       </c>
     </row>
@@ -6796,475 +7420,485 @@
       <c r="F51" t="s">
         <v>357</v>
       </c>
-      <c r="V51" t="s">
-        <v>500</v>
+      <c r="W51" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="52">
       <c r="F52" t="s">
         <v>332</v>
       </c>
-      <c r="V52" t="s">
-        <v>123</v>
+      <c r="W52" t="s">
+        <v>500</v>
       </c>
     </row>
     <row r="53">
       <c r="F53" t="s">
         <v>269</v>
       </c>
-      <c r="V53" t="s">
-        <v>347</v>
+      <c r="W53" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="54">
       <c r="F54" t="s">
         <v>293</v>
       </c>
-      <c r="V54" t="s">
-        <v>494</v>
+      <c r="W54" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="55">
       <c r="F55" t="s">
         <v>294</v>
       </c>
-      <c r="V55" t="s">
-        <v>124</v>
+      <c r="W55" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="56">
       <c r="F56" t="s">
         <v>295</v>
       </c>
-      <c r="V56" t="s">
-        <v>125</v>
+      <c r="W56" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="57">
       <c r="F57" t="s">
         <v>305</v>
       </c>
-      <c r="V57" t="s">
-        <v>126</v>
+      <c r="W57" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="58">
       <c r="F58" t="s">
         <v>314</v>
       </c>
-      <c r="V58" t="s">
-        <v>127</v>
+      <c r="W58" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="59">
       <c r="F59" t="s">
         <v>338</v>
       </c>
-      <c r="V59" t="s">
-        <v>128</v>
+      <c r="W59" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="60">
       <c r="F60" t="s">
         <v>311</v>
       </c>
-      <c r="V60" t="s">
-        <v>129</v>
+      <c r="W60" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="61">
       <c r="F61" t="s">
         <v>312</v>
       </c>
-      <c r="V61" t="s">
-        <v>130</v>
+      <c r="W61" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="62">
       <c r="F62" t="s">
         <v>370</v>
       </c>
-      <c r="V62" t="s">
-        <v>473</v>
+      <c r="W62" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="63">
       <c r="F63" t="s">
         <v>371</v>
       </c>
-      <c r="V63" t="s">
-        <v>508</v>
+      <c r="W63" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="64">
       <c r="F64" t="s">
         <v>346</v>
       </c>
-      <c r="V64" t="s">
-        <v>206</v>
+      <c r="W64" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="65">
       <c r="F65" t="s">
         <v>315</v>
       </c>
-      <c r="V65" t="s">
-        <v>390</v>
+      <c r="W65" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="66">
       <c r="F66" t="s">
         <v>270</v>
       </c>
-      <c r="V66" t="s">
-        <v>478</v>
+      <c r="W66" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="67">
       <c r="F67" t="s">
         <v>354</v>
       </c>
-      <c r="V67" t="s">
-        <v>131</v>
+      <c r="W67" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="68">
       <c r="F68" t="s">
         <v>316</v>
       </c>
-      <c r="V68" t="s">
-        <v>132</v>
+      <c r="W68" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="69">
       <c r="F69" t="s">
         <v>409</v>
       </c>
-      <c r="V69" t="s">
-        <v>133</v>
+      <c r="W69" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="70">
       <c r="F70" t="s">
         <v>306</v>
       </c>
-      <c r="V70" t="s">
-        <v>134</v>
+      <c r="W70" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" t="s">
         <v>410</v>
       </c>
-      <c r="V71" t="s">
-        <v>189</v>
+      <c r="W71" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="72">
       <c r="F72" t="s">
         <v>263</v>
       </c>
-      <c r="V72" t="s">
-        <v>190</v>
+      <c r="W72" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="73">
       <c r="F73" t="s">
         <v>345</v>
       </c>
-      <c r="V73" t="s">
-        <v>489</v>
+      <c r="W73" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="74">
       <c r="F74" t="s">
         <v>281</v>
       </c>
-      <c r="V74" t="s">
-        <v>502</v>
+      <c r="W74" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="75">
       <c r="F75" t="s">
         <v>287</v>
       </c>
-      <c r="V75" t="s">
-        <v>135</v>
+      <c r="W75" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="76">
       <c r="F76" t="s">
         <v>292</v>
       </c>
-      <c r="V76" t="s">
-        <v>136</v>
+      <c r="W76" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="77">
       <c r="F77" t="s">
         <v>464</v>
       </c>
-      <c r="V77" t="s">
-        <v>137</v>
+      <c r="W77" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="78">
       <c r="F78" t="s">
         <v>333</v>
       </c>
-      <c r="V78" t="s">
-        <v>138</v>
+      <c r="W78" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="79">
       <c r="F79" t="s">
         <v>271</v>
       </c>
-      <c r="V79" t="s">
-        <v>139</v>
+      <c r="W79" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="80">
       <c r="F80" t="s">
         <v>282</v>
       </c>
-      <c r="V80" t="s">
-        <v>191</v>
+      <c r="W80" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="81">
       <c r="F81" t="s">
         <v>288</v>
       </c>
-      <c r="V81" t="s">
-        <v>192</v>
+      <c r="W81" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="82">
       <c r="F82" t="s">
         <v>277</v>
       </c>
-      <c r="V82" t="s">
-        <v>488</v>
+      <c r="W82" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="83">
       <c r="F83" t="s">
         <v>272</v>
       </c>
-      <c r="V83" t="s">
-        <v>193</v>
+      <c r="W83" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="84">
       <c r="F84" t="s">
         <v>289</v>
       </c>
-      <c r="V84" t="s">
-        <v>194</v>
+      <c r="W84" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="85">
       <c r="F85" t="s">
         <v>273</v>
       </c>
-      <c r="V85" t="s">
-        <v>207</v>
+      <c r="W85" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="86">
       <c r="F86" t="s">
         <v>274</v>
       </c>
-      <c r="V86" t="s">
-        <v>140</v>
+      <c r="W86" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="87">
       <c r="F87" t="s">
         <v>307</v>
       </c>
-      <c r="V87" t="s">
-        <v>195</v>
+      <c r="W87" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="88">
       <c r="F88" t="s">
         <v>313</v>
       </c>
-      <c r="V88" t="s">
-        <v>471</v>
+      <c r="W88" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="89">
       <c r="F89" t="s">
         <v>296</v>
       </c>
-      <c r="V89" t="s">
-        <v>472</v>
+      <c r="W89" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="90">
       <c r="F90" t="s">
         <v>341</v>
       </c>
-      <c r="V90" t="s">
-        <v>196</v>
+      <c r="W90" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="91">
       <c r="F91" t="s">
         <v>278</v>
       </c>
-      <c r="V91" t="s">
-        <v>197</v>
+      <c r="W91" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="92">
       <c r="F92" t="s">
         <v>279</v>
       </c>
-      <c r="V92" t="s">
+      <c r="W92" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="W93" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="W94" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="93">
-      <c r="V93" t="s">
+    <row r="95">
+      <c r="W95" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="94">
-      <c r="V94" t="s">
+    <row r="96">
+      <c r="W96" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="95">
-      <c r="V95" t="s">
+    <row r="97">
+      <c r="W97" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="96">
-      <c r="V96" t="s">
+    <row r="98">
+      <c r="W98" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="97">
-      <c r="V97" t="s">
+    <row r="99">
+      <c r="W99" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="98">
-      <c r="V98" t="s">
+    <row r="100">
+      <c r="W100" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="99">
-      <c r="V99" t="s">
+    <row r="101">
+      <c r="W101" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="100">
-      <c r="V100" t="s">
+    <row r="102">
+      <c r="W102" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="101">
-      <c r="V101" t="s">
+    <row r="103">
+      <c r="W103" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="102">
-      <c r="V102" t="s">
+    <row r="104">
+      <c r="W104" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="103">
-      <c r="V103" t="s">
+    <row r="105">
+      <c r="W105" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="104">
-      <c r="V104" t="s">
+    <row r="106">
+      <c r="W106" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="105">
-      <c r="V105" t="s">
+    <row r="107">
+      <c r="W107" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="106">
-      <c r="V106" t="s">
+    <row r="108">
+      <c r="W108" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="107">
-      <c r="V107" t="s">
+    <row r="109">
+      <c r="W109" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="108">
-      <c r="V108" t="s">
+    <row r="110">
+      <c r="W110" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="109">
-      <c r="V109" t="s">
+    <row r="111">
+      <c r="W111" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="110">
-      <c r="V110" t="s">
+    <row r="112">
+      <c r="W112" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="111">
-      <c r="V111" t="s">
+    <row r="113">
+      <c r="W113" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="112">
-      <c r="V112" t="s">
+    <row r="114">
+      <c r="W114" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="113">
-      <c r="V113" t="s">
+    <row r="115">
+      <c r="W115" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="114">
-      <c r="V114" t="s">
+    <row r="116">
+      <c r="W116" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="115">
-      <c r="V115" t="s">
+    <row r="117">
+      <c r="W117" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="116">
-      <c r="V116" t="s">
+    <row r="118">
+      <c r="W118" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="117">
-      <c r="V117" t="s">
+    <row r="119">
+      <c r="W119" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="118">
-      <c r="V118" t="s">
+    <row r="120">
+      <c r="W120" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="119">
-      <c r="V119" t="s">
+    <row r="121">
+      <c r="W121" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="120">
-      <c r="V120" t="s">
+    <row r="122">
+      <c r="W122" t="s">
         <v>162</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/base-showcase-macro.xlsx
+++ b/src/test/resources/showcase/artifact/script/base-showcase-macro.xlsx
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3961" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4454" uniqueCount="519">
   <si>
     <t>description</t>
   </si>
@@ -1619,6 +1619,9 @@
   </si>
   <si>
     <t>saveAttributeList(var,locator,attrName)</t>
+  </si>
+  <si>
+    <t>assertIENativeMode()</t>
   </si>
 </sst>
 </file>
@@ -1626,7 +1629,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="120" x14ac:knownFonts="1">
+  <fonts count="136" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2387,8 +2390,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="192">
+  <fills count="219">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3472,8 +3576,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="198">
+  <borders count="226">
     <border>
       <left/>
       <right/>
@@ -5470,13 +5727,295 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="131">
+  <cellXfs count="147">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -5827,52 +6366,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="103" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="104" fillId="167" borderId="177" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="177" fillId="167" fontId="104" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="105" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="105" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="106" fillId="170" borderId="181" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="181" fillId="170" fontId="106" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="107" fillId="173" borderId="185" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="185" fillId="173" fontId="107" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="108" fillId="176" borderId="185" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="185" fillId="176" fontId="108" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="109" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="109" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="110" fillId="179" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="179" fontId="110" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="111" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="111" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="112" fillId="182" borderId="189" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="189" fillId="182" fontId="112" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="113" fillId="185" borderId="193" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="193" fillId="185" fontId="113" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="114" fillId="188" borderId="197" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="197" fillId="188" fontId="114" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="115" fillId="188" borderId="197" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="197" fillId="188" fontId="115" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="116" fillId="176" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="176" fontId="116" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="117" fillId="191" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="191" fontId="117" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="118" fillId="176" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="176" fontId="118" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="119" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="119" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="120" fillId="194" borderId="205" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="121" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="122" fillId="197" borderId="209" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="123" fillId="200" borderId="213" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="124" fillId="203" borderId="213" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="125" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="126" fillId="206" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="127" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="128" fillId="209" borderId="217" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="129" fillId="212" borderId="221" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="130" fillId="215" borderId="225" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="131" fillId="215" borderId="225" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="132" fillId="203" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="133" fillId="218" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="134" fillId="203" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="135" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -7100,7 +7687,7 @@
         <v>393</v>
       </c>
       <c r="W21" t="s">
-        <v>101</v>
+        <v>518</v>
       </c>
     </row>
     <row r="22">

--- a/src/test/resources/showcase/artifact/script/base-showcase-macro.xlsx
+++ b/src/test/resources/showcase/artifact/script/base-showcase-macro.xlsx
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4454" uniqueCount="519">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4947" uniqueCount="519">
   <si>
     <t>description</t>
   </si>
@@ -1629,7 +1629,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="136" x14ac:knownFonts="1">
+  <fonts count="152" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2491,8 +2491,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="219">
+  <fills count="246">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3729,8 +3830,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="226">
+  <borders count="254">
     <border>
       <left/>
       <right/>
@@ -6009,13 +6263,295 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="147">
+  <cellXfs count="163">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -6414,52 +6950,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="119" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="120" fillId="194" borderId="205" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="205" fillId="194" fontId="120" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="121" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="121" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="122" fillId="197" borderId="209" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="209" fillId="197" fontId="122" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="123" fillId="200" borderId="213" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="213" fillId="200" fontId="123" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="124" fillId="203" borderId="213" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="213" fillId="203" fontId="124" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="125" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="125" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="126" fillId="206" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="206" fontId="126" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="127" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="127" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="128" fillId="209" borderId="217" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="217" fillId="209" fontId="128" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="129" fillId="212" borderId="221" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="221" fillId="212" fontId="129" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="130" fillId="215" borderId="225" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="225" fillId="215" fontId="130" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="131" fillId="215" borderId="225" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="225" fillId="215" fontId="131" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="132" fillId="203" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="203" fontId="132" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="133" fillId="218" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="218" fontId="133" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="134" fillId="203" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="203" fontId="134" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="135" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="135" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="136" fillId="221" borderId="233" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="137" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="138" fillId="224" borderId="237" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="139" fillId="227" borderId="241" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="140" fillId="230" borderId="241" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="141" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="142" fillId="233" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="143" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="144" fillId="236" borderId="245" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="145" fillId="239" borderId="249" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="146" fillId="242" borderId="253" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="147" fillId="242" borderId="253" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="148" fillId="230" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="149" fillId="245" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="150" fillId="230" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="151" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/src/test/resources/showcase/artifact/script/base-showcase-macro.xlsx
+++ b/src/test/resources/showcase/artifact/script/base-showcase-macro.xlsx
@@ -19,37 +19,38 @@
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
-    <definedName name="base">'#system'!$D$2:$D$38</definedName>
-    <definedName name="csv">'#system'!$E$2:$E$5</definedName>
+    <definedName name="base">'#system'!$E$2:$E$38</definedName>
+    <definedName name="csv">'#system'!$F$2:$F$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$F$2:$F$92</definedName>
-    <definedName name="excel">'#system'!$G$2:$G$14</definedName>
-    <definedName name="external">'#system'!$H$2:$H$4</definedName>
-    <definedName name="image">'#system'!$I$2:$I$6</definedName>
-    <definedName name="io">'#system'!$J$2:$J$25</definedName>
-    <definedName name="jms">'#system'!$K$2:$K$4</definedName>
-    <definedName name="json">'#system'!$L$2:$L$16</definedName>
-    <definedName name="mail">'#system'!$N$2:$N$2</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$92</definedName>
+    <definedName name="excel">'#system'!$H$2:$H$14</definedName>
+    <definedName name="external">'#system'!$I$2:$I$4</definedName>
+    <definedName name="image">'#system'!$J$2:$J$6</definedName>
+    <definedName name="io">'#system'!$K$2:$K$25</definedName>
+    <definedName name="jms">'#system'!$L$2:$L$4</definedName>
+    <definedName name="json">'#system'!$M$2:$M$16</definedName>
+    <definedName name="mail">'#system'!$O$2:$O$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$O$2:$O$15</definedName>
-    <definedName name="pdf">'#system'!$P$2:$P$16</definedName>
-    <definedName name="rdbms">'#system'!$Q$2:$Q$7</definedName>
-    <definedName name="redis">'#system'!$R$2:$R$10</definedName>
-    <definedName name="sms">'#system'!$S$2:$S$2</definedName>
-    <definedName name="sound">'#system'!$T$2:$T$5</definedName>
-    <definedName name="ssh">'#system'!$U$2:$U$9</definedName>
-    <definedName name="step">'#system'!$V$2:$V$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$28</definedName>
-    <definedName name="web">'#system'!$W$2:$W$122</definedName>
-    <definedName name="webalert">'#system'!$X$2:$X$8</definedName>
-    <definedName name="webcookie">'#system'!$Y$2:$Y$8</definedName>
-    <definedName name="ws">'#system'!$Z$2:$Z$17</definedName>
-    <definedName name="ws.async">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="xml">'#system'!$AB$2:$AB$13</definedName>
-    <definedName name="macro">'#system'!$M$2:$M$4</definedName>
+    <definedName name="number">'#system'!$P$2:$P$15</definedName>
+    <definedName name="pdf">'#system'!$Q$2:$Q$16</definedName>
+    <definedName name="rdbms">'#system'!$R$2:$R$7</definedName>
+    <definedName name="redis">'#system'!$S$2:$S$10</definedName>
+    <definedName name="sms">'#system'!$T$2:$T$2</definedName>
+    <definedName name="sound">'#system'!$U$2:$U$5</definedName>
+    <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
+    <definedName name="step">'#system'!$W$2:$W$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$29</definedName>
+    <definedName name="web">'#system'!$X$2:$X$122</definedName>
+    <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
+    <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
+    <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
+    <definedName name="ws.async">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="xml">'#system'!$AC$2:$AC$13</definedName>
+    <definedName name="macro">'#system'!$N$2:$N$4</definedName>
+    <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
@@ -64,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4947" uniqueCount="519">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6432" uniqueCount="524">
   <si>
     <t>description</t>
   </si>
@@ -1622,6 +1623,21 @@
   </si>
   <si>
     <t>assertIENativeMode()</t>
+  </si>
+  <si>
+    <t>aws.sqs</t>
+  </si>
+  <si>
+    <t>deleteMessage(profile,queue,receiptHandle)</t>
+  </si>
+  <si>
+    <t>receiveMessage(profile,queue,var)</t>
+  </si>
+  <si>
+    <t>receiveMessages(profile,queue,var)</t>
+  </si>
+  <si>
+    <t>sendMessage(profile,queue,message,var)</t>
   </si>
 </sst>
 </file>
@@ -1629,7 +1645,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="152" x14ac:knownFonts="1">
+  <fonts count="200" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2592,8 +2608,311 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="246">
+  <fills count="327">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3983,8 +4302,467 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="254">
+  <borders count="338">
     <border>
       <left/>
       <right/>
@@ -6545,13 +7323,859 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="163">
+  <cellXfs count="211">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -6998,52 +8622,196 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="135" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="136" fillId="221" borderId="233" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="233" fillId="221" fontId="136" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="137" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="137" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="138" fillId="224" borderId="237" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="237" fillId="224" fontId="138" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="139" fillId="227" borderId="241" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="241" fillId="227" fontId="139" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="140" fillId="230" borderId="241" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="241" fillId="230" fontId="140" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="141" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="141" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="142" fillId="233" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="233" fontId="142" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="143" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="143" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="144" fillId="236" borderId="245" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="245" fillId="236" fontId="144" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="145" fillId="239" borderId="249" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="249" fillId="239" fontId="145" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="146" fillId="242" borderId="253" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="253" fillId="242" fontId="146" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="147" fillId="242" borderId="253" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="253" fillId="242" fontId="147" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="148" fillId="230" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="230" fontId="148" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="149" fillId="245" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="245" fontId="149" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="150" fillId="230" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="230" fontId="150" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="151" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="151" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="261" fillId="248" fontId="152" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="153" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="265" fillId="251" fontId="154" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="269" fillId="254" fontId="155" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="269" fillId="257" fontId="156" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="157" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="260" fontId="158" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="159" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="273" fillId="263" fontId="160" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="277" fillId="266" fontId="161" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="281" fillId="269" fontId="162" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="281" fillId="269" fontId="163" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="257" fontId="164" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="272" fontId="165" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="257" fontId="166" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="167" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="289" fillId="275" fontId="168" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="169" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="293" fillId="278" fontId="170" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="297" fillId="281" fontId="171" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="297" fillId="284" fontId="172" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="173" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="287" fontId="174" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="175" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="301" fillId="290" fontId="176" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="305" fillId="293" fontId="177" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="309" fillId="296" fontId="178" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="309" fillId="296" fontId="179" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="284" fontId="180" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="299" fontId="181" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="284" fontId="182" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="183" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="184" fillId="302" borderId="317" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="185" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="186" fillId="305" borderId="321" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="187" fillId="308" borderId="325" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="188" fillId="311" borderId="325" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="189" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="190" fillId="314" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="191" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="192" fillId="317" borderId="329" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="193" fillId="320" borderId="333" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="194" fillId="323" borderId="337" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="195" fillId="323" borderId="337" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="196" fillId="311" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="197" fillId="326" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="198" fillId="311" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="199" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -7341,7 +9109,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC122"/>
+  <dimension ref="A1:AD122"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125"/>
   </sheetViews>
@@ -7361,78 +9129,81 @@
         <v>497</v>
       </c>
       <c r="D1" t="s">
+        <v>519</v>
+      </c>
+      <c r="E1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>43</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>14</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>15</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>16</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>348</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>334</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>17</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>246</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>188</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>44</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>230</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>45</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>399</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>456</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>413</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>358</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>395</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>46</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>47</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>48</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>49</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>458</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>218</v>
       </c>
     </row>
@@ -7447,78 +9218,81 @@
         <v>499</v>
       </c>
       <c r="D2" t="s">
+        <v>520</v>
+      </c>
+      <c r="E2" t="s">
         <v>50</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>64</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>66</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>484</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>71</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>501</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>317</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>385</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>465</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>513</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>412</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>466</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>244</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>209</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>400</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>457</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>454</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>382</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>396</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>89</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>163</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>168</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>175</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>468</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>219</v>
       </c>
     </row>
@@ -7533,1543 +9307,1555 @@
         <v>498</v>
       </c>
       <c r="D3" t="s">
+        <v>521</v>
+      </c>
+      <c r="E3" t="s">
         <v>492</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>366</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>80</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>41</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>511</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>350</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>342</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>335</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>78</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>514</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>467</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>231</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>210</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>401</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>415</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>383</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>397</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>90</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>164</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>169</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>365</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>176</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>519</v>
       </c>
       <c r="B4" t="s">
         <v>375</v>
       </c>
       <c r="D4" t="s">
+        <v>522</v>
+      </c>
+      <c r="E4" t="s">
         <v>11</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>65</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>388</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>485</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>512</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>351</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>229</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>336</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>18</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>515</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>19</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>232</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>211</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>402</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>416</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>359</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>398</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>355</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>165</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>170</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>176</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>459</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
         <v>376</v>
       </c>
       <c r="D5" t="s">
+        <v>523</v>
+      </c>
+      <c r="E5" t="s">
         <v>493</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>474</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>337</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>490</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>352</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>495</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>79</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>23</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>233</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>212</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>403</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>417</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>360</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>356</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>166</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>171</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>177</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>460</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="B6" t="s">
         <v>377</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>20</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>389</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>486</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>349</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>64</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>22</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>24</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>234</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>392</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>404</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>362</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>91</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>480</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>172</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>178</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>461</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
         <v>378</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>215</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>367</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>482</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>12</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>317</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>26</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>235</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>414</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>405</v>
       </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>361</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>92</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>481</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>173</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>179</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>462</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
         <v>379</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>320</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>368</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>329</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>72</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>27</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>83</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>236</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>406</v>
       </c>
-      <c r="U8" t="s">
+      <c r="V8" t="s">
         <v>363</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>93</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>167</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>174</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>180</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>463</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>348</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
         <v>380</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>25</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>308</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>330</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>31</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>28</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>84</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>237</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
         <v>407</v>
       </c>
-      <c r="U9" t="s">
+      <c r="V9" t="s">
         <v>364</v>
       </c>
-      <c r="W9" t="s">
+      <c r="X9" t="s">
         <v>201</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="AA9" t="s">
         <v>181</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AC9" t="s">
         <v>509</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" t="s">
+        <v>348</v>
+      </c>
+      <c r="E10" t="s">
         <v>317</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>353</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>487</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>391</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>29</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>469</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>238</v>
       </c>
-      <c r="R10" t="s">
+      <c r="S10" t="s">
         <v>408</v>
       </c>
-      <c r="W10" t="s">
+      <c r="X10" t="s">
         <v>258</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="AA10" t="s">
         <v>182</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AC10" t="s">
         <v>510</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>334</v>
-      </c>
-      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
         <v>250</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>275</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>323</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>13</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>507</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>85</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>239</v>
       </c>
-      <c r="W11" t="s">
+      <c r="X11" t="s">
         <v>259</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="AA11" t="s">
         <v>260</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="AC11" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" t="s">
+        <v>334</v>
+      </c>
+      <c r="E12" t="s">
         <v>321</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>264</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>324</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>35</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" t="s">
         <v>476</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>34</v>
       </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
         <v>240</v>
       </c>
-      <c r="W12" t="s">
+      <c r="X12" t="s">
         <v>94</v>
       </c>
-      <c r="Z12" t="s">
+      <c r="AA12" t="s">
         <v>183</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AC12" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>246</v>
-      </c>
-      <c r="D13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" t="s">
         <v>342</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>318</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>325</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>73</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="s">
         <v>506</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>86</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
         <v>245</v>
       </c>
-      <c r="W13" t="s">
+      <c r="X13" t="s">
         <v>327</v>
       </c>
-      <c r="Z13" t="s">
+      <c r="AA13" t="s">
         <v>184</v>
       </c>
-      <c r="AB13" t="s">
+      <c r="AC13" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>188</v>
-      </c>
-      <c r="D14" t="s">
+        <v>246</v>
+      </c>
+      <c r="E14" t="s">
         <v>30</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>265</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>326</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>74</v>
       </c>
-      <c r="L14" t="s">
+      <c r="M14" t="s">
         <v>32</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>87</v>
       </c>
-      <c r="P14" t="s">
+      <c r="Q14" t="s">
         <v>241</v>
       </c>
-      <c r="W14" t="s">
+      <c r="X14" t="s">
         <v>95</v>
       </c>
-      <c r="Z14" t="s">
+      <c r="AA14" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" t="s">
+        <v>188</v>
+      </c>
+      <c r="E15" t="s">
         <v>51</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>266</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>491</v>
       </c>
-      <c r="L15" t="s">
+      <c r="M15" t="s">
         <v>33</v>
       </c>
-      <c r="O15" t="s">
+      <c r="P15" t="s">
         <v>88</v>
       </c>
-      <c r="P15" t="s">
+      <c r="Q15" t="s">
         <v>242</v>
       </c>
-      <c r="W15" t="s">
+      <c r="X15" t="s">
         <v>96</v>
       </c>
-      <c r="Z15" t="s">
+      <c r="AA15" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>230</v>
-      </c>
-      <c r="D16" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" t="s">
         <v>386</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>319</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>75</v>
       </c>
-      <c r="L16" t="s">
+      <c r="M16" t="s">
         <v>36</v>
       </c>
-      <c r="P16" t="s">
+      <c r="Q16" t="s">
         <v>243</v>
       </c>
-      <c r="W16" t="s">
+      <c r="X16" t="s">
         <v>67</v>
       </c>
-      <c r="Z16" t="s">
+      <c r="AA16" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" t="s">
+        <v>230</v>
+      </c>
+      <c r="E17" t="s">
         <v>387</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>81</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>76</v>
       </c>
-      <c r="W17" t="s">
+      <c r="X17" t="s">
         <v>97</v>
       </c>
-      <c r="Z17" t="s">
+      <c r="AA17" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>399</v>
-      </c>
-      <c r="D18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" t="s">
         <v>411</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>82</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>381</v>
       </c>
-      <c r="W18" t="s">
+      <c r="X18" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>456</v>
-      </c>
-      <c r="D19" t="s">
+        <v>399</v>
+      </c>
+      <c r="E19" t="s">
         <v>52</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>297</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>505</v>
       </c>
-      <c r="W19" t="s">
+      <c r="X19" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>413</v>
-      </c>
-      <c r="D20" t="s">
+        <v>456</v>
+      </c>
+      <c r="E20" t="s">
         <v>53</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>298</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
         <v>37</v>
       </c>
-      <c r="W20" t="s">
+      <c r="X20" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>358</v>
-      </c>
-      <c r="D21" t="s">
+        <v>413</v>
+      </c>
+      <c r="E21" t="s">
         <v>54</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>299</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
         <v>393</v>
       </c>
-      <c r="W21" t="s">
+      <c r="X21" t="s">
         <v>518</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>395</v>
-      </c>
-      <c r="D22" t="s">
+        <v>358</v>
+      </c>
+      <c r="E22" t="s">
         <v>322</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>300</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>77</v>
       </c>
-      <c r="W22" t="s">
+      <c r="X22" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>46</v>
-      </c>
-      <c r="D23" t="s">
+        <v>395</v>
+      </c>
+      <c r="E23" t="s">
         <v>55</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>291</v>
       </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
         <v>475</v>
       </c>
-      <c r="W23" t="s">
+      <c r="X23" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>47</v>
-      </c>
-      <c r="D24" t="s">
+        <v>46</v>
+      </c>
+      <c r="E24" t="s">
         <v>483</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>280</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
         <v>38</v>
       </c>
-      <c r="W24" t="s">
+      <c r="X24" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>48</v>
-      </c>
-      <c r="D25" t="s">
+        <v>47</v>
+      </c>
+      <c r="E25" t="s">
         <v>216</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>68</v>
       </c>
-      <c r="J25" t="s">
+      <c r="K25" t="s">
         <v>39</v>
       </c>
-      <c r="W25" t="s">
+      <c r="X25" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>49</v>
-      </c>
-      <c r="D26" t="s">
+        <v>48</v>
+      </c>
+      <c r="E26" t="s">
         <v>217</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>283</v>
       </c>
-      <c r="W26" t="s">
+      <c r="X26" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>458</v>
-      </c>
-      <c r="D27" t="s">
+        <v>49</v>
+      </c>
+      <c r="E27" t="s">
         <v>503</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>267</v>
       </c>
-      <c r="W27" t="s">
+      <c r="X27" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>458</v>
+      </c>
+      <c r="E28" t="s">
+        <v>504</v>
+      </c>
+      <c r="G28" t="s">
+        <v>284</v>
+      </c>
+      <c r="X28" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
         <v>218</v>
       </c>
-      <c r="D28" t="s">
-        <v>504</v>
-      </c>
-      <c r="F28" t="s">
-        <v>284</v>
-      </c>
-      <c r="W28" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>453</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>285</v>
       </c>
-      <c r="W29" t="s">
+      <c r="X29" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="30">
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>56</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>208</v>
       </c>
-      <c r="W30" t="s">
+      <c r="X30" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="31">
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>57</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>276</v>
       </c>
-      <c r="W31" t="s">
+      <c r="X31" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="32">
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>58</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>286</v>
       </c>
-      <c r="W32" t="s">
+      <c r="X32" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="33">
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>59</v>
       </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
         <v>261</v>
       </c>
-      <c r="W33" t="s">
+      <c r="X33" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="34">
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>60</v>
       </c>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
         <v>331</v>
       </c>
-      <c r="W34" t="s">
+      <c r="X34" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="35">
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>61</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
         <v>309</v>
       </c>
-      <c r="W35" t="s">
+      <c r="X35" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="36">
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>62</v>
       </c>
-      <c r="F36" t="s">
+      <c r="G36" t="s">
         <v>262</v>
       </c>
-      <c r="W36" t="s">
+      <c r="X36" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="37">
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>63</v>
       </c>
-      <c r="F37" t="s">
+      <c r="G37" t="s">
         <v>310</v>
       </c>
-      <c r="W37" t="s">
+      <c r="X37" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="38">
-      <c r="F38" t="s">
+      <c r="G38" t="s">
         <v>268</v>
       </c>
-      <c r="W38" t="s">
+      <c r="X38" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="39">
-      <c r="F39" t="s">
+      <c r="G39" t="s">
         <v>70</v>
       </c>
-      <c r="W39" t="s">
+      <c r="X39" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="40">
-      <c r="F40" t="s">
+      <c r="G40" t="s">
         <v>204</v>
       </c>
-      <c r="W40" t="s">
+      <c r="X40" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="41">
-      <c r="F41" t="s">
+      <c r="G41" t="s">
         <v>290</v>
       </c>
-      <c r="W41" t="s">
+      <c r="X41" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="42">
-      <c r="F42" t="s">
+      <c r="G42" t="s">
         <v>301</v>
       </c>
-      <c r="W42" t="s">
+      <c r="X42" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="43">
-      <c r="F43" t="s">
+      <c r="G43" t="s">
         <v>302</v>
       </c>
-      <c r="W43" t="s">
+      <c r="X43" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="44">
-      <c r="F44" t="s">
+      <c r="G44" t="s">
         <v>344</v>
       </c>
-      <c r="W44" t="s">
+      <c r="X44" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="45">
-      <c r="F45" t="s">
+      <c r="G45" t="s">
         <v>343</v>
       </c>
-      <c r="W45" t="s">
+      <c r="X45" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="46">
-      <c r="F46" t="s">
+      <c r="G46" t="s">
         <v>203</v>
       </c>
-      <c r="W46" t="s">
+      <c r="X46" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="47">
-      <c r="F47" t="s">
+      <c r="G47" t="s">
         <v>303</v>
       </c>
-      <c r="W47" t="s">
+      <c r="X47" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="48">
-      <c r="F48" t="s">
+      <c r="G48" t="s">
         <v>340</v>
       </c>
-      <c r="W48" t="s">
+      <c r="X48" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="49">
-      <c r="F49" t="s">
+      <c r="G49" t="s">
         <v>369</v>
       </c>
-      <c r="W49" t="s">
+      <c r="X49" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="50">
-      <c r="F50" t="s">
+      <c r="G50" t="s">
         <v>304</v>
       </c>
-      <c r="W50" t="s">
+      <c r="X50" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="51">
-      <c r="F51" t="s">
+      <c r="G51" t="s">
         <v>357</v>
       </c>
-      <c r="W51" t="s">
+      <c r="X51" t="s">
         <v>516</v>
       </c>
     </row>
     <row r="52">
-      <c r="F52" t="s">
+      <c r="G52" t="s">
         <v>332</v>
       </c>
-      <c r="W52" t="s">
+      <c r="X52" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="53">
-      <c r="F53" t="s">
+      <c r="G53" t="s">
         <v>269</v>
       </c>
-      <c r="W53" t="s">
+      <c r="X53" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="54">
-      <c r="F54" t="s">
+      <c r="G54" t="s">
         <v>293</v>
       </c>
-      <c r="W54" t="s">
+      <c r="X54" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="55">
-      <c r="F55" t="s">
+      <c r="G55" t="s">
         <v>294</v>
       </c>
-      <c r="W55" t="s">
+      <c r="X55" t="s">
         <v>494</v>
       </c>
     </row>
     <row r="56">
-      <c r="F56" t="s">
+      <c r="G56" t="s">
         <v>295</v>
       </c>
-      <c r="W56" t="s">
+      <c r="X56" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="57">
-      <c r="F57" t="s">
+      <c r="G57" t="s">
         <v>305</v>
       </c>
-      <c r="W57" t="s">
+      <c r="X57" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="58">
-      <c r="F58" t="s">
+      <c r="G58" t="s">
         <v>314</v>
       </c>
-      <c r="W58" t="s">
+      <c r="X58" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="59">
-      <c r="F59" t="s">
+      <c r="G59" t="s">
         <v>338</v>
       </c>
-      <c r="W59" t="s">
+      <c r="X59" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="60">
-      <c r="F60" t="s">
+      <c r="G60" t="s">
         <v>311</v>
       </c>
-      <c r="W60" t="s">
+      <c r="X60" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="61">
-      <c r="F61" t="s">
+      <c r="G61" t="s">
         <v>312</v>
       </c>
-      <c r="W61" t="s">
+      <c r="X61" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="62">
-      <c r="F62" t="s">
+      <c r="G62" t="s">
         <v>370</v>
       </c>
-      <c r="W62" t="s">
+      <c r="X62" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="63">
-      <c r="F63" t="s">
+      <c r="G63" t="s">
         <v>371</v>
       </c>
-      <c r="W63" t="s">
+      <c r="X63" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="64">
-      <c r="F64" t="s">
+      <c r="G64" t="s">
         <v>346</v>
       </c>
-      <c r="W64" t="s">
+      <c r="X64" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="65">
-      <c r="F65" t="s">
+      <c r="G65" t="s">
         <v>315</v>
       </c>
-      <c r="W65" t="s">
+      <c r="X65" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="66">
-      <c r="F66" t="s">
+      <c r="G66" t="s">
         <v>270</v>
       </c>
-      <c r="W66" t="s">
+      <c r="X66" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="67">
-      <c r="F67" t="s">
+      <c r="G67" t="s">
         <v>354</v>
       </c>
-      <c r="W67" t="s">
+      <c r="X67" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="68">
-      <c r="F68" t="s">
+      <c r="G68" t="s">
         <v>316</v>
       </c>
-      <c r="W68" t="s">
+      <c r="X68" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="69">
-      <c r="F69" t="s">
+      <c r="G69" t="s">
         <v>409</v>
       </c>
-      <c r="W69" t="s">
+      <c r="X69" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="70">
-      <c r="F70" t="s">
+      <c r="G70" t="s">
         <v>306</v>
       </c>
-      <c r="W70" t="s">
+      <c r="X70" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="71">
-      <c r="F71" t="s">
+      <c r="G71" t="s">
         <v>410</v>
       </c>
-      <c r="W71" t="s">
+      <c r="X71" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="72">
-      <c r="F72" t="s">
+      <c r="G72" t="s">
         <v>263</v>
       </c>
-      <c r="W72" t="s">
+      <c r="X72" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="73">
-      <c r="F73" t="s">
+      <c r="G73" t="s">
         <v>345</v>
       </c>
-      <c r="W73" t="s">
+      <c r="X73" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="74">
-      <c r="F74" t="s">
+      <c r="G74" t="s">
         <v>281</v>
       </c>
-      <c r="W74" t="s">
+      <c r="X74" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="75">
-      <c r="F75" t="s">
+      <c r="G75" t="s">
         <v>287</v>
       </c>
-      <c r="W75" t="s">
+      <c r="X75" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="76">
-      <c r="F76" t="s">
+      <c r="G76" t="s">
         <v>292</v>
       </c>
-      <c r="W76" t="s">
+      <c r="X76" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="77">
-      <c r="F77" t="s">
+      <c r="G77" t="s">
         <v>464</v>
       </c>
-      <c r="W77" t="s">
+      <c r="X77" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="78">
-      <c r="F78" t="s">
+      <c r="G78" t="s">
         <v>333</v>
       </c>
-      <c r="W78" t="s">
+      <c r="X78" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="79">
-      <c r="F79" t="s">
+      <c r="G79" t="s">
         <v>271</v>
       </c>
-      <c r="W79" t="s">
+      <c r="X79" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="80">
-      <c r="F80" t="s">
+      <c r="G80" t="s">
         <v>282</v>
       </c>
-      <c r="W80" t="s">
+      <c r="X80" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="81">
-      <c r="F81" t="s">
+      <c r="G81" t="s">
         <v>288</v>
       </c>
-      <c r="W81" t="s">
+      <c r="X81" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="82">
-      <c r="F82" t="s">
+      <c r="G82" t="s">
         <v>277</v>
       </c>
-      <c r="W82" t="s">
+      <c r="X82" t="s">
         <v>517</v>
       </c>
     </row>
     <row r="83">
-      <c r="F83" t="s">
+      <c r="G83" t="s">
         <v>272</v>
       </c>
-      <c r="W83" t="s">
+      <c r="X83" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="84">
-      <c r="F84" t="s">
+      <c r="G84" t="s">
         <v>289</v>
       </c>
-      <c r="W84" t="s">
+      <c r="X84" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="85">
-      <c r="F85" t="s">
+      <c r="G85" t="s">
         <v>273</v>
       </c>
-      <c r="W85" t="s">
+      <c r="X85" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="86">
-      <c r="F86" t="s">
+      <c r="G86" t="s">
         <v>274</v>
       </c>
-      <c r="W86" t="s">
+      <c r="X86" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="87">
-      <c r="F87" t="s">
+      <c r="G87" t="s">
         <v>307</v>
       </c>
-      <c r="W87" t="s">
+      <c r="X87" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="88">
-      <c r="F88" t="s">
+      <c r="G88" t="s">
         <v>313</v>
       </c>
-      <c r="W88" t="s">
+      <c r="X88" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="89">
-      <c r="F89" t="s">
+      <c r="G89" t="s">
         <v>296</v>
       </c>
-      <c r="W89" t="s">
+      <c r="X89" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="90">
-      <c r="F90" t="s">
+      <c r="G90" t="s">
         <v>341</v>
       </c>
-      <c r="W90" t="s">
+      <c r="X90" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="91">
-      <c r="F91" t="s">
+      <c r="G91" t="s">
         <v>278</v>
       </c>
-      <c r="W91" t="s">
+      <c r="X91" t="s">
         <v>472</v>
       </c>
     </row>
     <row r="92">
-      <c r="F92" t="s">
+      <c r="G92" t="s">
         <v>279</v>
       </c>
-      <c r="W92" t="s">
+      <c r="X92" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="93">
-      <c r="W93" t="s">
+      <c r="X93" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="94">
-      <c r="W94" t="s">
+      <c r="X94" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="95">
-      <c r="W95" t="s">
+      <c r="X95" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="96">
-      <c r="W96" t="s">
+      <c r="X96" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="97">
-      <c r="W97" t="s">
+      <c r="X97" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="98">
-      <c r="W98" t="s">
+      <c r="X98" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="99">
-      <c r="W99" t="s">
+      <c r="X99" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="100">
-      <c r="W100" t="s">
+      <c r="X100" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="101">
-      <c r="W101" t="s">
+      <c r="X101" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="102">
-      <c r="W102" t="s">
+      <c r="X102" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="103">
-      <c r="W103" t="s">
+      <c r="X103" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="104">
-      <c r="W104" t="s">
+      <c r="X104" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="105">
-      <c r="W105" t="s">
+      <c r="X105" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="106">
-      <c r="W106" t="s">
+      <c r="X106" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="107">
-      <c r="W107" t="s">
+      <c r="X107" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="108">
-      <c r="W108" t="s">
+      <c r="X108" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="109">
-      <c r="W109" t="s">
+      <c r="X109" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="110">
-      <c r="W110" t="s">
+      <c r="X110" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="111">
-      <c r="W111" t="s">
+      <c r="X111" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="112">
-      <c r="W112" t="s">
+      <c r="X112" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="113">
-      <c r="W113" t="s">
+      <c r="X113" t="s">
         <v>479</v>
       </c>
     </row>
     <row r="114">
-      <c r="W114" t="s">
+      <c r="X114" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="115">
-      <c r="W115" t="s">
+      <c r="X115" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="116">
-      <c r="W116" t="s">
+      <c r="X116" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="117">
-      <c r="W117" t="s">
+      <c r="X117" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="118">
-      <c r="W118" t="s">
+      <c r="X118" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="119">
-      <c r="W119" t="s">
+      <c r="X119" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="120">
-      <c r="W120" t="s">
+      <c r="X120" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="121">
-      <c r="W121" t="s">
+      <c r="X121" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="122">
-      <c r="W122" t="s">
+      <c r="X122" t="s">
         <v>162</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/base-showcase-macro.xlsx
+++ b/src/test/resources/showcase/artifact/script/base-showcase-macro.xlsx
@@ -48,7 +48,7 @@
     <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
     <definedName name="ws.async">'#system'!$AB$2:$AB$8</definedName>
-    <definedName name="xml">'#system'!$AC$2:$AC$13</definedName>
+    <definedName name="xml">'#system'!$AC$2:$AC$18</definedName>
     <definedName name="macro">'#system'!$N$2:$N$4</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
   </definedNames>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6432" uniqueCount="524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6936" uniqueCount="529">
   <si>
     <t>description</t>
   </si>
@@ -1638,6 +1638,21 @@
   </si>
   <si>
     <t>sendMessage(profile,queue,message,var)</t>
+  </si>
+  <si>
+    <t>append(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>clear(xml,xpath,var)</t>
+  </si>
+  <si>
+    <t>delete(xml,xpath,var)</t>
+  </si>
+  <si>
+    <t>prepend(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>replace(xml,xpath,content,var)</t>
   </si>
 </sst>
 </file>
@@ -1645,7 +1660,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="200" x14ac:knownFonts="1">
+  <fonts count="216" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2911,8 +2926,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="327">
+  <fills count="354">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4761,8 +4877,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="338">
+  <borders count="366">
     <border>
       <left/>
       <right/>
@@ -8169,13 +8438,295 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="211">
+  <cellXfs count="227">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -8766,52 +9317,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="183" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="184" fillId="302" borderId="317" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="317" fillId="302" fontId="184" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="185" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="185" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="186" fillId="305" borderId="321" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="321" fillId="305" fontId="186" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="187" fillId="308" borderId="325" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="325" fillId="308" fontId="187" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="188" fillId="311" borderId="325" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="325" fillId="311" fontId="188" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="189" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="189" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="190" fillId="314" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="314" fontId="190" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="191" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="191" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="192" fillId="317" borderId="329" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="329" fillId="317" fontId="192" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="193" fillId="320" borderId="333" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="333" fillId="320" fontId="193" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="194" fillId="323" borderId="337" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="337" fillId="323" fontId="194" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="195" fillId="323" borderId="337" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="337" fillId="323" fontId="195" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="196" fillId="311" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="311" fontId="196" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="197" fillId="326" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="326" fontId="197" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="198" fillId="311" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="311" fontId="198" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="199" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="199" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="200" fillId="329" borderId="345" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="201" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="202" fillId="332" borderId="349" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="203" fillId="335" borderId="353" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="204" fillId="338" borderId="353" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="205" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="206" fillId="341" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="207" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="208" fillId="344" borderId="357" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="209" fillId="347" borderId="361" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="210" fillId="350" borderId="365" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="211" fillId="350" borderId="365" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="212" fillId="338" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="213" fillId="353" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="214" fillId="338" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="215" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -9293,7 +9892,7 @@
         <v>468</v>
       </c>
       <c r="AC2" t="s">
-        <v>219</v>
+        <v>524</v>
       </c>
     </row>
     <row r="3">
@@ -9376,7 +9975,7 @@
         <v>176</v>
       </c>
       <c r="AC3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="4">
@@ -9456,7 +10055,7 @@
         <v>459</v>
       </c>
       <c r="AC4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5">
@@ -9524,7 +10123,7 @@
         <v>460</v>
       </c>
       <c r="AC5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="6">
@@ -9583,7 +10182,7 @@
         <v>461</v>
       </c>
       <c r="AC6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="7">
@@ -9639,7 +10238,7 @@
         <v>462</v>
       </c>
       <c r="AC7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="8">
@@ -9692,7 +10291,7 @@
         <v>463</v>
       </c>
       <c r="AC8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="9">
@@ -9736,7 +10335,7 @@
         <v>181</v>
       </c>
       <c r="AC9" t="s">
-        <v>509</v>
+        <v>225</v>
       </c>
     </row>
     <row r="10">
@@ -9774,7 +10373,7 @@
         <v>182</v>
       </c>
       <c r="AC10" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="11">
@@ -9809,7 +10408,7 @@
         <v>260</v>
       </c>
       <c r="AC11" t="s">
-        <v>226</v>
+        <v>525</v>
       </c>
     </row>
     <row r="12">
@@ -9844,7 +10443,7 @@
         <v>183</v>
       </c>
       <c r="AC12" t="s">
-        <v>227</v>
+        <v>526</v>
       </c>
     </row>
     <row r="13">
@@ -9879,7 +10478,7 @@
         <v>184</v>
       </c>
       <c r="AC13" t="s">
-        <v>228</v>
+        <v>510</v>
       </c>
     </row>
     <row r="14">
@@ -9913,6 +10512,9 @@
       <c r="AA14" t="s">
         <v>185</v>
       </c>
+      <c r="AC14" t="s">
+        <v>527</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -9942,6 +10544,9 @@
       <c r="AA15" t="s">
         <v>186</v>
       </c>
+      <c r="AC15" t="s">
+        <v>528</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -9968,6 +10573,9 @@
       <c r="AA16" t="s">
         <v>187</v>
       </c>
+      <c r="AC16" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -9988,6 +10596,9 @@
       <c r="AA17" t="s">
         <v>496</v>
       </c>
+      <c r="AC17" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -10004,6 +10615,9 @@
       </c>
       <c r="X18" t="s">
         <v>98</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="19">

--- a/src/test/resources/showcase/artifact/script/base-showcase-macro.xlsx
+++ b/src/test/resources/showcase/artifact/script/base-showcase-macro.xlsx
@@ -43,12 +43,12 @@
     <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
     <definedName name="step">'#system'!$W$2:$W$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$29</definedName>
-    <definedName name="web">'#system'!$X$2:$X$122</definedName>
+    <definedName name="web">'#system'!$X$2:$X$123</definedName>
     <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
     <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
     <definedName name="ws.async">'#system'!$AB$2:$AB$8</definedName>
-    <definedName name="xml">'#system'!$AC$2:$AC$18</definedName>
+    <definedName name="xml">'#system'!$AC$2:$AC$21</definedName>
     <definedName name="macro">'#system'!$N$2:$N$4</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
   </definedNames>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6936" uniqueCount="529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7444" uniqueCount="533">
   <si>
     <t>description</t>
   </si>
@@ -1653,6 +1653,18 @@
   </si>
   <si>
     <t>replace(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>rightClick(locator)</t>
+  </si>
+  <si>
+    <t>insertAfter(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>insertBefore(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>replaceIn(xml,xpath,content,var)</t>
   </si>
 </sst>
 </file>
@@ -1660,7 +1672,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="216" x14ac:knownFonts="1">
+  <fonts count="232" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3027,8 +3039,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="354">
+  <fills count="381">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5030,8 +5143,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="366">
+  <borders count="394">
     <border>
       <left/>
       <right/>
@@ -8720,13 +8986,295 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="227">
+  <cellXfs count="243">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -9365,52 +9913,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="199" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="200" fillId="329" borderId="345" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="345" fillId="329" fontId="200" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="201" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="201" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="202" fillId="332" borderId="349" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="349" fillId="332" fontId="202" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="203" fillId="335" borderId="353" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="353" fillId="335" fontId="203" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="204" fillId="338" borderId="353" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="353" fillId="338" fontId="204" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="205" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="205" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="206" fillId="341" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="341" fontId="206" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="207" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="207" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="208" fillId="344" borderId="357" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="357" fillId="344" fontId="208" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="209" fillId="347" borderId="361" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="361" fillId="347" fontId="209" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="210" fillId="350" borderId="365" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="365" fillId="350" fontId="210" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="211" fillId="350" borderId="365" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="365" fillId="350" fontId="211" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="212" fillId="338" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="338" fontId="212" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="213" fillId="353" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="353" fontId="213" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="214" fillId="338" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="338" fontId="214" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="215" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="215" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="216" fillId="356" borderId="373" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="217" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="218" fillId="359" borderId="377" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="219" fillId="362" borderId="381" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="220" fillId="365" borderId="381" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="221" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="222" fillId="368" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="223" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="224" fillId="371" borderId="385" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="225" fillId="374" borderId="389" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="226" fillId="377" borderId="393" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="227" fillId="377" borderId="393" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="228" fillId="365" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="229" fillId="380" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="230" fillId="365" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="231" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -9708,7 +10304,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD122"/>
+  <dimension ref="A1:AD123"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125"/>
   </sheetViews>
@@ -10478,7 +11074,7 @@
         <v>184</v>
       </c>
       <c r="AC13" t="s">
-        <v>510</v>
+        <v>530</v>
       </c>
     </row>
     <row r="14">
@@ -10513,7 +11109,7 @@
         <v>185</v>
       </c>
       <c r="AC14" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
     </row>
     <row r="15">
@@ -10545,7 +11141,7 @@
         <v>186</v>
       </c>
       <c r="AC15" t="s">
-        <v>528</v>
+        <v>510</v>
       </c>
     </row>
     <row r="16">
@@ -10574,7 +11170,7 @@
         <v>187</v>
       </c>
       <c r="AC16" t="s">
-        <v>226</v>
+        <v>527</v>
       </c>
     </row>
     <row r="17">
@@ -10597,7 +11193,7 @@
         <v>496</v>
       </c>
       <c r="AC17" t="s">
-        <v>227</v>
+        <v>528</v>
       </c>
     </row>
     <row r="18">
@@ -10617,7 +11213,7 @@
         <v>98</v>
       </c>
       <c r="AC18" t="s">
-        <v>228</v>
+        <v>532</v>
       </c>
     </row>
     <row r="19">
@@ -10636,6 +11232,9 @@
       <c r="X19" t="s">
         <v>99</v>
       </c>
+      <c r="AC19" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
@@ -10653,6 +11252,9 @@
       <c r="X20" t="s">
         <v>100</v>
       </c>
+      <c r="AC20" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
@@ -10670,6 +11272,9 @@
       <c r="X21" t="s">
         <v>518</v>
       </c>
+      <c r="AC21" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
@@ -11216,7 +11821,7 @@
         <v>271</v>
       </c>
       <c r="X79" t="s">
-        <v>138</v>
+        <v>529</v>
       </c>
     </row>
     <row r="80">
@@ -11224,7 +11829,7 @@
         <v>282</v>
       </c>
       <c r="X80" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="81">
@@ -11232,7 +11837,7 @@
         <v>288</v>
       </c>
       <c r="X81" t="s">
-        <v>191</v>
+        <v>139</v>
       </c>
     </row>
     <row r="82">
@@ -11240,7 +11845,7 @@
         <v>277</v>
       </c>
       <c r="X82" t="s">
-        <v>517</v>
+        <v>191</v>
       </c>
     </row>
     <row r="83">
@@ -11248,7 +11853,7 @@
         <v>272</v>
       </c>
       <c r="X83" t="s">
-        <v>192</v>
+        <v>517</v>
       </c>
     </row>
     <row r="84">
@@ -11256,7 +11861,7 @@
         <v>289</v>
       </c>
       <c r="X84" t="s">
-        <v>488</v>
+        <v>192</v>
       </c>
     </row>
     <row r="85">
@@ -11264,7 +11869,7 @@
         <v>273</v>
       </c>
       <c r="X85" t="s">
-        <v>193</v>
+        <v>488</v>
       </c>
     </row>
     <row r="86">
@@ -11272,7 +11877,7 @@
         <v>274</v>
       </c>
       <c r="X86" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="87">
@@ -11280,7 +11885,7 @@
         <v>307</v>
       </c>
       <c r="X87" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
     </row>
     <row r="88">
@@ -11288,7 +11893,7 @@
         <v>313</v>
       </c>
       <c r="X88" t="s">
-        <v>140</v>
+        <v>207</v>
       </c>
     </row>
     <row r="89">
@@ -11296,7 +11901,7 @@
         <v>296</v>
       </c>
       <c r="X89" t="s">
-        <v>195</v>
+        <v>140</v>
       </c>
     </row>
     <row r="90">
@@ -11304,7 +11909,7 @@
         <v>341</v>
       </c>
       <c r="X90" t="s">
-        <v>471</v>
+        <v>195</v>
       </c>
     </row>
     <row r="91">
@@ -11312,7 +11917,7 @@
         <v>278</v>
       </c>
       <c r="X91" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="92">
@@ -11320,156 +11925,161 @@
         <v>279</v>
       </c>
       <c r="X92" t="s">
-        <v>196</v>
+        <v>472</v>
       </c>
     </row>
     <row r="93">
       <c r="X93" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="94">
       <c r="X94" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="95">
       <c r="X95" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="96">
       <c r="X96" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
     </row>
     <row r="97">
       <c r="X97" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
     </row>
     <row r="98">
       <c r="X98" t="s">
-        <v>141</v>
+        <v>200</v>
       </c>
     </row>
     <row r="99">
       <c r="X99" t="s">
-        <v>384</v>
+        <v>141</v>
       </c>
     </row>
     <row r="100">
       <c r="X100" t="s">
-        <v>142</v>
+        <v>384</v>
       </c>
     </row>
     <row r="101">
       <c r="X101" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="102">
       <c r="X102" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="103">
       <c r="X103" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="104">
       <c r="X104" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="105">
       <c r="X105" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="106">
       <c r="X106" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="107">
       <c r="X107" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="108">
       <c r="X108" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="109">
       <c r="X109" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="110">
       <c r="X110" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="111">
       <c r="X111" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="112">
       <c r="X112" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="113">
       <c r="X113" t="s">
-        <v>479</v>
+        <v>154</v>
       </c>
     </row>
     <row r="114">
       <c r="X114" t="s">
-        <v>155</v>
+        <v>479</v>
       </c>
     </row>
     <row r="115">
       <c r="X115" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="116">
       <c r="X116" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="117">
       <c r="X117" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="118">
       <c r="X118" t="s">
-        <v>40</v>
+        <v>158</v>
       </c>
     </row>
     <row r="119">
       <c r="X119" t="s">
-        <v>159</v>
+        <v>40</v>
       </c>
     </row>
     <row r="120">
       <c r="X120" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="121">
       <c r="X121" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="122">
       <c r="X122" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="X123" t="s">
         <v>162</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/base-showcase-macro.xlsx
+++ b/src/test/resources/showcase/artifact/script/base-showcase-macro.xlsx
@@ -34,7 +34,7 @@
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$P$2:$P$15</definedName>
+    <definedName name="number">'#system'!$P$2:$P$16</definedName>
     <definedName name="pdf">'#system'!$Q$2:$Q$16</definedName>
     <definedName name="rdbms">'#system'!$R$2:$R$7</definedName>
     <definedName name="redis">'#system'!$S$2:$S$10</definedName>
@@ -43,7 +43,7 @@
     <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
     <definedName name="step">'#system'!$W$2:$W$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$29</definedName>
-    <definedName name="web">'#system'!$X$2:$X$123</definedName>
+    <definedName name="web">'#system'!$X$2:$X$124</definedName>
     <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
     <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7444" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8463" uniqueCount="536">
   <si>
     <t>description</t>
   </si>
@@ -1665,6 +1665,15 @@
   </si>
   <si>
     <t>replaceIn(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>roundTo(var,closestDigit)</t>
+  </si>
+  <si>
+    <t>whole(var)</t>
+  </si>
+  <si>
+    <t>assertElementsPresent(prefix)</t>
   </si>
 </sst>
 </file>
@@ -1672,7 +1681,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="232" x14ac:knownFonts="1">
+  <fonts count="264" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3140,8 +3149,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="381">
+  <fills count="435">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5296,8 +5507,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="394">
+  <borders count="450">
     <border>
       <left/>
       <right/>
@@ -9268,13 +9785,577 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="243">
+  <cellXfs count="275">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -9961,52 +11042,148 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="215" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="216" fillId="356" borderId="373" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="373" fillId="356" fontId="216" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="217" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="217" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="218" fillId="359" borderId="377" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="377" fillId="359" fontId="218" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="219" fillId="362" borderId="381" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="381" fillId="362" fontId="219" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="220" fillId="365" borderId="381" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="381" fillId="365" fontId="220" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="221" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="221" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="222" fillId="368" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="368" fontId="222" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="223" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="223" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="224" fillId="371" borderId="385" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="385" fillId="371" fontId="224" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="225" fillId="374" borderId="389" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="389" fillId="374" fontId="225" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="226" fillId="377" borderId="393" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="393" fillId="377" fontId="226" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="227" fillId="377" borderId="393" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="393" fillId="377" fontId="227" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="228" fillId="365" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="365" fontId="228" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="229" fillId="380" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="380" fontId="229" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="230" fillId="365" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="365" fontId="230" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="231" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="231" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="401" fillId="383" fontId="232" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="233" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" a